--- a/DATA/UKSAF/Pt4f.xlsx
+++ b/DATA/UKSAF/Pt4f.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="754" yWindow="16183" windowWidth="18515" windowHeight="13003" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Pt4f" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Experimental description" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pt4f" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Experimental description" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -386,7 +386,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>3</col>
@@ -394,20 +394,20 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5695950" cy="4048125"/>
+    <ext cx="5676900" cy="4114800"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -902,22 +902,22 @@
         <v>0.820997</v>
       </c>
       <c r="F2" t="n">
-        <v>89.99000000000001</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>-21.63074790087921</v>
+        <v>-33.01593723046176</v>
       </c>
       <c r="H2" t="n">
-        <v>663.0584521015303</v>
+        <v>663.0599999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>684.6892000024095</v>
+        <v>696.0759372304617</v>
       </c>
       <c r="J2" t="n">
-        <v>663.0584521015303</v>
+        <v>679.1895888679206</v>
       </c>
       <c r="K2" t="n">
-        <v>663.0584521015303</v>
+        <v>679.946348362541</v>
       </c>
       <c r="X2" s="16" t="inlineStr">
         <is>
@@ -931,59 +931,59 @@
       </c>
       <c r="Z2" s="17" t="inlineStr">
         <is>
-          <t>71.07</t>
+          <t>71.08</t>
         </is>
       </c>
       <c r="AA2" s="17" t="inlineStr">
         <is>
-          <t>5034</t>
+          <t>5109</t>
         </is>
       </c>
       <c r="AB2" s="17" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AC2" s="17" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="AD2" s="17" t="inlineStr">
         <is>
-          <t>7593</t>
+          <t>7898</t>
         </is>
       </c>
       <c r="AE2" s="17" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="AF2" s="17" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="AG2" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" s="17" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="AI2" s="17" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="AJ2" s="17" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AH2" s="17" t="inlineStr">
-        <is>
-          <t>57.2</t>
-        </is>
-      </c>
-      <c r="AI2" s="17" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="AJ2" s="17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="AK2" s="17" t="inlineStr">
         <is>
           <t>LA (Area, σ/γ, γ)</t>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="AO2" s="17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AP2" s="18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
         <v>0.820943</v>
       </c>
       <c r="F3" t="n">
-        <v>89.8900000000001</v>
+        <v>89.89</v>
       </c>
       <c r="G3" t="n">
-        <v>-21.86083864324007</v>
+        <v>-33.33182054374345</v>
       </c>
       <c r="H3" t="n">
-        <v>719.3057252452363</v>
+        <v>719.3099999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>741.1665638884764</v>
+        <v>752.6418205437434</v>
       </c>
       <c r="J3" t="n">
-        <v>673.5180738541789</v>
+        <v>735.5786174802082</v>
       </c>
       <c r="K3" t="n">
-        <v>674.2295782497609</v>
+        <v>736.3732030635351</v>
       </c>
       <c r="X3" s="19" t="inlineStr"/>
       <c r="Y3" s="20" t="inlineStr"/>
@@ -1055,35 +1055,39 @@
       </c>
       <c r="AA3" s="20" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" s="20" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AC3" s="20" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="AD3" s="20" t="inlineStr">
+        <is>
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AB3" s="20" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AC3" s="20" t="inlineStr">
-        <is>
-          <t>25.0:75.0</t>
-        </is>
-      </c>
-      <c r="AD3" s="20" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
       <c r="AE3" s="20" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" s="20" t="inlineStr">
+        <is>
           <t>0.01:10</t>
         </is>
       </c>
-      <c r="AF3" s="20" t="inlineStr">
-        <is>
-          <t>0.01:10</t>
-        </is>
-      </c>
-      <c r="AG3" s="20" t="inlineStr"/>
+      <c r="AG3" s="20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AH3" s="20" t="inlineStr"/>
       <c r="AI3" s="20" t="inlineStr"/>
       <c r="AJ3" s="20" t="inlineStr"/>
@@ -1108,22 +1112,22 @@
         <v>0.82089</v>
       </c>
       <c r="F4" t="n">
-        <v>89.78999999999996</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-22.09479356403403</v>
+        <v>-33.65266532438864</v>
       </c>
       <c r="H4" t="n">
-        <v>655.6335197164053</v>
+        <v>655.63</v>
       </c>
       <c r="I4" t="n">
-        <v>677.7283132804394</v>
+        <v>689.2826653243886</v>
       </c>
       <c r="J4" t="n">
-        <v>729.8654926558628</v>
+        <v>672.0395939090954</v>
       </c>
       <c r="K4" t="n">
-        <v>730.6067964778499</v>
+        <v>672.8730714152932</v>
       </c>
       <c r="X4" s="16" t="inlineStr">
         <is>
@@ -1137,52 +1141,52 @@
       </c>
       <c r="Z4" s="17" t="inlineStr">
         <is>
-          <t>74.40</t>
+          <t>74.41</t>
         </is>
       </c>
       <c r="AA4" s="17" t="inlineStr">
         <is>
-          <t>3796</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="AB4" s="17" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AC4" s="17" t="inlineStr">
         <is>
-          <t>27.87</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="AD4" s="17" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="AE4" s="17" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="AF4" s="17" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="AG4" s="17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" s="17" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="AI4" s="17" t="inlineStr">
         <is>
-          <t>74.9</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="AJ4" s="17" t="inlineStr">
@@ -1212,12 +1216,12 @@
       </c>
       <c r="AO4" s="17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AP4" s="18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -1235,22 +1239,22 @@
         <v>0.820836</v>
       </c>
       <c r="F5" t="n">
-        <v>89.69000000000005</v>
+        <v>89.69</v>
       </c>
       <c r="G5" t="n">
-        <v>-22.33270203871905</v>
+        <v>-33.97858085155576</v>
       </c>
       <c r="H5" t="n">
-        <v>696.1938803853632</v>
+        <v>696.1900000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>718.5265824240822</v>
+        <v>730.1685808515558</v>
       </c>
       <c r="J5" t="n">
-        <v>666.2949317200456</v>
+        <v>712.7425560499347</v>
       </c>
       <c r="K5" t="n">
-        <v>667.0669012767991</v>
+        <v>713.6160248016212</v>
       </c>
       <c r="X5" s="19" t="inlineStr"/>
       <c r="Y5" s="20" t="inlineStr"/>
@@ -1261,37 +1265,37 @@
       </c>
       <c r="AA5" s="20" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" s="20" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AC5" s="20" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AD5" s="20" t="inlineStr">
+        <is>
           <t>A*0.75#0.05</t>
         </is>
       </c>
-      <c r="AB5" s="20" t="inlineStr">
+      <c r="AE5" s="20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF5" s="20" t="inlineStr">
         <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AC5" s="20" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AD5" s="20" t="inlineStr">
-        <is>
-          <t>A*0.75#0.05</t>
-        </is>
-      </c>
-      <c r="AE5" s="20" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AF5" s="20" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
       <c r="AG5" s="20" t="inlineStr">
         <is>
-          <t>A*1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" s="20" t="inlineStr"/>
@@ -1318,22 +1322,22 @@
         <v>0.820783</v>
       </c>
       <c r="F6" t="n">
-        <v>89.58999999999992</v>
+        <v>89.59</v>
       </c>
       <c r="G6" t="n">
-        <v>-22.57465609173653</v>
+        <v>-34.3096795211909</v>
       </c>
       <c r="H6" t="n">
-        <v>727.9634202950109</v>
+        <v>727.96</v>
       </c>
       <c r="I6" t="n">
-        <v>750.5380763867474</v>
+        <v>762.2696795211909</v>
       </c>
       <c r="J6" t="n">
-        <v>706.9584665167837</v>
+        <v>744.6575427437801</v>
       </c>
       <c r="K6" t="n">
-        <v>707.7619962926617</v>
+        <v>745.5721367774108</v>
       </c>
     </row>
     <row r="7">
@@ -1350,22 +1354,22 @@
         <v>0.820729</v>
       </c>
       <c r="F7" t="n">
-        <v>89.49000000000001</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-22.82075049270679</v>
+        <v>-34.64607695569907</v>
       </c>
       <c r="H7" t="n">
-        <v>719.0802323300383</v>
+        <v>719.08</v>
       </c>
       <c r="I7" t="n">
-        <v>741.900982822745</v>
+        <v>753.7260769556991</v>
       </c>
       <c r="J7" t="n">
-        <v>738.8327414817182</v>
+        <v>735.9245938062421</v>
       </c>
       <c r="K7" t="n">
-        <v>739.6687552000401</v>
+        <v>736.881483149457</v>
       </c>
     </row>
     <row r="8">
@@ -1382,22 +1386,22 @@
         <v>0.820676</v>
       </c>
       <c r="F8" t="n">
-        <v>89.3900000000001</v>
+        <v>89.39</v>
       </c>
       <c r="G8" t="n">
-        <v>-23.07108285678385</v>
+        <v>-34.98789211822429</v>
       </c>
       <c r="H8" t="n">
-        <v>687.2760992157685</v>
+        <v>687.28</v>
       </c>
       <c r="I8" t="n">
-        <v>710.3471820725523</v>
+        <v>722.2678921182243</v>
       </c>
       <c r="J8" t="n">
-        <v>730.0558817102451</v>
+        <v>704.2737500573854</v>
       </c>
       <c r="K8" t="n">
-        <v>730.9253334425382</v>
+        <v>705.2741420608388</v>
       </c>
     </row>
     <row r="9">
@@ -1414,22 +1418,22 @@
         <v>0.820622</v>
       </c>
       <c r="F9" t="n">
-        <v>89.28999999999996</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>-23.32575374936471</v>
+        <v>-35.33524743176201</v>
       </c>
       <c r="H9" t="n">
-        <v>702.4647157887554</v>
+        <v>702.46</v>
       </c>
       <c r="I9" t="n">
-        <v>725.7904695381201</v>
+        <v>737.795247431762</v>
       </c>
       <c r="J9" t="n">
-        <v>698.3597029822437</v>
+        <v>719.6050533527123</v>
       </c>
       <c r="K9" t="n">
-        <v>699.2635783060771</v>
+        <v>720.6501940790498</v>
       </c>
     </row>
     <row r="10">
@@ -1446,22 +1450,22 @@
         <v>0.820568</v>
       </c>
       <c r="F10" t="n">
-        <v>89.19000000000005</v>
+        <v>89.19</v>
       </c>
       <c r="G10" t="n">
-        <v>-23.58486679537623</v>
+        <v>-35.68826890334435</v>
       </c>
       <c r="H10" t="n">
-        <v>713.1925690497313</v>
+        <v>713.1900000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>736.7774358451076</v>
+        <v>748.8782689033444</v>
       </c>
       <c r="J10" t="n">
-        <v>713.6579340595225</v>
+        <v>730.4885466152774</v>
       </c>
       <c r="K10" t="n">
-        <v>714.5972512673529</v>
+        <v>731.579722288067</v>
       </c>
     </row>
     <row r="11">
@@ -1478,22 +1482,22 @@
         <v>0.820515</v>
       </c>
       <c r="F11" t="n">
-        <v>89.08999999999992</v>
+        <v>89.09</v>
       </c>
       <c r="G11" t="n">
-        <v>-23.84852879338086</v>
+        <v>-36.04708625354897</v>
       </c>
       <c r="H11" t="n">
-        <v>682.7760613760869</v>
+        <v>682.78</v>
       </c>
       <c r="I11" t="n">
-        <v>706.6245901694678</v>
+        <v>718.8270862535489</v>
       </c>
       <c r="J11" t="n">
-        <v>724.4970967666203</v>
+        <v>700.234273868983</v>
       </c>
       <c r="K11" t="n">
-        <v>725.4729081282186</v>
+        <v>701.3728123845659</v>
       </c>
     </row>
     <row r="12">
@@ -1510,22 +1514,22 @@
         <v>0.820461</v>
       </c>
       <c r="F12" t="n">
-        <v>88.99000000000001</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-24.11684983473208</v>
+        <v>-36.41183305159768</v>
       </c>
       <c r="H12" t="n">
-        <v>676.3782800157472</v>
+        <v>676.38</v>
       </c>
       <c r="I12" t="n">
-        <v>700.4951298504793</v>
+        <v>712.7918330515977</v>
       </c>
       <c r="J12" t="n">
-        <v>694.193629232193</v>
+        <v>693.9922802731026</v>
       </c>
       <c r="K12" t="n">
-        <v>695.2070223133617</v>
+        <v>695.1795527784952</v>
       </c>
     </row>
     <row r="13">
@@ -1542,22 +1546,22 @@
         <v>0.820408</v>
       </c>
       <c r="F13" t="n">
-        <v>88.8900000000001</v>
+        <v>88.89</v>
       </c>
       <c r="G13" t="n">
-        <v>-24.38994342805586</v>
+        <v>-36.78264685632701</v>
       </c>
       <c r="H13" t="n">
-        <v>690.925734512584</v>
+        <v>690.9299999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>715.3156779406398</v>
+        <v>727.712646856327</v>
       </c>
       <c r="J13" t="n">
-        <v>687.9106554128887</v>
+        <v>708.7026121580867</v>
       </c>
       <c r="K13" t="n">
-        <v>688.9627544533379</v>
+        <v>709.9400346982402</v>
       </c>
     </row>
     <row r="14">
@@ -1574,22 +1578,22 @@
         <v>0.820354</v>
       </c>
       <c r="F14" t="n">
-        <v>88.78999999999996</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>-24.66792662932278</v>
+        <v>-37.15966936332734</v>
       </c>
       <c r="H14" t="n">
-        <v>661.9946998490896</v>
+        <v>661.99</v>
       </c>
       <c r="I14" t="n">
-        <v>686.6626264784123</v>
+        <v>699.1496693633273</v>
       </c>
       <c r="J14" t="n">
-        <v>702.5747225499055</v>
+        <v>679.925317062707</v>
       </c>
       <c r="K14" t="n">
-        <v>703.6666899033183</v>
+        <v>681.2143523006205</v>
       </c>
     </row>
     <row r="15">
@@ -1606,22 +1610,22 @@
         <v>0.8203009999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>88.69000000000005</v>
+        <v>88.69</v>
       </c>
       <c r="G15" t="n">
-        <v>-24.95092017780553</v>
+        <v>-37.54304655856731</v>
       </c>
       <c r="H15" t="n">
-        <v>696.1359305913319</v>
+        <v>696.14</v>
       </c>
       <c r="I15" t="n">
-        <v>721.0868507691374</v>
+        <v>733.6830465585673</v>
       </c>
       <c r="J15" t="n">
-        <v>673.7621443440038</v>
+        <v>714.2404437725936</v>
       </c>
       <c r="K15" t="n">
-        <v>674.8951819834981</v>
+        <v>715.5826027859737</v>
       </c>
     </row>
     <row r="16">
@@ -1638,22 +1642,22 @@
         <v>0.8202469999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>88.58999999999992</v>
+        <v>88.59</v>
       </c>
       <c r="G16" t="n">
-        <v>-25.23904863823998</v>
+        <v>-37.93292887883445</v>
       </c>
       <c r="H16" t="n">
-        <v>681.1692087871093</v>
+        <v>681.17</v>
       </c>
       <c r="I16" t="n">
-        <v>706.4082574253492</v>
+        <v>719.1029288788344</v>
       </c>
       <c r="J16" t="n">
-        <v>708.0237151340448</v>
+        <v>699.4380423602297</v>
       </c>
       <c r="K16" t="n">
-        <v>709.1990662264245</v>
+        <v>700.8348865186047</v>
       </c>
     </row>
     <row r="17">
@@ -1670,22 +1674,22 @@
         <v>0.820194</v>
       </c>
       <c r="F17" t="n">
-        <v>88.49000000000001</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>-25.53244054950142</v>
+        <v>-38.3294713793473</v>
       </c>
       <c r="H17" t="n">
-        <v>684.8916232013402</v>
+        <v>684.89</v>
       </c>
       <c r="I17" t="n">
-        <v>710.4240637508416</v>
+        <v>723.2194713793473</v>
       </c>
       <c r="J17" t="n">
-        <v>693.1792578300344</v>
+        <v>703.328164226464</v>
       </c>
       <c r="K17" t="n">
-        <v>694.3982083824241</v>
+        <v>704.7813071528833</v>
       </c>
     </row>
     <row r="18">
@@ -1702,22 +1706,22 @@
         <v>0.82014</v>
       </c>
       <c r="F18" t="n">
-        <v>88.3900000000001</v>
+        <v>88.39</v>
       </c>
       <c r="G18" t="n">
-        <v>-25.83122858016498</v>
+        <v>-38.73283390891265</v>
       </c>
       <c r="H18" t="n">
-        <v>676.6966615455898</v>
+        <v>676.7</v>
       </c>
       <c r="I18" t="n">
-        <v>702.5278901257548</v>
+        <v>715.4328339089127</v>
       </c>
       <c r="J18" t="n">
-        <v>697.0259031847584</v>
+        <v>695.3108621436101</v>
       </c>
       <c r="K18" t="n">
-        <v>698.2897837674234</v>
+        <v>696.8219717653027</v>
       </c>
     </row>
     <row r="19">
@@ -1734,22 +1738,22 @@
         <v>0.820087</v>
       </c>
       <c r="F19" t="n">
-        <v>88.28999999999996</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-26.13554969129996</v>
+        <v>-39.14318129302205</v>
       </c>
       <c r="H19" t="n">
-        <v>716.5934833743249</v>
+        <v>716.59</v>
       </c>
       <c r="I19" t="n">
-        <v>742.7290330656249</v>
+        <v>755.7331812930221</v>
       </c>
       <c r="J19" t="n">
-        <v>688.9571820609799</v>
+        <v>735.376190300201</v>
       </c>
       <c r="K19" t="n">
-        <v>690.2673696103647</v>
+        <v>736.9469909928212</v>
       </c>
     </row>
     <row r="20">
@@ -1766,22 +1770,22 @@
         <v>0.820033</v>
       </c>
       <c r="F20" t="n">
-        <v>88.19000000000005</v>
+        <v>88.19</v>
       </c>
       <c r="G20" t="n">
-        <v>-26.44554530690107</v>
+        <v>-39.56068352531145</v>
       </c>
       <c r="H20" t="n">
-        <v>700.3413277270548</v>
+        <v>700.34</v>
       </c>
       <c r="I20" t="n">
-        <v>726.7868730339559</v>
+        <v>739.9006835253115</v>
       </c>
       <c r="J20" t="n">
-        <v>728.9822983668478</v>
+        <v>719.3042043474745</v>
       </c>
       <c r="K20" t="n">
-        <v>730.3402180731021</v>
+        <v>720.936479177837</v>
       </c>
     </row>
     <row r="21">
@@ -1798,22 +1802,22 @@
         <v>0.81998</v>
       </c>
       <c r="F21" t="n">
-        <v>88.08999999999992</v>
+        <v>88.09</v>
       </c>
       <c r="G21" t="n">
-        <v>-26.76136149237743</v>
+        <v>-39.98551596782659</v>
       </c>
       <c r="H21" t="n">
-        <v>696.3023488377764</v>
+        <v>696.3</v>
       </c>
       <c r="I21" t="n">
-        <v>723.0637103301539</v>
+        <v>736.2855159678265</v>
       </c>
       <c r="J21" t="n">
-        <v>712.8605367387449</v>
+        <v>715.4449614476648</v>
       </c>
       <c r="K21" t="n">
-        <v>714.2676640222658</v>
+        <v>717.1405545201617</v>
       </c>
     </row>
     <row r="22">
@@ -1830,22 +1834,22 @@
         <v>0.819927</v>
       </c>
       <c r="F22" t="n">
-        <v>87.99000000000001</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-27.08314914152345</v>
+        <v>-40.41785956056913</v>
       </c>
       <c r="H22" t="n">
-        <v>649.7993114021127</v>
+        <v>649.8</v>
       </c>
       <c r="I22" t="n">
-        <v>676.8824605436362</v>
+        <v>690.2178595605691</v>
       </c>
       <c r="J22" t="n">
-        <v>708.9540982930683</v>
+        <v>669.1285203241833</v>
       </c>
       <c r="K22" t="n">
-        <v>710.411960874862</v>
+        <v>670.8893392363857</v>
       </c>
     </row>
     <row r="23">
@@ -1862,22 +1866,22 @@
         <v>0.819873</v>
       </c>
       <c r="F23" t="n">
-        <v>87.8900000000001</v>
+        <v>87.89</v>
       </c>
       <c r="G23" t="n">
-        <v>-27.41106417246658</v>
+        <v>-40.85790104082366</v>
       </c>
       <c r="H23" t="n">
-        <v>662.5318799375026</v>
+        <v>662.53</v>
       </c>
       <c r="I23" t="n">
-        <v>689.9429441099692</v>
+        <v>703.3879010408236</v>
       </c>
       <c r="J23" t="n">
-        <v>662.5857959373958</v>
+        <v>682.044941313772</v>
       </c>
       <c r="K23" t="n">
-        <v>664.0959760083531</v>
+        <v>683.8729597270516</v>
       </c>
     </row>
     <row r="24">
@@ -1894,22 +1898,22 @@
         <v>0.81982</v>
       </c>
       <c r="F24" t="n">
-        <v>87.78999999999996</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-27.74526773306923</v>
+        <v>-41.30583317280116</v>
       </c>
       <c r="H24" t="n">
-        <v>655.9805811031689</v>
+        <v>655.98</v>
       </c>
       <c r="I24" t="n">
-        <v>683.7258488362381</v>
+        <v>697.2858331728012</v>
       </c>
       <c r="J24" t="n">
-        <v>675.4553437764886</v>
+        <v>675.6842864207223</v>
       </c>
       <c r="K24" t="n">
-        <v>677.0194802709832</v>
+        <v>677.5815467520789</v>
       </c>
     </row>
     <row r="25">
@@ -1926,22 +1930,22 @@
         <v>0.819766</v>
       </c>
       <c r="F25" t="n">
-        <v>87.69000000000005</v>
+        <v>87.69</v>
       </c>
       <c r="G25" t="n">
-        <v>-28.08592641632868</v>
+        <v>-41.76185498816335</v>
       </c>
       <c r="H25" t="n">
-        <v>658.3329877062479</v>
+        <v>658.33</v>
       </c>
       <c r="I25" t="n">
-        <v>686.4189141225766</v>
+        <v>700.0918549881634</v>
       </c>
       <c r="J25" t="n">
-        <v>669.0433194799276</v>
+        <v>678.2266193732509</v>
       </c>
       <c r="K25" t="n">
-        <v>670.6631104594794</v>
+        <v>680.1952356149126</v>
       </c>
     </row>
     <row r="26">
@@ -1958,22 +1962,22 @@
         <v>0.819713</v>
       </c>
       <c r="F26" t="n">
-        <v>87.58999999999992</v>
+        <v>87.59</v>
       </c>
       <c r="G26" t="n">
-        <v>-28.43321248634413</v>
+        <v>-42.22617203803077</v>
       </c>
       <c r="H26" t="n">
-        <v>663.4370810271399</v>
+        <v>663.4400000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>691.8702935134841</v>
+        <v>705.6661720380308</v>
       </c>
       <c r="J26" t="n">
-        <v>671.5373483378607</v>
+        <v>683.532005682134</v>
       </c>
       <c r="K26" t="n">
-        <v>673.2145534909637</v>
+        <v>685.5741663558969</v>
       </c>
     </row>
     <row r="27">
@@ -1990,22 +1994,22 @@
         <v>0.819659</v>
       </c>
       <c r="F27" t="n">
-        <v>87.49000000000001</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-28.78730411543768</v>
+        <v>-42.6989966571166</v>
       </c>
       <c r="H27" t="n">
-        <v>673.6252514765287</v>
+        <v>673.63</v>
       </c>
       <c r="I27" t="n">
-        <v>702.4125555919663</v>
+        <v>716.3289966571166</v>
       </c>
       <c r="J27" t="n">
-        <v>676.7854656380129</v>
+        <v>693.920512701704</v>
       </c>
       <c r="K27" t="n">
-        <v>678.5219089026111</v>
+        <v>696.0384839554126</v>
       </c>
     </row>
     <row r="28">
@@ -2022,22 +2026,22 @@
         <v>0.8196059999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>87.3900000000001</v>
+        <v>87.39</v>
       </c>
       <c r="G28" t="n">
-        <v>-29.14838563309286</v>
+        <v>-43.18054824066451</v>
       </c>
       <c r="H28" t="n">
-        <v>714.4969656151859</v>
+        <v>714.5</v>
       </c>
       <c r="I28" t="n">
-        <v>743.6453512482788</v>
+        <v>757.6805482406645</v>
       </c>
       <c r="J28" t="n">
-        <v>687.1201173764962</v>
+        <v>734.992209693318</v>
       </c>
       <c r="K28" t="n">
-        <v>688.9176896919988</v>
+        <v>737.1883385473465</v>
       </c>
     </row>
     <row r="29">
@@ -2054,22 +2058,22 @@
         <v>0.819553</v>
       </c>
       <c r="F29" t="n">
-        <v>87.28999999999996</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>-29.5166477873754</v>
+        <v>-43.67105353491888</v>
       </c>
       <c r="H29" t="n">
-        <v>672.6581441346685</v>
+        <v>672.66</v>
       </c>
       <c r="I29" t="n">
-        <v>702.1747919220439</v>
+        <v>716.3310535349189</v>
       </c>
       <c r="J29" t="n">
-        <v>728.1408273336498</v>
+        <v>693.3571678914163</v>
       </c>
       <c r="K29" t="n">
-        <v>730.0014895298149</v>
+        <v>695.6338856435025</v>
       </c>
     </row>
     <row r="30">
@@ -2086,22 +2090,22 @@
         <v>0.819499</v>
       </c>
       <c r="F30" t="n">
-        <v>87.19000000000005</v>
+        <v>87.19</v>
       </c>
       <c r="G30" t="n">
-        <v>-29.89228801957461</v>
+        <v>-44.1707469418983</v>
       </c>
       <c r="H30" t="n">
-        <v>652.3851767970431</v>
+        <v>652.39</v>
       </c>
       <c r="I30" t="n">
-        <v>682.2774648166177</v>
+        <v>696.5607469418983</v>
       </c>
       <c r="J30" t="n">
-        <v>686.4535751131129</v>
+        <v>673.2954605722903</v>
       </c>
       <c r="K30" t="n">
-        <v>688.3793609435995</v>
+        <v>675.655286369608</v>
       </c>
     </row>
     <row r="31">
@@ -2118,22 +2122,22 @@
         <v>0.819446</v>
       </c>
       <c r="F31" t="n">
-        <v>87.08999999999992</v>
+        <v>87.09</v>
       </c>
       <c r="G31" t="n">
-        <v>-30.2755107528493</v>
+        <v>-44.67987083929506</v>
       </c>
       <c r="H31" t="n">
-        <v>682.0034511120928</v>
+        <v>682</v>
       </c>
       <c r="I31" t="n">
-        <v>712.2789618649421</v>
+        <v>726.6798708392951</v>
       </c>
       <c r="J31" t="n">
-        <v>666.3348111423858</v>
+        <v>703.1171631256907</v>
       </c>
       <c r="K31" t="n">
-        <v>668.327830471275</v>
+        <v>705.5627077136044</v>
       </c>
     </row>
     <row r="32">
@@ -2150,22 +2154,22 @@
         <v>0.819392</v>
       </c>
       <c r="F32" t="n">
-        <v>86.99000000000001</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-30.66652769569168</v>
+        <v>-45.19867591637933</v>
       </c>
       <c r="H32" t="n">
-        <v>646.3145844723894</v>
+        <v>646.3099999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>676.981112168081</v>
+        <v>691.5086759163793</v>
       </c>
       <c r="J32" t="n">
-        <v>696.1099854134529</v>
+        <v>667.6423531294116</v>
       </c>
       <c r="K32" t="n">
-        <v>698.1724275635819</v>
+        <v>670.1763227869676</v>
       </c>
     </row>
     <row r="33">
@@ -2182,22 +2186,22 @@
         <v>0.819339</v>
       </c>
       <c r="F33" t="n">
-        <v>86.8900000000001</v>
+        <v>86.89</v>
       </c>
       <c r="G33" t="n">
-        <v>-31.0655581611187</v>
+        <v>-45.72742152684282</v>
       </c>
       <c r="H33" t="n">
-        <v>632.4952187067868</v>
+        <v>632.5</v>
       </c>
       <c r="I33" t="n">
-        <v>663.5607768679055</v>
+        <v>678.2274215268428</v>
       </c>
       <c r="J33" t="n">
-        <v>660.5807796839723</v>
+        <v>654.0511104269926</v>
       </c>
       <c r="K33" t="n">
-        <v>662.7149169564981</v>
+        <v>656.6763110998502</v>
       </c>
     </row>
     <row r="34">
@@ -2214,22 +2218,22 @@
         <v>0.819286</v>
       </c>
       <c r="F34" t="n">
-        <v>86.78999999999996</v>
+        <v>86.79000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-31.47282940251853</v>
+        <v>-46.26637605958069</v>
       </c>
       <c r="H34" t="n">
-        <v>666.8001161987389</v>
+        <v>666.8</v>
       </c>
       <c r="I34" t="n">
-        <v>698.2729456012574</v>
+        <v>713.0663760595806</v>
       </c>
       <c r="J34" t="n">
-        <v>646.9239020997286</v>
+        <v>688.5735172086897</v>
       </c>
       <c r="K34" t="n">
-        <v>649.1320934749637</v>
+        <v>691.2928588508909</v>
       </c>
     </row>
     <row r="35">
@@ -2246,22 +2250,22 @@
         <v>0.819232</v>
       </c>
       <c r="F35" t="n">
-        <v>86.69000000000005</v>
+        <v>86.69</v>
       </c>
       <c r="G35" t="n">
-        <v>-31.88857696717241</v>
+        <v>-46.81581732847803</v>
       </c>
       <c r="H35" t="n">
-        <v>746.9337135268154</v>
+        <v>746.9299999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>778.8222904939878</v>
+        <v>793.745817328478</v>
       </c>
       <c r="J35" t="n">
-        <v>681.3941833848843</v>
+        <v>768.9296580958772</v>
       </c>
       <c r="K35" t="n">
-        <v>683.6788784151121</v>
+        <v>771.7461592326007</v>
       </c>
     </row>
     <row r="36">
@@ -2278,22 +2282,22 @@
         <v>0.819179</v>
       </c>
       <c r="F36" t="n">
-        <v>86.58999999999992</v>
+        <v>86.59</v>
       </c>
       <c r="G36" t="n">
-        <v>-32.31304506854769</v>
+        <v>-47.37603298233853</v>
       </c>
       <c r="H36" t="n">
-        <v>650.4365956646838</v>
+        <v>650.4400000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>682.7496407332314</v>
+        <v>697.8160329823386</v>
       </c>
       <c r="J36" t="n">
-        <v>761.6961305575556</v>
+        <v>672.6696202290439</v>
       </c>
       <c r="K36" t="n">
-        <v>764.0598734632475</v>
+        <v>675.5864127532948</v>
       </c>
     </row>
     <row r="37">
@@ -2310,22 +2314,22 @@
         <v>0.819126</v>
       </c>
       <c r="F37" t="n">
-        <v>86.49000000000001</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-32.7464869784942</v>
+        <v>-47.94732093617461</v>
       </c>
       <c r="H37" t="n">
-        <v>674.8973906334312</v>
+        <v>674.9</v>
       </c>
       <c r="I37" t="n">
-        <v>707.6438776119254</v>
+        <v>722.8473209361746</v>
       </c>
       <c r="J37" t="n">
-        <v>665.3704012081424</v>
+        <v>697.3634933595648</v>
       </c>
       <c r="K37" t="n">
-        <v>667.8158351897728</v>
+        <v>700.3838275766097</v>
       </c>
     </row>
     <row r="38">
@@ -2342,22 +2346,22 @@
         <v>0.819072</v>
       </c>
       <c r="F38" t="n">
-        <v>86.3900000000001</v>
+        <v>86.39</v>
       </c>
       <c r="G38" t="n">
-        <v>-33.18916544061778</v>
+        <v>-48.52998982515885</v>
       </c>
       <c r="H38" t="n">
-        <v>673.8540689951554</v>
+        <v>673.85</v>
       </c>
       <c r="I38" t="n">
-        <v>707.0432344357732</v>
+        <v>722.3799898251589</v>
       </c>
       <c r="J38" t="n">
-        <v>690.0056982334395</v>
+        <v>696.5513699454369</v>
       </c>
       <c r="K38" t="n">
-        <v>692.5355700119171</v>
+        <v>699.678619879722</v>
       </c>
     </row>
     <row r="39">
@@ -2374,22 +2378,22 @@
         <v>0.8190190000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>86.28999999999996</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>-33.64135310613494</v>
+        <v>-49.12435948262942</v>
       </c>
       <c r="H39" t="n">
-        <v>659.8723594934916</v>
+        <v>659.87</v>
       </c>
       <c r="I39" t="n">
-        <v>693.5137125996265</v>
+        <v>708.9943594826294</v>
       </c>
       <c r="J39" t="n">
-        <v>689.1400694156476</v>
+        <v>682.8133452511706</v>
       </c>
       <c r="K39" t="n">
-        <v>691.757234015281</v>
+        <v>686.0510142314588</v>
       </c>
     </row>
     <row r="40">
@@ -2406,22 +2410,22 @@
         <v>0.818966</v>
       </c>
       <c r="F40" t="n">
-        <v>86.19000000000005</v>
+        <v>86.19</v>
       </c>
       <c r="G40" t="n">
-        <v>-34.10333299364413</v>
+        <v>-49.7307614436412</v>
       </c>
       <c r="H40" t="n">
-        <v>716.8405037571767</v>
+        <v>716.84</v>
       </c>
       <c r="I40" t="n">
-        <v>750.9438367508209</v>
+        <v>766.5707614436412</v>
       </c>
       <c r="J40" t="n">
-        <v>675.339323152126</v>
+        <v>740.0295174520544</v>
       </c>
       <c r="K40" t="n">
-        <v>678.0467489409921</v>
+        <v>743.3812439915869</v>
       </c>
     </row>
     <row r="41">
@@ -2438,22 +2442,22 @@
         <v>0.818912</v>
       </c>
       <c r="F41" t="n">
-        <v>86.08999999999992</v>
+        <v>86.09</v>
       </c>
       <c r="G41" t="n">
-        <v>-34.5753989743547</v>
+        <v>-50.34953947565839</v>
       </c>
       <c r="H41" t="n">
-        <v>665.6808057520223</v>
+        <v>665.6799999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>700.256204726377</v>
+        <v>716.0295394756583</v>
       </c>
       <c r="J41" t="n">
-        <v>732.4917832521874</v>
+        <v>689.1199877430078</v>
       </c>
       <c r="K41" t="n">
-        <v>735.2925572558103</v>
+        <v>692.5895517326505</v>
       </c>
     </row>
     <row r="42">
@@ -2470,22 +2474,22 @@
         <v>0.818859</v>
       </c>
       <c r="F42" t="n">
-        <v>85.99000000000001</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-35.05785628438809</v>
+        <v>-50.9810501381013</v>
       </c>
       <c r="H42" t="n">
-        <v>718.4045116436408</v>
+        <v>718.4</v>
       </c>
       <c r="I42" t="n">
-        <v>753.4623679280289</v>
+        <v>769.3810501381013</v>
       </c>
       <c r="J42" t="n">
-        <v>681.5198384865179</v>
+        <v>742.0948604522607</v>
       </c>
       <c r="K42" t="n">
-        <v>684.4171719918813</v>
+        <v>745.6861896858405</v>
       </c>
     </row>
     <row r="43">
@@ -2502,22 +2506,22 @@
         <v>0.818806</v>
       </c>
       <c r="F43" t="n">
-        <v>85.8900000000001</v>
+        <v>85.89</v>
       </c>
       <c r="G43" t="n">
-        <v>-35.55102206594461</v>
+        <v>-51.62566337258113</v>
       </c>
       <c r="H43" t="n">
-        <v>692.9492456088499</v>
+        <v>692.95</v>
       </c>
       <c r="I43" t="n">
-        <v>728.5002676747945</v>
+        <v>744.5756633725812</v>
       </c>
       <c r="J43" t="n">
-        <v>734.4348225517784</v>
+        <v>716.9042431601039</v>
       </c>
       <c r="K43" t="n">
-        <v>737.4320570198913</v>
+        <v>720.6214202124773</v>
       </c>
     </row>
     <row r="44">
@@ -2534,22 +2538,22 @@
         <v>0.818752</v>
       </c>
       <c r="F44" t="n">
-        <v>85.78999999999996</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-36.05522593920409</v>
+        <v>-52.28376312579496</v>
       </c>
       <c r="H44" t="n">
-        <v>667.0884468068474</v>
+        <v>667.09</v>
       </c>
       <c r="I44" t="n">
-        <v>703.1436727460515</v>
+        <v>719.373763125795</v>
       </c>
       <c r="J44" t="n">
-        <v>709.174449988553</v>
+        <v>691.3082468229748</v>
       </c>
       <c r="K44" t="n">
-        <v>712.2750632950914</v>
+        <v>695.1555163028203</v>
       </c>
     </row>
     <row r="45">
@@ -2566,22 +2570,22 @@
         <v>0.818699</v>
       </c>
       <c r="F45" t="n">
-        <v>85.69000000000005</v>
+        <v>85.69</v>
       </c>
       <c r="G45" t="n">
-        <v>-36.57081060700693</v>
+        <v>-52.95574800719191</v>
       </c>
       <c r="H45" t="n">
-        <v>664.3723761724395</v>
+        <v>664.37</v>
       </c>
       <c r="I45" t="n">
-        <v>700.9431867794465</v>
+        <v>717.3257480071919</v>
       </c>
       <c r="J45" t="n">
-        <v>683.5122532639775</v>
+        <v>688.8569859031553</v>
       </c>
       <c r="K45" t="n">
-        <v>686.7198662889214</v>
+        <v>692.8387621040366</v>
       </c>
     </row>
     <row r="46">
@@ -2598,22 +2602,22 @@
         <v>0.818646</v>
       </c>
       <c r="F46" t="n">
-        <v>85.58999999999992</v>
+        <v>85.59</v>
       </c>
       <c r="G46" t="n">
-        <v>-37.09813249451713</v>
+        <v>-53.64203198368591</v>
       </c>
       <c r="H46" t="n">
-        <v>617.7615232957836</v>
+        <v>617.76</v>
       </c>
       <c r="I46" t="n">
-        <v>654.8596557903007</v>
+        <v>671.4020319836859</v>
       </c>
       <c r="J46" t="n">
-        <v>680.9985896815934</v>
+        <v>642.5205785043762</v>
       </c>
       <c r="K46" t="n">
-        <v>684.3169732702926</v>
+        <v>646.6414534793097</v>
       </c>
     </row>
     <row r="47">
@@ -2630,22 +2634,22 @@
         <v>0.818592</v>
       </c>
       <c r="F47" t="n">
-        <v>85.49000000000001</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-37.63756242619672</v>
+        <v>-54.34304511385596</v>
       </c>
       <c r="H47" t="n">
-        <v>656.7227629881553</v>
+        <v>656.72</v>
       </c>
       <c r="I47" t="n">
-        <v>694.360325414352</v>
+        <v>711.063045113856</v>
       </c>
       <c r="J47" t="n">
-        <v>634.5940483831713</v>
+        <v>681.7591465136384</v>
       </c>
       <c r="K47" t="n">
-        <v>638.027130702913</v>
+        <v>686.0238986002176</v>
       </c>
     </row>
     <row r="48">
@@ -2662,22 +2666,22 @@
         <v>0.818539</v>
       </c>
       <c r="F48" t="n">
-        <v>85.3900000000001</v>
+        <v>85.39</v>
       </c>
       <c r="G48" t="n">
-        <v>-38.18948634266837</v>
+        <v>-55.05923432426118</v>
       </c>
       <c r="H48" t="n">
-        <v>730.7764199384512</v>
+        <v>730.78</v>
       </c>
       <c r="I48" t="n">
-        <v>768.9659062811196</v>
+        <v>785.8392343242612</v>
       </c>
       <c r="J48" t="n">
-        <v>673.7656070422956</v>
+        <v>756.102815749583</v>
       </c>
       <c r="K48" t="n">
-        <v>677.3174813602117</v>
+        <v>760.5164185746781</v>
       </c>
     </row>
     <row r="49">
@@ -2694,22 +2698,22 @@
         <v>0.818486</v>
       </c>
       <c r="F49" t="n">
-        <v>85.28999999999996</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-38.75430606017267</v>
+        <v>-55.79106423069982</v>
       </c>
       <c r="H49" t="n">
-        <v>637.8814054241611</v>
+        <v>637.88</v>
       </c>
       <c r="I49" t="n">
-        <v>676.6357114843338</v>
+        <v>693.6710642306998</v>
       </c>
       <c r="J49" t="n">
-        <v>748.033696654749</v>
+        <v>663.4917161177598</v>
       </c>
       <c r="K49" t="n">
-        <v>751.7086295648219</v>
+        <v>668.05934811294</v>
       </c>
     </row>
     <row r="50">
@@ -2726,22 +2730,22 @@
         <v>0.818432</v>
       </c>
       <c r="F50" t="n">
-        <v>85.19000000000005</v>
+        <v>85.19</v>
       </c>
       <c r="G50" t="n">
-        <v>-39.33244007558676</v>
+        <v>-56.53901800745882</v>
       </c>
       <c r="H50" t="n">
-        <v>615.9815354238348</v>
+        <v>615.98</v>
       </c>
       <c r="I50" t="n">
-        <v>655.3139754994215</v>
+        <v>672.5190180074588</v>
       </c>
       <c r="J50" t="n">
-        <v>655.3573383897475</v>
+        <v>641.8859817731648</v>
       </c>
       <c r="K50" t="n">
-        <v>659.1597785187474</v>
+        <v>646.6130362342941</v>
       </c>
     </row>
     <row r="51">
@@ -2758,22 +2762,22 @@
         <v>0.818379</v>
       </c>
       <c r="F51" t="n">
-        <v>85.08999999999992</v>
+        <v>85.09</v>
       </c>
       <c r="G51" t="n">
-        <v>-39.9243244202072</v>
+        <v>-57.30359830783721</v>
       </c>
       <c r="H51" t="n">
-        <v>699.6489401609767</v>
+        <v>699.65</v>
       </c>
       <c r="I51" t="n">
-        <v>739.5732645811839</v>
+        <v>756.9535983078372</v>
       </c>
       <c r="J51" t="n">
-        <v>633.6804618494107</v>
+        <v>725.8557512904425</v>
       </c>
       <c r="K51" t="n">
-        <v>637.6150490738456</v>
+        <v>730.7478470173946</v>
       </c>
     </row>
     <row r="52">
@@ -2790,22 +2794,22 @@
         <v>0.818326</v>
       </c>
       <c r="F52" t="n">
-        <v>84.99000000000001</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-40.53041356570463</v>
+        <v>-58.0853282394861</v>
       </c>
       <c r="H52" t="n">
-        <v>682.0888007957709</v>
+        <v>682.09</v>
       </c>
       <c r="I52" t="n">
-        <v>722.6192143614755</v>
+        <v>740.1753282394861</v>
       </c>
       <c r="J52" t="n">
-        <v>717.5753147667774</v>
+        <v>708.6011678421718</v>
       </c>
       <c r="K52" t="n">
-        <v>721.6468899753833</v>
+        <v>713.6641603973144</v>
       </c>
     </row>
     <row r="53">
@@ -2822,22 +2826,22 @@
         <v>0.818273</v>
       </c>
       <c r="F53" t="n">
-        <v>84.8900000000001</v>
+        <v>84.89</v>
       </c>
       <c r="G53" t="n">
-        <v>-41.15118138601758</v>
+        <v>-58.88475239838863</v>
       </c>
       <c r="H53" t="n">
-        <v>673.6443705218185</v>
+        <v>673.64</v>
       </c>
       <c r="I53" t="n">
-        <v>714.7955519078361</v>
+        <v>732.5247523983886</v>
       </c>
       <c r="J53" t="n">
-        <v>700.2471998591533</v>
+        <v>700.4623793856773</v>
       </c>
       <c r="K53" t="n">
-        <v>704.4608152980932</v>
+        <v>705.7023730127113</v>
       </c>
     </row>
     <row r="54">
@@ -2854,22 +2858,22 @@
         <v>0.818219</v>
       </c>
       <c r="F54" t="n">
-        <v>84.78999999999996</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>-41.78712217917473</v>
+        <v>-59.70243796561056</v>
       </c>
       <c r="H54" t="n">
-        <v>677.5264324099049</v>
+        <v>677.53</v>
       </c>
       <c r="I54" t="n">
-        <v>719.3135545890797</v>
+        <v>737.2324379656105</v>
       </c>
       <c r="J54" t="n">
-        <v>692.0394960944132</v>
+        <v>704.6695388588441</v>
       </c>
       <c r="K54" t="n">
-        <v>696.4004263352414</v>
+        <v>710.0928991067664</v>
       </c>
     </row>
     <row r="55">
@@ -2886,22 +2890,22 @@
         <v>0.8181659999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>84.69000000000005</v>
+        <v>84.69</v>
       </c>
       <c r="G55" t="n">
-        <v>-42.43875175342043</v>
+        <v>-60.53897587128529</v>
       </c>
       <c r="H55" t="n">
-        <v>655.0553310697341</v>
+        <v>655.0599999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>697.4940828231545</v>
+        <v>715.5989758712852</v>
       </c>
       <c r="J55" t="n">
-        <v>696.1631167127091</v>
+        <v>682.5228043854335</v>
       </c>
       <c r="K55" t="n">
-        <v>700.6768702862755</v>
+        <v>688.1361714858517</v>
       </c>
     </row>
     <row r="56">
@@ -2918,22 +2922,22 @@
         <v>0.818113</v>
       </c>
       <c r="F56" t="n">
-        <v>84.58999999999992</v>
+        <v>84.59</v>
       </c>
       <c r="G56" t="n">
-        <v>-43.10660858238089</v>
+        <v>-11.14831536399402</v>
       </c>
       <c r="H56" t="n">
-        <v>719.923775810921</v>
+        <v>669.6733333333333</v>
       </c>
       <c r="I56" t="n">
-        <v>763.0303843933019</v>
+        <v>731.068315363994</v>
       </c>
       <c r="J56" t="n">
-        <v>673.9385410750062</v>
+        <v>697.4656728237683</v>
       </c>
       <c r="K56" t="n">
-        <v>678.6108728178823</v>
+        <v>703.275975873559</v>
       </c>
     </row>
     <row r="57">
@@ -2950,22 +2954,22 @@
         <v>0.81806</v>
       </c>
       <c r="F57" t="n">
-        <v>84.49000000000001</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>-43.79125503435307</v>
+        <v>4.545991949095651</v>
       </c>
       <c r="H57" t="n">
-        <v>734.7651761484487</v>
+        <v>667.9529093934621</v>
       </c>
       <c r="I57" t="n">
-        <v>778.5564311828018</v>
+        <v>730.2240080509043</v>
       </c>
       <c r="J57" t="n">
-        <v>739.0586180202539</v>
+        <v>696.0812227194892</v>
       </c>
       <c r="K57" t="n">
-        <v>743.895542183969</v>
+        <v>702.0956947248771</v>
       </c>
     </row>
     <row r="58">
@@ -2982,22 +2986,22 @@
         <v>0.818007</v>
       </c>
       <c r="F58" t="n">
-        <v>84.3900000000001</v>
+        <v>84.39</v>
       </c>
       <c r="G58" t="n">
-        <v>-41.68809032321201</v>
+        <v>0.3818742359954967</v>
       </c>
       <c r="H58" t="n">
-        <v>728.5296290701057</v>
+        <v>667.7801301039158</v>
       </c>
       <c r="I58" t="n">
-        <v>773.0229077514247</v>
+        <v>730.9481257640045</v>
       </c>
       <c r="J58" t="n">
-        <v>754.1569015769237</v>
+        <v>696.2510310126628</v>
       </c>
       <c r="K58" t="n">
-        <v>759.1647057543269</v>
+        <v>702.4772248552575</v>
       </c>
     </row>
     <row r="59">
@@ -3014,22 +3018,22 @@
         <v>0.817953</v>
       </c>
       <c r="F59" t="n">
-        <v>84.28999999999996</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>-43.30450350798492</v>
+        <v>-3.444229363206432</v>
       </c>
       <c r="H59" t="n">
-        <v>726.3237610733646</v>
+        <v>667.587857235997</v>
       </c>
       <c r="I59" t="n">
-        <v>771.5370547670425</v>
+        <v>731.6742293632065</v>
       </c>
       <c r="J59" t="n">
-        <v>748.18363844703</v>
+        <v>696.4081406045136</v>
       </c>
       <c r="K59" t="n">
-        <v>753.3688983745003</v>
+        <v>702.8539459946899</v>
       </c>
     </row>
     <row r="60">
@@ -3046,22 +3050,22 @@
         <v>0.8179</v>
       </c>
       <c r="F60" t="n">
-        <v>84.19000000000005</v>
+        <v>84.19</v>
       </c>
       <c r="G60" t="n">
-        <v>-46.2454347072993</v>
+        <v>-6.41164966680185</v>
       </c>
       <c r="H60" t="n">
-        <v>726.3150109030772</v>
+        <v>667.4046917580793</v>
       </c>
       <c r="I60" t="n">
-        <v>772.2669532303462</v>
+        <v>732.4316496668018</v>
       </c>
       <c r="J60" t="n">
-        <v>746.2456102706934</v>
+        <v>696.5813399682917</v>
       </c>
       <c r="K60" t="n">
-        <v>751.6152055697137</v>
+        <v>703.2550014565894</v>
       </c>
     </row>
     <row r="61">
@@ -3078,22 +3082,22 @@
         <v>0.817847</v>
       </c>
       <c r="F61" t="n">
-        <v>84.08999999999992</v>
+        <v>84.09</v>
       </c>
       <c r="G61" t="n">
-        <v>-91.0622247052554</v>
+        <v>-51.25969589173405</v>
       </c>
       <c r="H61" t="n">
-        <v>726.3124014120524</v>
+        <v>667.2291805917183</v>
       </c>
       <c r="I61" t="n">
-        <v>773.0222979218839</v>
+        <v>733.2196958917341</v>
       </c>
       <c r="J61" t="n">
-        <v>746.510416603286</v>
+        <v>696.7693701802273</v>
       </c>
       <c r="K61" t="n">
-        <v>752.0715475301374</v>
+        <v>703.6795063032251</v>
       </c>
     </row>
     <row r="62">
@@ -3110,22 +3114,22 @@
         <v>0.817794</v>
       </c>
       <c r="F62" t="n">
-        <v>83.99000000000001</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>-126.1133077969055</v>
+        <v>-86.3295741707899</v>
       </c>
       <c r="H62" t="n">
-        <v>726.3961582454787</v>
+        <v>667.1217333338136</v>
       </c>
       <c r="I62" t="n">
-        <v>773.8840177801043</v>
+        <v>734.0995741707899</v>
       </c>
       <c r="J62" t="n">
-        <v>746.7872470279348</v>
+        <v>697.0328419305936</v>
       </c>
       <c r="K62" t="n">
-        <v>752.5474523060016</v>
+        <v>704.1884655740099</v>
       </c>
     </row>
     <row r="63">
@@ -3142,22 +3146,22 @@
         <v>0.81774</v>
       </c>
       <c r="F63" t="n">
-        <v>83.8900000000001</v>
+        <v>83.89</v>
       </c>
       <c r="G63" t="n">
-        <v>-75.25630528871818</v>
+        <v>-35.45814741804918</v>
       </c>
       <c r="H63" t="n">
-        <v>726.6248845317751</v>
+        <v>667.1283802076028</v>
       </c>
       <c r="I63" t="n">
-        <v>774.9114524014924</v>
+        <v>735.1181474180491</v>
       </c>
       <c r="J63" t="n">
-        <v>747.1565001050791</v>
+        <v>697.4179937784902</v>
       </c>
       <c r="K63" t="n">
-        <v>753.1236759205038</v>
+        <v>704.8285338471618</v>
       </c>
     </row>
     <row r="64">
@@ -3174,22 +3178,22 @@
         <v>0.8176870000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>83.78999999999996</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-54.79848019356996</v>
+        <v>-15.00541837713888</v>
       </c>
       <c r="H64" t="n">
-        <v>726.8209211482239</v>
+        <v>667.1082530677124</v>
       </c>
       <c r="I64" t="n">
-        <v>775.9277142403384</v>
+        <v>736.1354183771389</v>
       </c>
       <c r="J64" t="n">
-        <v>747.6769583424837</v>
+        <v>697.7841734764626</v>
       </c>
       <c r="K64" t="n">
-        <v>753.8593785907839</v>
+        <v>705.4594979683887</v>
       </c>
     </row>
     <row r="65">
@@ -3206,22 +3210,22 @@
         <v>0.817634</v>
       </c>
       <c r="F65" t="n">
-        <v>83.69000000000005</v>
+        <v>83.69</v>
       </c>
       <c r="G65" t="n">
-        <v>-118.901259492129</v>
+        <v>-79.14194648448358</v>
       </c>
       <c r="H65" t="n">
-        <v>726.8819918286009</v>
+        <v>666.9810000813038</v>
       </c>
       <c r="I65" t="n">
-        <v>776.8313357854339</v>
+        <v>737.0719464844835</v>
       </c>
       <c r="J65" t="n">
-        <v>748.1711487549037</v>
+        <v>698.0512529879463</v>
       </c>
       <c r="K65" t="n">
-        <v>754.5774866336586</v>
+        <v>706.001693577841</v>
       </c>
     </row>
     <row r="66">
@@ -3238,22 +3242,22 @@
         <v>0.817581</v>
       </c>
       <c r="F66" t="n">
-        <v>83.58999999999992</v>
+        <v>83.59</v>
       </c>
       <c r="G66" t="n">
-        <v>-95.45857368171187</v>
+        <v>-55.71713475714068</v>
       </c>
       <c r="H66" t="n">
-        <v>727.0211532783607</v>
+        <v>666.9150702838278</v>
       </c>
       <c r="I66" t="n">
-        <v>777.8362218902686</v>
+        <v>738.0971347571407</v>
       </c>
       <c r="J66" t="n">
-        <v>748.5369882815393</v>
+        <v>698.3879133970631</v>
       </c>
       <c r="K66" t="n">
-        <v>755.1763393324956</v>
+        <v>706.6242916439054</v>
       </c>
     </row>
     <row r="67">
@@ -3270,22 +3274,22 @@
         <v>0.817528</v>
       </c>
       <c r="F67" t="n">
-        <v>83.49000000000001</v>
+        <v>83.48999999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>-74.20779960888854</v>
+        <v>-34.47665406376609</v>
       </c>
       <c r="H67" t="n">
-        <v>727.232321937101</v>
+        <v>666.9051353558345</v>
       </c>
       <c r="I67" t="n">
-        <v>778.9371789084354</v>
+        <v>739.2066540637661</v>
       </c>
       <c r="J67" t="n">
-        <v>748.9877342278197</v>
+        <v>698.7890670583033</v>
       </c>
       <c r="K67" t="n">
-        <v>755.8696409408095</v>
+        <v>707.3227223612973</v>
       </c>
     </row>
     <row r="68">
@@ -3302,22 +3306,22 @@
         <v>0.817475</v>
       </c>
       <c r="F68" t="n">
-        <v>83.3900000000001</v>
+        <v>83.39</v>
       </c>
       <c r="G68" t="n">
-        <v>-92.5161477898356</v>
+        <v>-52.81684539188541</v>
       </c>
       <c r="H68" t="n">
-        <v>727.357283147767</v>
+        <v>666.8264892208051</v>
       </c>
       <c r="I68" t="n">
-        <v>779.9769264069187</v>
+        <v>740.2768453918854</v>
       </c>
       <c r="J68" t="n">
-        <v>749.5175113722797</v>
+        <v>699.1302575872204</v>
       </c>
       <c r="K68" t="n">
-        <v>756.6519894732567</v>
+        <v>707.9730770254702</v>
       </c>
     </row>
     <row r="69">
@@ -3334,22 +3338,22 @@
         <v>0.817421</v>
       </c>
       <c r="F69" t="n">
-        <v>83.28999999999996</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-41.48333299242927</v>
+        <v>-1.819570054121527</v>
       </c>
       <c r="H69" t="n">
-        <v>727.4732905884802</v>
+        <v>666.7398953921943</v>
       </c>
       <c r="I69" t="n">
-        <v>781.0336993275247</v>
+        <v>741.3695700541215</v>
       </c>
       <c r="J69" t="n">
-        <v>749.9683214991255</v>
+        <v>699.4725076215711</v>
       </c>
       <c r="K69" t="n">
-        <v>757.3658880555602</v>
+        <v>708.6369578247446</v>
       </c>
     </row>
     <row r="70">
@@ -3366,22 +3370,22 @@
         <v>0.817368</v>
       </c>
       <c r="F70" t="n">
-        <v>83.19000000000005</v>
+        <v>83.19</v>
       </c>
       <c r="G70" t="n">
-        <v>-45.02397390515944</v>
+        <v>-5.412127007383106</v>
       </c>
       <c r="H70" t="n">
-        <v>727.524887536282</v>
+        <v>666.6015012278638</v>
       </c>
       <c r="I70" t="n">
-        <v>782.0530721815784</v>
+        <v>742.4421270073831</v>
       </c>
       <c r="J70" t="n">
-        <v>750.4176432135672</v>
+        <v>699.7722335124113</v>
       </c>
       <c r="K70" t="n">
-        <v>758.0893467024376</v>
+        <v>709.2713947228356</v>
       </c>
     </row>
     <row r="71">
@@ -3398,22 +3402,22 @@
         <v>0.817315</v>
       </c>
       <c r="F71" t="n">
-        <v>83.08999999999992</v>
+        <v>83.09</v>
       </c>
       <c r="G71" t="n">
-        <v>-96.85125149397425</v>
+        <v>-57.31524133412302</v>
       </c>
       <c r="H71" t="n">
-        <v>727.4849199277343</v>
+        <v>666.3908231236674</v>
       </c>
       <c r="I71" t="n">
-        <v>783.0089752602088</v>
+        <v>743.475241334123</v>
       </c>
       <c r="J71" t="n">
-        <v>750.8102536105019</v>
+        <v>700.0092309783328</v>
       </c>
       <c r="K71" t="n">
-        <v>758.7677061073584</v>
+        <v>709.8568334794576</v>
       </c>
     </row>
     <row r="72">
@@ -3430,22 +3434,22 @@
         <v>0.817262</v>
       </c>
       <c r="F72" t="n">
-        <v>82.99000000000001</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-117.3135384546191</v>
+        <v>-77.84098067373793</v>
       </c>
       <c r="H72" t="n">
-        <v>727.5444301895536</v>
+        <v>666.2586594152239</v>
       </c>
       <c r="I72" t="n">
-        <v>784.0935918524278</v>
+        <v>744.6209806737379</v>
       </c>
       <c r="J72" t="n">
-        <v>751.1192417628824</v>
+        <v>700.3345884934099</v>
       </c>
       <c r="K72" t="n">
-        <v>759.3746534250606</v>
+        <v>710.5450515955519</v>
       </c>
     </row>
     <row r="73">
@@ -3462,22 +3466,22 @@
         <v>0.817209</v>
       </c>
       <c r="F73" t="n">
-        <v>82.8900000000001</v>
+        <v>82.89</v>
       </c>
       <c r="G73" t="n">
-        <v>-74.38139915696058</v>
+        <v>-34.94409084262429</v>
       </c>
       <c r="H73" t="n">
-        <v>727.7343564976294</v>
+        <v>666.2284222054925</v>
       </c>
       <c r="I73" t="n">
-        <v>785.3390611504042</v>
+        <v>745.9040908426243</v>
       </c>
       <c r="J73" t="n">
-        <v>751.5359030044169</v>
+        <v>700.7720196281058</v>
       </c>
       <c r="K73" t="n">
-        <v>760.1021190375645</v>
+        <v>711.360493420011</v>
       </c>
     </row>
     <row r="74">
@@ -3494,22 +3498,22 @@
         <v>0.817156</v>
       </c>
       <c r="F74" t="n">
-        <v>82.78999999999996</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>-79.40323242456611</v>
+        <v>-40.01702444827652</v>
       </c>
       <c r="H74" t="n">
-        <v>727.8785803332053</v>
+        <v>666.1611619005496</v>
       </c>
       <c r="I74" t="n">
-        <v>786.5705297337702</v>
+        <v>747.1870244482765</v>
       </c>
       <c r="J74" t="n">
-        <v>752.0914386665681</v>
+        <v>701.1828881272993</v>
       </c>
       <c r="K74" t="n">
-        <v>760.9819789814654</v>
+        <v>712.1652982215268</v>
       </c>
     </row>
     <row r="75">
@@ -3526,22 +3530,22 @@
         <v>0.817103</v>
       </c>
       <c r="F75" t="n">
-        <v>82.69000000000005</v>
+        <v>82.69</v>
       </c>
       <c r="G75" t="n">
-        <v>-107.4584268702131</v>
+        <v>-68.14948236686791</v>
       </c>
       <c r="H75" t="n">
-        <v>727.948436066248</v>
+        <v>666.0351042977142</v>
       </c>
       <c r="I75" t="n">
-        <v>787.7606653884903</v>
+        <v>748.4494823668679</v>
       </c>
       <c r="J75" t="n">
-        <v>752.6100041403265</v>
+        <v>701.5457455714701</v>
       </c>
       <c r="K75" t="n">
-        <v>761.8391059266489</v>
+        <v>712.9388410931119</v>
       </c>
     </row>
     <row r="76">
@@ -3558,22 +3562,22 @@
         <v>0.8170500000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>82.58999999999992</v>
+        <v>82.59</v>
       </c>
       <c r="G76" t="n">
-        <v>-70.92620986134227</v>
+        <v>-31.67620097262431</v>
       </c>
       <c r="H76" t="n">
-        <v>728.0756534844122</v>
+        <v>665.953433086454</v>
       </c>
       <c r="I76" t="n">
-        <v>789.0426042068535</v>
+        <v>749.7962009726243</v>
       </c>
       <c r="J76" t="n">
-        <v>753.063218994635</v>
+        <v>701.9641144835018</v>
       </c>
       <c r="K76" t="n">
-        <v>762.6458824601033</v>
+        <v>713.7855195755765</v>
       </c>
     </row>
     <row r="77">
@@ -3590,22 +3594,22 @@
         <v>0.8169960000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>82.49000000000001</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>-65.09574191070033</v>
+        <v>-25.92748850619489</v>
       </c>
       <c r="H77" t="n">
-        <v>728.1828210192206</v>
+        <v>665.854821118525</v>
       </c>
       <c r="I77" t="n">
-        <v>790.3404187512234</v>
+        <v>751.1674885061949</v>
       </c>
       <c r="J77" t="n">
-        <v>753.5831100718672</v>
+        <v>702.3770202397429</v>
       </c>
       <c r="K77" t="n">
-        <v>763.5351476193986</v>
+        <v>714.645289384977</v>
       </c>
     </row>
     <row r="78">
@@ -3622,22 +3626,22 @@
         <v>0.816943</v>
       </c>
       <c r="F78" t="n">
-        <v>82.3900000000001</v>
+        <v>82.39</v>
       </c>
       <c r="G78" t="n">
-        <v>-67.72443532770205</v>
+        <v>-28.64598091866162</v>
       </c>
       <c r="H78" t="n">
-        <v>728.2068255676722</v>
+        <v>665.6901807500269</v>
       </c>
       <c r="I78" t="n">
-        <v>791.5925632142254</v>
+        <v>752.5159809186616</v>
       </c>
       <c r="J78" t="n">
-        <v>754.0925753140905</v>
+        <v>702.7357420903522</v>
       </c>
       <c r="K78" t="n">
-        <v>764.4306644563535</v>
+        <v>715.4704195783363</v>
       </c>
     </row>
     <row r="79">
@@ -3654,22 +3658,22 @@
         <v>0.81689</v>
       </c>
       <c r="F79" t="n">
-        <v>82.28999999999996</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-71.45681258139939</v>
+        <v>-32.48079163051875</v>
       </c>
       <c r="H79" t="n">
-        <v>728.2203780745242</v>
+        <v>665.5168076571424</v>
       </c>
       <c r="I79" t="n">
-        <v>792.8734047786352</v>
+        <v>753.9007916305187</v>
       </c>
       <c r="J79" t="n">
-        <v>754.5288242206597</v>
+        <v>703.0979576932285</v>
       </c>
       <c r="K79" t="n">
-        <v>765.270564561238</v>
+        <v>716.3196415944326</v>
       </c>
     </row>
     <row r="80">
@@ -3686,22 +3690,22 @@
         <v>0.816837</v>
       </c>
       <c r="F80" t="n">
-        <v>82.19000000000005</v>
+        <v>82.19</v>
       </c>
       <c r="G80" t="n">
-        <v>-68.35005534131835</v>
+        <v>-29.48762010448002</v>
       </c>
       <c r="H80" t="n">
-        <v>728.2411204194478</v>
+        <v>665.3484829828413</v>
       </c>
       <c r="I80" t="n">
-        <v>794.2023367634381</v>
+        <v>755.33762010448</v>
       </c>
       <c r="J80" t="n">
-        <v>754.9649041048391</v>
+        <v>703.4778460215268</v>
       </c>
       <c r="K80" t="n">
-        <v>766.1288787483203</v>
+        <v>717.2082570657946</v>
       </c>
     </row>
     <row r="81">
@@ -3718,22 +3722,22 @@
         <v>0.816784</v>
       </c>
       <c r="F81" t="n">
-        <v>82.08999999999992</v>
+        <v>82.09</v>
       </c>
       <c r="G81" t="n">
-        <v>-57.96410746637093</v>
+        <v>-19.20978092113694</v>
       </c>
       <c r="H81" t="n">
-        <v>728.2582179184794</v>
+        <v>665.1764954574802</v>
       </c>
       <c r="I81" t="n">
-        <v>795.5703779124131</v>
+        <v>756.819780921137</v>
       </c>
       <c r="J81" t="n">
-        <v>755.4188076963434</v>
+        <v>703.8671102906256</v>
       </c>
       <c r="K81" t="n">
-        <v>767.0246494865426</v>
+        <v>718.1291660879915</v>
       </c>
     </row>
     <row r="82">
@@ -3750,22 +3754,22 @@
         <v>0.816731</v>
       </c>
       <c r="F82" t="n">
-        <v>81.99000000000001</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>-63.89163679081287</v>
+        <v>-25.26882392875666</v>
       </c>
       <c r="H82" t="n">
-        <v>728.245252738061</v>
+        <v>664.9802540134141</v>
       </c>
       <c r="I82" t="n">
-        <v>796.9530731756201</v>
+        <v>758.3288239287566</v>
       </c>
       <c r="J82" t="n">
-        <v>755.8800664021118</v>
+        <v>704.2455914278322</v>
       </c>
       <c r="K82" t="n">
-        <v>767.9485294287807</v>
+        <v>719.0634865143385</v>
       </c>
     </row>
     <row r="83">
@@ -3782,22 +3786,22 @@
         <v>0.816678</v>
       </c>
       <c r="F83" t="n">
-        <v>81.8900000000001</v>
+        <v>81.89</v>
       </c>
       <c r="G83" t="n">
-        <v>-65.34953977275609</v>
+        <v>-26.86028810464597</v>
       </c>
       <c r="H83" t="n">
-        <v>728.2188853536277</v>
+        <v>664.7730334741935</v>
       </c>
       <c r="I83" t="n">
-        <v>798.3691631739007</v>
+        <v>759.880288104646</v>
       </c>
       <c r="J83" t="n">
-        <v>756.322644526708</v>
+        <v>704.6270146688087</v>
       </c>
       <c r="K83" t="n">
-        <v>768.8756813869732</v>
+        <v>720.0263069100308</v>
       </c>
     </row>
     <row r="84">
@@ -3814,22 +3818,22 @@
         <v>0.816625</v>
       </c>
       <c r="F84" t="n">
-        <v>81.78999999999996</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.507261673020821</v>
+        <v>35.84756193469559</v>
       </c>
       <c r="H84" t="n">
-        <v>728.2008975684953</v>
+        <v>664.5707021922722</v>
       </c>
       <c r="I84" t="n">
-        <v>799.8426359268093</v>
+        <v>761.4924380653044</v>
       </c>
       <c r="J84" t="n">
-        <v>756.7636015877006</v>
+        <v>705.0277181583398</v>
       </c>
       <c r="K84" t="n">
-        <v>769.8244469398278</v>
+        <v>721.0354220992368</v>
       </c>
     </row>
     <row r="85">
@@ -3846,22 +3850,22 @@
         <v>0.816572</v>
       </c>
       <c r="F85" t="n">
-        <v>81.69000000000005</v>
+        <v>81.69</v>
       </c>
       <c r="G85" t="n">
-        <v>-79.76209333879399</v>
+        <v>-41.57885226159215</v>
       </c>
       <c r="H85" t="n">
-        <v>728.0632237733188</v>
+        <v>664.2743006009246</v>
       </c>
       <c r="I85" t="n">
-        <v>801.2477675965447</v>
+        <v>763.0688522615922</v>
       </c>
       <c r="J85" t="n">
-        <v>757.2251362454008</v>
+        <v>705.349232525127</v>
       </c>
       <c r="K85" t="n">
-        <v>770.8183972499038</v>
+        <v>721.9939203373897</v>
       </c>
     </row>
     <row r="86">
@@ -3878,22 +3882,22 @@
         <v>0.816519</v>
       </c>
       <c r="F86" t="n">
-        <v>81.58999999999992</v>
+        <v>81.59</v>
       </c>
       <c r="G86" t="n">
-        <v>-74.86502537725141</v>
+        <v>-36.8638011898895</v>
       </c>
       <c r="H86" t="n">
-        <v>727.9468815868411</v>
+        <v>663.9954089326318</v>
       </c>
       <c r="I86" t="n">
-        <v>802.7280634694451</v>
+        <v>764.7238011898895</v>
       </c>
       <c r="J86" t="n">
-        <v>757.5796185311792</v>
+        <v>705.7036496871783</v>
       </c>
       <c r="K86" t="n">
-        <v>771.7313728386843</v>
+        <v>723.015560435343</v>
       </c>
     </row>
     <row r="87">
@@ -3910,22 +3914,22 @@
         <v>0.816466</v>
       </c>
       <c r="F87" t="n">
-        <v>81.49000000000001</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-66.77189276682338</v>
+        <v>-28.92254879734003</v>
       </c>
       <c r="H87" t="n">
-        <v>727.9592477200241</v>
+        <v>663.8164371940409</v>
       </c>
       <c r="I87" t="n">
-        <v>804.393545107521</v>
+        <v>766.54254879734</v>
       </c>
       <c r="J87" t="n">
-        <v>757.9685215193696</v>
+        <v>706.173913982568</v>
       </c>
       <c r="K87" t="n">
-        <v>772.7064235369166</v>
+        <v>724.1850720088129</v>
       </c>
     </row>
     <row r="88">
@@ -3942,22 +3946,22 @@
         <v>0.8164130000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>81.3900000000001</v>
+        <v>81.39</v>
       </c>
       <c r="G88" t="n">
-        <v>-63.48599457604394</v>
+        <v>-25.80374313138805</v>
       </c>
       <c r="H88" t="n">
-        <v>727.9413797416535</v>
+        <v>663.6130033492302</v>
       </c>
       <c r="I88" t="n">
-        <v>806.0880844496739</v>
+        <v>768.4037431313881</v>
       </c>
       <c r="J88" t="n">
-        <v>758.4996982894501</v>
+        <v>706.6362015823538</v>
       </c>
       <c r="K88" t="n">
-        <v>773.8530945380951</v>
+        <v>725.3805448982645</v>
       </c>
     </row>
     <row r="89">
@@ -3974,22 +3978,22 @@
         <v>0.81636</v>
       </c>
       <c r="F89" t="n">
-        <v>81.28999999999996</v>
+        <v>81.29000000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>-62.49678023088893</v>
+        <v>-24.99289328133204</v>
       </c>
       <c r="H89" t="n">
-        <v>727.8960708514924</v>
+        <v>663.3873966485901</v>
       </c>
       <c r="I89" t="n">
-        <v>807.8174720825231</v>
+        <v>770.3128932813321</v>
       </c>
       <c r="J89" t="n">
-        <v>759.0147048616519</v>
+        <v>707.0933851284364</v>
       </c>
       <c r="K89" t="n">
-        <v>775.0147593296754</v>
+        <v>726.6069048014858</v>
       </c>
     </row>
     <row r="90">
@@ -4006,22 +4010,22 @@
         <v>0.816307</v>
       </c>
       <c r="F90" t="n">
-        <v>81.19000000000005</v>
+        <v>81.19</v>
       </c>
       <c r="G90" t="n">
-        <v>-85.70853908846368</v>
+        <v>-48.39422242174612</v>
       </c>
       <c r="H90" t="n">
-        <v>727.8363759947708</v>
+        <v>663.1504157892066</v>
       </c>
       <c r="I90" t="n">
-        <v>809.5979581428146</v>
+        <v>772.2842224217461</v>
       </c>
       <c r="J90" t="n">
-        <v>759.5168562174935</v>
+        <v>707.5568732881943</v>
       </c>
       <c r="K90" t="n">
-        <v>776.196686716522</v>
+        <v>727.8777649227584</v>
       </c>
     </row>
     <row r="91">
@@ -4038,22 +4042,22 @@
         <v>0.816254</v>
       </c>
       <c r="F91" t="n">
-        <v>81.08999999999992</v>
+        <v>81.09</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.454478229470737</v>
+        <v>31.67226750593431</v>
       </c>
       <c r="H91" t="n">
-        <v>727.8111120763989</v>
+        <v>662.9384173036228</v>
       </c>
       <c r="I91" t="n">
-        <v>811.4817687542338</v>
+        <v>774.3577324940657</v>
       </c>
       <c r="J91" t="n">
-        <v>760.0197537449557</v>
+        <v>708.0636606292161</v>
       </c>
       <c r="K91" t="n">
-        <v>777.4145803926297</v>
+        <v>729.2324891684724</v>
       </c>
     </row>
     <row r="92">
@@ -4070,22 +4074,22 @@
         <v>0.816201</v>
       </c>
       <c r="F92" t="n">
-        <v>80.99000000000001</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>-28.49367070170899</v>
+        <v>8.408045607192662</v>
       </c>
       <c r="H92" t="n">
-        <v>727.6725922309927</v>
+        <v>662.636047886385</v>
       </c>
       <c r="I92" t="n">
-        <v>813.324858117554</v>
+        <v>776.4219543928074</v>
       </c>
       <c r="J92" t="n">
-        <v>760.5727868731393</v>
+        <v>708.4990615305454</v>
       </c>
       <c r="K92" t="n">
-        <v>778.7200939574934</v>
+        <v>730.5589407486469</v>
       </c>
     </row>
     <row r="93">
@@ -4102,22 +4106,22 @@
         <v>0.816148</v>
       </c>
       <c r="F93" t="n">
-        <v>80.8900000000001</v>
+        <v>80.89</v>
       </c>
       <c r="G93" t="n">
-        <v>-98.36159209547327</v>
+        <v>-61.714643028929</v>
       </c>
       <c r="H93" t="n">
-        <v>727.4207972970322</v>
+        <v>662.246919853661</v>
       </c>
       <c r="I93" t="n">
-        <v>815.1310995867616</v>
+        <v>778.484643028929</v>
       </c>
       <c r="J93" t="n">
-        <v>761.0288688594626</v>
+        <v>708.8673873333423</v>
       </c>
       <c r="K93" t="n">
-        <v>779.968581489084</v>
+        <v>731.8641755492476</v>
       </c>
     </row>
     <row r="94">
@@ -4134,22 +4138,22 @@
         <v>0.816095</v>
       </c>
       <c r="F94" t="n">
-        <v>80.78999999999996</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>-50.49305444118238</v>
+        <v>-14.07586099078367</v>
       </c>
       <c r="H94" t="n">
-        <v>727.3342754911826</v>
+        <v>661.9866732560356</v>
       </c>
       <c r="I94" t="n">
-        <v>817.1832069356836</v>
+        <v>780.7658609907837</v>
       </c>
       <c r="J94" t="n">
-        <v>761.3886098853789</v>
+        <v>709.3850102593564</v>
       </c>
       <c r="K94" t="n">
-        <v>781.1632869984149</v>
+        <v>733.367523987463</v>
       </c>
     </row>
     <row r="95">
@@ -4166,22 +4170,22 @@
         <v>0.816042</v>
       </c>
       <c r="F95" t="n">
-        <v>80.69000000000005</v>
+        <v>80.69</v>
       </c>
       <c r="G95" t="n">
-        <v>-55.77732031438131</v>
+        <v>-19.58540099393235</v>
       </c>
       <c r="H95" t="n">
-        <v>727.2805989233549</v>
+        <v>661.7503746088885</v>
       </c>
       <c r="I95" t="n">
-        <v>819.3532146923667</v>
+        <v>783.1654009939324</v>
       </c>
       <c r="J95" t="n">
-        <v>761.9312184649244</v>
+        <v>709.9477640706394</v>
       </c>
       <c r="K95" t="n">
-        <v>782.5862639619418</v>
+        <v>734.9680115321814</v>
       </c>
     </row>
     <row r="96">
@@ -4198,22 +4202,22 @@
         <v>0.815989</v>
       </c>
       <c r="F96" t="n">
-        <v>80.58999999999992</v>
+        <v>80.59</v>
       </c>
       <c r="G96" t="n">
-        <v>-43.2493623193518</v>
+        <v>-7.315534879193478</v>
       </c>
       <c r="H96" t="n">
-        <v>727.1396443055754</v>
+        <v>661.4452397423441</v>
       </c>
       <c r="I96" t="n">
-        <v>821.5257851632873</v>
+        <v>785.5955348791935</v>
       </c>
       <c r="J96" t="n">
-        <v>762.5249598157412</v>
+        <v>710.4636689823284</v>
       </c>
       <c r="K96" t="n">
-        <v>784.1088537999804</v>
+        <v>736.5771056392092</v>
       </c>
     </row>
     <row r="97">
@@ -4230,22 +4234,22 @@
         <v>0.815936</v>
       </c>
       <c r="F97" t="n">
-        <v>80.49000000000001</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>-86.11448408581998</v>
+        <v>-50.45376098764643</v>
       </c>
       <c r="H97" t="n">
-        <v>726.9769596532416</v>
+        <v>661.1233523069441</v>
       </c>
       <c r="I97" t="n">
-        <v>823.7716042521075</v>
+        <v>788.1137609876464</v>
       </c>
       <c r="J97" t="n">
-        <v>763.0504385555508</v>
+        <v>710.9856523753756</v>
       </c>
       <c r="K97" t="n">
-        <v>785.6149909133119</v>
+        <v>738.2514609192149</v>
       </c>
     </row>
     <row r="98">
@@ -4262,22 +4266,22 @@
         <v>0.815883</v>
       </c>
       <c r="F98" t="n">
-        <v>80.3900000000001</v>
+        <v>80.39</v>
       </c>
       <c r="G98" t="n">
-        <v>-52.59871927956965</v>
+        <v>-17.20932604703796</v>
       </c>
       <c r="H98" t="n">
-        <v>726.8618680164071</v>
+        <v>660.8381537363006</v>
       </c>
       <c r="I98" t="n">
-        <v>826.165517460191</v>
+        <v>790.779326047038</v>
       </c>
       <c r="J98" t="n">
-        <v>763.5739675334236</v>
+        <v>711.5680411222022</v>
       </c>
       <c r="K98" t="n">
-        <v>787.1745963719255</v>
+        <v>740.0494386611364</v>
       </c>
     </row>
     <row r="99">
@@ -4294,22 +4298,22 @@
         <v>0.8158300000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>80.28999999999996</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>-45.89673965516977</v>
+        <v>-10.78616452441861</v>
       </c>
       <c r="H99" t="n">
-        <v>726.7546905681884</v>
+        <v>660.5573472413098</v>
       </c>
       <c r="I99" t="n">
-        <v>828.6737887953093</v>
+        <v>793.5661645244186</v>
       </c>
       <c r="J99" t="n">
-        <v>764.1656738453428</v>
+        <v>712.1794681126553</v>
       </c>
       <c r="K99" t="n">
-        <v>788.8617116312554</v>
+        <v>741.9440436530731</v>
       </c>
     </row>
     <row r="100">
@@ -4326,22 +4330,22 @@
         <v>0.815777</v>
       </c>
       <c r="F100" t="n">
-        <v>80.19000000000005</v>
+        <v>80.19</v>
       </c>
       <c r="G100" t="n">
-        <v>-86.29170272805516</v>
+        <v>-51.49161974561025</v>
       </c>
       <c r="H100" t="n">
-        <v>726.5635697556829</v>
+        <v>660.2115797017145</v>
       </c>
       <c r="I100" t="n">
-        <v>831.2109637515947</v>
+        <v>796.4116197456102</v>
       </c>
       <c r="J100" t="n">
-        <v>764.7867243740478</v>
+        <v>712.7515568600585</v>
       </c>
       <c r="K100" t="n">
-        <v>790.6417549894499</v>
+        <v>743.8716425872663</v>
       </c>
     </row>
     <row r="101">
@@ -4358,22 +4362,22 @@
         <v>0.815724</v>
       </c>
       <c r="F101" t="n">
-        <v>80.08999999999992</v>
+        <v>80.09</v>
       </c>
       <c r="G101" t="n">
-        <v>-33.45842669220076</v>
+        <v>1.032388945491107</v>
       </c>
       <c r="H101" t="n">
-        <v>726.4249032632979</v>
+        <v>659.9055652297218</v>
       </c>
       <c r="I101" t="n">
-        <v>833.9203476360494</v>
+        <v>799.4276110545089</v>
       </c>
       <c r="J101" t="n">
-        <v>765.3461515727225</v>
+        <v>713.3900479773911</v>
       </c>
       <c r="K101" t="n">
-        <v>792.4283819345551</v>
+        <v>745.9431283068396</v>
       </c>
     </row>
     <row r="102">
@@ -4390,22 +4394,22 @@
         <v>0.815671</v>
       </c>
       <c r="F102" t="n">
-        <v>79.99000000000001</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>-64.13605388324675</v>
+        <v>-29.96468088221286</v>
       </c>
       <c r="H102" t="n">
-        <v>726.2525746877247</v>
+        <v>659.5720837033739</v>
       </c>
       <c r="I102" t="n">
-        <v>836.7232857451127</v>
+        <v>802.5546808822129</v>
       </c>
       <c r="J102" t="n">
-        <v>765.9812902579729</v>
+        <v>714.0288008380924</v>
       </c>
       <c r="K102" t="n">
-        <v>794.3639606413744</v>
+        <v>748.0979637474944</v>
       </c>
     </row>
     <row r="103">
@@ -4422,22 +4426,22 @@
         <v>0.815618</v>
       </c>
       <c r="F103" t="n">
-        <v>79.8900000000001</v>
+        <v>79.89</v>
       </c>
       <c r="G103" t="n">
-        <v>-94.11900407942994</v>
+        <v>-60.29999877502371</v>
       </c>
       <c r="H103" t="n">
-        <v>726.0288879583788</v>
+        <v>659.1999306599787</v>
       </c>
       <c r="I103" t="n">
-        <v>839.6101531222416</v>
+        <v>805.7899987750237</v>
       </c>
       <c r="J103" t="n">
-        <v>766.6070113283309</v>
+        <v>714.6577468302175</v>
       </c>
       <c r="K103" t="n">
-        <v>796.3688491045065</v>
+        <v>750.3321826047849</v>
       </c>
     </row>
     <row r="104">
@@ -4454,22 +4458,22 @@
         <v>0.815565</v>
       </c>
       <c r="F104" t="n">
-        <v>79.78999999999996</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-13.64032627673942</v>
+        <v>19.84292951731493</v>
       </c>
       <c r="H104" t="n">
-        <v>725.9057749514327</v>
+        <v>658.9035658908938</v>
       </c>
       <c r="I104" t="n">
-        <v>842.741624149993</v>
+        <v>809.2570704826851</v>
       </c>
       <c r="J104" t="n">
-        <v>767.2066594608755</v>
+        <v>715.3925415654732</v>
       </c>
       <c r="K104" t="n">
-        <v>798.432381619745</v>
+        <v>752.7680948081057</v>
       </c>
     </row>
     <row r="105">
@@ -4486,22 +4490,22 @@
         <v>0.815512</v>
       </c>
       <c r="F105" t="n">
-        <v>79.69000000000005</v>
+        <v>79.69</v>
       </c>
       <c r="G105" t="n">
-        <v>-23.90796439723999</v>
+        <v>9.205461431708954</v>
       </c>
       <c r="H105" t="n">
-        <v>725.6764467864813</v>
+        <v>658.5218463200777</v>
       </c>
       <c r="I105" t="n">
-        <v>845.9203933988978</v>
+        <v>812.804538568291</v>
       </c>
       <c r="J105" t="n">
-        <v>767.933264254646</v>
+        <v>716.0733016477737</v>
       </c>
       <c r="K105" t="n">
-        <v>800.7141348467796</v>
+        <v>755.2530832405949</v>
       </c>
     </row>
     <row r="106">
@@ -4518,22 +4522,22 @@
         <v>0.815459</v>
       </c>
       <c r="F106" t="n">
-        <v>79.58999999999992</v>
+        <v>79.59</v>
       </c>
       <c r="G106" t="n">
-        <v>-103.0067914465028</v>
+        <v>-70.31097128820488</v>
       </c>
       <c r="H106" t="n">
-        <v>725.3056962487765</v>
+        <v>658.0327388955823</v>
       </c>
       <c r="I106" t="n">
-        <v>849.1215562599392</v>
+        <v>816.4209712882049</v>
       </c>
       <c r="J106" t="n">
-        <v>768.5811953325664</v>
+        <v>716.6793217549541</v>
       </c>
       <c r="K106" t="n">
-        <v>803.0156448528127</v>
+        <v>757.774388428833</v>
       </c>
     </row>
     <row r="107">
@@ -4550,22 +4554,22 @@
         <v>0.815406</v>
       </c>
       <c r="F107" t="n">
-        <v>79.49000000000001</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>-136.2613321682708</v>
+        <v>-103.9577166797677</v>
       </c>
       <c r="H107" t="n">
-        <v>725.0888954753946</v>
+        <v>657.6660892471116</v>
       </c>
       <c r="I107" t="n">
-        <v>852.6516947606481</v>
+        <v>820.3477166797677</v>
       </c>
       <c r="J107" t="n">
-        <v>769.1164688698127</v>
+        <v>717.4418478137051</v>
       </c>
       <c r="K107" t="n">
-        <v>805.310783638903</v>
+        <v>760.5719581131742</v>
       </c>
     </row>
     <row r="108">
@@ -4582,22 +4586,22 @@
         <v>0.815353</v>
       </c>
       <c r="F108" t="n">
-        <v>79.3900000000001</v>
+        <v>79.39</v>
       </c>
       <c r="G108" t="n">
-        <v>-48.73079517248323</v>
+        <v>-16.79208553053411</v>
       </c>
       <c r="H108" t="n">
-        <v>725.0655139292552</v>
+        <v>657.4467084027622</v>
       </c>
       <c r="I108" t="n">
-        <v>856.562495061979</v>
+        <v>824.6220855305342</v>
       </c>
       <c r="J108" t="n">
-        <v>769.8357497144872</v>
+        <v>718.3871685905426</v>
       </c>
       <c r="K108" t="n">
-        <v>807.9048405215555</v>
+        <v>763.6816253427537</v>
       </c>
     </row>
     <row r="109">
@@ -4614,22 +4618,22 @@
         <v>0.8153</v>
       </c>
       <c r="F109" t="n">
-        <v>79.28999999999996</v>
+        <v>79.29000000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>-68.94290408223867</v>
+        <v>-37.39773006685232</v>
       </c>
       <c r="H109" t="n">
-        <v>724.9265186939133</v>
+        <v>657.1346427893066</v>
       </c>
       <c r="I109" t="n">
-        <v>860.5582603927992</v>
+        <v>829.0177300668523</v>
       </c>
       <c r="J109" t="n">
-        <v>770.7798741550033</v>
+        <v>719.2768909559618</v>
       </c>
       <c r="K109" t="n">
-        <v>810.8481348362309</v>
+        <v>766.8754819001971</v>
       </c>
     </row>
     <row r="110">
@@ -4646,22 +4650,22 @@
         <v>0.815248</v>
       </c>
       <c r="F110" t="n">
-        <v>79.19000000000005</v>
+        <v>79.19</v>
       </c>
       <c r="G110" t="n">
-        <v>-28.24579509983266</v>
+        <v>2.847645547320667</v>
       </c>
       <c r="H110" t="n">
-        <v>724.6476606630044</v>
+        <v>656.712761716127</v>
       </c>
       <c r="I110" t="n">
-        <v>864.6293250195627</v>
+        <v>833.5323544526793</v>
       </c>
       <c r="J110" t="n">
-        <v>771.6412554006865</v>
+        <v>720.095533058102</v>
       </c>
       <c r="K110" t="n">
-        <v>813.8435236860259</v>
+        <v>770.1495831107044</v>
       </c>
     </row>
     <row r="111">
@@ -4678,22 +4682,22 @@
         <v>0.815195</v>
       </c>
       <c r="F111" t="n">
-        <v>79.08999999999992</v>
+        <v>79.09</v>
       </c>
       <c r="G111" t="n">
-        <v>-100.5603202071692</v>
+        <v>-69.9312080206588</v>
       </c>
       <c r="H111" t="n">
-        <v>724.3156049996142</v>
+        <v>656.2501110425405</v>
       </c>
       <c r="I111" t="n">
-        <v>868.878330008505</v>
+        <v>838.2512080206589</v>
       </c>
       <c r="J111" t="n">
-        <v>772.3971753867177</v>
+        <v>720.9138841457413</v>
       </c>
       <c r="K111" t="n">
-        <v>816.8798102958494</v>
+        <v>773.587434917458</v>
       </c>
     </row>
     <row r="112">
@@ -4710,22 +4714,22 @@
         <v>0.815142</v>
       </c>
       <c r="F112" t="n">
-        <v>78.99000000000001</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>-26.00709012777725</v>
+        <v>4.145799261324555</v>
       </c>
       <c r="H112" t="n">
-        <v>724.0252676034429</v>
+        <v>655.8188699119905</v>
       </c>
       <c r="I112" t="n">
-        <v>873.4177253299873</v>
+        <v>843.2642007386754</v>
       </c>
       <c r="J112" t="n">
-        <v>773.1359213199672</v>
+        <v>721.8059679684828</v>
       </c>
       <c r="K112" t="n">
-        <v>820.058013688152</v>
+        <v>777.2771026821831</v>
       </c>
     </row>
     <row r="113">
@@ -4742,22 +4746,22 @@
         <v>0.815089</v>
       </c>
       <c r="F113" t="n">
-        <v>78.8900000000001</v>
+        <v>78.89</v>
       </c>
       <c r="G113" t="n">
-        <v>-91.22533739271068</v>
+        <v>-61.56132081263399</v>
       </c>
       <c r="H113" t="n">
-        <v>723.7130571103979</v>
+        <v>655.369587356023</v>
       </c>
       <c r="I113" t="n">
-        <v>878.2032011597349</v>
+        <v>848.541320812634</v>
       </c>
       <c r="J113" t="n">
-        <v>773.9541287492965</v>
+        <v>722.7242866062654</v>
       </c>
       <c r="K113" t="n">
-        <v>823.4888641841337</v>
+        <v>781.1866215623916</v>
       </c>
     </row>
     <row r="114">
@@ -4774,22 +4778,22 @@
         <v>0.815036</v>
       </c>
       <c r="F114" t="n">
-        <v>78.78999999999996</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-53.45845836541309</v>
+        <v>-24.31502307173105</v>
       </c>
       <c r="H114" t="n">
-        <v>723.3656343089959</v>
+        <v>654.8933637392829</v>
       </c>
       <c r="I114" t="n">
-        <v>883.242664216443</v>
+        <v>854.095023071731</v>
       </c>
       <c r="J114" t="n">
-        <v>774.7900307358628</v>
+        <v>723.662009754089</v>
       </c>
       <c r="K114" t="n">
-        <v>827.12622753427</v>
+        <v>785.3263770569249</v>
       </c>
     </row>
     <row r="115">
@@ -4806,22 +4810,22 @@
         <v>0.814983</v>
       </c>
       <c r="F115" t="n">
-        <v>78.69000000000005</v>
+        <v>78.69</v>
       </c>
       <c r="G115" t="n">
-        <v>-4.993306529297456</v>
+        <v>23.63594057800697</v>
       </c>
       <c r="H115" t="n">
-        <v>723.0474331527078</v>
+        <v>654.435443957146</v>
       </c>
       <c r="I115" t="n">
-        <v>888.6240080285925</v>
+        <v>859.994059421993</v>
       </c>
       <c r="J115" t="n">
-        <v>775.6322250642853</v>
+        <v>724.6665764343138</v>
       </c>
       <c r="K115" t="n">
-        <v>830.9760734611536</v>
+        <v>789.7629269448253</v>
       </c>
     </row>
     <row r="116">
@@ -4838,22 +4842,22 @@
         <v>0.81493</v>
       </c>
       <c r="F116" t="n">
-        <v>78.58999999999992</v>
+        <v>78.59</v>
       </c>
       <c r="G116" t="n">
-        <v>-65.5571880210772</v>
+        <v>-37.49727422100977</v>
       </c>
       <c r="H116" t="n">
-        <v>722.5498136724221</v>
+        <v>653.8387400146338</v>
       </c>
       <c r="I116" t="n">
-        <v>894.164553070836</v>
+        <v>866.1072742210098</v>
       </c>
       <c r="J116" t="n">
-        <v>776.547203736779</v>
+        <v>725.5832268328074</v>
       </c>
       <c r="K116" t="n">
-        <v>835.1242374445212</v>
+        <v>794.3627874028361</v>
       </c>
     </row>
     <row r="117">
@@ -4870,22 +4874,22 @@
         <v>0.814877</v>
       </c>
       <c r="F117" t="n">
-        <v>78.49000000000001</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>22.20198027842684</v>
+        <v>49.67012350143614</v>
       </c>
       <c r="H117" t="n">
-        <v>722.051862146285</v>
+        <v>653.2397886495135</v>
       </c>
       <c r="I117" t="n">
-        <v>900.0721788891531</v>
+        <v>872.5998764985638</v>
       </c>
       <c r="J117" t="n">
-        <v>777.3285151246542</v>
+        <v>726.5509699972163</v>
       </c>
       <c r="K117" t="n">
-        <v>839.3858516186039</v>
+        <v>799.288695150861</v>
       </c>
     </row>
     <row r="118">
@@ -4902,22 +4906,22 @@
         <v>0.814825</v>
       </c>
       <c r="F118" t="n">
-        <v>78.3900000000001</v>
+        <v>78.39</v>
       </c>
       <c r="G118" t="n">
-        <v>-74.25876457409504</v>
+        <v>-47.39908374226161</v>
       </c>
       <c r="H118" t="n">
-        <v>721.4808188785656</v>
+        <v>652.5840311857291</v>
       </c>
       <c r="I118" t="n">
-        <v>906.306136709216</v>
+        <v>879.4490837422616</v>
       </c>
       <c r="J118" t="n">
-        <v>778.1575742127393</v>
+        <v>727.5178746676229</v>
       </c>
       <c r="K118" t="n">
-        <v>843.9664668226987</v>
+        <v>804.5152402603678</v>
       </c>
     </row>
     <row r="119">
@@ -4934,22 +4938,22 @@
         <v>0.8147720000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>78.28999999999996</v>
+        <v>78.29000000000001</v>
       </c>
       <c r="G119" t="n">
-        <v>40.43083217766116</v>
+        <v>66.66176761692589</v>
       </c>
       <c r="H119" t="n">
-        <v>720.9005275272724</v>
+        <v>651.9195016552285</v>
       </c>
       <c r="I119" t="n">
-        <v>912.9659463076083</v>
+        <v>886.7382323830741</v>
       </c>
       <c r="J119" t="n">
-        <v>778.9641013760768</v>
+        <v>728.5347693716852</v>
       </c>
       <c r="K119" t="n">
-        <v>848.8228542117049</v>
+        <v>810.1229646666175</v>
       </c>
     </row>
     <row r="120">
@@ -4966,22 +4970,22 @@
         <v>0.814719</v>
       </c>
       <c r="F120" t="n">
-        <v>78.19000000000005</v>
+        <v>78.19</v>
       </c>
       <c r="G120" t="n">
-        <v>-15.13441819217019</v>
+        <v>10.43552637278412</v>
       </c>
       <c r="H120" t="n">
-        <v>720.2585709209909</v>
+        <v>651.2040308060061</v>
       </c>
       <c r="I120" t="n">
-        <v>920.0390540236656</v>
+        <v>894.4644736272159</v>
       </c>
       <c r="J120" t="n">
-        <v>779.8145837266401</v>
+        <v>729.5624595073051</v>
       </c>
       <c r="K120" t="n">
-        <v>854.0518901082406</v>
+        <v>816.1060449259169</v>
       </c>
     </row>
     <row r="121">
@@ -4998,22 +5002,22 @@
         <v>0.814666</v>
       </c>
       <c r="F121" t="n">
-        <v>78.08999999999992</v>
+        <v>78.09</v>
       </c>
       <c r="G121" t="n">
-        <v>-51.53952682928264</v>
+        <v>-26.6632367831337</v>
       </c>
       <c r="H121" t="n">
-        <v>719.4833357077671</v>
+        <v>650.3891347197859</v>
       </c>
       <c r="I121" t="n">
-        <v>927.4985087924431</v>
+        <v>902.6232367831337</v>
       </c>
       <c r="J121" t="n">
-        <v>780.6594240805497</v>
+        <v>730.5556302542059</v>
       </c>
       <c r="K121" t="n">
-        <v>859.6382008641067</v>
+        <v>822.4567412487138</v>
       </c>
     </row>
     <row r="122">
@@ -5030,22 +5034,22 @@
         <v>0.814613</v>
       </c>
       <c r="F122" t="n">
-        <v>77.99000000000001</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>-45.47429394942776</v>
+        <v>-21.28106043896946</v>
       </c>
       <c r="H122" t="n">
-        <v>718.8478832234595</v>
+        <v>649.6821719827033</v>
       </c>
       <c r="I122" t="n">
-        <v>935.6675513612295</v>
+        <v>911.4710604389695</v>
       </c>
       <c r="J122" t="n">
-        <v>781.4300200121343</v>
+        <v>731.7250193901981</v>
       </c>
       <c r="K122" t="n">
-        <v>865.5518244880759</v>
+        <v>829.4282130314746</v>
       </c>
     </row>
     <row r="123">
@@ -5062,22 +5066,22 @@
         <v>0.81456</v>
       </c>
       <c r="F123" t="n">
-        <v>77.8900000000001</v>
+        <v>77.89</v>
       </c>
       <c r="G123" t="n">
-        <v>-1.959759597239668</v>
+        <v>21.55138516520071</v>
       </c>
       <c r="H123" t="n">
-        <v>718.2340463265556</v>
+        <v>648.9885726025091</v>
       </c>
       <c r="I123" t="n">
-        <v>944.4845582615494</v>
+        <v>920.9686148347993</v>
       </c>
       <c r="J123" t="n">
-        <v>782.4026505210417</v>
+        <v>732.9796633545201</v>
       </c>
       <c r="K123" t="n">
-        <v>872.1127840636473</v>
+        <v>836.9775240827882</v>
       </c>
     </row>
     <row r="124">
@@ -5094,22 +5098,22 @@
         <v>0.814508</v>
       </c>
       <c r="F124" t="n">
-        <v>77.78999999999996</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>-12.66436201230852</v>
+        <v>10.13477965368622</v>
       </c>
       <c r="H124" t="n">
-        <v>717.4940609335551</v>
+        <v>648.1954187356247</v>
       </c>
       <c r="I124" t="n">
-        <v>953.8656761798795</v>
+        <v>931.0652203463138</v>
       </c>
       <c r="J124" t="n">
-        <v>783.462590215892</v>
+        <v>734.2104967892321</v>
       </c>
       <c r="K124" t="n">
-        <v>879.256014372213</v>
+        <v>845.0501422927064</v>
       </c>
     </row>
     <row r="125">
@@ -5126,22 +5130,22 @@
         <v>0.814455</v>
       </c>
       <c r="F125" t="n">
-        <v>77.69000000000005</v>
+        <v>77.69</v>
       </c>
       <c r="G125" t="n">
-        <v>8.919650732982177</v>
+        <v>30.97542520364425</v>
       </c>
       <c r="H125" t="n">
-        <v>716.6570407539378</v>
+        <v>647.3260591441084</v>
       </c>
       <c r="I125" t="n">
-        <v>963.9124885503422</v>
+        <v>941.8545747963558</v>
       </c>
       <c r="J125" t="n">
-        <v>784.4657599249089</v>
+        <v>735.4449876678013</v>
       </c>
       <c r="K125" t="n">
-        <v>886.8939771885258</v>
+        <v>853.735646272663</v>
       </c>
     </row>
     <row r="126">
@@ -5158,22 +5162,22 @@
         <v>0.814402</v>
       </c>
       <c r="F126" t="n">
-        <v>77.58999999999992</v>
+        <v>77.59</v>
       </c>
       <c r="G126" t="n">
-        <v>22.6398561895619</v>
+        <v>43.93702173093902</v>
       </c>
       <c r="H126" t="n">
-        <v>715.7590393451801</v>
+        <v>646.4070077126089</v>
       </c>
       <c r="I126" t="n">
-        <v>974.7434999416853</v>
+        <v>953.442978269061</v>
       </c>
       <c r="J126" t="n">
-        <v>785.4452224319067</v>
+        <v>736.7140585545739</v>
       </c>
       <c r="K126" t="n">
-        <v>895.1243068723734</v>
+        <v>863.135927427096</v>
       </c>
     </row>
     <row r="127">
@@ -5190,22 +5194,22 @@
         <v>0.814349</v>
       </c>
       <c r="F127" t="n">
-        <v>77.49000000000001</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>-7.336382001458787</v>
+        <v>13.18070850492552</v>
       </c>
       <c r="H127" t="n">
-        <v>714.7552179943183</v>
+        <v>645.4063141135027</v>
       </c>
       <c r="I127" t="n">
-        <v>986.4080085399577</v>
+        <v>965.8892914950745</v>
       </c>
       <c r="J127" t="n">
-        <v>786.4412676837338</v>
+        <v>737.9904823250948</v>
       </c>
       <c r="K127" t="n">
-        <v>904.0612716031316</v>
+        <v>873.3051232834824</v>
       </c>
     </row>
     <row r="128">
@@ -5222,22 +5226,22 @@
         <v>0.814296</v>
       </c>
       <c r="F128" t="n">
-        <v>77.3900000000001</v>
+        <v>77.39</v>
       </c>
       <c r="G128" t="n">
-        <v>-13.84093183967616</v>
+        <v>5.891517843320116</v>
       </c>
       <c r="H128" t="n">
-        <v>713.7371916154939</v>
+        <v>644.3952006252373</v>
       </c>
       <c r="I128" t="n">
-        <v>999.1055039363093</v>
+        <v>979.3684821566799</v>
       </c>
       <c r="J128" t="n">
-        <v>787.413606231314</v>
+        <v>739.3505466263623</v>
       </c>
       <c r="K128" t="n">
-        <v>913.7496203029619</v>
+        <v>884.4131361555549</v>
       </c>
     </row>
     <row r="129">
@@ -5254,22 +5258,22 @@
         <v>0.814244</v>
       </c>
       <c r="F129" t="n">
-        <v>77.28999999999996</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="G129" t="n">
-        <v>-43.11053011241893</v>
+        <v>-24.1446905678207</v>
       </c>
       <c r="H129" t="n">
-        <v>712.7379027835055</v>
+        <v>643.3988202679518</v>
       </c>
       <c r="I129" t="n">
-        <v>1012.993022338336</v>
+        <v>994.0246905678207</v>
       </c>
       <c r="J129" t="n">
-        <v>788.4587433842955</v>
+        <v>740.8248425523824</v>
       </c>
       <c r="K129" t="n">
-        <v>924.3839521675077</v>
+        <v>896.5986682833902</v>
       </c>
     </row>
     <row r="130">
@@ -5286,22 +5290,22 @@
         <v>0.814191</v>
       </c>
       <c r="F130" t="n">
-        <v>77.19000000000005</v>
+        <v>77.19</v>
       </c>
       <c r="G130" t="n">
-        <v>2.189541075644229</v>
+        <v>20.40457395987801</v>
       </c>
       <c r="H130" t="n">
-        <v>711.7485077294297</v>
+        <v>642.4076505995268</v>
       </c>
       <c r="I130" t="n">
-        <v>1028.205046926434</v>
+        <v>1009.985426040122</v>
       </c>
       <c r="J130" t="n">
-        <v>789.6148845296782</v>
+        <v>742.4096922323564</v>
       </c>
       <c r="K130" t="n">
-        <v>936.1160405921638</v>
+        <v>909.9833844072925</v>
       </c>
     </row>
     <row r="131">
@@ -5318,22 +5322,22 @@
         <v>0.814138</v>
       </c>
       <c r="F131" t="n">
-        <v>77.08999999999992</v>
+        <v>77.09</v>
       </c>
       <c r="G131" t="n">
-        <v>-76.16992828550121</v>
+        <v>-58.6987979429249</v>
       </c>
       <c r="H131" t="n">
-        <v>710.6740251869697</v>
+        <v>641.3513032612191</v>
       </c>
       <c r="I131" t="n">
-        <v>1044.812836490253</v>
+        <v>1027.338797942925</v>
       </c>
       <c r="J131" t="n">
-        <v>790.8788558171782</v>
+        <v>744.040995824447</v>
       </c>
       <c r="K131" t="n">
-        <v>949.0746988386852</v>
+        <v>924.6491053796968</v>
       </c>
     </row>
     <row r="132">
@@ -5350,22 +5354,22 @@
         <v>0.8140849999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>76.99000000000001</v>
+        <v>76.98999999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>-20.83168641901375</v>
+        <v>-4.071519413470241</v>
       </c>
       <c r="H132" t="n">
-        <v>709.5970263410165</v>
+        <v>640.292328001475</v>
       </c>
       <c r="I132" t="n">
-        <v>1063.092629686609</v>
+        <v>1046.33151941347</v>
       </c>
       <c r="J132" t="n">
-        <v>792.1617915301968</v>
+        <v>745.7880771049485</v>
       </c>
       <c r="K132" t="n">
-        <v>963.3250701470257</v>
+        <v>940.8357703099966</v>
       </c>
     </row>
     <row r="133">
@@ -5382,22 +5386,22 @@
         <v>0.814033</v>
       </c>
       <c r="F133" t="n">
-        <v>76.8900000000001</v>
+        <v>76.89</v>
       </c>
       <c r="G133" t="n">
-        <v>-49.5578128392026</v>
+        <v>-33.46446491460415</v>
       </c>
       <c r="H133" t="n">
-        <v>708.4896032349045</v>
+        <v>639.2065866610865</v>
       </c>
       <c r="I133" t="n">
-        <v>1083.243179402966</v>
+        <v>1067.154464914604</v>
       </c>
       <c r="J133" t="n">
-        <v>793.5528668859467</v>
+        <v>747.6341036639238</v>
       </c>
       <c r="K133" t="n">
-        <v>979.1367891416785</v>
+        <v>958.726947911767</v>
       </c>
     </row>
     <row r="134">
@@ -5414,22 +5418,22 @@
         <v>0.81398</v>
       </c>
       <c r="F134" t="n">
-        <v>76.78999999999996</v>
+        <v>76.79000000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>-20.75701029924221</v>
+        <v>-5.309391489096697</v>
       </c>
       <c r="H134" t="n">
-        <v>707.2579420812169</v>
+        <v>638.0235397705412</v>
       </c>
       <c r="I134" t="n">
-        <v>1105.437223572295</v>
+        <v>1089.989391489097</v>
       </c>
       <c r="J134" t="n">
-        <v>795.0313141857129</v>
+        <v>749.5164249636595</v>
       </c>
       <c r="K134" t="n">
-        <v>996.7014684521573</v>
+        <v>978.4965062959784</v>
       </c>
     </row>
     <row r="135">
@@ -5446,22 +5450,22 @@
         <v>0.813927</v>
       </c>
       <c r="F135" t="n">
-        <v>76.69000000000005</v>
+        <v>76.69</v>
       </c>
       <c r="G135" t="n">
-        <v>-12.21971210122138</v>
+        <v>2.650363765221755</v>
       </c>
       <c r="H135" t="n">
-        <v>705.9385928638791</v>
+        <v>636.768909441313</v>
       </c>
       <c r="I135" t="n">
-        <v>1130.026345865674</v>
+        <v>1115.159636234778</v>
       </c>
       <c r="J135" t="n">
-        <v>796.5110494083509</v>
+        <v>751.469292637626</v>
       </c>
       <c r="K135" t="n">
-        <v>1016.184116245161</v>
+        <v>1000.459253038465</v>
       </c>
     </row>
     <row r="136">
@@ -5478,22 +5482,22 @@
         <v>0.813874</v>
       </c>
       <c r="F136" t="n">
-        <v>76.58999999999992</v>
+        <v>76.59</v>
       </c>
       <c r="G136" t="n">
-        <v>-37.71468727869978</v>
+        <v>-23.36709991266753</v>
       </c>
       <c r="H136" t="n">
-        <v>704.4610208402232</v>
+        <v>635.3915708704906</v>
       </c>
       <c r="I136" t="n">
-        <v>1157.314281319055</v>
+        <v>1142.967099912667</v>
       </c>
       <c r="J136" t="n">
-        <v>798.0370013813547</v>
+        <v>753.4508161510555</v>
       </c>
       <c r="K136" t="n">
-        <v>1037.927937348199</v>
+        <v>1024.907854632102</v>
       </c>
     </row>
     <row r="137">
@@ -5510,22 +5514,22 @@
         <v>0.813822</v>
       </c>
       <c r="F137" t="n">
-        <v>76.49000000000001</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="G137" t="n">
-        <v>-25.00637379176942</v>
+        <v>-11.06836599337271</v>
       </c>
       <c r="H137" t="n">
-        <v>702.9115268028995</v>
+        <v>633.9569190720663</v>
       </c>
       <c r="I137" t="n">
-        <v>1187.834363204687</v>
+        <v>1173.898365993373</v>
       </c>
       <c r="J137" t="n">
-        <v>799.5477299996853</v>
+        <v>755.536401362084</v>
       </c>
       <c r="K137" t="n">
-        <v>1062.227572159593</v>
+        <v>1052.318883703355</v>
       </c>
     </row>
     <row r="138">
@@ -5542,22 +5546,22 @@
         <v>0.813769</v>
       </c>
       <c r="F138" t="n">
-        <v>76.3900000000001</v>
+        <v>76.39</v>
       </c>
       <c r="G138" t="n">
-        <v>-138.8443231816316</v>
+        <v>-125.186156844195</v>
       </c>
       <c r="H138" t="n">
-        <v>701.2802882598739</v>
+        <v>632.462116342572</v>
       </c>
       <c r="I138" t="n">
-        <v>1222.11365391308</v>
+        <v>1208.456156844195</v>
       </c>
       <c r="J138" t="n">
-        <v>801.1394213483654</v>
+        <v>757.7340785623571</v>
       </c>
       <c r="K138" t="n">
-        <v>1089.606468659221</v>
+        <v>1083.18419462441</v>
       </c>
     </row>
     <row r="139">
@@ -5574,22 +5578,22 @@
         <v>0.813716</v>
       </c>
       <c r="F139" t="n">
-        <v>76.28999999999996</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>28.4424114325268</v>
+        <v>42.03219222073517</v>
       </c>
       <c r="H139" t="n">
-        <v>699.6931009260331</v>
+        <v>630.9938479411053</v>
       </c>
       <c r="I139" t="n">
-        <v>1260.926360964722</v>
+        <v>1247.337807779265</v>
       </c>
       <c r="J139" t="n">
-        <v>802.813013042182</v>
+        <v>760.1423487198556</v>
       </c>
       <c r="K139" t="n">
-        <v>1120.580929130772</v>
+        <v>1118.189307000514</v>
       </c>
     </row>
     <row r="140">
@@ -5606,22 +5610,22 @@
         <v>0.8136640000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>76.19000000000005</v>
+        <v>76.19</v>
       </c>
       <c r="G140" t="n">
-        <v>40.13621542468354</v>
+        <v>53.84426105740476</v>
       </c>
       <c r="H140" t="n">
-        <v>697.8455067396685</v>
+        <v>629.3121744686121</v>
       </c>
       <c r="I140" t="n">
-        <v>1304.75553350362</v>
+        <v>1291.045738942595</v>
       </c>
       <c r="J140" t="n">
-        <v>804.7060305178686</v>
+        <v>762.5341378540433</v>
       </c>
       <c r="K140" t="n">
-        <v>1155.913431372887</v>
+        <v>1157.823775557164</v>
       </c>
     </row>
     <row r="141">
@@ -5638,22 +5642,22 @@
         <v>0.813611</v>
       </c>
       <c r="F141" t="n">
-        <v>76.08999999999992</v>
+        <v>76.09</v>
       </c>
       <c r="G141" t="n">
-        <v>-70.91855447306966</v>
+        <v>-56.90758764135649</v>
       </c>
       <c r="H141" t="n">
-        <v>695.5320652137584</v>
+        <v>627.2763153535818</v>
       </c>
       <c r="I141" t="n">
-        <v>1354.357446031813</v>
+        <v>1340.347587641357</v>
       </c>
       <c r="J141" t="n">
-        <v>806.5268220553776</v>
+        <v>764.7826956356378</v>
       </c>
       <c r="K141" t="n">
-        <v>1196.074218187911</v>
+        <v>1202.841207359301</v>
       </c>
     </row>
     <row r="142">
@@ -5670,22 +5674,22 @@
         <v>0.813558</v>
       </c>
       <c r="F142" t="n">
-        <v>75.99000000000001</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>82.66946799812717</v>
+        <v>97.33576687974596</v>
       </c>
       <c r="H142" t="n">
-        <v>693.2005416559219</v>
+        <v>625.2182236035761</v>
       </c>
       <c r="I142" t="n">
-        <v>1411.360459800506</v>
+        <v>1396.694233120254</v>
       </c>
       <c r="J142" t="n">
-        <v>808.0839511639201</v>
+        <v>767.2353003405068</v>
       </c>
       <c r="K142" t="n">
-        <v>1241.805560081651</v>
+        <v>1254.677156383323</v>
       </c>
     </row>
     <row r="143">
@@ -5702,22 +5706,22 @@
         <v>0.813505</v>
       </c>
       <c r="F143" t="n">
-        <v>75.8900000000001</v>
+        <v>75.89</v>
       </c>
       <c r="G143" t="n">
-        <v>6.861358515146549</v>
+        <v>22.54369643469818</v>
       </c>
       <c r="H143" t="n">
-        <v>690.5705411621291</v>
+        <v>622.9215413631955</v>
       </c>
       <c r="I143" t="n">
-        <v>1476.940216152495</v>
+        <v>1461.256303565302</v>
       </c>
       <c r="J143" t="n">
-        <v>809.8405220041623</v>
+        <v>769.6923620078215</v>
       </c>
       <c r="K143" t="n">
-        <v>1294.720479452266</v>
+        <v>1314.485482920676</v>
       </c>
     </row>
     <row r="144">
@@ -5734,22 +5738,22 @@
         <v>0.813453</v>
       </c>
       <c r="F144" t="n">
-        <v>75.78999999999996</v>
+        <v>75.79000000000001</v>
       </c>
       <c r="G144" t="n">
-        <v>-46.71564163312064</v>
+        <v>-29.60850011551884</v>
       </c>
       <c r="H144" t="n">
-        <v>687.5813689531602</v>
+        <v>620.351661693895</v>
       </c>
       <c r="I144" t="n">
-        <v>1552.838306372203</v>
+        <v>1535.728500115519</v>
       </c>
       <c r="J144" t="n">
-        <v>811.5329692617877</v>
+        <v>772.1376519330759</v>
       </c>
       <c r="K144" t="n">
-        <v>1355.977788052837</v>
+        <v>1383.942509876338</v>
       </c>
     </row>
     <row r="145">
@@ -5766,22 +5770,22 @@
         <v>0.8134</v>
       </c>
       <c r="F145" t="n">
-        <v>75.69000000000005</v>
+        <v>75.69</v>
       </c>
       <c r="G145" t="n">
-        <v>-37.60133665111857</v>
+        <v>-18.50418168093893</v>
       </c>
       <c r="H145" t="n">
-        <v>684.539959892157</v>
+        <v>617.7354454175762</v>
       </c>
       <c r="I145" t="n">
-        <v>1641.596910784387</v>
+        <v>1622.504181680939</v>
       </c>
       <c r="J145" t="n">
-        <v>813.1190959962931</v>
+        <v>774.8182105393433</v>
       </c>
       <c r="K145" t="n">
-        <v>1427.300579329069</v>
+        <v>1465.421416559172</v>
       </c>
     </row>
     <row r="146">
@@ -5798,22 +5802,22 @@
         <v>0.813347</v>
       </c>
       <c r="F146" t="n">
-        <v>75.58999999999992</v>
+        <v>75.59</v>
       </c>
       <c r="G146" t="n">
-        <v>108.2125057992725</v>
+        <v>129.8530191277146</v>
       </c>
       <c r="H146" t="n">
-        <v>681.2166760352098</v>
+        <v>614.884275538026</v>
       </c>
       <c r="I146" t="n">
-        <v>1745.756341445507</v>
+        <v>1724.116980872285</v>
       </c>
       <c r="J146" t="n">
-        <v>814.9262057927293</v>
+        <v>777.5676199271337</v>
       </c>
       <c r="K146" t="n">
-        <v>1511.210664883814</v>
+        <v>1561.433636483178</v>
       </c>
     </row>
     <row r="147">
@@ -5830,22 +5834,22 @@
         <v>0.813295</v>
       </c>
       <c r="F147" t="n">
-        <v>75.49000000000001</v>
+        <v>75.48999999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>42.51089347485708</v>
+        <v>67.16327356908027</v>
       </c>
       <c r="H147" t="n">
-        <v>677.2264156642791</v>
+        <v>611.5083531511193</v>
       </c>
       <c r="I147" t="n">
-        <v>1868.345560825243</v>
+        <v>1843.69672643092</v>
       </c>
       <c r="J147" t="n">
-        <v>816.7471322008137</v>
+        <v>780.1205495058001</v>
       </c>
       <c r="K147" t="n">
-        <v>1610.225885279904</v>
+        <v>1675.084530076239</v>
       </c>
     </row>
     <row r="148">
@@ -5862,22 +5866,22 @@
         <v>0.813242</v>
       </c>
       <c r="F148" t="n">
-        <v>75.3900000000001</v>
+        <v>75.39</v>
       </c>
       <c r="G148" t="n">
-        <v>-15.16076402126737</v>
+        <v>12.85871393386628</v>
       </c>
       <c r="H148" t="n">
-        <v>672.6704378508539</v>
+        <v>607.6952120454786</v>
       </c>
       <c r="I148" t="n">
-        <v>2013.618787586208</v>
+        <v>1985.601286066134</v>
       </c>
       <c r="J148" t="n">
-        <v>818.2216138194373</v>
+        <v>782.5915572548122</v>
       </c>
       <c r="K148" t="n">
-        <v>1727.350362670085</v>
+        <v>1810.7049408568</v>
       </c>
     </row>
     <row r="149">
@@ -5894,22 +5898,22 @@
         <v>0.8131890000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>75.28999999999996</v>
+        <v>75.29000000000001</v>
       </c>
       <c r="G149" t="n">
-        <v>19.28843364397926</v>
+        <v>50.7715960661194</v>
       </c>
       <c r="H149" t="n">
-        <v>667.7849365196826</v>
+        <v>603.6145894718707</v>
       </c>
       <c r="I149" t="n">
-        <v>2186.730093414306</v>
+        <v>2155.248403933881</v>
       </c>
       <c r="J149" t="n">
-        <v>819.4784249254051</v>
+        <v>785.1802904784518</v>
       </c>
       <c r="K149" t="n">
-        <v>1866.810800511657</v>
+        <v>1973.6827029273</v>
       </c>
     </row>
     <row r="150">
@@ -5926,22 +5930,22 @@
         <v>0.813137</v>
       </c>
       <c r="F150" t="n">
-        <v>75.19000000000005</v>
+        <v>75.19</v>
       </c>
       <c r="G150" t="n">
-        <v>63.28852666740477</v>
+        <v>97.56189219978569</v>
       </c>
       <c r="H150" t="n">
-        <v>662.2710056999423</v>
+        <v>599.0294560908214</v>
       </c>
       <c r="I150" t="n">
-        <v>2392.902742454526</v>
+        <v>2358.628107800214</v>
       </c>
       <c r="J150" t="n">
-        <v>820.7843026099403</v>
+        <v>787.6828967155946</v>
       </c>
       <c r="K150" t="n">
-        <v>2033.730727324048</v>
+        <v>2169.974667175441</v>
       </c>
     </row>
     <row r="151">
@@ -5958,22 +5962,22 @@
         <v>0.813084</v>
       </c>
       <c r="F151" t="n">
-        <v>75.08999999999992</v>
+        <v>75.09</v>
       </c>
       <c r="G151" t="n">
-        <v>-80.6501043427952</v>
+        <v>-45.63333882141751</v>
       </c>
       <c r="H151" t="n">
-        <v>655.8822888850542</v>
+        <v>593.7605456678667</v>
       </c>
       <c r="I151" t="n">
-        <v>2637.433905278492</v>
+        <v>2602.413338821418</v>
       </c>
       <c r="J151" t="n">
-        <v>821.8743205014237</v>
+        <v>789.956994577596</v>
       </c>
       <c r="K151" t="n">
-        <v>2233.299427653045</v>
+        <v>2406.216889911689</v>
       </c>
     </row>
     <row r="152">
@@ -5990,22 +5994,22 @@
         <v>0.813032</v>
       </c>
       <c r="F152" t="n">
-        <v>74.99000000000001</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="G152" t="n">
-        <v>-27.50626152512041</v>
+        <v>4.098164191244905</v>
       </c>
       <c r="H152" t="n">
-        <v>648.7604335415444</v>
+        <v>587.9094882271125</v>
       </c>
       <c r="I152" t="n">
-        <v>2924.60010284994</v>
+        <v>2892.991835808755</v>
       </c>
       <c r="J152" t="n">
-        <v>822.540012097263</v>
+        <v>792.1453193358279</v>
       </c>
       <c r="K152" t="n">
-        <v>2470.776182066284</v>
+        <v>2688.75600470004</v>
       </c>
     </row>
     <row r="153">
@@ -6022,22 +6026,22 @@
         <v>0.812979</v>
       </c>
       <c r="F153" t="n">
-        <v>74.8900000000001</v>
+        <v>74.89</v>
       </c>
       <c r="G153" t="n">
-        <v>-62.74866330746772</v>
+        <v>-41.74893968300239</v>
       </c>
       <c r="H153" t="n">
-        <v>640.6838343485236</v>
+        <v>581.2958620490383</v>
       </c>
       <c r="I153" t="n">
-        <v>3253.987305388014</v>
+        <v>3232.988939683002</v>
       </c>
       <c r="J153" t="n">
-        <v>822.9653769494832</v>
+        <v>794.113372110018</v>
       </c>
       <c r="K153" t="n">
-        <v>2750.395159442</v>
+        <v>3020.171429622023</v>
       </c>
     </row>
     <row r="154">
@@ -6054,22 +6058,22 @@
         <v>0.812926</v>
       </c>
       <c r="F154" t="n">
-        <v>74.78999999999996</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>-98.91843389322412</v>
+        <v>-98.80302425711534</v>
       </c>
       <c r="H154" t="n">
-        <v>631.3347957437267</v>
+        <v>573.6809462091517</v>
       </c>
       <c r="I154" t="n">
-        <v>3615.733002500945</v>
+        <v>3615.613024257115</v>
       </c>
       <c r="J154" t="n">
-        <v>822.9762680863284</v>
+        <v>795.6738707379016</v>
       </c>
       <c r="K154" t="n">
-        <v>3071.694871650209</v>
+        <v>3393.620099728365</v>
       </c>
     </row>
     <row r="155">
@@ -6086,22 +6090,22 @@
         <v>0.812874</v>
       </c>
       <c r="F155" t="n">
-        <v>74.69000000000005</v>
+        <v>74.69</v>
       </c>
       <c r="G155" t="n">
-        <v>20.97399468597951</v>
+        <v>-10.38173741065793</v>
       </c>
       <c r="H155" t="n">
-        <v>620.6391820652626</v>
+        <v>564.9958515584399</v>
       </c>
       <c r="I155" t="n">
-        <v>3984.148570434813</v>
+        <v>4015.501737410658</v>
       </c>
       <c r="J155" t="n">
-        <v>822.3083092622662</v>
+        <v>796.8157002448644</v>
       </c>
       <c r="K155" t="n">
-        <v>3424.759488982406</v>
+        <v>3783.681888724233</v>
       </c>
     </row>
     <row r="156">
@@ -6118,22 +6122,22 @@
         <v>0.812821</v>
       </c>
       <c r="F156" t="n">
-        <v>74.58999999999992</v>
+        <v>74.59</v>
       </c>
       <c r="G156" t="n">
-        <v>13.58206251617139</v>
+        <v>-53.15361694615603</v>
       </c>
       <c r="H156" t="n">
-        <v>608.2765760673367</v>
+        <v>554.9998079003652</v>
       </c>
       <c r="I156" t="n">
-        <v>4312.401149039632</v>
+        <v>4379.133616946156</v>
       </c>
       <c r="J156" t="n">
-        <v>820.9474323448026</v>
+        <v>797.3631652309349</v>
       </c>
       <c r="K156" t="n">
-        <v>3783.840320155273</v>
+        <v>4136.770259615586</v>
       </c>
     </row>
     <row r="157">
@@ -6150,22 +6154,22 @@
         <v>0.812769</v>
       </c>
       <c r="F157" t="n">
-        <v>74.49000000000001</v>
+        <v>74.48999999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>65.65312030920268</v>
+        <v>-24.60880043830366</v>
       </c>
       <c r="H157" t="n">
-        <v>594.3441441235263</v>
+        <v>543.7822987228992</v>
       </c>
       <c r="I157" t="n">
-        <v>4538.336451143449</v>
+        <v>4628.598800438303</v>
       </c>
       <c r="J157" t="n">
-        <v>818.6410826365375</v>
+        <v>797.4792658067404</v>
       </c>
       <c r="K157" t="n">
-        <v>4102.036642470432</v>
+        <v>4374.901833354462</v>
       </c>
     </row>
     <row r="158">
@@ -6182,22 +6186,22 @@
         <v>0.812716</v>
       </c>
       <c r="F158" t="n">
-        <v>74.3900000000001</v>
+        <v>74.39</v>
       </c>
       <c r="G158" t="n">
-        <v>44.56984822916729</v>
+        <v>-36.59799009084418</v>
       </c>
       <c r="H158" t="n">
-        <v>579.3020588231237</v>
+        <v>531.7114136861925</v>
       </c>
       <c r="I158" t="n">
-        <v>4604.975626450795</v>
+        <v>4686.147990090844</v>
       </c>
       <c r="J158" t="n">
-        <v>815.5633237406763</v>
+        <v>797.6154047614597</v>
       </c>
       <c r="K158" t="n">
-        <v>4317.117271526299</v>
+        <v>4420.243999015577</v>
       </c>
     </row>
     <row r="159">
@@ -6214,22 +6218,22 @@
         <v>0.812663</v>
       </c>
       <c r="F159" t="n">
-        <v>74.28999999999996</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>104.2353676356715</v>
+        <v>80.02414857302483</v>
       </c>
       <c r="H159" t="n">
-        <v>563.8610965385044</v>
+        <v>519.3594037441544</v>
       </c>
       <c r="I159" t="n">
-        <v>4333.92657649123</v>
+        <v>4358.135851426975</v>
       </c>
       <c r="J159" t="n">
-        <v>812.2617338799881</v>
+        <v>798.4385574697682</v>
       </c>
       <c r="K159" t="n">
-        <v>4372.015951393931</v>
+        <v>4079.056697701361</v>
       </c>
     </row>
     <row r="160">
@@ -6246,22 +6250,22 @@
         <v>0.812611</v>
       </c>
       <c r="F160" t="n">
-        <v>74.19000000000005</v>
+        <v>74.19</v>
       </c>
       <c r="G160" t="n">
-        <v>-89.99204365674268</v>
+        <v>-71.04496783332252</v>
       </c>
       <c r="H160" t="n">
-        <v>549.2965366496692</v>
+        <v>507.7484222452626</v>
       </c>
       <c r="I160" t="n">
-        <v>3737.715247009884</v>
+        <v>3718.764967833322</v>
       </c>
       <c r="J160" t="n">
-        <v>809.5467624618686</v>
+        <v>801.0789461732743</v>
       </c>
       <c r="K160" t="n">
-        <v>4088.240910567865</v>
+        <v>3425.434443905311</v>
       </c>
     </row>
     <row r="161">
@@ -6278,22 +6282,22 @@
         <v>0.812558</v>
       </c>
       <c r="F161" t="n">
-        <v>74.08999999999992</v>
+        <v>74.09</v>
       </c>
       <c r="G161" t="n">
-        <v>73.67538453990937</v>
+        <v>100.1840254045951</v>
       </c>
       <c r="H161" t="n">
-        <v>536.943494249095</v>
+        <v>497.9067434557066</v>
       </c>
       <c r="I161" t="n">
-        <v>3041.720685648312</v>
+        <v>3015.215974595405</v>
       </c>
       <c r="J161" t="n">
-        <v>808.807737520689</v>
+        <v>806.6885833143949</v>
       </c>
       <c r="K161" t="n">
-        <v>3478.204046138865</v>
+        <v>2706.434134736717</v>
       </c>
     </row>
     <row r="162">
@@ -6310,22 +6314,22 @@
         <v>0.812506</v>
       </c>
       <c r="F162" t="n">
-        <v>73.99000000000001</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="G162" t="n">
-        <v>-52.20120587976862</v>
+        <v>-43.64679475340608</v>
       </c>
       <c r="H162" t="n">
-        <v>527.1414962085619</v>
+        <v>490.085885732982</v>
       </c>
       <c r="I162" t="n">
-        <v>2419.260649133111</v>
+        <v>2410.706794753406</v>
       </c>
       <c r="J162" t="n">
-        <v>811.5107360638237</v>
+        <v>815.6612036370101</v>
       </c>
       <c r="K162" t="n">
-        <v>2767.153443833583</v>
+        <v>2085.131476849378</v>
       </c>
     </row>
     <row r="163">
@@ -6342,22 +6346,22 @@
         <v>0.812453</v>
       </c>
       <c r="F163" t="n">
-        <v>73.8900000000001</v>
+        <v>73.89</v>
       </c>
       <c r="G163" t="n">
-        <v>41.25293201874047</v>
+        <v>25.70759735405659</v>
       </c>
       <c r="H163" t="n">
-        <v>519.6919725360671</v>
+        <v>484.1243562241485</v>
       </c>
       <c r="I163" t="n">
-        <v>1940.584786593906</v>
+        <v>1956.132402645943</v>
       </c>
       <c r="J163" t="n">
-        <v>818.1462282614631</v>
+        <v>827.9994193432647</v>
       </c>
       <c r="K163" t="n">
-        <v>2128.25591708021</v>
+        <v>1612.257339526827</v>
       </c>
     </row>
     <row r="164">
@@ -6374,22 +6378,22 @@
         <v>0.8124</v>
       </c>
       <c r="F164" t="n">
-        <v>73.78999999999996</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="G164" t="n">
-        <v>101.3963566259513</v>
+        <v>67.09422745281358</v>
       </c>
       <c r="H164" t="n">
-        <v>514.0107662374207</v>
+        <v>479.5465924669757</v>
       </c>
       <c r="I164" t="n">
-        <v>1604.327424762528</v>
+        <v>1638.625772547186</v>
       </c>
       <c r="J164" t="n">
-        <v>828.6902953391045</v>
+        <v>843.4178235499377</v>
       </c>
       <c r="K164" t="n">
-        <v>1631.586463790868</v>
+        <v>1274.754541464225</v>
       </c>
     </row>
     <row r="165">
@@ -6406,22 +6410,22 @@
         <v>0.812348</v>
       </c>
       <c r="F165" t="n">
-        <v>73.69000000000005</v>
+        <v>73.69</v>
       </c>
       <c r="G165" t="n">
-        <v>25.34998467627588</v>
+        <v>-19.57674952195657</v>
       </c>
       <c r="H165" t="n">
-        <v>509.5034338700849</v>
+        <v>475.8977052044311</v>
       </c>
       <c r="I165" t="n">
-        <v>1381.276239552749</v>
+        <v>1426.206749521957</v>
       </c>
       <c r="J165" t="n">
-        <v>842.7616870788198</v>
+        <v>861.6828386776592</v>
       </c>
       <c r="K165" t="n">
-        <v>1275.576503921129</v>
+        <v>1040.421616048729</v>
       </c>
     </row>
     <row r="166">
@@ -6438,22 +6442,22 @@
         <v>0.812295</v>
       </c>
       <c r="F166" t="n">
-        <v>73.58999999999992</v>
+        <v>73.59</v>
       </c>
       <c r="G166" t="n">
-        <v>6.327727299414619</v>
+        <v>-42.46954081399736</v>
       </c>
       <c r="H166" t="n">
-        <v>505.9755082312213</v>
+        <v>473.0220596366842</v>
       </c>
       <c r="I166" t="n">
-        <v>1239.980572025338</v>
+        <v>1288.779540813997</v>
       </c>
       <c r="J166" t="n">
-        <v>860.0026989539713</v>
+        <v>882.8975951493678</v>
       </c>
       <c r="K166" t="n">
-        <v>1030.776974468863</v>
+        <v>878.9040053013136</v>
       </c>
     </row>
     <row r="167">
@@ -6470,22 +6474,22 @@
         <v>0.812243</v>
       </c>
       <c r="F167" t="n">
-        <v>73.49000000000001</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="G167" t="n">
-        <v>66.580915867665</v>
+        <v>18.33430243405701</v>
       </c>
       <c r="H167" t="n">
-        <v>503.0644452251762</v>
+        <v>470.6259465672554</v>
       </c>
       <c r="I167" t="n">
-        <v>1155.14337107602</v>
+        <v>1203.385697565943</v>
       </c>
       <c r="J167" t="n">
-        <v>880.4963070014152</v>
+        <v>907.0724137630084</v>
       </c>
       <c r="K167" t="n">
-        <v>865.4597732551445</v>
+        <v>766.93923037019</v>
       </c>
     </row>
     <row r="168">
@@ -6502,22 +6506,22 @@
         <v>0.81219</v>
       </c>
       <c r="F168" t="n">
-        <v>73.3900000000001</v>
+        <v>73.39</v>
       </c>
       <c r="G168" t="n">
-        <v>17.03726697340107</v>
+        <v>-28.1980199867412</v>
       </c>
       <c r="H168" t="n">
-        <v>500.4347660903576</v>
+        <v>468.451730752045</v>
       </c>
       <c r="I168" t="n">
-        <v>1108.90370742914</v>
+        <v>1154.138019986741</v>
       </c>
       <c r="J168" t="n">
-        <v>904.2066259913572</v>
+        <v>934.3086988021388</v>
       </c>
       <c r="K168" t="n">
-        <v>754.001190309839</v>
+        <v>688.2810519366474</v>
       </c>
     </row>
     <row r="169">
@@ -6534,22 +6538,22 @@
         <v>0.812138</v>
       </c>
       <c r="F169" t="n">
-        <v>73.28999999999996</v>
+        <v>73.29000000000001</v>
       </c>
       <c r="G169" t="n">
-        <v>39.74005266646964</v>
+        <v>-1.304870323853038</v>
       </c>
       <c r="H169" t="n">
-        <v>497.9975175870129</v>
+        <v>466.4301833206559</v>
       </c>
       <c r="I169" t="n">
-        <v>1089.616041987394</v>
+        <v>1130.664870323853</v>
       </c>
       <c r="J169" t="n">
-        <v>931.1846461660718</v>
+        <v>964.963498754262</v>
       </c>
       <c r="K169" t="n">
-        <v>678.1538273534258</v>
+        <v>632.1315548902469</v>
       </c>
     </row>
     <row r="170">
@@ -6566,22 +6570,22 @@
         <v>0.8120849999999999</v>
       </c>
       <c r="F170" t="n">
-        <v>73.19000000000005</v>
+        <v>73.19</v>
       </c>
       <c r="G170" t="n">
-        <v>63.58307296387966</v>
+        <v>27.15976912296333</v>
       </c>
       <c r="H170" t="n">
-        <v>495.6166588622152</v>
+        <v>464.4498315838585</v>
       </c>
       <c r="I170" t="n">
-        <v>1089.822050883993</v>
+        <v>1126.250230877037</v>
       </c>
       <c r="J170" t="n">
-        <v>961.8009468598393</v>
+        <v>999.4342916957999</v>
       </c>
       <c r="K170" t="n">
-        <v>625.8126127145679</v>
+        <v>591.2657707650955</v>
       </c>
     </row>
     <row r="171">
@@ -6598,22 +6602,22 @@
         <v>0.812033</v>
       </c>
       <c r="F171" t="n">
-        <v>73.08999999999992</v>
+        <v>73.09</v>
       </c>
       <c r="G171" t="n">
-        <v>62.20967853659226</v>
+        <v>30.45136726500709</v>
       </c>
       <c r="H171" t="n">
-        <v>493.1652989869111</v>
+        <v>462.4144659903498</v>
       </c>
       <c r="I171" t="n">
-        <v>1104.933774993006</v>
+        <v>1136.688632734993</v>
       </c>
       <c r="J171" t="n">
-        <v>996.4687432962053</v>
+        <v>1038.236090682487</v>
       </c>
       <c r="K171" t="n">
-        <v>588.9699664500032</v>
+        <v>560.8670080428561</v>
       </c>
     </row>
     <row r="172">
@@ -6630,22 +6634,22 @@
         <v>0.81198</v>
       </c>
       <c r="F172" t="n">
-        <v>72.99000000000001</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>42.8351576262728</v>
+        <v>15.68331392729851</v>
       </c>
       <c r="H172" t="n">
-        <v>490.6480154911438</v>
+        <v>460.3287725675467</v>
       </c>
       <c r="I172" t="n">
-        <v>1132.413001195373</v>
+        <v>1159.566686072701</v>
       </c>
       <c r="J172" t="n">
-        <v>1035.721161245959</v>
+        <v>1082.112101548472</v>
       </c>
       <c r="K172" t="n">
-        <v>562.3779127339583</v>
+        <v>537.7833570917762</v>
       </c>
     </row>
     <row r="173">
@@ -6662,22 +6666,22 @@
         <v>0.811928</v>
       </c>
       <c r="F173" t="n">
-        <v>72.8900000000001</v>
+        <v>72.89</v>
       </c>
       <c r="G173" t="n">
-        <v>-17.79045994909688</v>
+        <v>-40.39695114618667</v>
       </c>
       <c r="H173" t="n">
-        <v>488.1134131804833</v>
+        <v>458.2320496204958</v>
       </c>
       <c r="I173" t="n">
-        <v>1171.081145822721</v>
+        <v>1193.686951146187</v>
       </c>
       <c r="J173" t="n">
-        <v>1080.360226848788</v>
+        <v>1131.999563392374</v>
       </c>
       <c r="K173" t="n">
-        <v>542.7007898377287</v>
+        <v>519.9194373743088</v>
       </c>
     </row>
     <row r="174">
@@ -6694,22 +6698,22 @@
         <v>0.811875</v>
       </c>
       <c r="F174" t="n">
-        <v>72.78999999999996</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="G174" t="n">
-        <v>51.7972551570399</v>
+        <v>33.76644913175255</v>
       </c>
       <c r="H174" t="n">
-        <v>485.4901534670888</v>
+        <v>456.0620879046554</v>
       </c>
       <c r="I174" t="n">
-        <v>1220.590735605085</v>
+        <v>1238.623550868248</v>
       </c>
       <c r="J174" t="n">
-        <v>1131.403347511698</v>
+        <v>1188.935052284071</v>
       </c>
       <c r="K174" t="n">
-        <v>527.7912114915064</v>
+        <v>505.750586488832</v>
       </c>
     </row>
     <row r="175">
@@ -6726,22 +6730,22 @@
         <v>0.811823</v>
       </c>
       <c r="F175" t="n">
-        <v>72.69000000000005</v>
+        <v>72.69</v>
       </c>
       <c r="G175" t="n">
-        <v>108.8465846616241</v>
+        <v>95.49664203640918</v>
       </c>
       <c r="H175" t="n">
-        <v>482.5387564776788</v>
+        <v>453.6282298435644</v>
       </c>
       <c r="I175" t="n">
-        <v>1281.173161021856</v>
+        <v>1294.523357963591</v>
       </c>
       <c r="J175" t="n">
-        <v>1189.96256529687</v>
+        <v>1254.081133648787</v>
       </c>
       <c r="K175" t="n">
-        <v>516.1183237753037</v>
+        <v>494.0704541583685</v>
       </c>
     </row>
     <row r="176">
@@ -6758,22 +6762,22 @@
         <v>0.81177</v>
       </c>
       <c r="F176" t="n">
-        <v>72.58999999999992</v>
+        <v>72.59</v>
       </c>
       <c r="G176" t="n">
-        <v>70.07311634905</v>
+        <v>61.6520640308056</v>
       </c>
       <c r="H176" t="n">
-        <v>479.2095152458161</v>
+        <v>450.90010829146</v>
       </c>
       <c r="I176" t="n">
-        <v>1353.901654829979</v>
+        <v>1362.317935969194</v>
       </c>
       <c r="J176" t="n">
-        <v>1257.251422836422</v>
+        <v>1329.084528779979</v>
       </c>
       <c r="K176" t="n">
-        <v>506.4604946631132</v>
+        <v>484.1335154806752</v>
       </c>
     </row>
     <row r="177">
@@ -6790,22 +6794,22 @@
         <v>0.8117180000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>72.49000000000001</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="G177" t="n">
-        <v>19.65616994402785</v>
+        <v>16.6377892978453</v>
       </c>
       <c r="H177" t="n">
-        <v>475.6596847211256</v>
+        <v>448.0022977663585</v>
       </c>
       <c r="I177" t="n">
-        <v>1440.690896401673</v>
+        <v>1443.712210702155</v>
       </c>
       <c r="J177" t="n">
-        <v>1335.012775572245</v>
+        <v>1416.160521909831</v>
       </c>
       <c r="K177" t="n">
-        <v>498.0983945035498</v>
+        <v>475.5539865586816</v>
       </c>
     </row>
     <row r="178">
@@ -6822,22 +6826,22 @@
         <v>0.811665</v>
       </c>
       <c r="F178" t="n">
-        <v>72.3900000000001</v>
+        <v>72.39</v>
       </c>
       <c r="G178" t="n">
-        <v>19.53756104287345</v>
+        <v>22.55602196391942</v>
       </c>
       <c r="H178" t="n">
-        <v>471.8929463683802</v>
+        <v>444.9320718753867</v>
       </c>
       <c r="I178" t="n">
-        <v>1543.976943093686</v>
+        <v>1540.953978036081</v>
       </c>
       <c r="J178" t="n">
-        <v>1425.623919561265</v>
+        <v>1517.925862668329</v>
       </c>
       <c r="K178" t="n">
-        <v>490.7266615615342</v>
+        <v>467.9601872431383</v>
       </c>
     </row>
     <row r="179">
@@ -6854,22 +6858,22 @@
         <v>0.811613</v>
       </c>
       <c r="F179" t="n">
-        <v>72.28999999999996</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="G179" t="n">
-        <v>24.68857468942451</v>
+        <v>34.53858339877775</v>
       </c>
       <c r="H179" t="n">
-        <v>467.751998128215</v>
+        <v>441.5642785540853</v>
       </c>
       <c r="I179" t="n">
-        <v>1666.794927915882</v>
+        <v>1656.941416601222</v>
       </c>
       <c r="J179" t="n">
-        <v>1531.844707543682</v>
+        <v>1637.548775205537</v>
       </c>
       <c r="K179" t="n">
-        <v>484.0251819183837</v>
+        <v>460.9569199497706</v>
       </c>
     </row>
     <row r="180">
@@ -6886,22 +6890,22 @@
         <v>0.8115599999999999</v>
       </c>
       <c r="F180" t="n">
-        <v>72.19000000000005</v>
+        <v>72.19</v>
       </c>
       <c r="G180" t="n">
-        <v>163.2301060779444</v>
+        <v>180.7709495676377</v>
       </c>
       <c r="H180" t="n">
-        <v>462.963824809905</v>
+        <v>437.6797620467273</v>
       </c>
       <c r="I180" t="n">
-        <v>1812.939246773355</v>
+        <v>1795.399050432362</v>
       </c>
       <c r="J180" t="n">
-        <v>1656.939788915066</v>
+        <v>1778.953768130803</v>
       </c>
       <c r="K180" t="n">
-        <v>477.6071371290306</v>
+        <v>454.1250443482865</v>
       </c>
     </row>
     <row r="181">
@@ -6918,22 +6922,22 @@
         <v>0.811508</v>
       </c>
       <c r="F181" t="n">
-        <v>72.08999999999992</v>
+        <v>72.09</v>
       </c>
       <c r="G181" t="n">
-        <v>52.61885516976531</v>
+        <v>78.68693080686899</v>
       </c>
       <c r="H181" t="n">
-        <v>457.4319597135967</v>
+        <v>433.2120318969143</v>
       </c>
       <c r="I181" t="n">
-        <v>1987.373356860184</v>
+        <v>1961.303069193131</v>
       </c>
       <c r="J181" t="n">
-        <v>1804.868238866288</v>
+        <v>1947.266783152204</v>
       </c>
       <c r="K181" t="n">
-        <v>471.0348327169717</v>
+        <v>447.2483179378409</v>
       </c>
     </row>
     <row r="182">
@@ -6950,22 +6954,22 @@
         <v>0.811455</v>
       </c>
       <c r="F182" t="n">
-        <v>71.99000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="G182" t="n">
-        <v>101.2621903770855</v>
+        <v>136.5223743461129</v>
       </c>
       <c r="H182" t="n">
-        <v>451.2353713788559</v>
+        <v>428.2227686311962</v>
       </c>
       <c r="I182" t="n">
-        <v>2196.289737949192</v>
+        <v>2161.027625653887</v>
       </c>
       <c r="J182" t="n">
-        <v>1980.713054006857</v>
+        <v>2148.975289566422</v>
       </c>
       <c r="K182" t="n">
-        <v>464.0922625669232</v>
+        <v>440.275104718661</v>
       </c>
     </row>
     <row r="183">
@@ -6982,22 +6986,22 @@
         <v>0.811403</v>
       </c>
       <c r="F183" t="n">
-        <v>71.8900000000001</v>
+        <v>71.89</v>
       </c>
       <c r="G183" t="n">
-        <v>51.07589549619297</v>
+        <v>95.56502434553977</v>
       </c>
       <c r="H183" t="n">
-        <v>444.2389507279024</v>
+        <v>422.5997564763658</v>
       </c>
       <c r="I183" t="n">
-        <v>2446.597886828989</v>
+        <v>2402.10497565446</v>
       </c>
       <c r="J183" t="n">
-        <v>2190.754451659552</v>
+        <v>2391.698138833847</v>
       </c>
       <c r="K183" t="n">
-        <v>456.7706576684962</v>
+        <v>433.0065932969788</v>
       </c>
     </row>
     <row r="184">
@@ -7014,22 +7018,22 @@
         <v>0.811351</v>
       </c>
       <c r="F184" t="n">
-        <v>71.78999999999996</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G184" t="n">
-        <v>74.67067729956261</v>
+        <v>127.1125550910847</v>
       </c>
       <c r="H184" t="n">
-        <v>436.2477228022984</v>
+        <v>416.1922544426376</v>
       </c>
       <c r="I184" t="n">
-        <v>2745.514421381526</v>
+        <v>2693.077444908915</v>
       </c>
       <c r="J184" t="n">
-        <v>2441.967004091729</v>
+        <v>2684.044449832046</v>
       </c>
       <c r="K184" t="n">
-        <v>448.8698334651625</v>
+        <v>425.2252495195071</v>
       </c>
     </row>
     <row r="185">
@@ -7046,22 +7050,22 @@
         <v>0.811298</v>
       </c>
       <c r="F185" t="n">
-        <v>71.69000000000005</v>
+        <v>71.69</v>
       </c>
       <c r="G185" t="n">
-        <v>-39.07589781370734</v>
+        <v>17.68817473221907</v>
       </c>
       <c r="H185" t="n">
-        <v>427.15184230963</v>
+        <v>408.9153445952491</v>
       </c>
       <c r="I185" t="n">
-        <v>3099.221491664549</v>
+        <v>3042.461825267781</v>
       </c>
       <c r="J185" t="n">
-        <v>2741.616078400839</v>
+        <v>3034.582986156994</v>
       </c>
       <c r="K185" t="n">
-        <v>440.1460657829846</v>
+        <v>416.7941837060366</v>
       </c>
     </row>
     <row r="186">
@@ -7078,22 +7082,22 @@
         <v>0.811246</v>
       </c>
       <c r="F186" t="n">
-        <v>71.58999999999992</v>
+        <v>71.59</v>
       </c>
       <c r="G186" t="n">
-        <v>-167.3848374315462</v>
+        <v>-113.4679839581713</v>
       </c>
       <c r="H186" t="n">
-        <v>416.9582695240872</v>
+        <v>400.7784023231774</v>
       </c>
       <c r="I186" t="n">
-        <v>3509.71256539569</v>
+        <v>3455.797983958171</v>
       </c>
       <c r="J186" t="n">
-        <v>3095.920688962594</v>
+        <v>3448.894388960782</v>
       </c>
       <c r="K186" t="n">
-        <v>430.4526450115851</v>
+        <v>407.6819973205667</v>
       </c>
     </row>
     <row r="187">
@@ -7110,22 +7114,22 @@
         <v>0.8111930000000001</v>
       </c>
       <c r="F187" t="n">
-        <v>71.49000000000001</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="G187" t="n">
-        <v>-131.4336373262631</v>
+        <v>-91.80708071898562</v>
       </c>
       <c r="H187" t="n">
-        <v>405.3578710169201</v>
+        <v>391.5288472202002</v>
       </c>
       <c r="I187" t="n">
-        <v>3968.559943889559</v>
+        <v>3928.937080718986</v>
       </c>
       <c r="J187" t="n">
-        <v>3506.90242988075</v>
+        <v>3922.862056353619</v>
       </c>
       <c r="K187" t="n">
-        <v>419.7684050390275</v>
+        <v>397.6038715855668</v>
       </c>
     </row>
     <row r="188">
@@ -7142,22 +7146,22 @@
         <v>0.811141</v>
       </c>
       <c r="F188" t="n">
-        <v>71.3900000000001</v>
+        <v>71.39</v>
       </c>
       <c r="G188" t="n">
-        <v>-95.58894247517219</v>
+        <v>-84.22095065300709</v>
       </c>
       <c r="H188" t="n">
-        <v>391.8355317793979</v>
+        <v>380.7628569252734</v>
       </c>
       <c r="I188" t="n">
-        <v>4448.50662263189</v>
+        <v>4437.140950653007</v>
       </c>
       <c r="J188" t="n">
-        <v>3966.155243778088</v>
+        <v>4431.773500693593</v>
       </c>
       <c r="K188" t="n">
-        <v>407.7625711283915</v>
+        <v>386.1303068846879</v>
       </c>
     </row>
     <row r="189">
@@ -7174,22 +7178,22 @@
         <v>0.8110889999999999</v>
       </c>
       <c r="F189" t="n">
-        <v>71.28999999999996</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="G189" t="n">
-        <v>-104.5621271551408</v>
+        <v>-130.8912176644981</v>
       </c>
       <c r="H189" t="n">
-        <v>376.28128218475</v>
+        <v>368.4050832665954</v>
       </c>
       <c r="I189" t="n">
-        <v>4895.984523464301</v>
+        <v>4922.311217664498</v>
       </c>
       <c r="J189" t="n">
-        <v>4446.438911077908</v>
+        <v>4917.550939472652</v>
       </c>
       <c r="K189" t="n">
-        <v>393.9032433333792</v>
+        <v>373.1653614584409</v>
       </c>
     </row>
     <row r="190">
@@ -7206,22 +7210,22 @@
         <v>0.811036</v>
       </c>
       <c r="F190" t="n">
-        <v>71.19000000000005</v>
+        <v>71.19</v>
       </c>
       <c r="G190" t="n">
-        <v>206.7818092968546</v>
+        <v>149.3178382523356</v>
       </c>
       <c r="H190" t="n">
-        <v>358.5015108041846</v>
+        <v>354.3004055273963</v>
       </c>
       <c r="I190" t="n">
-        <v>5232.113628143654</v>
+        <v>5289.582161747664</v>
       </c>
       <c r="J190" t="n">
-        <v>4894.198470768944</v>
+        <v>5285.345277578438</v>
       </c>
       <c r="K190" t="n">
-        <v>378.0673348801067</v>
+        <v>358.5372896966222</v>
       </c>
     </row>
     <row r="191">
@@ -7238,22 +7242,22 @@
         <v>0.810984</v>
       </c>
       <c r="F191" t="n">
-        <v>71.08999999999992</v>
+        <v>71.09</v>
       </c>
       <c r="G191" t="n">
-        <v>90.76551498635945</v>
+        <v>30.50662866513358</v>
       </c>
       <c r="H191" t="n">
-        <v>339.028260107506</v>
+        <v>338.8846969732899</v>
       </c>
       <c r="I191" t="n">
-        <v>5375.963791633747</v>
+        <v>5436.223371334866</v>
       </c>
       <c r="J191" t="n">
-        <v>5230.564229152338</v>
+        <v>5432.439607877574</v>
       </c>
       <c r="K191" t="n">
-        <v>360.0509097954999</v>
+        <v>342.6684604305813</v>
       </c>
     </row>
     <row r="192">
@@ -7270,22 +7274,22 @@
         <v>0.810931</v>
       </c>
       <c r="F192" t="n">
-        <v>70.99000000000001</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="G192" t="n">
-        <v>-46.75738087430364</v>
+        <v>-45.15382772549765</v>
       </c>
       <c r="H192" t="n">
-        <v>319.7010750767172</v>
+        <v>323.6195576283296</v>
       </c>
       <c r="I192" t="n">
-        <v>5166.909403672791</v>
+        <v>5165.303827725497</v>
       </c>
       <c r="J192" t="n">
-        <v>5374.614223083567</v>
+        <v>5161.913945914988</v>
       </c>
       <c r="K192" t="n">
-        <v>340.3778286576863</v>
+        <v>327.0094394388383</v>
       </c>
     </row>
     <row r="193">
@@ -7302,22 +7306,22 @@
         <v>0.810879</v>
       </c>
       <c r="F193" t="n">
-        <v>70.8900000000001</v>
+        <v>70.89</v>
       </c>
       <c r="G193" t="n">
-        <v>-6.601840178606835</v>
+        <v>53.44003742958012</v>
       </c>
       <c r="H193" t="n">
-        <v>302.1548752754946</v>
+        <v>309.7828100737692</v>
       </c>
       <c r="I193" t="n">
-        <v>4460.620257229732</v>
+        <v>4400.57996257042</v>
       </c>
       <c r="J193" t="n">
-        <v>5165.72936816241</v>
+        <v>4397.533789549372</v>
       </c>
       <c r="K193" t="n">
-        <v>320.8811105870989</v>
+        <v>312.8289830948173</v>
       </c>
     </row>
     <row r="194">
@@ -7334,22 +7338,22 @@
         <v>0.810827</v>
       </c>
       <c r="F194" t="n">
-        <v>70.78999999999996</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="G194" t="n">
-        <v>-48.06748257174104</v>
+        <v>24.1269737060943</v>
       </c>
       <c r="H194" t="n">
-        <v>287.7313393267218</v>
+        <v>298.4271527718959</v>
       </c>
       <c r="I194" t="n">
-        <v>3531.029939421352</v>
+        <v>3458.833026293906</v>
       </c>
       <c r="J194" t="n">
-        <v>4459.584694364001</v>
+        <v>3456.087877841402</v>
       </c>
       <c r="K194" t="n">
-        <v>303.1904381412267</v>
+        <v>301.1723012243997</v>
       </c>
     </row>
     <row r="195">
@@ -7366,22 +7370,22 @@
         <v>0.810774</v>
       </c>
       <c r="F195" t="n">
-        <v>70.69000000000005</v>
+        <v>70.69</v>
       </c>
       <c r="G195" t="n">
-        <v>-56.46845649031229</v>
+        <v>-12.29824776960641</v>
       </c>
       <c r="H195" t="n">
-        <v>276.9743417658908</v>
+        <v>289.9741954386177</v>
       </c>
       <c r="I195" t="n">
-        <v>2642.306186856604</v>
+        <v>2598.138247769607</v>
       </c>
       <c r="J195" t="n">
-        <v>3530.118016059678</v>
+        <v>2595.657656360526</v>
       </c>
       <c r="K195" t="n">
-        <v>288.6432626883957</v>
+        <v>292.4547868476985</v>
       </c>
     </row>
     <row r="196">
@@ -7398,22 +7402,22 @@
         <v>0.8107220000000001</v>
       </c>
       <c r="F196" t="n">
-        <v>70.58999999999992</v>
+        <v>70.59</v>
       </c>
       <c r="G196" t="n">
-        <v>-110.3600647846372</v>
+        <v>-107.4235645797621</v>
       </c>
       <c r="H196" t="n">
-        <v>269.5026674870913</v>
+        <v>284.1183187111159</v>
       </c>
       <c r="I196" t="n">
-        <v>1926.679345623198</v>
+        <v>1923.743564579762</v>
       </c>
       <c r="J196" t="n">
-        <v>2641.500501021298</v>
+        <v>1921.496248179354</v>
       </c>
       <c r="K196" t="n">
-        <v>277.780027601197</v>
+        <v>286.3656351115243</v>
       </c>
     </row>
     <row r="197">
@@ -7430,22 +7434,22 @@
         <v>0.81067</v>
       </c>
       <c r="F197" t="n">
-        <v>70.49000000000001</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="G197" t="n">
-        <v>-42.44452801597527</v>
+        <v>-74.52666179310927</v>
       </c>
       <c r="H197" t="n">
-        <v>264.4301770391862</v>
+        <v>280.158078231236</v>
       </c>
       <c r="I197" t="n">
-        <v>1403.861627452244</v>
+        <v>1435.946661793109</v>
       </c>
       <c r="J197" t="n">
-        <v>1925.965295074473</v>
+        <v>1433.905683409937</v>
       </c>
       <c r="K197" t="n">
-        <v>270.216718035817</v>
+        <v>282.1990566144079</v>
       </c>
     </row>
     <row r="198">
@@ -7462,22 +7466,22 @@
         <v>0.810617</v>
       </c>
       <c r="F198" t="n">
-        <v>70.3900000000001</v>
+        <v>70.39</v>
       </c>
       <c r="G198" t="n">
-        <v>-34.22466700111465</v>
+        <v>-88.87778717021286</v>
       </c>
       <c r="H198" t="n">
-        <v>260.9243717199467</v>
+        <v>277.436085041706</v>
       </c>
       <c r="I198" t="n">
-        <v>1041.32049647422</v>
+        <v>1095.977787170213</v>
       </c>
       <c r="J198" t="n">
-        <v>1403.226905989857</v>
+        <v>1094.119866432263</v>
       </c>
       <c r="K198" t="n">
-        <v>265.0648985015737</v>
+        <v>279.2940057796558</v>
       </c>
     </row>
     <row r="199">
@@ -7494,22 +7498,22 @@
         <v>0.810565</v>
       </c>
       <c r="F199" t="n">
-        <v>70.28999999999996</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="G199" t="n">
-        <v>17.41876774386924</v>
+        <v>-48.60152841015179</v>
       </c>
       <c r="H199" t="n">
-        <v>258.4637276424068</v>
+        <v>275.540998484992</v>
       </c>
       <c r="I199" t="n">
-        <v>795.9373480519029</v>
+        <v>861.9615284101518</v>
       </c>
       <c r="J199" t="n">
-        <v>1040.754689923344</v>
+        <v>860.2664749573846</v>
       </c>
       <c r="K199" t="n">
-        <v>261.4901782708221</v>
+        <v>277.2360519377592</v>
       </c>
     </row>
     <row r="200">
@@ -7526,22 +7530,22 @@
         <v>0.810512</v>
       </c>
       <c r="F200" t="n">
-        <v>70.19000000000005</v>
+        <v>70.19</v>
       </c>
       <c r="G200" t="n">
-        <v>26.54577111763808</v>
+        <v>-43.07300875561134</v>
       </c>
       <c r="H200" t="n">
-        <v>256.6644629475212</v>
+        <v>274.1694581428416</v>
       </c>
       <c r="I200" t="n">
-        <v>630.9596081981525</v>
+        <v>700.5830087556113</v>
       </c>
       <c r="J200" t="n">
-        <v>795.4316085060486</v>
+        <v>699.0332537546022</v>
       </c>
       <c r="K200" t="n">
-        <v>258.969467188261</v>
+        <v>275.7192131438507</v>
       </c>
     </row>
     <row r="201">
@@ -7558,22 +7562,22 @@
         <v>0.81046</v>
       </c>
       <c r="F201" t="n">
-        <v>70.08999999999992</v>
+        <v>70.09</v>
       </c>
       <c r="G201" t="n">
-        <v>49.50547324438458</v>
+        <v>-19.09741461809119</v>
       </c>
       <c r="H201" t="n">
-        <v>255.322615773548</v>
+        <v>273.1604337151605</v>
       </c>
       <c r="I201" t="n">
-        <v>519.6540164281471</v>
+        <v>588.2574146180912</v>
       </c>
       <c r="J201" t="n">
-        <v>630.5063900441141</v>
+        <v>586.8376217082746</v>
       </c>
       <c r="K201" t="n">
-        <v>257.1176811015595</v>
+        <v>274.5802266249771</v>
       </c>
     </row>
     <row r="202">
@@ -7590,22 +7594,22 @@
         <v>0.810408</v>
       </c>
       <c r="F202" t="n">
-        <v>69.99000000000001</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="G202" t="n">
-        <v>50.5819347208938</v>
+        <v>-14.61498633645687</v>
       </c>
       <c r="H202" t="n">
-        <v>254.2848278288934</v>
+        <v>272.392539141654</v>
       </c>
       <c r="I202" t="n">
-        <v>443.8270543315341</v>
+        <v>509.0249863364569</v>
       </c>
       <c r="J202" t="n">
-        <v>519.2468614096119</v>
+        <v>507.7217271852999</v>
       </c>
       <c r="K202" t="n">
-        <v>255.7297707920832</v>
+        <v>273.695798292811</v>
       </c>
     </row>
     <row r="203">
@@ -7622,22 +7626,22 @@
         <v>0.810356</v>
       </c>
       <c r="F203" t="n">
-        <v>69.8900000000001</v>
+        <v>69.89</v>
       </c>
       <c r="G203" t="n">
-        <v>114.5473699919365</v>
+        <v>53.73355591693382</v>
       </c>
       <c r="H203" t="n">
-        <v>253.3643814142379</v>
+        <v>271.7178357340587</v>
       </c>
       <c r="I203" t="n">
-        <v>391.4018671334752</v>
+        <v>452.2164440830662</v>
       </c>
       <c r="J203" t="n">
-        <v>443.4604157377007</v>
+        <v>451.0179267343065</v>
       </c>
       <c r="K203" t="n">
-        <v>254.6514664227269</v>
+        <v>272.9163530828184</v>
       </c>
     </row>
     <row r="204">
@@ -7654,22 +7658,22 @@
         <v>0.810303</v>
       </c>
       <c r="F204" t="n">
-        <v>69.78999999999996</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="G204" t="n">
-        <v>37.88978778175368</v>
+        <v>-18.32307931170908</v>
       </c>
       <c r="H204" t="n">
-        <v>252.6305776159652</v>
+        <v>271.1916724232233</v>
       </c>
       <c r="I204" t="n">
-        <v>354.6966891287353</v>
+        <v>410.9130793117091</v>
       </c>
       <c r="J204" t="n">
-        <v>391.0709653578813</v>
+        <v>409.8089198611158</v>
       </c>
       <c r="K204" t="n">
-        <v>253.6952831898318</v>
+        <v>272.2958318738166</v>
       </c>
     </row>
     <row r="205">
@@ -7686,22 +7690,22 @@
         <v>0.8102510000000001</v>
       </c>
       <c r="F205" t="n">
-        <v>69.69000000000005</v>
+        <v>69.69</v>
       </c>
       <c r="G205" t="n">
-        <v>91.10427227563929</v>
+        <v>39.2881194242521</v>
       </c>
       <c r="H205" t="n">
-        <v>252.0558093905327</v>
+        <v>270.7918987265119</v>
       </c>
       <c r="I205" t="n">
-        <v>328.629859493405</v>
+        <v>380.4418805757479</v>
       </c>
       <c r="J205" t="n">
-        <v>354.3973925001071</v>
+        <v>379.4229105557317</v>
       </c>
       <c r="K205" t="n">
-        <v>252.9298742445935</v>
+        <v>271.8108687465281</v>
       </c>
     </row>
     <row r="206">
@@ -7718,22 +7722,22 @@
         <v>0.810199</v>
       </c>
       <c r="F206" t="n">
-        <v>69.58999999999992</v>
+        <v>69.59</v>
       </c>
       <c r="G206" t="n">
-        <v>47.73640525675285</v>
+        <v>-0.06358823411358117</v>
       </c>
       <c r="H206" t="n">
-        <v>251.5453082659654</v>
+        <v>270.4433181784299</v>
       </c>
       <c r="I206" t="n">
-        <v>309.7893384185663</v>
+        <v>357.5935882341136</v>
       </c>
       <c r="J206" t="n">
-        <v>328.35858555869</v>
+        <v>356.6516915471203</v>
       </c>
       <c r="K206" t="n">
-        <v>252.3270833252478</v>
+        <v>271.3852148654232</v>
       </c>
     </row>
     <row r="207">
@@ -7750,22 +7754,22 @@
         <v>0.810146</v>
       </c>
       <c r="F207" t="n">
-        <v>69.49000000000001</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="G207" t="n">
-        <v>57.87070943692595</v>
+        <v>13.62555687852057</v>
       </c>
       <c r="H207" t="n">
-        <v>251.1556416971104</v>
+        <v>270.1909162513197</v>
       </c>
       <c r="I207" t="n">
-        <v>296.0321673284965</v>
+        <v>340.2744431214794</v>
       </c>
       <c r="J207" t="n">
-        <v>309.5429718500872</v>
+        <v>339.4024175196821</v>
       </c>
       <c r="K207" t="n">
-        <v>251.7916748344445</v>
+        <v>271.062941853117</v>
       </c>
     </row>
     <row r="208">
@@ -7782,22 +7786,22 @@
         <v>0.810094</v>
       </c>
       <c r="F208" t="n">
-        <v>69.3900000000001</v>
+        <v>69.39</v>
       </c>
       <c r="G208" t="n">
-        <v>39.57884284804351</v>
+        <v>-1.555823200904172</v>
       </c>
       <c r="H208" t="n">
-        <v>250.8249629519472</v>
+        <v>269.9855052656459</v>
       </c>
       <c r="I208" t="n">
-        <v>285.8204318040339</v>
+        <v>326.9558232009041</v>
       </c>
       <c r="J208" t="n">
-        <v>295.8079914005829</v>
+        <v>326.1472622326859</v>
       </c>
       <c r="K208" t="n">
-        <v>251.3798176250241</v>
+        <v>270.7940662338642</v>
       </c>
     </row>
     <row r="209">
@@ -7814,22 +7818,22 @@
         <v>0.810042</v>
       </c>
       <c r="F209" t="n">
-        <v>69.28999999999996</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="G209" t="n">
-        <v>59.28452002747827</v>
+        <v>20.83295997952308</v>
       </c>
       <c r="H209" t="n">
-        <v>250.5240344799416</v>
+        <v>269.8039551636418</v>
       </c>
       <c r="I209" t="n">
-        <v>278.1214416387069</v>
+        <v>316.5770400204769</v>
       </c>
       <c r="J209" t="n">
-        <v>285.6160709906454</v>
+        <v>315.8262321034357</v>
       </c>
       <c r="K209" t="n">
-        <v>251.0293237653356</v>
+        <v>270.554763080683</v>
       </c>
     </row>
     <row r="210">
@@ -7846,22 +7850,22 @@
         <v>0.809989</v>
       </c>
       <c r="F210" t="n">
-        <v>69.19000000000005</v>
+        <v>69.19</v>
       </c>
       <c r="G210" t="n">
-        <v>70.94538585128714</v>
+        <v>34.77997219576889</v>
       </c>
       <c r="H210" t="n">
-        <v>250.1891436668176</v>
+        <v>269.5958026903721</v>
       </c>
       <c r="I210" t="n">
-        <v>272.1802615340478</v>
+        <v>308.3500278042311</v>
       </c>
       <c r="J210" t="n">
-        <v>277.9348133609013</v>
+        <v>307.6518696790778</v>
       </c>
       <c r="K210" t="n">
-        <v>250.7106627577472</v>
+        <v>270.2939608155255</v>
       </c>
     </row>
     <row r="211">
@@ -7878,22 +7882,22 @@
         <v>0.809937</v>
       </c>
       <c r="F211" t="n">
-        <v>69.08999999999992</v>
+        <v>69.09</v>
       </c>
       <c r="G211" t="n">
-        <v>-18.37676574250796</v>
+        <v>-52.56930165255554</v>
       </c>
       <c r="H211" t="n">
-        <v>250.0167906283098</v>
+        <v>269.5168579606689</v>
       </c>
       <c r="I211" t="n">
-        <v>267.7109732179042</v>
+        <v>301.8993016525556</v>
       </c>
       <c r="J211" t="n">
-        <v>272.0095354637837</v>
+        <v>301.2492239526031</v>
       </c>
       <c r="K211" t="n">
-        <v>250.3598697370817</v>
+        <v>270.1669356606213</v>
       </c>
     </row>
     <row r="212">
@@ -7910,22 +7914,22 @@
         <v>0.809885</v>
       </c>
       <c r="F212" t="n">
-        <v>68.99000000000001</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="G212" t="n">
-        <v>62.02849323011986</v>
+        <v>29.53698505940997</v>
       </c>
       <c r="H212" t="n">
-        <v>249.8756978752444</v>
+        <v>269.4628072533698</v>
       </c>
       <c r="I212" t="n">
-        <v>264.2412858125837</v>
+        <v>296.73301494059</v>
       </c>
       <c r="J212" t="n">
-        <v>267.5545368447652</v>
+        <v>296.1269180010783</v>
       </c>
       <c r="K212" t="n">
-        <v>250.1732270014489</v>
+        <v>270.0689041928815</v>
       </c>
     </row>
     <row r="213">
@@ -7942,22 +7946,22 @@
         <v>0.809833</v>
       </c>
       <c r="F213" t="n">
-        <v>68.8900000000001</v>
+        <v>68.89</v>
       </c>
       <c r="G213" t="n">
-        <v>13.03511080073724</v>
+        <v>-18.02300326205926</v>
       </c>
       <c r="H213" t="n">
-        <v>249.687347211943</v>
+        <v>269.3715556434203</v>
       </c>
       <c r="I213" t="n">
-        <v>261.4486407875531</v>
+        <v>292.5030032620593</v>
       </c>
       <c r="J213" t="n">
-        <v>264.0977152195026</v>
+        <v>291.9372016107134</v>
       </c>
       <c r="K213" t="n">
-        <v>250.0192684683255</v>
+        <v>269.9373572947661</v>
       </c>
     </row>
     <row r="214">
@@ -7974,22 +7978,22 @@
         <v>0.8097800000000001</v>
       </c>
       <c r="F214" t="n">
-        <v>68.78999999999996</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="G214" t="n">
-        <v>-0.5024972904344054</v>
+        <v>-30.3020183629252</v>
       </c>
       <c r="H214" t="n">
-        <v>249.6237635228246</v>
+        <v>269.3794284470329</v>
       </c>
       <c r="I214" t="n">
-        <v>259.3283512260712</v>
+        <v>289.1320183629252</v>
       </c>
       <c r="J214" t="n">
-        <v>261.3166757735445</v>
+        <v>288.6031925923224</v>
       </c>
       <c r="K214" t="n">
-        <v>249.8193122259516</v>
+        <v>269.9082542176357</v>
       </c>
     </row>
     <row r="215">
@@ -8006,22 +8010,22 @@
         <v>0.809728</v>
       </c>
       <c r="F215" t="n">
-        <v>68.69000000000005</v>
+        <v>68.69</v>
       </c>
       <c r="G215" t="n">
-        <v>10.67330684209742</v>
+        <v>-18.05904389093723</v>
       </c>
       <c r="H215" t="n">
-        <v>249.5717121380967</v>
+        <v>269.3965712147555</v>
       </c>
       <c r="I215" t="n">
-        <v>257.6377803377951</v>
+        <v>286.3690438909372</v>
       </c>
       <c r="J215" t="n">
-        <v>259.2068740684025</v>
+        <v>285.874198825824</v>
       </c>
       <c r="K215" t="n">
-        <v>249.7452406804933</v>
+        <v>269.8914162798687</v>
       </c>
     </row>
     <row r="216">
@@ -8038,22 +8042,22 @@
         <v>0.809676</v>
       </c>
       <c r="F216" t="n">
-        <v>68.58999999999992</v>
+        <v>68.59</v>
       </c>
       <c r="G216" t="n">
-        <v>-6.829087269765949</v>
+        <v>-34.63584437537227</v>
       </c>
       <c r="H216" t="n">
-        <v>249.536933403965</v>
+        <v>269.4275916879983</v>
       </c>
       <c r="I216" t="n">
-        <v>256.2868950842497</v>
+        <v>284.0958443753723</v>
       </c>
       <c r="J216" t="n">
-        <v>257.5257976107519</v>
+        <v>283.6322726230197</v>
       </c>
       <c r="K216" t="n">
-        <v>249.6836948651399</v>
+        <v>269.8911634403509</v>
       </c>
     </row>
     <row r="217">
@@ -8070,22 +8074,22 @@
         <v>0.809624</v>
       </c>
       <c r="F217" t="n">
-        <v>68.49000000000001</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="G217" t="n">
-        <v>37.47832861909041</v>
+        <v>10.45170956935812</v>
       </c>
       <c r="H217" t="n">
-        <v>249.4567909796613</v>
+        <v>269.4228886826719</v>
       </c>
       <c r="I217" t="n">
-        <v>255.1414553794077</v>
+        <v>282.1682904306419</v>
       </c>
       <c r="J217" t="n">
-        <v>256.1835220527711</v>
+        <v>281.7335405467989</v>
       </c>
       <c r="K217" t="n">
-        <v>249.6403064354436</v>
+        <v>269.8576385665149</v>
       </c>
     </row>
     <row r="218">
@@ -8102,22 +8106,22 @@
         <v>0.809572</v>
       </c>
       <c r="F218" t="n">
-        <v>68.3900000000001</v>
+        <v>68.39</v>
       </c>
       <c r="G218" t="n">
-        <v>10.0562040387523</v>
+        <v>-16.30687754412389</v>
       </c>
       <c r="H218" t="n">
-        <v>249.3487625135268</v>
+        <v>269.3963507246996</v>
       </c>
       <c r="I218" t="n">
-        <v>254.1648905643219</v>
+        <v>280.5268775441239</v>
       </c>
       <c r="J218" t="n">
-        <v>255.0459025681404</v>
+        <v>280.1187261668192</v>
       </c>
       <c r="K218" t="n">
-        <v>249.5523437909286</v>
+        <v>269.8045021020043</v>
       </c>
     </row>
     <row r="219">
@@ -8134,22 +8138,22 @@
         <v>0.809519</v>
       </c>
       <c r="F219" t="n">
-        <v>68.28999999999996</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="G219" t="n">
-        <v>-25.52737536009113</v>
+        <v>-31.18616226820592</v>
       </c>
       <c r="H219" t="n">
-        <v>249.3607804740771</v>
+        <v>249.36</v>
       </c>
       <c r="I219" t="n">
-        <v>253.4639648657111</v>
+        <v>259.1261622682059</v>
       </c>
       <c r="J219" t="n">
-        <v>254.076452169817</v>
+        <v>258.7425896711263</v>
       </c>
       <c r="K219" t="n">
-        <v>249.4372009080317</v>
+        <v>249.7435725970796</v>
       </c>
     </row>
     <row r="220">
@@ -8166,22 +8170,22 @@
         <v>0.809467</v>
       </c>
       <c r="F220" t="n">
-        <v>68.19000000000005</v>
+        <v>68.19</v>
       </c>
       <c r="G220" t="n">
-        <v>0.8243940772451595</v>
+        <v>-4.266954391173186</v>
       </c>
       <c r="H220" t="n">
-        <v>249.3925590102616</v>
+        <v>249.39</v>
       </c>
       <c r="I220" t="n">
-        <v>252.9067648211411</v>
+        <v>257.9969543911732</v>
       </c>
       <c r="J220" t="n">
-        <v>253.3820087345219</v>
+        <v>257.6361229912755</v>
       </c>
       <c r="K220" t="n">
-        <v>249.4427366052664</v>
+        <v>249.7508313998977</v>
       </c>
     </row>
     <row r="221">
@@ -8198,22 +8202,22 @@
         <v>0.809415</v>
       </c>
       <c r="F221" t="n">
-        <v>68.08999999999992</v>
+        <v>68.09</v>
       </c>
       <c r="G221" t="n">
-        <v>-3.024696243604041</v>
+        <v>-7.616839165200105</v>
       </c>
       <c r="H221" t="n">
-        <v>227.2493096866255</v>
+        <v>227.25</v>
       </c>
       <c r="I221" t="n">
-        <v>230.2740059302295</v>
+        <v>234.8668391652001</v>
       </c>
       <c r="J221" t="n">
-        <v>252.8307237618138</v>
+        <v>234.5270745885501</v>
       </c>
       <c r="K221" t="n">
-        <v>249.4686000695888</v>
+        <v>227.5897645766501</v>
       </c>
     </row>
     <row r="222">
@@ -8230,22 +8234,22 @@
         <v>0.8093630000000001</v>
       </c>
       <c r="F222" t="n">
-        <v>67.99000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="G222" t="n">
-        <v>-2.615536648634134</v>
+        <v>-6.766935626955586</v>
       </c>
       <c r="H222" t="n">
-        <v>213.1775235586504</v>
+        <v>213.18</v>
       </c>
       <c r="I222" t="n">
-        <v>215.7930602072845</v>
+        <v>219.9469356269556</v>
       </c>
       <c r="J222" t="n">
-        <v>230.2033701644749</v>
+        <v>219.6267099949269</v>
       </c>
       <c r="K222" t="n">
-        <v>227.3199454523801</v>
+        <v>213.5002256320287</v>
       </c>
     </row>
     <row r="223">
@@ -8262,22 +8266,22 @@
         <v>0.80931</v>
       </c>
       <c r="F223" t="n">
-        <v>67.8900000000001</v>
+        <v>67.89</v>
       </c>
       <c r="G223" t="n">
-        <v>-2.271695557114157</v>
+        <v>-6.033959795521127</v>
       </c>
       <c r="H223" t="n">
-        <v>225.756508630809</v>
+        <v>225.76</v>
       </c>
       <c r="I223" t="n">
-        <v>228.0282041879232</v>
+        <v>231.7939597955211</v>
       </c>
       <c r="J223" t="n">
-        <v>215.7273707964645</v>
+        <v>231.4918769423734</v>
       </c>
       <c r="K223" t="n">
-        <v>213.2432129694704</v>
+        <v>226.0620828531477</v>
       </c>
     </row>
     <row r="224">
@@ -8294,22 +8298,22 @@
         <v>0.809258</v>
       </c>
       <c r="F224" t="n">
-        <v>67.78999999999996</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="G224" t="n">
-        <v>-1.981273183740115</v>
+        <v>-5.399020680713051</v>
       </c>
       <c r="H224" t="n">
-        <v>246.40967404709</v>
+        <v>246.41</v>
       </c>
       <c r="I224" t="n">
-        <v>248.3909472308301</v>
+        <v>251.809020680713</v>
       </c>
       <c r="J224" t="n">
-        <v>227.9670472965774</v>
+        <v>251.5238030547828</v>
       </c>
       <c r="K224" t="n">
-        <v>225.8176655221547</v>
+        <v>246.6952176259303</v>
       </c>
     </row>
     <row r="225">
@@ -8326,22 +8330,22 @@
         <v>0.809206</v>
       </c>
       <c r="F225" t="n">
-        <v>67.69000000000005</v>
+        <v>67.69</v>
       </c>
       <c r="G225" t="n">
-        <v>-1.734786944785071</v>
+        <v>-4.846699181943791</v>
       </c>
       <c r="H225" t="n">
-        <v>254.4926755362664</v>
+        <v>254.49</v>
       </c>
       <c r="I225" t="n">
-        <v>256.2274624810515</v>
+        <v>259.3366991819438</v>
       </c>
       <c r="J225" t="n">
-        <v>248.3339491102526</v>
+        <v>259.0671762175206</v>
       </c>
       <c r="K225" t="n">
-        <v>246.4666721676675</v>
+        <v>254.7595229644232</v>
       </c>
     </row>
     <row r="226">
@@ -8358,22 +8362,22 @@
         <v>0.809154</v>
       </c>
       <c r="F226" t="n">
-        <v>67.58999999999992</v>
+        <v>67.59</v>
       </c>
       <c r="G226" t="n">
-        <v>-1.52463320048625</v>
+        <v>-4.364338167736832</v>
       </c>
       <c r="H226" t="n">
-        <v>209.4916418877</v>
+        <v>209.49</v>
       </c>
       <c r="I226" t="n">
-        <v>211.0162750881863</v>
+        <v>213.8543381677368</v>
       </c>
       <c r="J226" t="n">
-        <v>256.1742850736875</v>
+        <v>213.5994359442235</v>
       </c>
       <c r="K226" t="n">
-        <v>254.5458529436303</v>
+        <v>209.7449022235134</v>
       </c>
     </row>
     <row r="227">
@@ -8390,22 +8394,22 @@
         <v>0.809102</v>
       </c>
       <c r="F227" t="n">
-        <v>67.49000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="G227" t="n">
-        <v>-1.344678704350599</v>
+        <v>-3.941491446910192</v>
       </c>
       <c r="H227" t="n">
-        <v>207.4064827425961</v>
+        <v>207.41</v>
       </c>
       <c r="I227" t="n">
-        <v>208.7511614469467</v>
+        <v>211.3514914469102</v>
       </c>
       <c r="J227" t="n">
-        <v>210.9666121684774</v>
+        <v>211.1102234769434</v>
       </c>
       <c r="K227" t="n">
-        <v>209.5413048074089</v>
+        <v>207.6512679699668</v>
       </c>
     </row>
     <row r="228">
@@ -8422,22 +8426,22 @@
         <v>0.80905</v>
       </c>
       <c r="F228" t="n">
-        <v>67.3900000000001</v>
+        <v>67.39</v>
       </c>
       <c r="G228" t="n">
-        <v>-1.189948276571982</v>
+        <v>-3.569493188216995</v>
       </c>
       <c r="H228" t="n">
-        <v>193.3786539768865</v>
+        <v>193.38</v>
       </c>
       <c r="I228" t="n">
-        <v>194.5686022534585</v>
+        <v>196.949493188217</v>
       </c>
       <c r="J228" t="n">
-        <v>208.70473522671</v>
+        <v>196.7209521977874</v>
       </c>
       <c r="K228" t="n">
-        <v>207.4529089628328</v>
+        <v>193.6085409904296</v>
       </c>
     </row>
     <row r="229">
@@ -8454,22 +8458,22 @@
         <v>0.808997</v>
       </c>
       <c r="F229" t="n">
-        <v>67.28999999999996</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="G229" t="n">
-        <v>-1.056384402245868</v>
+        <v>-3.241119301227457</v>
       </c>
       <c r="H229" t="n">
-        <v>230.056477341696</v>
+        <v>230.06</v>
       </c>
       <c r="I229" t="n">
-        <v>231.1128617439419</v>
+        <v>233.3011193012275</v>
       </c>
       <c r="J229" t="n">
-        <v>194.5251603903666</v>
+        <v>233.0844698830642</v>
       </c>
       <c r="K229" t="n">
-        <v>193.4220958399785</v>
+        <v>230.2766494181632</v>
       </c>
     </row>
     <row r="230">
@@ -8486,22 +8490,22 @@
         <v>0.808945</v>
       </c>
       <c r="F230" t="n">
-        <v>67.19000000000005</v>
+        <v>67.19</v>
       </c>
       <c r="G230" t="n">
-        <v>-0.9406609803365598</v>
+        <v>-2.950319509261988</v>
       </c>
       <c r="H230" t="n">
-        <v>220.3796302591647</v>
+        <v>220.38</v>
       </c>
       <c r="I230" t="n">
-        <v>221.3202912395013</v>
+        <v>223.330319509262</v>
       </c>
       <c r="J230" t="n">
-        <v>231.0721747005006</v>
+        <v>223.1247915463448</v>
       </c>
       <c r="K230" t="n">
-        <v>230.0971643851373</v>
+        <v>220.5855279629172</v>
       </c>
     </row>
     <row r="231">
@@ -8518,22 +8522,22 @@
         <v>0.808893</v>
       </c>
       <c r="F231" t="n">
-        <v>67.08999999999992</v>
+        <v>67.09</v>
       </c>
       <c r="G231" t="n">
-        <v>-0.8400381238744217</v>
+        <v>-2.692004119536449</v>
       </c>
       <c r="H231" t="n">
-        <v>194.0404973216482</v>
+        <v>194.04</v>
       </c>
       <c r="I231" t="n">
-        <v>194.8805354455226</v>
+        <v>196.7320041195364</v>
       </c>
       <c r="J231" t="n">
-        <v>221.2821499473884</v>
+        <v>196.5368868889661</v>
       </c>
       <c r="K231" t="n">
-        <v>220.4177715512776</v>
+        <v>194.2351172305703</v>
       </c>
     </row>
     <row r="232">
@@ -8550,22 +8554,22 @@
         <v>0.808841</v>
       </c>
       <c r="F232" t="n">
-        <v>66.99000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="G232" t="n">
-        <v>-0.7522482869071894</v>
+        <v>-2.461873378926668</v>
       </c>
       <c r="H232" t="n">
-        <v>206.9133488534829</v>
+        <v>206.91</v>
       </c>
       <c r="I232" t="n">
-        <v>207.6655971403901</v>
+        <v>209.3718733789267</v>
       </c>
       <c r="J232" t="n">
-        <v>194.8447492364713</v>
+        <v>209.1865102578743</v>
       </c>
       <c r="K232" t="n">
-        <v>194.0762835306995</v>
+        <v>207.0953631210523</v>
       </c>
     </row>
     <row r="233">
@@ -8582,22 +8586,22 @@
         <v>0.808789</v>
       </c>
       <c r="F233" t="n">
-        <v>66.8900000000001</v>
+        <v>66.89</v>
       </c>
       <c r="G233" t="n">
-        <v>-0.6754064489383609</v>
+        <v>-2.256280183548313</v>
       </c>
       <c r="H233" t="n">
-        <v>188.5819416436178</v>
+        <v>188.58</v>
       </c>
       <c r="I233" t="n">
-        <v>189.2573480925562</v>
+        <v>190.8362801835483</v>
       </c>
       <c r="J233" t="n">
-        <v>207.6319919101691</v>
+        <v>190.6600638888912</v>
       </c>
       <c r="K233" t="n">
-        <v>206.9469540837039</v>
+        <v>188.7562162946572</v>
       </c>
     </row>
     <row r="234">
@@ -8614,22 +8618,22 @@
         <v>0.808737</v>
       </c>
       <c r="F234" t="n">
-        <v>66.78999999999996</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="G234" t="n">
-        <v>-0.60793888665944</v>
+        <v>-2.072119060821564</v>
       </c>
       <c r="H234" t="n">
-        <v>205.1210714979035</v>
+        <v>205.12</v>
       </c>
       <c r="I234" t="n">
-        <v>205.7290103845629</v>
+        <v>207.1921190608216</v>
       </c>
       <c r="J234" t="n">
-        <v>189.2257646691657</v>
+        <v>207.0244873626069</v>
       </c>
       <c r="K234" t="n">
-        <v>188.6135250670082</v>
+        <v>205.2876316982147</v>
       </c>
     </row>
     <row r="235">
@@ -8646,22 +8650,22 @@
         <v>0.808685</v>
       </c>
       <c r="F235" t="n">
-        <v>66.69000000000005</v>
+        <v>66.69</v>
       </c>
       <c r="G235" t="n">
-        <v>-0.5485263902265274</v>
+        <v>-1.906735959269298</v>
       </c>
       <c r="H235" t="n">
-        <v>207.5777342228433</v>
+        <v>207.58</v>
       </c>
       <c r="I235" t="n">
-        <v>208.1262606130698</v>
+        <v>209.4867359592693</v>
       </c>
       <c r="J235" t="n">
-        <v>205.6993030756594</v>
+        <v>209.3271678155228</v>
       </c>
       <c r="K235" t="n">
-        <v>205.150778806807</v>
+        <v>207.7395681437465</v>
       </c>
     </row>
     <row r="236">
@@ -8678,22 +8682,22 @@
         <v>0.808633</v>
       </c>
       <c r="F236" t="n">
-        <v>66.58999999999992</v>
+        <v>66.59</v>
       </c>
       <c r="G236" t="n">
-        <v>-0.4960587673674297</v>
+        <v>-1.757854604294693</v>
       </c>
       <c r="H236" t="n">
-        <v>172.6988633904379</v>
+        <v>172.7</v>
       </c>
       <c r="I236" t="n">
-        <v>173.1949221578053</v>
+        <v>174.4578546042947</v>
       </c>
       <c r="J236" t="n">
-        <v>208.0982959109597</v>
+        <v>174.3058666710751</v>
       </c>
       <c r="K236" t="n">
-        <v>207.6056989249534</v>
+        <v>172.8519879332196</v>
       </c>
     </row>
     <row r="237">
@@ -8710,22 +8714,22 @@
         <v>0.80858</v>
       </c>
       <c r="F237" t="n">
-        <v>66.49000000000001</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="G237" t="n">
-        <v>-0.4495982157591811</v>
+        <v>-1.623516109111165</v>
       </c>
       <c r="H237" t="n">
-        <v>203.1672809122165</v>
+        <v>203.17</v>
       </c>
       <c r="I237" t="n">
-        <v>203.6168791279757</v>
+        <v>204.7935161091112</v>
       </c>
       <c r="J237" t="n">
-        <v>173.1685775831995</v>
+        <v>204.6486595852568</v>
       </c>
       <c r="K237" t="n">
-        <v>172.7252079650437</v>
+        <v>203.3148565238543</v>
       </c>
     </row>
     <row r="238">
@@ -8742,22 +8746,22 @@
         <v>0.808528</v>
       </c>
       <c r="F238" t="n">
-        <v>66.3900000000001</v>
+        <v>66.39</v>
       </c>
       <c r="G238" t="n">
-        <v>-0.4083496986028194</v>
+        <v>-1.502029242778917</v>
       </c>
       <c r="H238" t="n">
-        <v>179.3506223655829</v>
+        <v>179.35</v>
       </c>
       <c r="I238" t="n">
-        <v>179.7589720641857</v>
+        <v>180.8520292427789</v>
       </c>
       <c r="J238" t="n">
-        <v>203.5920421961388</v>
+        <v>180.7138870136082</v>
       </c>
       <c r="K238" t="n">
-        <v>203.1921178440534</v>
+        <v>179.4881422291707</v>
       </c>
     </row>
     <row r="239">
@@ -8774,22 +8778,22 @@
         <v>0.808476</v>
       </c>
       <c r="F239" t="n">
-        <v>66.28999999999996</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="G239" t="n">
-        <v>-0.3716368779157051</v>
+        <v>-1.391929306147688</v>
       </c>
       <c r="H239" t="n">
-        <v>213.306270068623</v>
+        <v>213.31</v>
       </c>
       <c r="I239" t="n">
-        <v>213.6779069465387</v>
+        <v>214.7019293061477</v>
       </c>
       <c r="J239" t="n">
-        <v>179.7355393592181</v>
+        <v>214.5701133545692</v>
       </c>
       <c r="K239" t="n">
-        <v>179.3740550705505</v>
+        <v>213.4418159515785</v>
       </c>
     </row>
     <row r="240">
@@ -8806,22 +8810,22 @@
         <v>0.808424</v>
       </c>
       <c r="F240" t="n">
-        <v>66.19000000000005</v>
+        <v>66.19</v>
       </c>
       <c r="G240" t="n">
-        <v>-0.3388824793757976</v>
+        <v>-1.291943991421476</v>
       </c>
       <c r="H240" t="n">
-        <v>180.5562427636983</v>
+        <v>180.56</v>
       </c>
       <c r="I240" t="n">
-        <v>180.8951252430741</v>
+        <v>181.8519439914215</v>
       </c>
       <c r="J240" t="n">
-        <v>213.6557832913383</v>
+        <v>181.7260930485707</v>
       </c>
       <c r="K240" t="n">
-        <v>213.3283937238234</v>
+        <v>180.6858509428508</v>
       </c>
     </row>
     <row r="241">
@@ -8838,22 +8842,22 @@
         <v>0.808372</v>
       </c>
       <c r="F241" t="n">
-        <v>66.08999999999992</v>
+        <v>66.09</v>
       </c>
       <c r="G241" t="n">
-        <v>-0.3095922069062738</v>
+        <v>-1.200964931751287</v>
       </c>
       <c r="H241" t="n">
-        <v>199.1682047374229</v>
+        <v>199.17</v>
       </c>
       <c r="I241" t="n">
-        <v>199.4777969443292</v>
+        <v>200.3709649317513</v>
       </c>
       <c r="J241" t="n">
-        <v>180.8742229540878</v>
+        <v>200.2507423424665</v>
       </c>
       <c r="K241" t="n">
-        <v>180.5771450526846</v>
+        <v>199.2902225892848</v>
       </c>
     </row>
     <row r="242">
@@ -8870,22 +8874,22 @@
         <v>0.80832</v>
       </c>
       <c r="F242" t="n">
-        <v>65.99000000000001</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="G242" t="n">
-        <v>-0.2833415131745483</v>
+        <v>-1.118023905919927</v>
       </c>
       <c r="H242" t="n">
-        <v>168.674534837688</v>
+        <v>168.67</v>
       </c>
       <c r="I242" t="n">
-        <v>168.9578763508625</v>
+        <v>169.7880239059199</v>
       </c>
       <c r="J242" t="n">
-        <v>199.458035161555</v>
+        <v>169.6731156871682</v>
       </c>
       <c r="K242" t="n">
-        <v>199.1879665201971</v>
+        <v>168.7849082187517</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8906,22 @@
         <v>0.808268</v>
       </c>
       <c r="F243" t="n">
-        <v>65.8900000000001</v>
+        <v>65.89</v>
       </c>
       <c r="G243" t="n">
-        <v>-0.2597646775280396</v>
+        <v>-1.042272866478243</v>
       </c>
       <c r="H243" t="n">
-        <v>167.039892708854</v>
+        <v>167.04</v>
       </c>
       <c r="I243" t="n">
-        <v>167.2996573863821</v>
+        <v>168.0822728664782</v>
       </c>
       <c r="J243" t="n">
-        <v>168.9391804347313</v>
+        <v>167.9723859392966</v>
       </c>
       <c r="K243" t="n">
-        <v>168.6932307538192</v>
+        <v>167.1498869271816</v>
       </c>
     </row>
     <row r="244">
@@ -8934,22 +8938,22 @@
         <v>0.808216</v>
       </c>
       <c r="F244" t="n">
-        <v>65.78999999999996</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="G244" t="n">
-        <v>-0.2385457558439725</v>
+        <v>-0.9729671202239842</v>
       </c>
       <c r="H244" t="n">
-        <v>185.9676126184089</v>
+        <v>185.97</v>
       </c>
       <c r="I244" t="n">
-        <v>186.2061583742529</v>
+        <v>186.942967120224</v>
       </c>
       <c r="J244" t="n">
-        <v>167.2819583741646</v>
+        <v>186.8378276978927</v>
       </c>
       <c r="K244" t="n">
-        <v>167.0575917210714</v>
+        <v>186.0751394223313</v>
       </c>
     </row>
     <row r="245">
@@ -8966,22 +8970,22 @@
         <v>0.808164</v>
       </c>
       <c r="F245" t="n">
-        <v>65.69000000000005</v>
+        <v>65.69</v>
       </c>
       <c r="G245" t="n">
-        <v>-0.2194110549514789</v>
+        <v>-0.9094511172451121</v>
       </c>
       <c r="H245" t="n">
-        <v>195.3984587286739</v>
+        <v>195.4</v>
       </c>
       <c r="I245" t="n">
-        <v>195.6178697836254</v>
+        <v>196.3094511172451</v>
       </c>
       <c r="J245" t="n">
-        <v>186.1893924895181</v>
+        <v>196.208803234306</v>
       </c>
       <c r="K245" t="n">
-        <v>185.9843785031437</v>
+        <v>195.5006478829391</v>
       </c>
     </row>
     <row r="246">
@@ -8998,22 +9002,22 @@
         <v>0.8081120000000001</v>
       </c>
       <c r="F246" t="n">
-        <v>65.58999999999992</v>
+        <v>65.59</v>
       </c>
       <c r="G246" t="n">
-        <v>-0.2021228534546538</v>
+        <v>-0.8511464061896561</v>
       </c>
       <c r="H246" t="n">
-        <v>185.1228542578256</v>
+        <v>185.12</v>
       </c>
       <c r="I246" t="n">
-        <v>185.3249771112802</v>
+        <v>185.9711464061897</v>
       </c>
       <c r="J246" t="n">
-        <v>195.601977993044</v>
+        <v>185.8747505745882</v>
       </c>
       <c r="K246" t="n">
-        <v>195.4143505192552</v>
+        <v>185.2163958316015</v>
       </c>
     </row>
     <row r="247">
@@ -9030,22 +9034,22 @@
         <v>0.80806</v>
       </c>
       <c r="F247" t="n">
-        <v>65.49000000000001</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="G247" t="n">
-        <v>-0.1864741452764633</v>
+        <v>-0.797541394570743</v>
       </c>
       <c r="H247" t="n">
-        <v>183.0680890032918</v>
+        <v>183.07</v>
       </c>
       <c r="I247" t="n">
-        <v>183.2545631485683</v>
+        <v>183.8675413945707</v>
       </c>
       <c r="J247" t="n">
-        <v>185.3099047237375</v>
+        <v>183.7751733746735</v>
       </c>
       <c r="K247" t="n">
-        <v>185.1379266453683</v>
+        <v>183.1623680198972</v>
       </c>
     </row>
     <row r="248">
@@ -9062,22 +9066,22 @@
         <v>0.8080079999999999</v>
       </c>
       <c r="F248" t="n">
-        <v>65.3900000000001</v>
+        <v>65.39</v>
       </c>
       <c r="G248" t="n">
-        <v>-0.1722842253570889</v>
+        <v>-0.7481826180974451</v>
       </c>
       <c r="H248" t="n">
-        <v>169.4760447916357</v>
+        <v>169.48</v>
       </c>
       <c r="I248" t="n">
-        <v>169.6483290169928</v>
+        <v>170.2281826180974</v>
       </c>
       <c r="J248" t="n">
-        <v>183.2402594521326</v>
+        <v>170.1396322936343</v>
       </c>
       <c r="K248" t="n">
-        <v>183.0823926997275</v>
+        <v>169.5685503244632</v>
       </c>
     </row>
     <row r="249">
@@ -9094,22 +9098,22 @@
         <v>0.807956</v>
       </c>
       <c r="F249" t="n">
-        <v>65.28999999999996</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="G249" t="n">
-        <v>-0.159394971194132</v>
+        <v>-0.702667275578591</v>
       </c>
       <c r="H249" t="n">
-        <v>167.8482491620831</v>
+        <v>167.85</v>
       </c>
       <c r="I249" t="n">
-        <v>168.0076441332772</v>
+        <v>168.5526672755786</v>
       </c>
       <c r="J249" t="n">
-        <v>169.6347469497998</v>
+        <v>168.4677376227082</v>
       </c>
       <c r="K249" t="n">
-        <v>169.4896268588287</v>
+        <v>167.9349296528704</v>
       </c>
     </row>
     <row r="250">
@@ -9126,22 +9130,22 @@
         <v>0.807904</v>
       </c>
       <c r="F250" t="n">
-        <v>65.19000000000005</v>
+        <v>65.19</v>
       </c>
       <c r="G250" t="n">
-        <v>-0.1476677012338143</v>
+        <v>-0.6606368284893733</v>
       </c>
       <c r="H250" t="n">
-        <v>180.9323880064958</v>
+        <v>180.93</v>
       </c>
       <c r="I250" t="n">
-        <v>181.0800557077296</v>
+        <v>181.5906368284894</v>
       </c>
       <c r="J250" t="n">
-        <v>167.994739984835</v>
+        <v>181.5091429702059</v>
       </c>
       <c r="K250" t="n">
-        <v>167.8611533105254</v>
+        <v>181.0114938582835</v>
       </c>
     </row>
     <row r="251">
@@ -9158,22 +9162,22 @@
         <v>0.807852</v>
       </c>
       <c r="F251" t="n">
-        <v>65.08999999999992</v>
+        <v>65.09</v>
       </c>
       <c r="G251" t="n">
-        <v>-0.1369805129999406</v>
+        <v>-0.621771498847977</v>
       </c>
       <c r="H251" t="n">
-        <v>172.4808504528057</v>
+        <v>172.48</v>
       </c>
       <c r="I251" t="n">
-        <v>172.6178309658056</v>
+        <v>173.101771498848</v>
       </c>
       <c r="J251" t="n">
-        <v>181.0677888475439</v>
+        <v>173.0235398368466</v>
       </c>
       <c r="K251" t="n">
-        <v>180.9446548666816</v>
+        <v>172.5582316620014</v>
       </c>
     </row>
     <row r="252">
@@ -9190,22 +9194,22 @@
         <v>0.8078</v>
       </c>
       <c r="F252" t="n">
-        <v>64.99000000000001</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="G252" t="n">
-        <v>-0.1272260214336427</v>
+        <v>-0.5857855272223844</v>
       </c>
       <c r="H252" t="n">
-        <v>153.578856152513</v>
+        <v>153.58</v>
       </c>
       <c r="I252" t="n">
-        <v>153.7060821739466</v>
+        <v>154.1657855272224</v>
       </c>
       <c r="J252" t="n">
-        <v>172.6061635965696</v>
+        <v>154.090652944146</v>
       </c>
       <c r="K252" t="n">
-        <v>172.4925178220417</v>
+        <v>153.6551325830764</v>
       </c>
     </row>
     <row r="253">
@@ -9222,22 +9226,22 @@
         <v>0.807748</v>
       </c>
       <c r="F253" t="n">
-        <v>64.8900000000001</v>
+        <v>64.89</v>
       </c>
       <c r="G253" t="n">
-        <v>-0.1183094320991813</v>
+        <v>-0.5524230757352768</v>
       </c>
       <c r="H253" t="n">
-        <v>153.3720912958002</v>
+        <v>153.37</v>
       </c>
       <c r="I253" t="n">
-        <v>153.4904007278994</v>
+        <v>153.9224230757353</v>
       </c>
       <c r="J253" t="n">
-        <v>153.6949791068419</v>
+        <v>153.8502362014342</v>
       </c>
       <c r="K253" t="n">
-        <v>153.5899592196177</v>
+        <v>153.4421868743011</v>
       </c>
     </row>
     <row r="254">
@@ -9254,22 +9258,22 @@
         <v>0.807696</v>
       </c>
       <c r="F254" t="n">
-        <v>64.78999999999996</v>
+        <v>64.79000000000001</v>
       </c>
       <c r="G254" t="n">
-        <v>-0.1101468953960705</v>
+        <v>-0.5214546798468689</v>
       </c>
       <c r="H254" t="n">
-        <v>157.6533745369545</v>
+        <v>157.65</v>
       </c>
       <c r="I254" t="n">
-        <v>157.7635214323506</v>
+        <v>158.1714546798469</v>
       </c>
       <c r="J254" t="n">
-        <v>153.479829177823</v>
+        <v>158.1020692159199</v>
       </c>
       <c r="K254" t="n">
-        <v>153.3826628458766</v>
+        <v>157.719385463927</v>
       </c>
     </row>
     <row r="255">
@@ -9286,22 +9290,22 @@
         <v>0.807644</v>
       </c>
       <c r="F255" t="n">
-        <v>64.69000000000005</v>
+        <v>64.69</v>
       </c>
       <c r="G255" t="n">
-        <v>-0.1026640972431778</v>
+        <v>-0.4926741682714066</v>
       </c>
       <c r="H255" t="n">
-        <v>135.6241116135327</v>
+        <v>135.62</v>
       </c>
       <c r="I255" t="n">
-        <v>135.7267757107759</v>
+        <v>136.1126741682714</v>
       </c>
       <c r="J255" t="n">
-        <v>157.7534508311181</v>
+        <v>136.0459542657219</v>
       </c>
       <c r="K255" t="n">
-        <v>157.663445138187</v>
+        <v>135.6867199025495</v>
       </c>
     </row>
     <row r="256">
@@ -9318,22 +9322,22 @@
         <v>0.807592</v>
       </c>
       <c r="F256" t="n">
-        <v>64.58999999999992</v>
+        <v>64.59</v>
       </c>
       <c r="G256" t="n">
-        <v>-0.09579504930107419</v>
+        <v>-0.4658959832434277</v>
       </c>
       <c r="H256" t="n">
-        <v>144.8045547751835</v>
+        <v>144.8</v>
       </c>
       <c r="I256" t="n">
-        <v>144.9003498244846</v>
+        <v>145.2658959832434</v>
       </c>
       <c r="J256" t="n">
-        <v>135.7171775365599</v>
+        <v>145.2017136685877</v>
       </c>
       <c r="K256" t="n">
-        <v>135.6337097877487</v>
+        <v>144.8641823146557</v>
       </c>
     </row>
     <row r="257">
@@ -9350,22 +9354,22 @@
         <v>0.80754</v>
       </c>
       <c r="F257" t="n">
-        <v>64.49000000000001</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="G257" t="n">
-        <v>-0.0894810480147612</v>
+        <v>-0.4409528440068584</v>
       </c>
       <c r="H257" t="n">
-        <v>145.654704410927</v>
+        <v>145.65</v>
       </c>
       <c r="I257" t="n">
-        <v>145.7441854589418</v>
+        <v>146.0909528440069</v>
       </c>
       <c r="J257" t="n">
-        <v>144.8911974459306</v>
+        <v>146.0291874896237</v>
       </c>
       <c r="K257" t="n">
-        <v>144.8137071537375</v>
+        <v>145.7117653543832</v>
       </c>
     </row>
     <row r="258">
@@ -9382,22 +9386,22 @@
         <v>0.807488</v>
       </c>
       <c r="F258" t="n">
-        <v>64.3900000000001</v>
+        <v>64.39</v>
       </c>
       <c r="G258" t="n">
-        <v>-0.0836697768520196</v>
+        <v>-0.4176937052508549</v>
       </c>
       <c r="H258" t="n">
-        <v>161.3472893714829</v>
+        <v>161.35</v>
       </c>
       <c r="I258" t="n">
-        <v>161.4309591483349</v>
+        <v>161.7676937052508</v>
       </c>
       <c r="J258" t="n">
-        <v>145.7354539925679</v>
+        <v>161.7082315401649</v>
       </c>
       <c r="K258" t="n">
-        <v>145.6634358773009</v>
+        <v>161.4094621650859</v>
       </c>
     </row>
     <row r="259">
@@ -9414,22 +9418,22 @@
         <v>0.807436</v>
       </c>
       <c r="F259" t="n">
-        <v>64.28999999999996</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="G259" t="n">
-        <v>-0.07831453030743774</v>
+        <v>-0.395981969594061</v>
       </c>
       <c r="H259" t="n">
-        <v>174.9463734587014</v>
+        <v>174.95</v>
       </c>
       <c r="I259" t="n">
-        <v>175.0246879890088</v>
+        <v>175.345981969594</v>
       </c>
       <c r="J259" t="n">
-        <v>161.4226253279654</v>
+        <v>175.2887156272463</v>
       </c>
       <c r="K259" t="n">
-        <v>161.3556231918524</v>
+        <v>175.0072663423477</v>
       </c>
     </row>
     <row r="260">
@@ -9446,22 +9450,22 @@
         <v>0.807384</v>
       </c>
       <c r="F260" t="n">
-        <v>64.19000000000005</v>
+        <v>64.19</v>
       </c>
       <c r="G260" t="n">
-        <v>-0.07337354169834498</v>
+        <v>-0.3756939193798416</v>
       </c>
       <c r="H260" t="n">
-        <v>187.4238280669421</v>
+        <v>187.42</v>
       </c>
       <c r="I260" t="n">
-        <v>187.4972016086404</v>
+        <v>187.7956939193798</v>
       </c>
       <c r="J260" t="n">
-        <v>175.0167300461209</v>
+        <v>187.7405220192619</v>
       </c>
       <c r="K260" t="n">
-        <v>174.9543314015894</v>
+        <v>187.4751719001179</v>
       </c>
     </row>
     <row r="261">
@@ -9478,22 +9482,22 @@
         <v>0.807332</v>
       </c>
       <c r="F261" t="n">
-        <v>64.08999999999992</v>
+        <v>64.09</v>
       </c>
       <c r="G261" t="n">
-        <v>-0.06880939964074173</v>
+        <v>-0.3567173382086537</v>
       </c>
       <c r="H261" t="n">
-        <v>160.8049724277001</v>
+        <v>160.8</v>
       </c>
       <c r="I261" t="n">
-        <v>160.8737818273408</v>
+        <v>161.1567173382087</v>
       </c>
       <c r="J261" t="n">
-        <v>187.4895991626163</v>
+        <v>161.1035440985296</v>
       </c>
       <c r="K261" t="n">
-        <v>187.4314305129662</v>
+        <v>160.8531732396791</v>
       </c>
     </row>
     <row r="262">
@@ -9510,22 +9514,22 @@
         <v>0.80728</v>
       </c>
       <c r="F262" t="n">
-        <v>63.99000000000001</v>
+        <v>63.99</v>
       </c>
       <c r="G262" t="n">
-        <v>-0.06458854046650231</v>
+        <v>-0.338950296968477</v>
       </c>
       <c r="H262" t="n">
-        <v>169.6102963036369</v>
+        <v>169.61</v>
       </c>
       <c r="I262" t="n">
-        <v>169.6748848441034</v>
+        <v>169.9489502969685</v>
       </c>
       <c r="J262" t="n">
-        <v>160.866515784721</v>
+        <v>169.8976851757826</v>
       </c>
       <c r="K262" t="n">
-        <v>160.8122384703199</v>
+        <v>169.6612651211859</v>
       </c>
     </row>
     <row r="263">
@@ -9542,22 +9546,22 @@
         <v>0.8072279999999999</v>
       </c>
       <c r="F263" t="n">
-        <v>63.8900000000001</v>
+        <v>63.89</v>
       </c>
       <c r="G263" t="n">
-        <v>-0.06068080581763979</v>
+        <v>-0.3223000827759961</v>
       </c>
       <c r="H263" t="n">
-        <v>162.2366914923665</v>
+        <v>162.24</v>
       </c>
       <c r="I263" t="n">
-        <v>162.2973722981841</v>
+        <v>162.562300082776</v>
       </c>
       <c r="J263" t="n">
-        <v>169.6679373060242</v>
+        <v>162.5128574452358</v>
       </c>
       <c r="K263" t="n">
-        <v>169.617243841716</v>
+        <v>162.2894426375402</v>
       </c>
     </row>
     <row r="264">
@@ -9574,22 +9578,22 @@
         <v>0.807176</v>
       </c>
       <c r="F264" t="n">
-        <v>63.78999999999996</v>
+        <v>63.79</v>
       </c>
       <c r="G264" t="n">
-        <v>-0.05705905630060215</v>
+        <v>-0.3066822523221617</v>
       </c>
       <c r="H264" t="n">
-        <v>158.4933149647661</v>
+        <v>158.49</v>
       </c>
       <c r="I264" t="n">
-        <v>158.5503740210667</v>
+        <v>158.7966822523222</v>
       </c>
       <c r="J264" t="n">
-        <v>162.2907264752668</v>
+        <v>158.7489810619319</v>
       </c>
       <c r="K264" t="n">
-        <v>162.2433373152838</v>
+        <v>158.5377011903903</v>
       </c>
     </row>
     <row r="265">
@@ -9606,22 +9610,22 @@
         <v>0.807124</v>
       </c>
       <c r="F265" t="n">
-        <v>63.69000000000005</v>
+        <v>63.69</v>
       </c>
       <c r="G265" t="n">
-        <v>-0.05369883345900917</v>
+        <v>-0.2920197937235685</v>
       </c>
       <c r="H265" t="n">
-        <v>155.4792076558249</v>
+        <v>155.48</v>
       </c>
       <c r="I265" t="n">
-        <v>155.5329064892839</v>
+        <v>155.7720197937236</v>
       </c>
       <c r="J265" t="n">
-        <v>158.5440141550941</v>
+        <v>155.7259833256588</v>
       </c>
       <c r="K265" t="n">
-        <v>158.4996748307387</v>
+        <v>155.5260364680647</v>
       </c>
     </row>
     <row r="266">
@@ -9638,22 +9642,22 @@
         <v>0.807072</v>
       </c>
       <c r="F266" t="n">
-        <v>63.58999999999992</v>
+        <v>63.59</v>
       </c>
       <c r="G266" t="n">
-        <v>-0.05057806347912219</v>
+        <v>-0.2782423831919516</v>
       </c>
       <c r="H266" t="n">
-        <v>162.7475615558463</v>
+        <v>162.75</v>
       </c>
       <c r="I266" t="n">
-        <v>162.7981396193254</v>
+        <v>163.028242383192</v>
       </c>
       <c r="J266" t="n">
-        <v>155.5268177810679</v>
+        <v>162.9837979579235</v>
       </c>
       <c r="K266" t="n">
-        <v>155.4852963640409</v>
+        <v>162.7944444252685</v>
       </c>
     </row>
     <row r="267">
@@ -9670,22 +9674,22 @@
         <v>0.80702</v>
       </c>
       <c r="F267" t="n">
-        <v>63.49000000000001</v>
+        <v>63.49</v>
       </c>
       <c r="G267" t="n">
-        <v>-0.04767679701049587</v>
+        <v>-0.2652857247135216</v>
       </c>
       <c r="H267" t="n">
-        <v>142.4276969591832</v>
+        <v>142.43</v>
       </c>
       <c r="I267" t="n">
-        <v>142.4753737561937</v>
+        <v>142.6952857247135</v>
       </c>
       <c r="J267" t="n">
-        <v>162.792308162224</v>
+        <v>142.6523644603284</v>
       </c>
       <c r="K267" t="n">
-        <v>162.7533930129477</v>
+        <v>142.4729212643851</v>
       </c>
     </row>
     <row r="268">
@@ -9702,22 +9706,22 @@
         <v>0.806968</v>
       </c>
       <c r="F268" t="n">
-        <v>63.3900000000001</v>
+        <v>63.39</v>
       </c>
       <c r="G268" t="n">
-        <v>-0.04497698030178299</v>
+        <v>-0.2530909625317577</v>
       </c>
       <c r="H268" t="n">
-        <v>172.8209792705535</v>
+        <v>172.82</v>
       </c>
       <c r="I268" t="n">
-        <v>172.8659562508553</v>
+        <v>173.0730909625318</v>
       </c>
       <c r="J268" t="n">
-        <v>142.4697864747886</v>
+        <v>173.0316275442848</v>
       </c>
       <c r="K268" t="n">
-        <v>142.4332842405883</v>
+        <v>172.8614634182469</v>
       </c>
     </row>
     <row r="269">
@@ -9734,22 +9738,22 @@
         <v>0.806916</v>
       </c>
       <c r="F269" t="n">
-        <v>63.28999999999996</v>
+        <v>63.29</v>
       </c>
       <c r="G269" t="n">
-        <v>-0.04246225354103217</v>
+        <v>-0.2416041575926329</v>
       </c>
       <c r="H269" t="n">
-        <v>128.983686034234</v>
+        <v>128.98</v>
       </c>
       <c r="I269" t="n">
-        <v>129.026148287775</v>
+        <v>129.2216041575926</v>
       </c>
       <c r="J269" t="n">
-        <v>172.8606008443482</v>
+        <v>129.1815366233489</v>
       </c>
       <c r="K269" t="n">
-        <v>172.8263346770605</v>
+        <v>129.0200675342437</v>
       </c>
     </row>
     <row r="270">
@@ -9766,22 +9770,22 @@
         <v>0.806864</v>
       </c>
       <c r="F270" t="n">
-        <v>63.19000000000005</v>
+        <v>63.19</v>
       </c>
       <c r="G270" t="n">
-        <v>-0.04011777287220752</v>
+        <v>-0.2307758202817922</v>
       </c>
       <c r="H270" t="n">
-        <v>186.67706081818</v>
+        <v>186.68</v>
       </c>
       <c r="I270" t="n">
-        <v>186.7171785910522</v>
+        <v>186.9107758202818</v>
       </c>
       <c r="J270" t="n">
-        <v>129.0210131777006</v>
+        <v>186.8720453606247</v>
       </c>
       <c r="K270" t="n">
-        <v>128.9888211443084</v>
+        <v>186.7187304596571</v>
       </c>
     </row>
     <row r="271">
@@ -9798,22 +9802,22 @@
         <v>0.806812</v>
       </c>
       <c r="F271" t="n">
-        <v>63.08999999999992</v>
+        <v>63.09</v>
       </c>
       <c r="G271" t="n">
-        <v>-0.03793005305553265</v>
+        <v>-0.2205604927849549</v>
       </c>
       <c r="H271" t="n">
-        <v>147.1743107440147</v>
+        <v>147.17</v>
       </c>
       <c r="I271" t="n">
-        <v>147.2122407970702</v>
+        <v>147.3905604927849</v>
       </c>
       <c r="J271" t="n">
-        <v>186.7122528729441</v>
+        <v>147.3531112646699</v>
       </c>
       <c r="K271" t="n">
-        <v>186.6819865362881</v>
+        <v>147.207449228115</v>
       </c>
     </row>
     <row r="272">
@@ -9830,22 +9834,22 @@
         <v>0.806761</v>
       </c>
       <c r="F272" t="n">
-        <v>62.99000000000001</v>
+        <v>62.99</v>
       </c>
       <c r="G272" t="n">
-        <v>-0.03588682815740185</v>
+        <v>-0.2109163752635936</v>
       </c>
       <c r="H272" t="n">
-        <v>131.481318506968</v>
+        <v>131.48</v>
       </c>
       <c r="I272" t="n">
-        <v>131.5172053351254</v>
+        <v>131.6909163752636</v>
       </c>
       <c r="J272" t="n">
-        <v>147.2075141957502</v>
+        <v>131.6546953281909</v>
       </c>
       <c r="K272" t="n">
-        <v>147.1790373453348</v>
+        <v>131.5162210470726</v>
       </c>
     </row>
     <row r="273">
@@ -9862,22 +9866,22 @@
         <v>0.806709</v>
       </c>
       <c r="F273" t="n">
-        <v>62.8900000000001</v>
+        <v>62.89</v>
       </c>
       <c r="G273" t="n">
-        <v>-0.03397692801593166</v>
+        <v>-0.2018049907789532</v>
       </c>
       <c r="H273" t="n">
-        <v>163.4976181002071</v>
+        <v>163.5</v>
       </c>
       <c r="I273" t="n">
-        <v>163.531595028223</v>
+        <v>163.701804990779</v>
       </c>
       <c r="J273" t="n">
-        <v>131.512668163315</v>
+        <v>163.6667617045456</v>
       </c>
       <c r="K273" t="n">
-        <v>131.4858556787784</v>
+        <v>163.5350432862334</v>
       </c>
     </row>
     <row r="274">
@@ -9894,22 +9898,22 @@
         <v>0.806657</v>
       </c>
       <c r="F274" t="n">
-        <v>62.78999999999996</v>
+        <v>62.79</v>
       </c>
       <c r="G274" t="n">
-        <v>-0.03219016853051926</v>
+        <v>-0.1931908845366195</v>
       </c>
       <c r="H274" t="n">
-        <v>142.5636918789523</v>
+        <v>142.56</v>
       </c>
       <c r="I274" t="n">
-        <v>142.5958820474828</v>
+        <v>142.7531908845366</v>
       </c>
       <c r="J274" t="n">
-        <v>163.5272381482051</v>
+        <v>142.719277417704</v>
       </c>
       <c r="K274" t="n">
-        <v>163.501974980225</v>
+        <v>142.5939134668326</v>
       </c>
     </row>
     <row r="275">
@@ -9926,22 +9930,22 @@
         <v>0.806605</v>
       </c>
       <c r="F275" t="n">
-        <v>62.69000000000005</v>
+        <v>62.69</v>
       </c>
       <c r="G275" t="n">
-        <v>-0.03051725408664652</v>
+        <v>-0.1850413535747464</v>
       </c>
       <c r="H275" t="n">
-        <v>137.8754160958586</v>
+        <v>137.88</v>
       </c>
       <c r="I275" t="n">
-        <v>137.9059333499453</v>
+        <v>138.0650413535747</v>
       </c>
       <c r="J275" t="n">
-        <v>142.5916968355641</v>
+        <v>138.032212101862</v>
       </c>
       <c r="K275" t="n">
-        <v>142.567877090871</v>
+        <v>137.9128292517128</v>
       </c>
     </row>
     <row r="276">
@@ -9958,22 +9962,22 @@
         <v>0.806553</v>
       </c>
       <c r="F276" t="n">
-        <v>62.58999999999992</v>
+        <v>62.59</v>
       </c>
       <c r="G276" t="n">
-        <v>-0.02894969064985276</v>
+        <v>-0.1773262034974721</v>
       </c>
       <c r="H276" t="n">
-        <v>133.5622085591399</v>
+        <v>133.56</v>
       </c>
       <c r="I276" t="n">
-        <v>133.5911582497897</v>
+        <v>133.7373262034975</v>
       </c>
       <c r="J276" t="n">
-        <v>137.9019116634942</v>
+        <v>133.7055377673724</v>
       </c>
       <c r="K276" t="n">
-        <v>137.8794377823097</v>
+        <v>133.5917884361251</v>
       </c>
     </row>
     <row r="277">
@@ -9990,22 +9994,22 @@
         <v>0.806501</v>
       </c>
       <c r="F277" t="n">
-        <v>62.49000000000001</v>
+        <v>62.49</v>
       </c>
       <c r="G277" t="n">
-        <v>-0.02747970825436141</v>
+        <v>-0.1700175292683355</v>
       </c>
       <c r="H277" t="n">
-        <v>148.2911986469948</v>
+        <v>148.29</v>
       </c>
       <c r="I277" t="n">
-        <v>148.3186783552491</v>
+        <v>148.4600175292683</v>
       </c>
       <c r="J277" t="n">
-        <v>133.5872923966428</v>
+        <v>148.4292285900683</v>
       </c>
       <c r="K277" t="n">
-        <v>133.5660744122869</v>
+        <v>148.3207889392</v>
       </c>
     </row>
     <row r="278">
@@ -10022,22 +10026,22 @@
         <v>0.806449</v>
       </c>
       <c r="F278" t="n">
-        <v>62.3900000000001</v>
+        <v>62.39</v>
       </c>
       <c r="G278" t="n">
-        <v>-0.02610019177652134</v>
+        <v>-0.1630895174380953</v>
       </c>
       <c r="H278" t="n">
-        <v>154.049419120118</v>
+        <v>154.05</v>
       </c>
       <c r="I278" t="n">
-        <v>154.0755193118945</v>
+        <v>154.2130895174381</v>
       </c>
       <c r="J278" t="n">
-        <v>148.3149610652977</v>
+        <v>154.183260721406</v>
       </c>
       <c r="K278" t="n">
-        <v>148.2949159369463</v>
+        <v>154.0798287960321</v>
       </c>
     </row>
     <row r="279">
@@ -10054,22 +10058,22 @@
         <v>0.806397</v>
       </c>
       <c r="F279" t="n">
-        <v>62.28999999999996</v>
+        <v>62.29</v>
       </c>
       <c r="G279" t="n">
-        <v>-0.0248046190258151</v>
+        <v>-0.1565182674944481</v>
       </c>
       <c r="H279" t="n">
-        <v>160.5970756339619</v>
+        <v>160.6</v>
       </c>
       <c r="I279" t="n">
-        <v>160.6218802529877</v>
+        <v>160.7565182674944</v>
       </c>
       <c r="J279" t="n">
-        <v>154.0719437106804</v>
+        <v>160.7276121171642</v>
       </c>
       <c r="K279" t="n">
-        <v>154.0529947213321</v>
+        <v>160.6289061503303</v>
       </c>
     </row>
     <row r="280">
@@ -10086,22 +10090,22 @@
         <v>0.806346</v>
       </c>
       <c r="F280" t="n">
-        <v>62.19000000000005</v>
+        <v>62.19</v>
       </c>
       <c r="G280" t="n">
-        <v>-0.02358700530749047</v>
+        <v>-0.1502816302922554</v>
       </c>
       <c r="H280" t="n">
-        <v>128.2886006751444</v>
+        <v>128.29</v>
       </c>
       <c r="I280" t="n">
-        <v>128.3121876804519</v>
+        <v>128.4402816302922</v>
       </c>
       <c r="J280" t="n">
-        <v>160.6184398371503</v>
+        <v>128.4122623827028</v>
       </c>
       <c r="K280" t="n">
-        <v>160.6005160497993</v>
+        <v>128.3180192475894</v>
       </c>
     </row>
     <row r="281">
@@ -10118,22 +10122,22 @@
         <v>0.806294</v>
       </c>
       <c r="F281" t="n">
-        <v>62.08999999999992</v>
+        <v>62.09</v>
       </c>
       <c r="G281" t="n">
-        <v>-0.02244185371770868</v>
+        <v>-0.1443590617625432</v>
       </c>
       <c r="H281" t="n">
-        <v>149.2792951454432</v>
+        <v>149.28</v>
       </c>
       <c r="I281" t="n">
-        <v>149.3017369991609</v>
+        <v>149.4243590617625</v>
       </c>
       <c r="J281" t="n">
-        <v>128.3088762948833</v>
+        <v>149.3971926330201</v>
       </c>
       <c r="K281" t="n">
-        <v>128.291912060713</v>
+        <v>149.3071664287424</v>
       </c>
     </row>
     <row r="282">
@@ -10150,22 +10154,22 @@
         <v>0.806242</v>
       </c>
       <c r="F282" t="n">
-        <v>61.99000000000001</v>
+        <v>61.99</v>
       </c>
       <c r="G282" t="n">
-        <v>-0.0213641105229101</v>
+        <v>-0.138731490303968</v>
       </c>
       <c r="H282" t="n">
-        <v>168.7334572001955</v>
+        <v>168.73</v>
       </c>
       <c r="I282" t="n">
-        <v>168.7548213107184</v>
+        <v>168.868731490304</v>
       </c>
       <c r="J282" t="n">
-        <v>149.2985488157373</v>
+        <v>168.8423853660493</v>
       </c>
       <c r="K282" t="n">
-        <v>149.2824833288668</v>
+        <v>168.7563461242546</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/UKSAF/Pt4f.xlsx
+++ b/DATA/UKSAF/Pt4f.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pt4f" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Experimental description" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results Table" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,16 +27,25 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -43,14 +53,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -126,6 +223,39 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5753100" cy="4114800"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,7 +547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D282"/>
+  <dimension ref="A1:AP282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,24 +556,178 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Binding Energy</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Corrected Data</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Raw Data</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Transmission</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr"/>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Residuals</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Background</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Calculated Fit</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Pt4f7/2 p1</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Pt4f5/2 p2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr"/>
+      <c r="M1" s="2" t="inlineStr"/>
+      <c r="N1" s="2" t="inlineStr"/>
+      <c r="O1" s="2" t="inlineStr"/>
+      <c r="P1" s="2" t="inlineStr"/>
+      <c r="Q1" s="2" t="inlineStr"/>
+      <c r="R1" s="2" t="inlineStr"/>
+      <c r="S1" s="2" t="inlineStr"/>
+      <c r="T1" s="2" t="inlineStr"/>
+      <c r="U1" s="2" t="inlineStr"/>
+      <c r="V1" s="2" t="inlineStr"/>
+      <c r="W1" s="2" t="inlineStr"/>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="Y1" s="4" t="inlineStr">
+        <is>
+          <t>Peak
+Label</t>
+        </is>
+      </c>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Position
+(eV)</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>Height
+(CPS)</t>
+        </is>
+      </c>
+      <c r="AB1" s="4" t="inlineStr">
+        <is>
+          <t>FWHM
+(eV)</t>
+        </is>
+      </c>
+      <c r="AC1" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">σ/γ (%)
+L/G 
+</t>
+        </is>
+      </c>
+      <c r="AD1" s="4" t="inlineStr">
+        <is>
+          <t>Area
+(CPS.eV)</t>
+        </is>
+      </c>
+      <c r="AE1" s="4" t="inlineStr">
+        <is>
+          <t>σ
+W_g</t>
+        </is>
+      </c>
+      <c r="AF1" s="4" t="inlineStr">
+        <is>
+          <t>γ
+W_l</t>
+        </is>
+      </c>
+      <c r="AG1" s="4" t="inlineStr">
+        <is>
+          <t>W_g
+Skew</t>
+        </is>
+      </c>
+      <c r="AH1" s="4" t="inlineStr">
+        <is>
+          <t>Conc.
+(%)</t>
+        </is>
+      </c>
+      <c r="AI1" s="4" t="inlineStr">
+        <is>
+          <t>A/Aᴀ</t>
+        </is>
+      </c>
+      <c r="AJ1" s="4" t="inlineStr">
+        <is>
+          <t>Split
+(eV)</t>
+        </is>
+      </c>
+      <c r="AK1" s="4" t="inlineStr">
+        <is>
+          <t>Fitting Model</t>
+        </is>
+      </c>
+      <c r="AL1" s="4" t="inlineStr">
+        <is>
+          <t>Bkg Type</t>
+        </is>
+      </c>
+      <c r="AM1" s="4" t="inlineStr">
+        <is>
+          <t>Bkg Low
+(eV)</t>
+        </is>
+      </c>
+      <c r="AN1" s="4" t="inlineStr">
+        <is>
+          <t>Bkg High
+(eV)</t>
+        </is>
+      </c>
+      <c r="AO1" s="4" t="inlineStr">
+        <is>
+          <t>Bkg Offset Low
+(CPS)</t>
+        </is>
+      </c>
+      <c r="AP1" s="5" t="inlineStr">
+        <is>
+          <t>Bkg Offset High
+(CPS)</t>
         </is>
       </c>
     </row>
@@ -460,6 +744,119 @@
       <c r="D2" t="n">
         <v>0.820997</v>
       </c>
+      <c r="F2" t="n">
+        <v>92.98999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-33.01593723046176</v>
+      </c>
+      <c r="H2" t="n">
+        <v>663.0599999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>696.0759372304617</v>
+      </c>
+      <c r="J2" t="n">
+        <v>679.1895888679206</v>
+      </c>
+      <c r="K2" t="n">
+        <v>679.946348362541</v>
+      </c>
+      <c r="X2" s="6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y2" s="7" t="inlineStr">
+        <is>
+          <t>Pt4f7/2 p1</t>
+        </is>
+      </c>
+      <c r="Z2" s="7" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="AA2" s="7" t="inlineStr">
+        <is>
+          <t>5109</t>
+        </is>
+      </c>
+      <c r="AB2" s="7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="AC2" s="7" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="AD2" s="7" t="inlineStr">
+        <is>
+          <t>7898</t>
+        </is>
+      </c>
+      <c r="AE2" s="7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="AF2" s="7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="AG2" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" s="7" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="AI2" s="7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="AJ2" s="7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK2" s="7" t="inlineStr">
+        <is>
+          <t>LA (Area, σ/γ, γ)</t>
+        </is>
+      </c>
+      <c r="AL2" s="7" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM2" s="7" t="inlineStr">
+        <is>
+          <t>61.99</t>
+        </is>
+      </c>
+      <c r="AN2" s="7" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="AO2" s="7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP2" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -474,6 +871,75 @@
       <c r="D3" t="n">
         <v>0.820943</v>
       </c>
+      <c r="F3" t="n">
+        <v>92.89</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-33.33182054374345</v>
+      </c>
+      <c r="H3" t="n">
+        <v>719.3099999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>752.6418205437434</v>
+      </c>
+      <c r="J3" t="n">
+        <v>735.5786174802082</v>
+      </c>
+      <c r="K3" t="n">
+        <v>736.3732030635351</v>
+      </c>
+      <c r="X3" s="9" t="inlineStr"/>
+      <c r="Y3" s="10" t="inlineStr"/>
+      <c r="Z3" s="10" t="inlineStr">
+        <is>
+          <t>64.99,92.99</t>
+        </is>
+      </c>
+      <c r="AA3" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" s="10" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AC3" s="10" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="AD3" s="10" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AE3" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" s="10" t="inlineStr">
+        <is>
+          <t>0.01:10</t>
+        </is>
+      </c>
+      <c r="AG3" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" s="10" t="inlineStr"/>
+      <c r="AI3" s="10" t="inlineStr"/>
+      <c r="AJ3" s="10" t="inlineStr"/>
+      <c r="AK3" s="10" t="inlineStr"/>
+      <c r="AL3" s="10" t="inlineStr"/>
+      <c r="AM3" s="10" t="inlineStr"/>
+      <c r="AN3" s="10" t="inlineStr"/>
+      <c r="AO3" s="10" t="inlineStr"/>
+      <c r="AP3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -488,6 +954,119 @@
       <c r="D4" t="n">
         <v>0.82089</v>
       </c>
+      <c r="F4" t="n">
+        <v>92.79000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-33.65266532438864</v>
+      </c>
+      <c r="H4" t="n">
+        <v>655.63</v>
+      </c>
+      <c r="I4" t="n">
+        <v>689.2826653243886</v>
+      </c>
+      <c r="J4" t="n">
+        <v>672.0395939090954</v>
+      </c>
+      <c r="K4" t="n">
+        <v>672.8730714152932</v>
+      </c>
+      <c r="X4" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Y4" s="7" t="inlineStr">
+        <is>
+          <t>Pt4f5/2 p2</t>
+        </is>
+      </c>
+      <c r="Z4" s="7" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="AA4" s="7" t="inlineStr">
+        <is>
+          <t>3899</t>
+        </is>
+      </c>
+      <c r="AB4" s="7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="AC4" s="7" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="AD4" s="7" t="inlineStr">
+        <is>
+          <t>5996</t>
+        </is>
+      </c>
+      <c r="AE4" s="7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="AF4" s="7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="AG4" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" s="7" t="inlineStr">
+        <is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="AI4" s="7" t="inlineStr">
+        <is>
+          <t>75.9</t>
+        </is>
+      </c>
+      <c r="AJ4" s="7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="AK4" s="7" t="inlineStr">
+        <is>
+          <t>LA (Area, σ/γ, γ)</t>
+        </is>
+      </c>
+      <c r="AL4" s="7" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM4" s="7" t="inlineStr">
+        <is>
+          <t>61.99</t>
+        </is>
+      </c>
+      <c r="AN4" s="7" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="AO4" s="7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP4" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +1081,75 @@
       <c r="D5" t="n">
         <v>0.820836</v>
       </c>
+      <c r="F5" t="n">
+        <v>92.69</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-33.97858085155576</v>
+      </c>
+      <c r="H5" t="n">
+        <v>696.1900000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>730.1685808515558</v>
+      </c>
+      <c r="J5" t="n">
+        <v>712.7425560499347</v>
+      </c>
+      <c r="K5" t="n">
+        <v>713.6160248016212</v>
+      </c>
+      <c r="X5" s="9" t="inlineStr"/>
+      <c r="Y5" s="10" t="inlineStr"/>
+      <c r="Z5" s="10" t="inlineStr">
+        <is>
+          <t>A+3.3#0.2</t>
+        </is>
+      </c>
+      <c r="AA5" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" s="10" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AC5" s="10" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AD5" s="10" t="inlineStr">
+        <is>
+          <t>A*0.75#0.05</t>
+        </is>
+      </c>
+      <c r="AE5" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF5" s="10" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AG5" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" s="10" t="inlineStr"/>
+      <c r="AI5" s="10" t="inlineStr"/>
+      <c r="AJ5" s="10" t="inlineStr"/>
+      <c r="AK5" s="10" t="inlineStr"/>
+      <c r="AL5" s="10" t="inlineStr"/>
+      <c r="AM5" s="10" t="inlineStr"/>
+      <c r="AN5" s="10" t="inlineStr"/>
+      <c r="AO5" s="10" t="inlineStr"/>
+      <c r="AP5" s="11" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -516,6 +1164,24 @@
       <c r="D6" t="n">
         <v>0.820783</v>
       </c>
+      <c r="F6" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-34.3096795211909</v>
+      </c>
+      <c r="H6" t="n">
+        <v>727.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>762.2696795211909</v>
+      </c>
+      <c r="J6" t="n">
+        <v>744.6575427437801</v>
+      </c>
+      <c r="K6" t="n">
+        <v>745.5721367774108</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -530,6 +1196,24 @@
       <c r="D7" t="n">
         <v>0.820729</v>
       </c>
+      <c r="F7" t="n">
+        <v>92.48999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-34.64607695569907</v>
+      </c>
+      <c r="H7" t="n">
+        <v>719.08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>753.7260769556991</v>
+      </c>
+      <c r="J7" t="n">
+        <v>735.9245938062421</v>
+      </c>
+      <c r="K7" t="n">
+        <v>736.881483149457</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -544,6 +1228,24 @@
       <c r="D8" t="n">
         <v>0.820676</v>
       </c>
+      <c r="F8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-34.98789211822429</v>
+      </c>
+      <c r="H8" t="n">
+        <v>687.28</v>
+      </c>
+      <c r="I8" t="n">
+        <v>722.2678921182243</v>
+      </c>
+      <c r="J8" t="n">
+        <v>704.2737500573854</v>
+      </c>
+      <c r="K8" t="n">
+        <v>705.2741420608388</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -558,6 +1260,24 @@
       <c r="D9" t="n">
         <v>0.820622</v>
       </c>
+      <c r="F9" t="n">
+        <v>92.29000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-35.33524743176201</v>
+      </c>
+      <c r="H9" t="n">
+        <v>702.46</v>
+      </c>
+      <c r="I9" t="n">
+        <v>737.795247431762</v>
+      </c>
+      <c r="J9" t="n">
+        <v>719.6050533527123</v>
+      </c>
+      <c r="K9" t="n">
+        <v>720.6501940790498</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -572,6 +1292,24 @@
       <c r="D10" t="n">
         <v>0.820568</v>
       </c>
+      <c r="F10" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-35.68826890334435</v>
+      </c>
+      <c r="H10" t="n">
+        <v>713.1900000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>748.8782689033444</v>
+      </c>
+      <c r="J10" t="n">
+        <v>730.4885466152774</v>
+      </c>
+      <c r="K10" t="n">
+        <v>731.579722288067</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -586,6 +1324,24 @@
       <c r="D11" t="n">
         <v>0.820515</v>
       </c>
+      <c r="F11" t="n">
+        <v>92.09</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-36.04708625354897</v>
+      </c>
+      <c r="H11" t="n">
+        <v>682.78</v>
+      </c>
+      <c r="I11" t="n">
+        <v>718.8270862535489</v>
+      </c>
+      <c r="J11" t="n">
+        <v>700.234273868983</v>
+      </c>
+      <c r="K11" t="n">
+        <v>701.3728123845659</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -600,6 +1356,24 @@
       <c r="D12" t="n">
         <v>0.820461</v>
       </c>
+      <c r="F12" t="n">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-36.41183305159768</v>
+      </c>
+      <c r="H12" t="n">
+        <v>676.38</v>
+      </c>
+      <c r="I12" t="n">
+        <v>712.7918330515977</v>
+      </c>
+      <c r="J12" t="n">
+        <v>693.9922802731026</v>
+      </c>
+      <c r="K12" t="n">
+        <v>695.1795527784952</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -614,6 +1388,24 @@
       <c r="D13" t="n">
         <v>0.820408</v>
       </c>
+      <c r="F13" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-36.78264685632701</v>
+      </c>
+      <c r="H13" t="n">
+        <v>690.9299999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>727.712646856327</v>
+      </c>
+      <c r="J13" t="n">
+        <v>708.7026121580867</v>
+      </c>
+      <c r="K13" t="n">
+        <v>709.9400346982402</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -628,6 +1420,24 @@
       <c r="D14" t="n">
         <v>0.820354</v>
       </c>
+      <c r="F14" t="n">
+        <v>91.79000000000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-37.15966936332734</v>
+      </c>
+      <c r="H14" t="n">
+        <v>661.99</v>
+      </c>
+      <c r="I14" t="n">
+        <v>699.1496693633273</v>
+      </c>
+      <c r="J14" t="n">
+        <v>679.925317062707</v>
+      </c>
+      <c r="K14" t="n">
+        <v>681.2143523006205</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -642,6 +1452,24 @@
       <c r="D15" t="n">
         <v>0.8203009999999999</v>
       </c>
+      <c r="F15" t="n">
+        <v>91.69</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-37.54304655856731</v>
+      </c>
+      <c r="H15" t="n">
+        <v>696.14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>733.6830465585673</v>
+      </c>
+      <c r="J15" t="n">
+        <v>714.2404437725936</v>
+      </c>
+      <c r="K15" t="n">
+        <v>715.5826027859737</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -656,6 +1484,24 @@
       <c r="D16" t="n">
         <v>0.8202469999999999</v>
       </c>
+      <c r="F16" t="n">
+        <v>91.59</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-37.93292887883445</v>
+      </c>
+      <c r="H16" t="n">
+        <v>681.17</v>
+      </c>
+      <c r="I16" t="n">
+        <v>719.1029288788344</v>
+      </c>
+      <c r="J16" t="n">
+        <v>699.4380423602297</v>
+      </c>
+      <c r="K16" t="n">
+        <v>700.8348865186047</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -670,6 +1516,24 @@
       <c r="D17" t="n">
         <v>0.820194</v>
       </c>
+      <c r="F17" t="n">
+        <v>91.48999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-38.3294713793473</v>
+      </c>
+      <c r="H17" t="n">
+        <v>684.89</v>
+      </c>
+      <c r="I17" t="n">
+        <v>723.2194713793473</v>
+      </c>
+      <c r="J17" t="n">
+        <v>703.328164226464</v>
+      </c>
+      <c r="K17" t="n">
+        <v>704.7813071528833</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -684,6 +1548,24 @@
       <c r="D18" t="n">
         <v>0.82014</v>
       </c>
+      <c r="F18" t="n">
+        <v>91.39</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-38.73283390891265</v>
+      </c>
+      <c r="H18" t="n">
+        <v>676.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>715.4328339089127</v>
+      </c>
+      <c r="J18" t="n">
+        <v>695.3108621436101</v>
+      </c>
+      <c r="K18" t="n">
+        <v>696.8219717653027</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -698,6 +1580,24 @@
       <c r="D19" t="n">
         <v>0.820087</v>
       </c>
+      <c r="F19" t="n">
+        <v>91.29000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-39.14318129302205</v>
+      </c>
+      <c r="H19" t="n">
+        <v>716.59</v>
+      </c>
+      <c r="I19" t="n">
+        <v>755.7331812930221</v>
+      </c>
+      <c r="J19" t="n">
+        <v>735.376190300201</v>
+      </c>
+      <c r="K19" t="n">
+        <v>736.9469909928212</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -712,6 +1612,24 @@
       <c r="D20" t="n">
         <v>0.820033</v>
       </c>
+      <c r="F20" t="n">
+        <v>91.19</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-39.56068352531145</v>
+      </c>
+      <c r="H20" t="n">
+        <v>700.34</v>
+      </c>
+      <c r="I20" t="n">
+        <v>739.9006835253115</v>
+      </c>
+      <c r="J20" t="n">
+        <v>719.3042043474745</v>
+      </c>
+      <c r="K20" t="n">
+        <v>720.936479177837</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -726,6 +1644,24 @@
       <c r="D21" t="n">
         <v>0.81998</v>
       </c>
+      <c r="F21" t="n">
+        <v>91.09</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-39.98551596782659</v>
+      </c>
+      <c r="H21" t="n">
+        <v>696.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>736.2855159678265</v>
+      </c>
+      <c r="J21" t="n">
+        <v>715.4449614476648</v>
+      </c>
+      <c r="K21" t="n">
+        <v>717.1405545201617</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -740,6 +1676,24 @@
       <c r="D22" t="n">
         <v>0.819927</v>
       </c>
+      <c r="F22" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-40.41785956056913</v>
+      </c>
+      <c r="H22" t="n">
+        <v>649.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>690.2178595605691</v>
+      </c>
+      <c r="J22" t="n">
+        <v>669.1285203241833</v>
+      </c>
+      <c r="K22" t="n">
+        <v>670.8893392363857</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -754,6 +1708,24 @@
       <c r="D23" t="n">
         <v>0.819873</v>
       </c>
+      <c r="F23" t="n">
+        <v>90.89</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-40.85790104082366</v>
+      </c>
+      <c r="H23" t="n">
+        <v>662.53</v>
+      </c>
+      <c r="I23" t="n">
+        <v>703.3879010408236</v>
+      </c>
+      <c r="J23" t="n">
+        <v>682.044941313772</v>
+      </c>
+      <c r="K23" t="n">
+        <v>683.8729597270516</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -768,6 +1740,24 @@
       <c r="D24" t="n">
         <v>0.81982</v>
       </c>
+      <c r="F24" t="n">
+        <v>90.79000000000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-41.30583317280116</v>
+      </c>
+      <c r="H24" t="n">
+        <v>655.98</v>
+      </c>
+      <c r="I24" t="n">
+        <v>697.2858331728012</v>
+      </c>
+      <c r="J24" t="n">
+        <v>675.6842864207223</v>
+      </c>
+      <c r="K24" t="n">
+        <v>677.5815467520789</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -782,6 +1772,24 @@
       <c r="D25" t="n">
         <v>0.819766</v>
       </c>
+      <c r="F25" t="n">
+        <v>90.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-41.76185498816335</v>
+      </c>
+      <c r="H25" t="n">
+        <v>658.33</v>
+      </c>
+      <c r="I25" t="n">
+        <v>700.0918549881634</v>
+      </c>
+      <c r="J25" t="n">
+        <v>678.2266193732509</v>
+      </c>
+      <c r="K25" t="n">
+        <v>680.1952356149126</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -796,6 +1804,24 @@
       <c r="D26" t="n">
         <v>0.819713</v>
       </c>
+      <c r="F26" t="n">
+        <v>90.59</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-42.22617203803077</v>
+      </c>
+      <c r="H26" t="n">
+        <v>663.4400000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>705.6661720380308</v>
+      </c>
+      <c r="J26" t="n">
+        <v>683.532005682134</v>
+      </c>
+      <c r="K26" t="n">
+        <v>685.5741663558969</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -810,6 +1836,24 @@
       <c r="D27" t="n">
         <v>0.819659</v>
       </c>
+      <c r="F27" t="n">
+        <v>90.48999999999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-42.6989966571166</v>
+      </c>
+      <c r="H27" t="n">
+        <v>673.63</v>
+      </c>
+      <c r="I27" t="n">
+        <v>716.3289966571166</v>
+      </c>
+      <c r="J27" t="n">
+        <v>693.920512701704</v>
+      </c>
+      <c r="K27" t="n">
+        <v>696.0384839554126</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -824,6 +1868,24 @@
       <c r="D28" t="n">
         <v>0.8196059999999999</v>
       </c>
+      <c r="F28" t="n">
+        <v>90.39</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-43.18054824066451</v>
+      </c>
+      <c r="H28" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>757.6805482406645</v>
+      </c>
+      <c r="J28" t="n">
+        <v>734.992209693318</v>
+      </c>
+      <c r="K28" t="n">
+        <v>737.1883385473465</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -838,6 +1900,24 @@
       <c r="D29" t="n">
         <v>0.819553</v>
       </c>
+      <c r="F29" t="n">
+        <v>90.29000000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-43.67105353491888</v>
+      </c>
+      <c r="H29" t="n">
+        <v>672.66</v>
+      </c>
+      <c r="I29" t="n">
+        <v>716.3310535349189</v>
+      </c>
+      <c r="J29" t="n">
+        <v>693.3571678914163</v>
+      </c>
+      <c r="K29" t="n">
+        <v>695.6338856435025</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -852,6 +1932,24 @@
       <c r="D30" t="n">
         <v>0.819499</v>
       </c>
+      <c r="F30" t="n">
+        <v>90.19</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-44.1707469418983</v>
+      </c>
+      <c r="H30" t="n">
+        <v>652.39</v>
+      </c>
+      <c r="I30" t="n">
+        <v>696.5607469418983</v>
+      </c>
+      <c r="J30" t="n">
+        <v>673.2954605722903</v>
+      </c>
+      <c r="K30" t="n">
+        <v>675.655286369608</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -866,6 +1964,24 @@
       <c r="D31" t="n">
         <v>0.819446</v>
       </c>
+      <c r="F31" t="n">
+        <v>90.09</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-44.67987083929506</v>
+      </c>
+      <c r="H31" t="n">
+        <v>682</v>
+      </c>
+      <c r="I31" t="n">
+        <v>726.6798708392951</v>
+      </c>
+      <c r="J31" t="n">
+        <v>703.1171631256907</v>
+      </c>
+      <c r="K31" t="n">
+        <v>705.5627077136044</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -880,6 +1996,24 @@
       <c r="D32" t="n">
         <v>0.819392</v>
       </c>
+      <c r="F32" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-45.19867591637933</v>
+      </c>
+      <c r="H32" t="n">
+        <v>646.3099999999999</v>
+      </c>
+      <c r="I32" t="n">
+        <v>691.5086759163793</v>
+      </c>
+      <c r="J32" t="n">
+        <v>667.6423531294116</v>
+      </c>
+      <c r="K32" t="n">
+        <v>670.1763227869676</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -894,6 +2028,24 @@
       <c r="D33" t="n">
         <v>0.819339</v>
       </c>
+      <c r="F33" t="n">
+        <v>89.89</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-45.72742152684282</v>
+      </c>
+      <c r="H33" t="n">
+        <v>632.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>678.2274215268428</v>
+      </c>
+      <c r="J33" t="n">
+        <v>654.0511104269926</v>
+      </c>
+      <c r="K33" t="n">
+        <v>656.6763110998502</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -908,6 +2060,24 @@
       <c r="D34" t="n">
         <v>0.819286</v>
       </c>
+      <c r="F34" t="n">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-46.26637605958069</v>
+      </c>
+      <c r="H34" t="n">
+        <v>666.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>713.0663760595806</v>
+      </c>
+      <c r="J34" t="n">
+        <v>688.5735172086897</v>
+      </c>
+      <c r="K34" t="n">
+        <v>691.2928588508909</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -922,6 +2092,24 @@
       <c r="D35" t="n">
         <v>0.819232</v>
       </c>
+      <c r="F35" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-46.81581732847803</v>
+      </c>
+      <c r="H35" t="n">
+        <v>746.9299999999999</v>
+      </c>
+      <c r="I35" t="n">
+        <v>793.745817328478</v>
+      </c>
+      <c r="J35" t="n">
+        <v>768.9296580958772</v>
+      </c>
+      <c r="K35" t="n">
+        <v>771.7461592326007</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -936,6 +2124,24 @@
       <c r="D36" t="n">
         <v>0.819179</v>
       </c>
+      <c r="F36" t="n">
+        <v>89.59</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-47.37603298233853</v>
+      </c>
+      <c r="H36" t="n">
+        <v>650.4400000000001</v>
+      </c>
+      <c r="I36" t="n">
+        <v>697.8160329823386</v>
+      </c>
+      <c r="J36" t="n">
+        <v>672.6696202290439</v>
+      </c>
+      <c r="K36" t="n">
+        <v>675.5864127532948</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -950,6 +2156,24 @@
       <c r="D37" t="n">
         <v>0.819126</v>
       </c>
+      <c r="F37" t="n">
+        <v>89.48999999999999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-47.94732093617461</v>
+      </c>
+      <c r="H37" t="n">
+        <v>674.9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>722.8473209361746</v>
+      </c>
+      <c r="J37" t="n">
+        <v>697.3634933595648</v>
+      </c>
+      <c r="K37" t="n">
+        <v>700.3838275766097</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -964,6 +2188,24 @@
       <c r="D38" t="n">
         <v>0.819072</v>
       </c>
+      <c r="F38" t="n">
+        <v>89.39</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-48.52998982515885</v>
+      </c>
+      <c r="H38" t="n">
+        <v>673.85</v>
+      </c>
+      <c r="I38" t="n">
+        <v>722.3799898251589</v>
+      </c>
+      <c r="J38" t="n">
+        <v>696.5513699454369</v>
+      </c>
+      <c r="K38" t="n">
+        <v>699.678619879722</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -978,6 +2220,24 @@
       <c r="D39" t="n">
         <v>0.8190190000000001</v>
       </c>
+      <c r="F39" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-49.12435948262942</v>
+      </c>
+      <c r="H39" t="n">
+        <v>659.87</v>
+      </c>
+      <c r="I39" t="n">
+        <v>708.9943594826294</v>
+      </c>
+      <c r="J39" t="n">
+        <v>682.8133452511706</v>
+      </c>
+      <c r="K39" t="n">
+        <v>686.0510142314588</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -992,6 +2252,24 @@
       <c r="D40" t="n">
         <v>0.818966</v>
       </c>
+      <c r="F40" t="n">
+        <v>89.19</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-49.7307614436412</v>
+      </c>
+      <c r="H40" t="n">
+        <v>716.84</v>
+      </c>
+      <c r="I40" t="n">
+        <v>766.5707614436412</v>
+      </c>
+      <c r="J40" t="n">
+        <v>740.0295174520544</v>
+      </c>
+      <c r="K40" t="n">
+        <v>743.3812439915869</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1006,6 +2284,24 @@
       <c r="D41" t="n">
         <v>0.818912</v>
       </c>
+      <c r="F41" t="n">
+        <v>89.09</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-50.34953947565839</v>
+      </c>
+      <c r="H41" t="n">
+        <v>665.6799999999999</v>
+      </c>
+      <c r="I41" t="n">
+        <v>716.0295394756583</v>
+      </c>
+      <c r="J41" t="n">
+        <v>689.1199877430078</v>
+      </c>
+      <c r="K41" t="n">
+        <v>692.5895517326505</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1020,6 +2316,24 @@
       <c r="D42" t="n">
         <v>0.818859</v>
       </c>
+      <c r="F42" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-50.9810501381013</v>
+      </c>
+      <c r="H42" t="n">
+        <v>718.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>769.3810501381013</v>
+      </c>
+      <c r="J42" t="n">
+        <v>742.0948604522607</v>
+      </c>
+      <c r="K42" t="n">
+        <v>745.6861896858405</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1034,6 +2348,24 @@
       <c r="D43" t="n">
         <v>0.818806</v>
       </c>
+      <c r="F43" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-51.62566337258113</v>
+      </c>
+      <c r="H43" t="n">
+        <v>692.95</v>
+      </c>
+      <c r="I43" t="n">
+        <v>744.5756633725812</v>
+      </c>
+      <c r="J43" t="n">
+        <v>716.9042431601039</v>
+      </c>
+      <c r="K43" t="n">
+        <v>720.6214202124773</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1048,6 +2380,24 @@
       <c r="D44" t="n">
         <v>0.818752</v>
       </c>
+      <c r="F44" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-52.28376312579496</v>
+      </c>
+      <c r="H44" t="n">
+        <v>667.09</v>
+      </c>
+      <c r="I44" t="n">
+        <v>719.373763125795</v>
+      </c>
+      <c r="J44" t="n">
+        <v>691.3082468229748</v>
+      </c>
+      <c r="K44" t="n">
+        <v>695.1555163028203</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1062,6 +2412,24 @@
       <c r="D45" t="n">
         <v>0.818699</v>
       </c>
+      <c r="F45" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-52.95574800719191</v>
+      </c>
+      <c r="H45" t="n">
+        <v>664.37</v>
+      </c>
+      <c r="I45" t="n">
+        <v>717.3257480071919</v>
+      </c>
+      <c r="J45" t="n">
+        <v>688.8569859031553</v>
+      </c>
+      <c r="K45" t="n">
+        <v>692.8387621040366</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1076,6 +2444,24 @@
       <c r="D46" t="n">
         <v>0.818646</v>
       </c>
+      <c r="F46" t="n">
+        <v>88.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-53.64203198368591</v>
+      </c>
+      <c r="H46" t="n">
+        <v>617.76</v>
+      </c>
+      <c r="I46" t="n">
+        <v>671.4020319836859</v>
+      </c>
+      <c r="J46" t="n">
+        <v>642.5205785043762</v>
+      </c>
+      <c r="K46" t="n">
+        <v>646.6414534793097</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1090,6 +2476,24 @@
       <c r="D47" t="n">
         <v>0.818592</v>
       </c>
+      <c r="F47" t="n">
+        <v>88.48999999999999</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-54.34304511385596</v>
+      </c>
+      <c r="H47" t="n">
+        <v>656.72</v>
+      </c>
+      <c r="I47" t="n">
+        <v>711.063045113856</v>
+      </c>
+      <c r="J47" t="n">
+        <v>681.7591465136384</v>
+      </c>
+      <c r="K47" t="n">
+        <v>686.0238986002176</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1104,6 +2508,24 @@
       <c r="D48" t="n">
         <v>0.818539</v>
       </c>
+      <c r="F48" t="n">
+        <v>88.39</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-55.05923432426118</v>
+      </c>
+      <c r="H48" t="n">
+        <v>730.78</v>
+      </c>
+      <c r="I48" t="n">
+        <v>785.8392343242612</v>
+      </c>
+      <c r="J48" t="n">
+        <v>756.102815749583</v>
+      </c>
+      <c r="K48" t="n">
+        <v>760.5164185746781</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1118,6 +2540,24 @@
       <c r="D49" t="n">
         <v>0.818486</v>
       </c>
+      <c r="F49" t="n">
+        <v>88.29000000000001</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-55.79106423069982</v>
+      </c>
+      <c r="H49" t="n">
+        <v>637.88</v>
+      </c>
+      <c r="I49" t="n">
+        <v>693.6710642306998</v>
+      </c>
+      <c r="J49" t="n">
+        <v>663.4917161177598</v>
+      </c>
+      <c r="K49" t="n">
+        <v>668.05934811294</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1132,6 +2572,24 @@
       <c r="D50" t="n">
         <v>0.818432</v>
       </c>
+      <c r="F50" t="n">
+        <v>88.19</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-56.53901800745882</v>
+      </c>
+      <c r="H50" t="n">
+        <v>615.98</v>
+      </c>
+      <c r="I50" t="n">
+        <v>672.5190180074588</v>
+      </c>
+      <c r="J50" t="n">
+        <v>641.8859817731648</v>
+      </c>
+      <c r="K50" t="n">
+        <v>646.6130362342941</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1146,6 +2604,24 @@
       <c r="D51" t="n">
         <v>0.818379</v>
       </c>
+      <c r="F51" t="n">
+        <v>88.09</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-57.30359830783721</v>
+      </c>
+      <c r="H51" t="n">
+        <v>699.65</v>
+      </c>
+      <c r="I51" t="n">
+        <v>756.9535983078372</v>
+      </c>
+      <c r="J51" t="n">
+        <v>725.8557512904425</v>
+      </c>
+      <c r="K51" t="n">
+        <v>730.7478470173946</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1160,6 +2636,24 @@
       <c r="D52" t="n">
         <v>0.818326</v>
       </c>
+      <c r="F52" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-58.0853282394861</v>
+      </c>
+      <c r="H52" t="n">
+        <v>682.09</v>
+      </c>
+      <c r="I52" t="n">
+        <v>740.1753282394861</v>
+      </c>
+      <c r="J52" t="n">
+        <v>708.6011678421718</v>
+      </c>
+      <c r="K52" t="n">
+        <v>713.6641603973144</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1174,6 +2668,24 @@
       <c r="D53" t="n">
         <v>0.818273</v>
       </c>
+      <c r="F53" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-58.88475239838863</v>
+      </c>
+      <c r="H53" t="n">
+        <v>673.64</v>
+      </c>
+      <c r="I53" t="n">
+        <v>732.5247523983886</v>
+      </c>
+      <c r="J53" t="n">
+        <v>700.4623793856773</v>
+      </c>
+      <c r="K53" t="n">
+        <v>705.7023730127113</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1188,6 +2700,24 @@
       <c r="D54" t="n">
         <v>0.818219</v>
       </c>
+      <c r="F54" t="n">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-59.70243796561056</v>
+      </c>
+      <c r="H54" t="n">
+        <v>677.53</v>
+      </c>
+      <c r="I54" t="n">
+        <v>737.2324379656105</v>
+      </c>
+      <c r="J54" t="n">
+        <v>704.6695388588441</v>
+      </c>
+      <c r="K54" t="n">
+        <v>710.0928991067664</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1202,6 +2732,24 @@
       <c r="D55" t="n">
         <v>0.8181659999999999</v>
       </c>
+      <c r="F55" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-60.53897587128529</v>
+      </c>
+      <c r="H55" t="n">
+        <v>655.0599999999999</v>
+      </c>
+      <c r="I55" t="n">
+        <v>715.5989758712852</v>
+      </c>
+      <c r="J55" t="n">
+        <v>682.5228043854335</v>
+      </c>
+      <c r="K55" t="n">
+        <v>688.1361714858517</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1216,6 +2764,24 @@
       <c r="D56" t="n">
         <v>0.818113</v>
       </c>
+      <c r="F56" t="n">
+        <v>87.59</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-11.14498203066069</v>
+      </c>
+      <c r="H56" t="n">
+        <v>669.67</v>
+      </c>
+      <c r="I56" t="n">
+        <v>731.0649820306606</v>
+      </c>
+      <c r="J56" t="n">
+        <v>697.4623394904349</v>
+      </c>
+      <c r="K56" t="n">
+        <v>703.2726425402257</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1230,6 +2796,24 @@
       <c r="D57" t="n">
         <v>0.81806</v>
       </c>
+      <c r="F57" t="n">
+        <v>87.48999999999999</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.548901342557656</v>
+      </c>
+      <c r="H57" t="n">
+        <v>667.95</v>
+      </c>
+      <c r="I57" t="n">
+        <v>730.2210986574423</v>
+      </c>
+      <c r="J57" t="n">
+        <v>696.0783133260272</v>
+      </c>
+      <c r="K57" t="n">
+        <v>702.0927853314151</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1244,6 +2828,24 @@
       <c r="D58" t="n">
         <v>0.818007</v>
       </c>
+      <c r="F58" t="n">
+        <v>87.39</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.3820043399113047</v>
+      </c>
+      <c r="H58" t="n">
+        <v>667.78</v>
+      </c>
+      <c r="I58" t="n">
+        <v>730.9479956600887</v>
+      </c>
+      <c r="J58" t="n">
+        <v>696.250900908747</v>
+      </c>
+      <c r="K58" t="n">
+        <v>702.4770947513417</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1258,6 +2860,24 @@
       <c r="D59" t="n">
         <v>0.817953</v>
       </c>
+      <c r="F59" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-3.446372127209429</v>
+      </c>
+      <c r="H59" t="n">
+        <v>667.59</v>
+      </c>
+      <c r="I59" t="n">
+        <v>731.6763721272094</v>
+      </c>
+      <c r="J59" t="n">
+        <v>696.4102833685166</v>
+      </c>
+      <c r="K59" t="n">
+        <v>702.8560887586929</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1272,6 +2892,24 @@
       <c r="D60" t="n">
         <v>0.8179</v>
       </c>
+      <c r="F60" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-6.406957908722575</v>
+      </c>
+      <c r="H60" t="n">
+        <v>667.4</v>
+      </c>
+      <c r="I60" t="n">
+        <v>732.4269579087226</v>
+      </c>
+      <c r="J60" t="n">
+        <v>696.5766482102124</v>
+      </c>
+      <c r="K60" t="n">
+        <v>703.2503096985101</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1286,6 +2924,24 @@
       <c r="D61" t="n">
         <v>0.817847</v>
       </c>
+      <c r="F61" t="n">
+        <v>87.09</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-51.26051530001587</v>
+      </c>
+      <c r="H61" t="n">
+        <v>667.23</v>
+      </c>
+      <c r="I61" t="n">
+        <v>733.2205153000159</v>
+      </c>
+      <c r="J61" t="n">
+        <v>696.7701895885091</v>
+      </c>
+      <c r="K61" t="n">
+        <v>703.6803257115068</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1300,6 +2956,24 @@
       <c r="D62" t="n">
         <v>0.817794</v>
       </c>
+      <c r="F62" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-86.32784083697629</v>
+      </c>
+      <c r="H62" t="n">
+        <v>667.12</v>
+      </c>
+      <c r="I62" t="n">
+        <v>734.0978408369763</v>
+      </c>
+      <c r="J62" t="n">
+        <v>697.03110859678</v>
+      </c>
+      <c r="K62" t="n">
+        <v>704.1867322401963</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1314,6 +2988,24 @@
       <c r="D63" t="n">
         <v>0.81774</v>
       </c>
+      <c r="F63" t="n">
+        <v>86.89</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-35.45976721044633</v>
+      </c>
+      <c r="H63" t="n">
+        <v>667.13</v>
+      </c>
+      <c r="I63" t="n">
+        <v>735.1197672104463</v>
+      </c>
+      <c r="J63" t="n">
+        <v>697.4196135708873</v>
+      </c>
+      <c r="K63" t="n">
+        <v>704.8301536395589</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1328,6 +3020,24 @@
       <c r="D64" t="n">
         <v>0.8176870000000001</v>
       </c>
+      <c r="F64" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-15.00716530942645</v>
+      </c>
+      <c r="H64" t="n">
+        <v>667.11</v>
+      </c>
+      <c r="I64" t="n">
+        <v>736.1371653094265</v>
+      </c>
+      <c r="J64" t="n">
+        <v>697.7859204087501</v>
+      </c>
+      <c r="K64" t="n">
+        <v>705.4612449006763</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1342,6 +3052,24 @@
       <c r="D65" t="n">
         <v>0.817634</v>
       </c>
+      <c r="F65" t="n">
+        <v>86.69</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-79.14094640317978</v>
+      </c>
+      <c r="H65" t="n">
+        <v>666.98</v>
+      </c>
+      <c r="I65" t="n">
+        <v>737.0709464031797</v>
+      </c>
+      <c r="J65" t="n">
+        <v>698.0502529066425</v>
+      </c>
+      <c r="K65" t="n">
+        <v>706.0006934965372</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1356,6 +3084,24 @@
       <c r="D66" t="n">
         <v>0.817581</v>
       </c>
+      <c r="F66" t="n">
+        <v>86.59</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-55.7220644733128</v>
+      </c>
+      <c r="H66" t="n">
+        <v>666.92</v>
+      </c>
+      <c r="I66" t="n">
+        <v>738.1020644733128</v>
+      </c>
+      <c r="J66" t="n">
+        <v>698.3928431132352</v>
+      </c>
+      <c r="K66" t="n">
+        <v>706.6292213600775</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1370,6 +3116,24 @@
       <c r="D67" t="n">
         <v>0.817528</v>
       </c>
+      <c r="F67" t="n">
+        <v>86.48999999999999</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-34.48151870793151</v>
+      </c>
+      <c r="H67" t="n">
+        <v>666.91</v>
+      </c>
+      <c r="I67" t="n">
+        <v>739.2115187079315</v>
+      </c>
+      <c r="J67" t="n">
+        <v>698.7939317024687</v>
+      </c>
+      <c r="K67" t="n">
+        <v>707.3275870054628</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1384,6 +3148,24 @@
       <c r="D68" t="n">
         <v>0.817475</v>
       </c>
+      <c r="F68" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-52.82035617108033</v>
+      </c>
+      <c r="H68" t="n">
+        <v>666.83</v>
+      </c>
+      <c r="I68" t="n">
+        <v>740.2803561710804</v>
+      </c>
+      <c r="J68" t="n">
+        <v>699.1337683664153</v>
+      </c>
+      <c r="K68" t="n">
+        <v>707.9765878046651</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1398,6 +3180,24 @@
       <c r="D69" t="n">
         <v>0.817421</v>
       </c>
+      <c r="F69" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1.819674661927252</v>
+      </c>
+      <c r="H69" t="n">
+        <v>666.74</v>
+      </c>
+      <c r="I69" t="n">
+        <v>741.3696746619272</v>
+      </c>
+      <c r="J69" t="n">
+        <v>699.4726122293769</v>
+      </c>
+      <c r="K69" t="n">
+        <v>708.6370624325504</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1412,6 +3212,24 @@
       <c r="D70" t="n">
         <v>0.817368</v>
       </c>
+      <c r="F70" t="n">
+        <v>86.19</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-5.410625779519364</v>
+      </c>
+      <c r="H70" t="n">
+        <v>666.6</v>
+      </c>
+      <c r="I70" t="n">
+        <v>742.4406257795193</v>
+      </c>
+      <c r="J70" t="n">
+        <v>699.7707322845475</v>
+      </c>
+      <c r="K70" t="n">
+        <v>709.2698934949718</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1426,6 +3244,24 @@
       <c r="D71" t="n">
         <v>0.817315</v>
       </c>
+      <c r="F71" t="n">
+        <v>86.09</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-57.31441821045564</v>
+      </c>
+      <c r="H71" t="n">
+        <v>666.39</v>
+      </c>
+      <c r="I71" t="n">
+        <v>743.4744182104556</v>
+      </c>
+      <c r="J71" t="n">
+        <v>700.0084078546654</v>
+      </c>
+      <c r="K71" t="n">
+        <v>709.8560103557902</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1440,6 +3276,24 @@
       <c r="D72" t="n">
         <v>0.817262</v>
       </c>
+      <c r="F72" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-77.84232125851406</v>
+      </c>
+      <c r="H72" t="n">
+        <v>666.26</v>
+      </c>
+      <c r="I72" t="n">
+        <v>744.622321258514</v>
+      </c>
+      <c r="J72" t="n">
+        <v>700.335929078186</v>
+      </c>
+      <c r="K72" t="n">
+        <v>710.546392180328</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1454,6 +3308,24 @@
       <c r="D73" t="n">
         <v>0.817209</v>
       </c>
+      <c r="F73" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-34.9456686371318</v>
+      </c>
+      <c r="H73" t="n">
+        <v>666.23</v>
+      </c>
+      <c r="I73" t="n">
+        <v>745.9056686371318</v>
+      </c>
+      <c r="J73" t="n">
+        <v>700.7735974226133</v>
+      </c>
+      <c r="K73" t="n">
+        <v>711.3620712145186</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1468,6 +3340,24 @@
       <c r="D74" t="n">
         <v>0.817156</v>
       </c>
+      <c r="F74" t="n">
+        <v>85.79000000000001</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-40.0158625477269</v>
+      </c>
+      <c r="H74" t="n">
+        <v>666.16</v>
+      </c>
+      <c r="I74" t="n">
+        <v>747.1858625477269</v>
+      </c>
+      <c r="J74" t="n">
+        <v>701.1817262267497</v>
+      </c>
+      <c r="K74" t="n">
+        <v>712.1641363209771</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1482,6 +3372,24 @@
       <c r="D75" t="n">
         <v>0.817103</v>
       </c>
+      <c r="F75" t="n">
+        <v>85.69</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-68.15437806915372</v>
+      </c>
+      <c r="H75" t="n">
+        <v>666.04</v>
+      </c>
+      <c r="I75" t="n">
+        <v>748.4543780691537</v>
+      </c>
+      <c r="J75" t="n">
+        <v>701.5506412737559</v>
+      </c>
+      <c r="K75" t="n">
+        <v>712.9437367953977</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1496,6 +3404,24 @@
       <c r="D76" t="n">
         <v>0.8170500000000001</v>
       </c>
+      <c r="F76" t="n">
+        <v>85.59</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-31.67276788617039</v>
+      </c>
+      <c r="H76" t="n">
+        <v>665.95</v>
+      </c>
+      <c r="I76" t="n">
+        <v>749.7927678861704</v>
+      </c>
+      <c r="J76" t="n">
+        <v>701.9606813970479</v>
+      </c>
+      <c r="K76" t="n">
+        <v>713.7820864891225</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1510,6 +3436,24 @@
       <c r="D77" t="n">
         <v>0.8169960000000001</v>
       </c>
+      <c r="F77" t="n">
+        <v>85.48999999999999</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-25.92266738766989</v>
+      </c>
+      <c r="H77" t="n">
+        <v>665.85</v>
+      </c>
+      <c r="I77" t="n">
+        <v>751.1626673876699</v>
+      </c>
+      <c r="J77" t="n">
+        <v>702.3721991212179</v>
+      </c>
+      <c r="K77" t="n">
+        <v>714.640468266452</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1524,6 +3468,24 @@
       <c r="D78" t="n">
         <v>0.816943</v>
       </c>
+      <c r="F78" t="n">
+        <v>85.39</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-28.64580016863476</v>
+      </c>
+      <c r="H78" t="n">
+        <v>665.6900000000001</v>
+      </c>
+      <c r="I78" t="n">
+        <v>752.5158001686348</v>
+      </c>
+      <c r="J78" t="n">
+        <v>702.7355613403254</v>
+      </c>
+      <c r="K78" t="n">
+        <v>715.4702388283094</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1538,6 +3500,24 @@
       <c r="D79" t="n">
         <v>0.81689</v>
       </c>
+      <c r="F79" t="n">
+        <v>85.29000000000001</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-32.48398397337633</v>
+      </c>
+      <c r="H79" t="n">
+        <v>665.52</v>
+      </c>
+      <c r="I79" t="n">
+        <v>753.9039839733763</v>
+      </c>
+      <c r="J79" t="n">
+        <v>703.1011500360861</v>
+      </c>
+      <c r="K79" t="n">
+        <v>716.3228339372902</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1552,6 +3532,24 @@
       <c r="D80" t="n">
         <v>0.816837</v>
       </c>
+      <c r="F80" t="n">
+        <v>85.19</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-29.48913712163869</v>
+      </c>
+      <c r="H80" t="n">
+        <v>665.35</v>
+      </c>
+      <c r="I80" t="n">
+        <v>755.3391371216387</v>
+      </c>
+      <c r="J80" t="n">
+        <v>703.4793630386855</v>
+      </c>
+      <c r="K80" t="n">
+        <v>717.2097740829532</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1566,6 +3564,24 @@
       <c r="D81" t="n">
         <v>0.816784</v>
       </c>
+      <c r="F81" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-19.21328546365669</v>
+      </c>
+      <c r="H81" t="n">
+        <v>665.1799999999999</v>
+      </c>
+      <c r="I81" t="n">
+        <v>756.8232854636567</v>
+      </c>
+      <c r="J81" t="n">
+        <v>703.8706148331454</v>
+      </c>
+      <c r="K81" t="n">
+        <v>718.1326706305113</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1580,6 +3596,24 @@
       <c r="D82" t="n">
         <v>0.816731</v>
       </c>
+      <c r="F82" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-25.2685699153426</v>
+      </c>
+      <c r="H82" t="n">
+        <v>664.98</v>
+      </c>
+      <c r="I82" t="n">
+        <v>758.3285699153425</v>
+      </c>
+      <c r="J82" t="n">
+        <v>704.2453374144181</v>
+      </c>
+      <c r="K82" t="n">
+        <v>719.0632325009244</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1594,6 +3628,24 @@
       <c r="D83" t="n">
         <v>0.816678</v>
       </c>
+      <c r="F83" t="n">
+        <v>84.89</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-26.85725463045242</v>
+      </c>
+      <c r="H83" t="n">
+        <v>664.77</v>
+      </c>
+      <c r="I83" t="n">
+        <v>759.8772546304524</v>
+      </c>
+      <c r="J83" t="n">
+        <v>704.6239811946151</v>
+      </c>
+      <c r="K83" t="n">
+        <v>720.0232734358373</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1608,6 +3660,24 @@
       <c r="D84" t="n">
         <v>0.816625</v>
       </c>
+      <c r="F84" t="n">
+        <v>84.79000000000001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>35.84826412696771</v>
+      </c>
+      <c r="H84" t="n">
+        <v>664.5700000000001</v>
+      </c>
+      <c r="I84" t="n">
+        <v>761.4917358730323</v>
+      </c>
+      <c r="J84" t="n">
+        <v>705.0270159660677</v>
+      </c>
+      <c r="K84" t="n">
+        <v>721.0347199069647</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1622,6 +3692,24 @@
       <c r="D85" t="n">
         <v>0.816572</v>
       </c>
+      <c r="F85" t="n">
+        <v>84.69</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-41.57455166066757</v>
+      </c>
+      <c r="H85" t="n">
+        <v>664.27</v>
+      </c>
+      <c r="I85" t="n">
+        <v>763.0645516606676</v>
+      </c>
+      <c r="J85" t="n">
+        <v>705.3449319242025</v>
+      </c>
+      <c r="K85" t="n">
+        <v>721.9896197364651</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1636,6 +3724,24 @@
       <c r="D86" t="n">
         <v>0.816519</v>
       </c>
+      <c r="F86" t="n">
+        <v>84.59</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-36.86839225725771</v>
+      </c>
+      <c r="H86" t="n">
+        <v>664</v>
+      </c>
+      <c r="I86" t="n">
+        <v>764.7283922572577</v>
+      </c>
+      <c r="J86" t="n">
+        <v>705.7082407545465</v>
+      </c>
+      <c r="K86" t="n">
+        <v>723.0201515027112</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1650,6 +3756,24 @@
       <c r="D87" t="n">
         <v>0.816466</v>
       </c>
+      <c r="F87" t="n">
+        <v>84.48999999999999</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-28.9261116032992</v>
+      </c>
+      <c r="H87" t="n">
+        <v>663.8200000000001</v>
+      </c>
+      <c r="I87" t="n">
+        <v>766.5461116032992</v>
+      </c>
+      <c r="J87" t="n">
+        <v>706.1774767885272</v>
+      </c>
+      <c r="K87" t="n">
+        <v>724.1886348147721</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1664,6 +3788,24 @@
       <c r="D88" t="n">
         <v>0.8164130000000001</v>
       </c>
+      <c r="F88" t="n">
+        <v>84.39</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-25.80073978215785</v>
+      </c>
+      <c r="H88" t="n">
+        <v>663.61</v>
+      </c>
+      <c r="I88" t="n">
+        <v>768.4007397821579</v>
+      </c>
+      <c r="J88" t="n">
+        <v>706.6331982331236</v>
+      </c>
+      <c r="K88" t="n">
+        <v>725.3775415490343</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1678,6 +3820,24 @@
       <c r="D89" t="n">
         <v>0.81636</v>
       </c>
+      <c r="F89" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-24.99549663274195</v>
+      </c>
+      <c r="H89" t="n">
+        <v>663.39</v>
+      </c>
+      <c r="I89" t="n">
+        <v>770.315496632742</v>
+      </c>
+      <c r="J89" t="n">
+        <v>707.0959884798463</v>
+      </c>
+      <c r="K89" t="n">
+        <v>726.6095081528957</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1692,6 +3852,24 @@
       <c r="D90" t="n">
         <v>0.816307</v>
       </c>
+      <c r="F90" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-48.39380663253951</v>
+      </c>
+      <c r="H90" t="n">
+        <v>663.15</v>
+      </c>
+      <c r="I90" t="n">
+        <v>772.2838066325395</v>
+      </c>
+      <c r="J90" t="n">
+        <v>707.5564574989877</v>
+      </c>
+      <c r="K90" t="n">
+        <v>727.8773491335518</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1706,6 +3884,24 @@
       <c r="D91" t="n">
         <v>0.816254</v>
       </c>
+      <c r="F91" t="n">
+        <v>84.09</v>
+      </c>
+      <c r="G91" t="n">
+        <v>31.67068480955709</v>
+      </c>
+      <c r="H91" t="n">
+        <v>662.9400000000001</v>
+      </c>
+      <c r="I91" t="n">
+        <v>774.3593151904429</v>
+      </c>
+      <c r="J91" t="n">
+        <v>708.0652433255933</v>
+      </c>
+      <c r="K91" t="n">
+        <v>729.2340718648496</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1720,6 +3916,24 @@
       <c r="D92" t="n">
         <v>0.816201</v>
       </c>
+      <c r="F92" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8.404093493577648</v>
+      </c>
+      <c r="H92" t="n">
+        <v>662.64</v>
+      </c>
+      <c r="I92" t="n">
+        <v>776.4259065064224</v>
+      </c>
+      <c r="J92" t="n">
+        <v>708.5030136441604</v>
+      </c>
+      <c r="K92" t="n">
+        <v>730.5628928622619</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1734,6 +3948,24 @@
       <c r="D93" t="n">
         <v>0.816148</v>
       </c>
+      <c r="F93" t="n">
+        <v>83.89</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-61.71772317526802</v>
+      </c>
+      <c r="H93" t="n">
+        <v>662.25</v>
+      </c>
+      <c r="I93" t="n">
+        <v>778.487723175268</v>
+      </c>
+      <c r="J93" t="n">
+        <v>708.8704674796813</v>
+      </c>
+      <c r="K93" t="n">
+        <v>731.8672556955867</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1748,6 +3980,24 @@
       <c r="D94" t="n">
         <v>0.816095</v>
       </c>
+      <c r="F94" t="n">
+        <v>83.79000000000001</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-14.07918773474807</v>
+      </c>
+      <c r="H94" t="n">
+        <v>661.99</v>
+      </c>
+      <c r="I94" t="n">
+        <v>780.7691877347481</v>
+      </c>
+      <c r="J94" t="n">
+        <v>709.3883370033208</v>
+      </c>
+      <c r="K94" t="n">
+        <v>733.3708507314274</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1762,6 +4012,24 @@
       <c r="D95" t="n">
         <v>0.816042</v>
       </c>
+      <c r="F95" t="n">
+        <v>83.69</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-19.58502638504388</v>
+      </c>
+      <c r="H95" t="n">
+        <v>661.75</v>
+      </c>
+      <c r="I95" t="n">
+        <v>783.1650263850439</v>
+      </c>
+      <c r="J95" t="n">
+        <v>709.947389461751</v>
+      </c>
+      <c r="K95" t="n">
+        <v>734.967636923293</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1776,6 +4044,24 @@
       <c r="D96" t="n">
         <v>0.815989</v>
       </c>
+      <c r="F96" t="n">
+        <v>83.59</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-7.320295136849381</v>
+      </c>
+      <c r="H96" t="n">
+        <v>661.45</v>
+      </c>
+      <c r="I96" t="n">
+        <v>785.6002951368494</v>
+      </c>
+      <c r="J96" t="n">
+        <v>710.4684292399843</v>
+      </c>
+      <c r="K96" t="n">
+        <v>736.5818658968651</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1790,6 +4076,24 @@
       <c r="D97" t="n">
         <v>0.815936</v>
       </c>
+      <c r="F97" t="n">
+        <v>83.48999999999999</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-50.45040868070248</v>
+      </c>
+      <c r="H97" t="n">
+        <v>661.12</v>
+      </c>
+      <c r="I97" t="n">
+        <v>788.1104086807024</v>
+      </c>
+      <c r="J97" t="n">
+        <v>710.9823000684315</v>
+      </c>
+      <c r="K97" t="n">
+        <v>738.2481086122709</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1804,6 +4108,24 @@
       <c r="D98" t="n">
         <v>0.815883</v>
       </c>
+      <c r="F98" t="n">
+        <v>83.39</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-17.21117231073742</v>
+      </c>
+      <c r="H98" t="n">
+        <v>660.84</v>
+      </c>
+      <c r="I98" t="n">
+        <v>790.7811723107375</v>
+      </c>
+      <c r="J98" t="n">
+        <v>711.5698873859017</v>
+      </c>
+      <c r="K98" t="n">
+        <v>740.0512849248358</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1818,6 +4140,24 @@
       <c r="D99" t="n">
         <v>0.8158300000000001</v>
       </c>
+      <c r="F99" t="n">
+        <v>83.29000000000001</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-10.78881728310876</v>
+      </c>
+      <c r="H99" t="n">
+        <v>660.5599999999999</v>
+      </c>
+      <c r="I99" t="n">
+        <v>793.5688172831087</v>
+      </c>
+      <c r="J99" t="n">
+        <v>712.1821208713454</v>
+      </c>
+      <c r="K99" t="n">
+        <v>741.9466964117632</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1832,6 +4172,24 @@
       <c r="D100" t="n">
         <v>0.815777</v>
       </c>
+      <c r="F100" t="n">
+        <v>83.19</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-51.49004004389576</v>
+      </c>
+      <c r="H100" t="n">
+        <v>660.21</v>
+      </c>
+      <c r="I100" t="n">
+        <v>796.4100400438957</v>
+      </c>
+      <c r="J100" t="n">
+        <v>712.749977158344</v>
+      </c>
+      <c r="K100" t="n">
+        <v>743.8700628855518</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1846,6 +4204,24 @@
       <c r="D101" t="n">
         <v>0.815724</v>
       </c>
+      <c r="F101" t="n">
+        <v>83.09</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.027954175212926</v>
+      </c>
+      <c r="H101" t="n">
+        <v>659.91</v>
+      </c>
+      <c r="I101" t="n">
+        <v>799.4320458247871</v>
+      </c>
+      <c r="J101" t="n">
+        <v>713.3944827476693</v>
+      </c>
+      <c r="K101" t="n">
+        <v>745.9475630771178</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1860,6 +4236,24 @@
       <c r="D102" t="n">
         <v>0.815671</v>
       </c>
+      <c r="F102" t="n">
+        <v>82.98999999999999</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-29.96259717883902</v>
+      </c>
+      <c r="H102" t="n">
+        <v>659.5700000000001</v>
+      </c>
+      <c r="I102" t="n">
+        <v>802.5525971788391</v>
+      </c>
+      <c r="J102" t="n">
+        <v>714.0267171347185</v>
+      </c>
+      <c r="K102" t="n">
+        <v>748.0958800441206</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1874,6 +4268,24 @@
       <c r="D103" t="n">
         <v>0.815618</v>
       </c>
+      <c r="F103" t="n">
+        <v>82.89</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-60.30006811504506</v>
+      </c>
+      <c r="H103" t="n">
+        <v>659.2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>805.7900681150451</v>
+      </c>
+      <c r="J103" t="n">
+        <v>714.6578161702389</v>
+      </c>
+      <c r="K103" t="n">
+        <v>750.3322519448062</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1888,6 +4300,24 @@
       <c r="D104" t="n">
         <v>0.815565</v>
       </c>
+      <c r="F104" t="n">
+        <v>82.79000000000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>19.84649540820874</v>
+      </c>
+      <c r="H104" t="n">
+        <v>658.9</v>
+      </c>
+      <c r="I104" t="n">
+        <v>809.2535045917913</v>
+      </c>
+      <c r="J104" t="n">
+        <v>715.3889756745793</v>
+      </c>
+      <c r="K104" t="n">
+        <v>752.7645289172119</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1902,6 +4332,24 @@
       <c r="D105" t="n">
         <v>0.815512</v>
       </c>
+      <c r="F105" t="n">
+        <v>82.69</v>
+      </c>
+      <c r="G105" t="n">
+        <v>9.20730775178663</v>
+      </c>
+      <c r="H105" t="n">
+        <v>658.52</v>
+      </c>
+      <c r="I105" t="n">
+        <v>812.8026922482134</v>
+      </c>
+      <c r="J105" t="n">
+        <v>716.0714553276961</v>
+      </c>
+      <c r="K105" t="n">
+        <v>755.2512369205173</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1916,6 +4364,24 @@
       <c r="D106" t="n">
         <v>0.815459</v>
       </c>
+      <c r="F106" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-70.30823239262259</v>
+      </c>
+      <c r="H106" t="n">
+        <v>658.03</v>
+      </c>
+      <c r="I106" t="n">
+        <v>816.4182323926226</v>
+      </c>
+      <c r="J106" t="n">
+        <v>716.6765828593718</v>
+      </c>
+      <c r="K106" t="n">
+        <v>757.7716495332508</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1930,6 +4396,24 @@
       <c r="D107" t="n">
         <v>0.815406</v>
       </c>
+      <c r="F107" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-103.9616274326561</v>
+      </c>
+      <c r="H107" t="n">
+        <v>657.67</v>
+      </c>
+      <c r="I107" t="n">
+        <v>820.3516274326561</v>
+      </c>
+      <c r="J107" t="n">
+        <v>717.4457585665934</v>
+      </c>
+      <c r="K107" t="n">
+        <v>760.5758688660626</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1944,6 +4428,24 @@
       <c r="D108" t="n">
         <v>0.815353</v>
       </c>
+      <c r="F108" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-16.79537712777199</v>
+      </c>
+      <c r="H108" t="n">
+        <v>657.45</v>
+      </c>
+      <c r="I108" t="n">
+        <v>824.625377127772</v>
+      </c>
+      <c r="J108" t="n">
+        <v>718.3904601877805</v>
+      </c>
+      <c r="K108" t="n">
+        <v>763.6849169399916</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1958,6 +4460,24 @@
       <c r="D109" t="n">
         <v>0.8153</v>
       </c>
+      <c r="F109" t="n">
+        <v>82.29000000000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-37.39308727754576</v>
+      </c>
+      <c r="H109" t="n">
+        <v>657.13</v>
+      </c>
+      <c r="I109" t="n">
+        <v>829.0130872775458</v>
+      </c>
+      <c r="J109" t="n">
+        <v>719.2722481666552</v>
+      </c>
+      <c r="K109" t="n">
+        <v>766.8708391108905</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1972,6 +4492,24 @@
       <c r="D110" t="n">
         <v>0.815248</v>
       </c>
+      <c r="F110" t="n">
+        <v>82.19</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.850407263447664</v>
+      </c>
+      <c r="H110" t="n">
+        <v>656.71</v>
+      </c>
+      <c r="I110" t="n">
+        <v>833.5295927365523</v>
+      </c>
+      <c r="J110" t="n">
+        <v>720.092771341975</v>
+      </c>
+      <c r="K110" t="n">
+        <v>770.1468213945774</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1986,6 +4524,24 @@
       <c r="D111" t="n">
         <v>0.815195</v>
       </c>
+      <c r="F111" t="n">
+        <v>82.09</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-69.93109697811826</v>
+      </c>
+      <c r="H111" t="n">
+        <v>656.25</v>
+      </c>
+      <c r="I111" t="n">
+        <v>838.2510969781183</v>
+      </c>
+      <c r="J111" t="n">
+        <v>720.9137731032008</v>
+      </c>
+      <c r="K111" t="n">
+        <v>773.5873238749175</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2000,6 +4556,24 @@
       <c r="D112" t="n">
         <v>0.815142</v>
       </c>
+      <c r="F112" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4.144669173315037</v>
+      </c>
+      <c r="H112" t="n">
+        <v>655.8200000000001</v>
+      </c>
+      <c r="I112" t="n">
+        <v>843.2653308266849</v>
+      </c>
+      <c r="J112" t="n">
+        <v>721.8070980564924</v>
+      </c>
+      <c r="K112" t="n">
+        <v>777.2782327701926</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2014,6 +4588,24 @@
       <c r="D113" t="n">
         <v>0.815089</v>
       </c>
+      <c r="F113" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-61.56173345661091</v>
+      </c>
+      <c r="H113" t="n">
+        <v>655.37</v>
+      </c>
+      <c r="I113" t="n">
+        <v>848.5417334566109</v>
+      </c>
+      <c r="J113" t="n">
+        <v>722.7246992502425</v>
+      </c>
+      <c r="K113" t="n">
+        <v>781.1870342063685</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2028,6 +4620,24 @@
       <c r="D114" t="n">
         <v>0.815036</v>
       </c>
+      <c r="F114" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-24.31165933244813</v>
+      </c>
+      <c r="H114" t="n">
+        <v>654.89</v>
+      </c>
+      <c r="I114" t="n">
+        <v>854.0916593324481</v>
+      </c>
+      <c r="J114" t="n">
+        <v>723.6586460148061</v>
+      </c>
+      <c r="K114" t="n">
+        <v>785.323013317642</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2042,6 +4652,24 @@
       <c r="D115" t="n">
         <v>0.814983</v>
       </c>
+      <c r="F115" t="n">
+        <v>81.69</v>
+      </c>
+      <c r="G115" t="n">
+        <v>23.63138453515296</v>
+      </c>
+      <c r="H115" t="n">
+        <v>654.4400000000001</v>
+      </c>
+      <c r="I115" t="n">
+        <v>859.998615464847</v>
+      </c>
+      <c r="J115" t="n">
+        <v>724.6711324771678</v>
+      </c>
+      <c r="K115" t="n">
+        <v>789.7674829876793</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2056,6 +4684,24 @@
       <c r="D116" t="n">
         <v>0.81493</v>
       </c>
+      <c r="F116" t="n">
+        <v>81.59</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-37.49853420637601</v>
+      </c>
+      <c r="H116" t="n">
+        <v>653.84</v>
+      </c>
+      <c r="I116" t="n">
+        <v>866.108534206376</v>
+      </c>
+      <c r="J116" t="n">
+        <v>725.5844868181737</v>
+      </c>
+      <c r="K116" t="n">
+        <v>794.3640473882024</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2070,6 +4716,24 @@
       <c r="D117" t="n">
         <v>0.814877</v>
       </c>
+      <c r="F117" t="n">
+        <v>81.48999999999999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>49.66991215094959</v>
+      </c>
+      <c r="H117" t="n">
+        <v>653.24</v>
+      </c>
+      <c r="I117" t="n">
+        <v>872.6000878490504</v>
+      </c>
+      <c r="J117" t="n">
+        <v>726.5511813477028</v>
+      </c>
+      <c r="K117" t="n">
+        <v>799.2889065013476</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2084,6 +4748,24 @@
       <c r="D118" t="n">
         <v>0.814825</v>
       </c>
+      <c r="F118" t="n">
+        <v>81.39</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-47.39505255653262</v>
+      </c>
+      <c r="H118" t="n">
+        <v>652.58</v>
+      </c>
+      <c r="I118" t="n">
+        <v>879.4450525565326</v>
+      </c>
+      <c r="J118" t="n">
+        <v>727.5138434818938</v>
+      </c>
+      <c r="K118" t="n">
+        <v>804.5112090746388</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2098,6 +4780,24 @@
       <c r="D119" t="n">
         <v>0.8147720000000001</v>
       </c>
+      <c r="F119" t="n">
+        <v>81.29000000000001</v>
+      </c>
+      <c r="G119" t="n">
+        <v>66.6612692721543</v>
+      </c>
+      <c r="H119" t="n">
+        <v>651.92</v>
+      </c>
+      <c r="I119" t="n">
+        <v>886.7387307278457</v>
+      </c>
+      <c r="J119" t="n">
+        <v>728.5352677164567</v>
+      </c>
+      <c r="K119" t="n">
+        <v>810.1234630113888</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2112,6 +4812,24 @@
       <c r="D120" t="n">
         <v>0.814719</v>
       </c>
+      <c r="F120" t="n">
+        <v>81.19</v>
+      </c>
+      <c r="G120" t="n">
+        <v>10.43955717879021</v>
+      </c>
+      <c r="H120" t="n">
+        <v>651.2</v>
+      </c>
+      <c r="I120" t="n">
+        <v>894.4604428212098</v>
+      </c>
+      <c r="J120" t="n">
+        <v>729.558428701299</v>
+      </c>
+      <c r="K120" t="n">
+        <v>816.1020141199108</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2126,6 +4844,24 @@
       <c r="D121" t="n">
         <v>0.814666</v>
       </c>
+      <c r="F121" t="n">
+        <v>81.09</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-26.66410206334774</v>
+      </c>
+      <c r="H121" t="n">
+        <v>650.39</v>
+      </c>
+      <c r="I121" t="n">
+        <v>902.6241020633478</v>
+      </c>
+      <c r="J121" t="n">
+        <v>730.5564955344199</v>
+      </c>
+      <c r="K121" t="n">
+        <v>822.4576065289278</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2140,6 +4876,24 @@
       <c r="D122" t="n">
         <v>0.814613</v>
       </c>
+      <c r="F122" t="n">
+        <v>80.98999999999999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-21.27888845626603</v>
+      </c>
+      <c r="H122" t="n">
+        <v>649.6799999999999</v>
+      </c>
+      <c r="I122" t="n">
+        <v>911.4688884562661</v>
+      </c>
+      <c r="J122" t="n">
+        <v>731.7228474074948</v>
+      </c>
+      <c r="K122" t="n">
+        <v>829.4260410487714</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2154,6 +4908,24 @@
       <c r="D123" t="n">
         <v>0.81456</v>
       </c>
+      <c r="F123" t="n">
+        <v>80.89</v>
+      </c>
+      <c r="G123" t="n">
+        <v>21.54995776770977</v>
+      </c>
+      <c r="H123" t="n">
+        <v>648.99</v>
+      </c>
+      <c r="I123" t="n">
+        <v>920.9700422322902</v>
+      </c>
+      <c r="J123" t="n">
+        <v>732.981090752011</v>
+      </c>
+      <c r="K123" t="n">
+        <v>836.9789514802792</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2168,6 +4940,24 @@
       <c r="D124" t="n">
         <v>0.814508</v>
       </c>
+      <c r="F124" t="n">
+        <v>80.79000000000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10.13019838931075</v>
+      </c>
+      <c r="H124" t="n">
+        <v>648.2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>931.0698016106893</v>
+      </c>
+      <c r="J124" t="n">
+        <v>734.2150780536076</v>
+      </c>
+      <c r="K124" t="n">
+        <v>845.0547235570817</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2182,6 +4972,24 @@
       <c r="D125" t="n">
         <v>0.814455</v>
       </c>
+      <c r="F125" t="n">
+        <v>80.69</v>
+      </c>
+      <c r="G125" t="n">
+        <v>30.97148434775261</v>
+      </c>
+      <c r="H125" t="n">
+        <v>647.33</v>
+      </c>
+      <c r="I125" t="n">
+        <v>941.8585156522474</v>
+      </c>
+      <c r="J125" t="n">
+        <v>735.448928523693</v>
+      </c>
+      <c r="K125" t="n">
+        <v>853.7395871285546</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2196,6 +5004,24 @@
       <c r="D126" t="n">
         <v>0.814402</v>
       </c>
+      <c r="F126" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G126" t="n">
+        <v>43.93402944354796</v>
+      </c>
+      <c r="H126" t="n">
+        <v>646.41</v>
+      </c>
+      <c r="I126" t="n">
+        <v>953.445970556452</v>
+      </c>
+      <c r="J126" t="n">
+        <v>736.7170508419649</v>
+      </c>
+      <c r="K126" t="n">
+        <v>863.1389197144871</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2210,6 +5036,24 @@
       <c r="D127" t="n">
         <v>0.814349</v>
       </c>
+      <c r="F127" t="n">
+        <v>80.48999999999999</v>
+      </c>
+      <c r="G127" t="n">
+        <v>13.17702261842828</v>
+      </c>
+      <c r="H127" t="n">
+        <v>645.41</v>
+      </c>
+      <c r="I127" t="n">
+        <v>965.8929773815718</v>
+      </c>
+      <c r="J127" t="n">
+        <v>737.9941682115921</v>
+      </c>
+      <c r="K127" t="n">
+        <v>873.3088091699797</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2224,6 +5068,24 @@
       <c r="D128" t="n">
         <v>0.814296</v>
       </c>
+      <c r="F128" t="n">
+        <v>80.39</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5.886718468557547</v>
+      </c>
+      <c r="H128" t="n">
+        <v>644.4</v>
+      </c>
+      <c r="I128" t="n">
+        <v>979.3732815314424</v>
+      </c>
+      <c r="J128" t="n">
+        <v>739.355346001125</v>
+      </c>
+      <c r="K128" t="n">
+        <v>884.4179355303174</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2238,6 +5100,24 @@
       <c r="D129" t="n">
         <v>0.814244</v>
       </c>
+      <c r="F129" t="n">
+        <v>80.29000000000001</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-24.14587029986899</v>
+      </c>
+      <c r="H129" t="n">
+        <v>643.4</v>
+      </c>
+      <c r="I129" t="n">
+        <v>994.025870299869</v>
+      </c>
+      <c r="J129" t="n">
+        <v>740.8260222844306</v>
+      </c>
+      <c r="K129" t="n">
+        <v>896.5998480154383</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2252,6 +5132,24 @@
       <c r="D130" t="n">
         <v>0.814191</v>
       </c>
+      <c r="F130" t="n">
+        <v>80.19</v>
+      </c>
+      <c r="G130" t="n">
+        <v>20.40222455940489</v>
+      </c>
+      <c r="H130" t="n">
+        <v>642.41</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1009.987775440595</v>
+      </c>
+      <c r="J130" t="n">
+        <v>742.4120416328295</v>
+      </c>
+      <c r="K130" t="n">
+        <v>909.9857338077657</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2266,6 +5164,24 @@
       <c r="D131" t="n">
         <v>0.814138</v>
       </c>
+      <c r="F131" t="n">
+        <v>80.09</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-58.69749468170573</v>
+      </c>
+      <c r="H131" t="n">
+        <v>641.35</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1027.337494681706</v>
+      </c>
+      <c r="J131" t="n">
+        <v>744.0396925632278</v>
+      </c>
+      <c r="K131" t="n">
+        <v>924.6478021184778</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2280,6 +5196,24 @@
       <c r="D132" t="n">
         <v>0.8140849999999999</v>
       </c>
+      <c r="F132" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-4.069191411995234</v>
+      </c>
+      <c r="H132" t="n">
+        <v>640.29</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1046.329191411995</v>
+      </c>
+      <c r="J132" t="n">
+        <v>745.7857491034734</v>
+      </c>
+      <c r="K132" t="n">
+        <v>940.8334423085216</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2294,6 +5228,24 @@
       <c r="D133" t="n">
         <v>0.814033</v>
       </c>
+      <c r="F133" t="n">
+        <v>79.89</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-33.46787825351771</v>
+      </c>
+      <c r="H133" t="n">
+        <v>639.21</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1067.157878253518</v>
+      </c>
+      <c r="J133" t="n">
+        <v>747.6375170028374</v>
+      </c>
+      <c r="K133" t="n">
+        <v>958.7303612506805</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2308,6 +5260,24 @@
       <c r="D134" t="n">
         <v>0.81398</v>
       </c>
+      <c r="F134" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-5.305851718555232</v>
+      </c>
+      <c r="H134" t="n">
+        <v>638.02</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1089.985851718555</v>
+      </c>
+      <c r="J134" t="n">
+        <v>749.5128851931182</v>
+      </c>
+      <c r="K134" t="n">
+        <v>978.4929665254372</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2322,6 +5292,24 @@
       <c r="D135" t="n">
         <v>0.813927</v>
       </c>
+      <c r="F135" t="n">
+        <v>79.69</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2.649273206534872</v>
+      </c>
+      <c r="H135" t="n">
+        <v>636.77</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1115.160726793465</v>
+      </c>
+      <c r="J135" t="n">
+        <v>751.470383196313</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1000.460343597152</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2336,6 +5324,24 @@
       <c r="D136" t="n">
         <v>0.813874</v>
       </c>
+      <c r="F136" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-23.36552904217683</v>
+      </c>
+      <c r="H136" t="n">
+        <v>635.39</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1142.965529042177</v>
+      </c>
+      <c r="J136" t="n">
+        <v>753.4492452805649</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1024.906283761612</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2350,6 +5356,24 @@
       <c r="D137" t="n">
         <v>0.813822</v>
       </c>
+      <c r="F137" t="n">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-11.07144692130646</v>
+      </c>
+      <c r="H137" t="n">
+        <v>633.96</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1173.901446921306</v>
+      </c>
+      <c r="J137" t="n">
+        <v>755.5394822900178</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1052.321964631289</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2364,6 +5388,24 @@
       <c r="D138" t="n">
         <v>0.813769</v>
       </c>
+      <c r="F138" t="n">
+        <v>79.39</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-125.184040501623</v>
+      </c>
+      <c r="H138" t="n">
+        <v>632.46</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1208.454040501623</v>
+      </c>
+      <c r="J138" t="n">
+        <v>757.7319622197851</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1083.182078281838</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2378,6 +5420,24 @@
       <c r="D139" t="n">
         <v>0.813716</v>
       </c>
+      <c r="F139" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>42.03604016184045</v>
+      </c>
+      <c r="H139" t="n">
+        <v>630.99</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1247.333959838159</v>
+      </c>
+      <c r="J139" t="n">
+        <v>760.1385007787503</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1118.185459059409</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2392,6 +5452,24 @@
       <c r="D140" t="n">
         <v>0.8136640000000001</v>
       </c>
+      <c r="F140" t="n">
+        <v>79.19</v>
+      </c>
+      <c r="G140" t="n">
+        <v>53.84643552601688</v>
+      </c>
+      <c r="H140" t="n">
+        <v>629.3099999999999</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1291.043564473983</v>
+      </c>
+      <c r="J140" t="n">
+        <v>762.5319633854311</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1157.821601088552</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2406,6 +5484,24 @@
       <c r="D141" t="n">
         <v>0.813611</v>
       </c>
+      <c r="F141" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-56.91127228777464</v>
+      </c>
+      <c r="H141" t="n">
+        <v>627.28</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1340.351272287775</v>
+      </c>
+      <c r="J141" t="n">
+        <v>764.7863802820559</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1202.844892005719</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2420,6 +5516,24 @@
       <c r="D142" t="n">
         <v>0.813558</v>
       </c>
+      <c r="F142" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>97.33399048332217</v>
+      </c>
+      <c r="H142" t="n">
+        <v>625.22</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1396.696009516678</v>
+      </c>
+      <c r="J142" t="n">
+        <v>767.2370767369307</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1254.678932779747</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2434,6 +5548,24 @@
       <c r="D143" t="n">
         <v>0.813505</v>
       </c>
+      <c r="F143" t="n">
+        <v>78.89</v>
+      </c>
+      <c r="G143" t="n">
+        <v>22.54523779789383</v>
+      </c>
+      <c r="H143" t="n">
+        <v>622.92</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1461.254762202106</v>
+      </c>
+      <c r="J143" t="n">
+        <v>769.690820644626</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1314.48394155748</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2448,6 +5580,24 @@
       <c r="D144" t="n">
         <v>0.813453</v>
       </c>
+      <c r="F144" t="n">
+        <v>78.79000000000001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-29.60683842162393</v>
+      </c>
+      <c r="H144" t="n">
+        <v>620.35</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1535.726838421624</v>
+      </c>
+      <c r="J144" t="n">
+        <v>772.135990239181</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1383.940848182443</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2462,6 +5612,24 @@
       <c r="D145" t="n">
         <v>0.8134</v>
       </c>
+      <c r="F145" t="n">
+        <v>78.69</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-18.50873626336261</v>
+      </c>
+      <c r="H145" t="n">
+        <v>617.74</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1622.508736263363</v>
+      </c>
+      <c r="J145" t="n">
+        <v>774.8227651217671</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1465.425971141595</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2476,6 +5644,24 @@
       <c r="D146" t="n">
         <v>0.813347</v>
       </c>
+      <c r="F146" t="n">
+        <v>78.59</v>
+      </c>
+      <c r="G146" t="n">
+        <v>129.8572946657407</v>
+      </c>
+      <c r="H146" t="n">
+        <v>614.88</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1724.112705334259</v>
+      </c>
+      <c r="J146" t="n">
+        <v>777.5633443891077</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1561.429360945152</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2490,6 +5676,24 @@
       <c r="D147" t="n">
         <v>0.813295</v>
       </c>
+      <c r="F147" t="n">
+        <v>78.48999999999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>67.16162672019959</v>
+      </c>
+      <c r="H147" t="n">
+        <v>611.51</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1843.6983732798</v>
+      </c>
+      <c r="J147" t="n">
+        <v>780.1221963546808</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1675.08617692512</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2504,6 +5708,24 @@
       <c r="D148" t="n">
         <v>0.813242</v>
       </c>
+      <c r="F148" t="n">
+        <v>78.39</v>
+      </c>
+      <c r="G148" t="n">
+        <v>12.85392597934492</v>
+      </c>
+      <c r="H148" t="n">
+        <v>607.7</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1985.606074020655</v>
+      </c>
+      <c r="J148" t="n">
+        <v>782.5963452093335</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1810.709728811322</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2518,6 +5740,24 @@
       <c r="D149" t="n">
         <v>0.8131890000000001</v>
       </c>
+      <c r="F149" t="n">
+        <v>78.29000000000001</v>
+      </c>
+      <c r="G149" t="n">
+        <v>50.77618553798993</v>
+      </c>
+      <c r="H149" t="n">
+        <v>603.61</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2155.24381446201</v>
+      </c>
+      <c r="J149" t="n">
+        <v>785.175701006581</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1973.678113455429</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2532,6 +5772,24 @@
       <c r="D150" t="n">
         <v>0.813137</v>
       </c>
+      <c r="F150" t="n">
+        <v>78.19</v>
+      </c>
+      <c r="G150" t="n">
+        <v>97.56134829060693</v>
+      </c>
+      <c r="H150" t="n">
+        <v>599.03</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2358.628651709393</v>
+      </c>
+      <c r="J150" t="n">
+        <v>787.6834406247731</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2169.97521108462</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2546,6 +5804,24 @@
       <c r="D151" t="n">
         <v>0.813084</v>
       </c>
+      <c r="F151" t="n">
+        <v>78.09</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-45.63279315355112</v>
+      </c>
+      <c r="H151" t="n">
+        <v>593.76</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2602.412793153551</v>
+      </c>
+      <c r="J151" t="n">
+        <v>789.9564489097293</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2406.216344243822</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2560,6 +5836,24 @@
       <c r="D152" t="n">
         <v>0.813032</v>
       </c>
+      <c r="F152" t="n">
+        <v>77.98999999999999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4.097652418357484</v>
+      </c>
+      <c r="H152" t="n">
+        <v>587.91</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2892.992347581643</v>
+      </c>
+      <c r="J152" t="n">
+        <v>792.1458311087154</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2688.756516472927</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2574,6 +5868,24 @@
       <c r="D153" t="n">
         <v>0.812979</v>
       </c>
+      <c r="F153" t="n">
+        <v>77.89</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-41.75307763396358</v>
+      </c>
+      <c r="H153" t="n">
+        <v>581.3</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3232.993077633963</v>
+      </c>
+      <c r="J153" t="n">
+        <v>794.1175100609796</v>
+      </c>
+      <c r="K153" t="n">
+        <v>3020.175567572984</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2588,6 +5900,24 @@
       <c r="D154" t="n">
         <v>0.812926</v>
       </c>
+      <c r="F154" t="n">
+        <v>77.79000000000001</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-98.80207804796328</v>
+      </c>
+      <c r="H154" t="n">
+        <v>573.6799999999999</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3615.612078047963</v>
+      </c>
+      <c r="J154" t="n">
+        <v>795.6729245287498</v>
+      </c>
+      <c r="K154" t="n">
+        <v>3393.619153519213</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -2602,6 +5932,24 @@
       <c r="D155" t="n">
         <v>0.812874</v>
       </c>
+      <c r="F155" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-10.38588585221805</v>
+      </c>
+      <c r="H155" t="n">
+        <v>565</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4015.505885852218</v>
+      </c>
+      <c r="J155" t="n">
+        <v>796.8198486864245</v>
+      </c>
+      <c r="K155" t="n">
+        <v>3783.686037165794</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -2616,6 +5964,24 @@
       <c r="D156" t="n">
         <v>0.812821</v>
       </c>
+      <c r="F156" t="n">
+        <v>77.59</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-53.15380904579069</v>
+      </c>
+      <c r="H156" t="n">
+        <v>555</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4379.13380904579</v>
+      </c>
+      <c r="J156" t="n">
+        <v>797.3633573305697</v>
+      </c>
+      <c r="K156" t="n">
+        <v>4136.770451715221</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -2630,6 +5996,24 @@
       <c r="D157" t="n">
         <v>0.812769</v>
       </c>
+      <c r="F157" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-24.60650171540419</v>
+      </c>
+      <c r="H157" t="n">
+        <v>543.78</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4628.596501715404</v>
+      </c>
+      <c r="J157" t="n">
+        <v>797.4769670838411</v>
+      </c>
+      <c r="K157" t="n">
+        <v>4374.899534631562</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -2644,6 +6028,24 @@
       <c r="D158" t="n">
         <v>0.812716</v>
       </c>
+      <c r="F158" t="n">
+        <v>77.39</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-36.59657640465139</v>
+      </c>
+      <c r="H158" t="n">
+        <v>531.71</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4686.146576404652</v>
+      </c>
+      <c r="J158" t="n">
+        <v>797.6139910752672</v>
+      </c>
+      <c r="K158" t="n">
+        <v>4420.242585329384</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -2658,6 +6060,24 @@
       <c r="D159" t="n">
         <v>0.812663</v>
       </c>
+      <c r="F159" t="n">
+        <v>77.29000000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>80.02355231717956</v>
+      </c>
+      <c r="H159" t="n">
+        <v>519.36</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4358.13644768282</v>
+      </c>
+      <c r="J159" t="n">
+        <v>798.4391537256138</v>
+      </c>
+      <c r="K159" t="n">
+        <v>4079.057293957207</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -2672,6 +6092,24 @@
       <c r="D160" t="n">
         <v>0.812611</v>
       </c>
+      <c r="F160" t="n">
+        <v>77.19</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-71.04654558805987</v>
+      </c>
+      <c r="H160" t="n">
+        <v>507.75</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3718.76654558806</v>
+      </c>
+      <c r="J160" t="n">
+        <v>801.0805239280118</v>
+      </c>
+      <c r="K160" t="n">
+        <v>3425.436021660048</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -2686,6 +6124,24 @@
       <c r="D161" t="n">
         <v>0.812558</v>
       </c>
+      <c r="F161" t="n">
+        <v>77.09</v>
+      </c>
+      <c r="G161" t="n">
+        <v>100.1807688603017</v>
+      </c>
+      <c r="H161" t="n">
+        <v>497.91</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3015.219231139698</v>
+      </c>
+      <c r="J161" t="n">
+        <v>806.6918398586884</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2706.43739128101</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -2700,6 +6156,24 @@
       <c r="D162" t="n">
         <v>0.812506</v>
       </c>
+      <c r="F162" t="n">
+        <v>76.98999999999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-43.65090902042402</v>
+      </c>
+      <c r="H162" t="n">
+        <v>490.09</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2410.710909020424</v>
+      </c>
+      <c r="J162" t="n">
+        <v>815.6653179040281</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2085.135591116396</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -2714,6 +6188,24 @@
       <c r="D163" t="n">
         <v>0.812453</v>
       </c>
+      <c r="F163" t="n">
+        <v>76.89</v>
+      </c>
+      <c r="G163" t="n">
+        <v>25.71195357820511</v>
+      </c>
+      <c r="H163" t="n">
+        <v>484.12</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1956.128046421795</v>
+      </c>
+      <c r="J163" t="n">
+        <v>827.9950631191161</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1612.252983302679</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -2728,6 +6220,24 @@
       <c r="D164" t="n">
         <v>0.8124</v>
       </c>
+      <c r="F164" t="n">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="G164" t="n">
+        <v>67.09081991978906</v>
+      </c>
+      <c r="H164" t="n">
+        <v>479.55</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1638.629180080211</v>
+      </c>
+      <c r="J164" t="n">
+        <v>843.4212310829621</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1274.757948997249</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -2742,6 +6252,24 @@
       <c r="D165" t="n">
         <v>0.812348</v>
       </c>
+      <c r="F165" t="n">
+        <v>76.69</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-19.57904431752559</v>
+      </c>
+      <c r="H165" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1426.209044317526</v>
+      </c>
+      <c r="J165" t="n">
+        <v>861.6851334732281</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1040.423910844298</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -2756,6 +6284,24 @@
       <c r="D166" t="n">
         <v>0.812295</v>
       </c>
+      <c r="F166" t="n">
+        <v>76.59</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-42.46748117731318</v>
+      </c>
+      <c r="H166" t="n">
+        <v>473.02</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1288.777481177313</v>
+      </c>
+      <c r="J166" t="n">
+        <v>882.8955355126836</v>
+      </c>
+      <c r="K166" t="n">
+        <v>878.9019456646295</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -2770,6 +6316,24 @@
       <c r="D167" t="n">
         <v>0.812243</v>
       </c>
+      <c r="F167" t="n">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="G167" t="n">
+        <v>18.3302490013125</v>
+      </c>
+      <c r="H167" t="n">
+        <v>470.63</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1203.389750998688</v>
+      </c>
+      <c r="J167" t="n">
+        <v>907.076467195753</v>
+      </c>
+      <c r="K167" t="n">
+        <v>766.9432838029345</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -2784,6 +6348,24 @@
       <c r="D168" t="n">
         <v>0.81219</v>
       </c>
+      <c r="F168" t="n">
+        <v>76.39</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-28.19628923469622</v>
+      </c>
+      <c r="H168" t="n">
+        <v>468.45</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1154.136289234696</v>
+      </c>
+      <c r="J168" t="n">
+        <v>934.3069680500938</v>
+      </c>
+      <c r="K168" t="n">
+        <v>688.2793211846024</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -2798,6 +6380,24 @@
       <c r="D169" t="n">
         <v>0.812138</v>
       </c>
+      <c r="F169" t="n">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1.304687003197159</v>
+      </c>
+      <c r="H169" t="n">
+        <v>466.43</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1130.664687003197</v>
+      </c>
+      <c r="J169" t="n">
+        <v>964.9633154336061</v>
+      </c>
+      <c r="K169" t="n">
+        <v>632.131371569591</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -2812,6 +6412,24 @@
       <c r="D170" t="n">
         <v>0.8120849999999999</v>
       </c>
+      <c r="F170" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="G170" t="n">
+        <v>27.15960070682172</v>
+      </c>
+      <c r="H170" t="n">
+        <v>464.45</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1126.250399293178</v>
+      </c>
+      <c r="J170" t="n">
+        <v>999.4344601119415</v>
+      </c>
+      <c r="K170" t="n">
+        <v>591.2659391812369</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -2826,6 +6444,24 @@
       <c r="D171" t="n">
         <v>0.812033</v>
       </c>
+      <c r="F171" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="G171" t="n">
+        <v>30.45583325535677</v>
+      </c>
+      <c r="H171" t="n">
+        <v>462.41</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1136.684166744643</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1038.231624692137</v>
+      </c>
+      <c r="K171" t="n">
+        <v>560.8625420525063</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -2840,6 +6476,24 @@
       <c r="D172" t="n">
         <v>0.81198</v>
       </c>
+      <c r="F172" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>15.68208649484518</v>
+      </c>
+      <c r="H172" t="n">
+        <v>460.33</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1159.567913505155</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1082.113328980925</v>
+      </c>
+      <c r="K172" t="n">
+        <v>537.7845845242296</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -2854,6 +6508,24 @@
       <c r="D173" t="n">
         <v>0.811928</v>
       </c>
+      <c r="F173" t="n">
+        <v>75.89</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-40.39490152569101</v>
+      </c>
+      <c r="H173" t="n">
+        <v>458.23</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1193.684901525691</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1131.997513771878</v>
+      </c>
+      <c r="K173" t="n">
+        <v>519.917387753813</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -2868,6 +6540,24 @@
       <c r="D174" t="n">
         <v>0.811875</v>
       </c>
+      <c r="F174" t="n">
+        <v>75.79000000000001</v>
+      </c>
+      <c r="G174" t="n">
+        <v>33.76853703640791</v>
+      </c>
+      <c r="H174" t="n">
+        <v>456.06</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1238.621462963592</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1188.932964379416</v>
+      </c>
+      <c r="K174" t="n">
+        <v>505.7484985841766</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -2882,6 +6572,24 @@
       <c r="D175" t="n">
         <v>0.811823</v>
       </c>
+      <c r="F175" t="n">
+        <v>75.69</v>
+      </c>
+      <c r="G175" t="n">
+        <v>95.49487187997352</v>
+      </c>
+      <c r="H175" t="n">
+        <v>453.63</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1294.525128120026</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1254.082903805222</v>
+      </c>
+      <c r="K175" t="n">
+        <v>494.0722243148041</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -2896,6 +6604,24 @@
       <c r="D176" t="n">
         <v>0.81177</v>
       </c>
+      <c r="F176" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="G176" t="n">
+        <v>61.65217232226564</v>
+      </c>
+      <c r="H176" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1362.317827677734</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1329.084420488519</v>
+      </c>
+      <c r="K176" t="n">
+        <v>484.1334071892151</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -2910,6 +6636,24 @@
       <c r="D177" t="n">
         <v>0.8117180000000001</v>
       </c>
+      <c r="F177" t="n">
+        <v>75.48999999999999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>16.64008706420373</v>
+      </c>
+      <c r="H177" t="n">
+        <v>448</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1443.709912935796</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1416.158224143473</v>
+      </c>
+      <c r="K177" t="n">
+        <v>475.5516887923231</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -2924,6 +6668,24 @@
       <c r="D178" t="n">
         <v>0.811665</v>
       </c>
+      <c r="F178" t="n">
+        <v>75.39</v>
+      </c>
+      <c r="G178" t="n">
+        <v>22.55809383930591</v>
+      </c>
+      <c r="H178" t="n">
+        <v>444.93</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1540.951906160694</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1517.923790792943</v>
+      </c>
+      <c r="K178" t="n">
+        <v>467.9581153677516</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -2938,6 +6700,24 @@
       <c r="D179" t="n">
         <v>0.811613</v>
       </c>
+      <c r="F179" t="n">
+        <v>75.29000000000001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>34.54286195286295</v>
+      </c>
+      <c r="H179" t="n">
+        <v>441.56</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1656.937138047137</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1637.544496651452</v>
+      </c>
+      <c r="K179" t="n">
+        <v>460.9526413956853</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -2952,6 +6732,24 @@
       <c r="D180" t="n">
         <v>0.8115599999999999</v>
       </c>
+      <c r="F180" t="n">
+        <v>75.19</v>
+      </c>
+      <c r="G180" t="n">
+        <v>180.7707116143649</v>
+      </c>
+      <c r="H180" t="n">
+        <v>437.68</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1795.399288385635</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1778.954006084076</v>
+      </c>
+      <c r="K180" t="n">
+        <v>454.1252823015591</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -2966,6 +6764,24 @@
       <c r="D181" t="n">
         <v>0.811508</v>
       </c>
+      <c r="F181" t="n">
+        <v>75.09</v>
+      </c>
+      <c r="G181" t="n">
+        <v>78.68896270378309</v>
+      </c>
+      <c r="H181" t="n">
+        <v>433.21</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1961.301037296217</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1947.26475125529</v>
+      </c>
+      <c r="K181" t="n">
+        <v>447.2462860409266</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -2980,6 +6796,24 @@
       <c r="D182" t="n">
         <v>0.811455</v>
       </c>
+      <c r="F182" t="n">
+        <v>74.98999999999999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>136.5251429773089</v>
+      </c>
+      <c r="H182" t="n">
+        <v>428.22</v>
+      </c>
+      <c r="I182" t="n">
+        <v>2161.024857022691</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2148.972520935226</v>
+      </c>
+      <c r="K182" t="n">
+        <v>440.2723360874648</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -2994,6 +6828,24 @@
       <c r="D183" t="n">
         <v>0.811403</v>
       </c>
+      <c r="F183" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="G183" t="n">
+        <v>95.56478082190552</v>
+      </c>
+      <c r="H183" t="n">
+        <v>422.6</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2402.105219178095</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2391.698382357481</v>
+      </c>
+      <c r="K183" t="n">
+        <v>433.006836820613</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3008,6 +6860,24 @@
       <c r="D184" t="n">
         <v>0.811351</v>
       </c>
+      <c r="F184" t="n">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="G184" t="n">
+        <v>127.1148095337221</v>
+      </c>
+      <c r="H184" t="n">
+        <v>416.19</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2693.075190466278</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2684.042195389408</v>
+      </c>
+      <c r="K184" t="n">
+        <v>425.2229950768696</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3022,6 +6892,24 @@
       <c r="D185" t="n">
         <v>0.811298</v>
       </c>
+      <c r="F185" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G185" t="n">
+        <v>17.68351932746828</v>
+      </c>
+      <c r="H185" t="n">
+        <v>408.92</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3042.466480672532</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3034.587641561744</v>
+      </c>
+      <c r="K185" t="n">
+        <v>416.7988391107875</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3036,6 +6924,24 @@
       <c r="D186" t="n">
         <v>0.811246</v>
       </c>
+      <c r="F186" t="n">
+        <v>74.59</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-113.469581634994</v>
+      </c>
+      <c r="H186" t="n">
+        <v>400.78</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3455.799581634994</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3448.895986637604</v>
+      </c>
+      <c r="K186" t="n">
+        <v>407.6835949973893</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3050,6 +6956,24 @@
       <c r="D187" t="n">
         <v>0.8111930000000001</v>
       </c>
+      <c r="F187" t="n">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-91.80823349878574</v>
+      </c>
+      <c r="H187" t="n">
+        <v>391.53</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3928.938233498786</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3922.863209133419</v>
+      </c>
+      <c r="K187" t="n">
+        <v>397.6050243653665</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3064,6 +6988,24 @@
       <c r="D188" t="n">
         <v>0.811141</v>
       </c>
+      <c r="F188" t="n">
+        <v>74.39</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-84.2180937277335</v>
+      </c>
+      <c r="H188" t="n">
+        <v>380.76</v>
+      </c>
+      <c r="I188" t="n">
+        <v>4437.138093727734</v>
+      </c>
+      <c r="J188" t="n">
+        <v>4431.770643768319</v>
+      </c>
+      <c r="K188" t="n">
+        <v>386.1274499594145</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3078,6 +7020,24 @@
       <c r="D189" t="n">
         <v>0.8110889999999999</v>
       </c>
+      <c r="F189" t="n">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-130.8961343979026</v>
+      </c>
+      <c r="H189" t="n">
+        <v>368.41</v>
+      </c>
+      <c r="I189" t="n">
+        <v>4922.316134397903</v>
+      </c>
+      <c r="J189" t="n">
+        <v>4917.555856206057</v>
+      </c>
+      <c r="K189" t="n">
+        <v>373.1702781918455</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3092,6 +7052,24 @@
       <c r="D190" t="n">
         <v>0.811036</v>
       </c>
+      <c r="F190" t="n">
+        <v>74.19</v>
+      </c>
+      <c r="G190" t="n">
+        <v>149.3182437797313</v>
+      </c>
+      <c r="H190" t="n">
+        <v>354.3</v>
+      </c>
+      <c r="I190" t="n">
+        <v>5289.581756220268</v>
+      </c>
+      <c r="J190" t="n">
+        <v>5285.344872051042</v>
+      </c>
+      <c r="K190" t="n">
+        <v>358.536884169226</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3106,6 +7084,24 @@
       <c r="D191" t="n">
         <v>0.810984</v>
       </c>
+      <c r="F191" t="n">
+        <v>74.09</v>
+      </c>
+      <c r="G191" t="n">
+        <v>30.51132563842293</v>
+      </c>
+      <c r="H191" t="n">
+        <v>338.88</v>
+      </c>
+      <c r="I191" t="n">
+        <v>5436.218674361577</v>
+      </c>
+      <c r="J191" t="n">
+        <v>5432.434910904285</v>
+      </c>
+      <c r="K191" t="n">
+        <v>342.6637634572915</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3120,6 +7116,24 @@
       <c r="D192" t="n">
         <v>0.810931</v>
       </c>
+      <c r="F192" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-45.15427009716768</v>
+      </c>
+      <c r="H192" t="n">
+        <v>323.62</v>
+      </c>
+      <c r="I192" t="n">
+        <v>5165.304270097167</v>
+      </c>
+      <c r="J192" t="n">
+        <v>5161.914388286658</v>
+      </c>
+      <c r="K192" t="n">
+        <v>327.0098818105087</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3134,6 +7148,24 @@
       <c r="D193" t="n">
         <v>0.810879</v>
       </c>
+      <c r="F193" t="n">
+        <v>73.89</v>
+      </c>
+      <c r="G193" t="n">
+        <v>53.44284750334918</v>
+      </c>
+      <c r="H193" t="n">
+        <v>309.78</v>
+      </c>
+      <c r="I193" t="n">
+        <v>4400.577152496651</v>
+      </c>
+      <c r="J193" t="n">
+        <v>4397.530979475603</v>
+      </c>
+      <c r="K193" t="n">
+        <v>312.8261730210481</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3148,6 +7180,24 @@
       <c r="D194" t="n">
         <v>0.810827</v>
       </c>
+      <c r="F194" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="G194" t="n">
+        <v>24.12412647799056</v>
+      </c>
+      <c r="H194" t="n">
+        <v>298.43</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3458.835873522009</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3456.090725069506</v>
+      </c>
+      <c r="K194" t="n">
+        <v>301.1751484525038</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3162,6 +7212,24 @@
       <c r="D195" t="n">
         <v>0.810774</v>
       </c>
+      <c r="F195" t="n">
+        <v>73.69</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-12.29405233098851</v>
+      </c>
+      <c r="H195" t="n">
+        <v>289.97</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2598.134052330989</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2595.653460921908</v>
+      </c>
+      <c r="K195" t="n">
+        <v>292.4505914090808</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3176,6 +7244,24 @@
       <c r="D196" t="n">
         <v>0.8107220000000001</v>
       </c>
+      <c r="F196" t="n">
+        <v>73.59</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-107.4252458686465</v>
+      </c>
+      <c r="H196" t="n">
+        <v>284.12</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1923.745245868646</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1921.497929468238</v>
+      </c>
+      <c r="K196" t="n">
+        <v>286.3673164004085</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3190,6 +7276,24 @@
       <c r="D197" t="n">
         <v>0.81067</v>
       </c>
+      <c r="F197" t="n">
+        <v>73.48999999999999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-74.52858356187335</v>
+      </c>
+      <c r="H197" t="n">
+        <v>280.16</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1435.948583561873</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1433.907605178701</v>
+      </c>
+      <c r="K197" t="n">
+        <v>282.200978383172</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3204,6 +7308,24 @@
       <c r="D198" t="n">
         <v>0.810617</v>
       </c>
+      <c r="F198" t="n">
+        <v>73.39</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-88.88170212850684</v>
+      </c>
+      <c r="H198" t="n">
+        <v>277.44</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1095.981702128507</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1094.123781390557</v>
+      </c>
+      <c r="K198" t="n">
+        <v>279.2979207379498</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3218,6 +7340,24 @@
       <c r="D199" t="n">
         <v>0.810565</v>
       </c>
+      <c r="F199" t="n">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-48.60052992515989</v>
+      </c>
+      <c r="H199" t="n">
+        <v>275.54</v>
+      </c>
+      <c r="I199" t="n">
+        <v>861.9605299251599</v>
+      </c>
+      <c r="J199" t="n">
+        <v>860.2654764723927</v>
+      </c>
+      <c r="K199" t="n">
+        <v>277.2350534527672</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -3232,6 +7372,24 @@
       <c r="D200" t="n">
         <v>0.810512</v>
       </c>
+      <c r="F200" t="n">
+        <v>73.19</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-43.07355061276985</v>
+      </c>
+      <c r="H200" t="n">
+        <v>274.17</v>
+      </c>
+      <c r="I200" t="n">
+        <v>700.5835506127698</v>
+      </c>
+      <c r="J200" t="n">
+        <v>699.0337956117608</v>
+      </c>
+      <c r="K200" t="n">
+        <v>275.7197550010091</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -3246,6 +7404,24 @@
       <c r="D201" t="n">
         <v>0.81046</v>
       </c>
+      <c r="F201" t="n">
+        <v>73.09</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-19.0969809029308</v>
+      </c>
+      <c r="H201" t="n">
+        <v>273.16</v>
+      </c>
+      <c r="I201" t="n">
+        <v>588.2569809029308</v>
+      </c>
+      <c r="J201" t="n">
+        <v>586.8371879931142</v>
+      </c>
+      <c r="K201" t="n">
+        <v>274.5797929098167</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3260,6 +7436,24 @@
       <c r="D202" t="n">
         <v>0.810408</v>
       </c>
+      <c r="F202" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-14.61244719480288</v>
+      </c>
+      <c r="H202" t="n">
+        <v>272.39</v>
+      </c>
+      <c r="I202" t="n">
+        <v>509.0224471948029</v>
+      </c>
+      <c r="J202" t="n">
+        <v>507.7191880436459</v>
+      </c>
+      <c r="K202" t="n">
+        <v>273.693259151157</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3274,6 +7468,24 @@
       <c r="D203" t="n">
         <v>0.810356</v>
       </c>
+      <c r="F203" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="G203" t="n">
+        <v>53.73139165099246</v>
+      </c>
+      <c r="H203" t="n">
+        <v>271.72</v>
+      </c>
+      <c r="I203" t="n">
+        <v>452.2186083490075</v>
+      </c>
+      <c r="J203" t="n">
+        <v>451.0200910002478</v>
+      </c>
+      <c r="K203" t="n">
+        <v>272.9185173487597</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -3288,6 +7500,24 @@
       <c r="D204" t="n">
         <v>0.810303</v>
       </c>
+      <c r="F204" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-18.32140688848574</v>
+      </c>
+      <c r="H204" t="n">
+        <v>271.19</v>
+      </c>
+      <c r="I204" t="n">
+        <v>410.9114068884857</v>
+      </c>
+      <c r="J204" t="n">
+        <v>409.8072474378924</v>
+      </c>
+      <c r="K204" t="n">
+        <v>272.2941594505933</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -3302,6 +7532,24 @@
       <c r="D205" t="n">
         <v>0.8102510000000001</v>
       </c>
+      <c r="F205" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="G205" t="n">
+        <v>39.29001815076401</v>
+      </c>
+      <c r="H205" t="n">
+        <v>270.79</v>
+      </c>
+      <c r="I205" t="n">
+        <v>380.439981849236</v>
+      </c>
+      <c r="J205" t="n">
+        <v>379.4210118292198</v>
+      </c>
+      <c r="K205" t="n">
+        <v>271.8089700200162</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -3316,6 +7564,24 @@
       <c r="D206" t="n">
         <v>0.810199</v>
       </c>
+      <c r="F206" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-0.0602700556836453</v>
+      </c>
+      <c r="H206" t="n">
+        <v>270.44</v>
+      </c>
+      <c r="I206" t="n">
+        <v>357.5902700556836</v>
+      </c>
+      <c r="J206" t="n">
+        <v>356.6483733686904</v>
+      </c>
+      <c r="K206" t="n">
+        <v>271.3818966869932</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -3330,6 +7596,24 @@
       <c r="D207" t="n">
         <v>0.810146</v>
       </c>
+      <c r="F207" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="G207" t="n">
+        <v>13.62647312984024</v>
+      </c>
+      <c r="H207" t="n">
+        <v>270.19</v>
+      </c>
+      <c r="I207" t="n">
+        <v>340.2735268701597</v>
+      </c>
+      <c r="J207" t="n">
+        <v>339.4015012683624</v>
+      </c>
+      <c r="K207" t="n">
+        <v>271.0620256017973</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3344,6 +7628,24 @@
       <c r="D208" t="n">
         <v>0.810094</v>
       </c>
+      <c r="F208" t="n">
+        <v>72.39</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1.56031793525824</v>
+      </c>
+      <c r="H208" t="n">
+        <v>269.99</v>
+      </c>
+      <c r="I208" t="n">
+        <v>326.9603179352582</v>
+      </c>
+      <c r="J208" t="n">
+        <v>326.15175696704</v>
+      </c>
+      <c r="K208" t="n">
+        <v>270.7985609682182</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -3358,6 +7660,24 @@
       <c r="D209" t="n">
         <v>0.810042</v>
       </c>
+      <c r="F209" t="n">
+        <v>72.29000000000001</v>
+      </c>
+      <c r="G209" t="n">
+        <v>20.83691514316484</v>
+      </c>
+      <c r="H209" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="I209" t="n">
+        <v>316.5730848568352</v>
+      </c>
+      <c r="J209" t="n">
+        <v>315.8222769397939</v>
+      </c>
+      <c r="K209" t="n">
+        <v>270.5508079170413</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3372,6 +7692,24 @@
       <c r="D210" t="n">
         <v>0.809989</v>
       </c>
+      <c r="F210" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="G210" t="n">
+        <v>34.77577488614099</v>
+      </c>
+      <c r="H210" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="I210" t="n">
+        <v>308.354225113859</v>
+      </c>
+      <c r="J210" t="n">
+        <v>307.6560669887057</v>
+      </c>
+      <c r="K210" t="n">
+        <v>270.2981581251533</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -3386,6 +7724,24 @@
       <c r="D211" t="n">
         <v>0.809937</v>
       </c>
+      <c r="F211" t="n">
+        <v>72.09</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-52.57244369188666</v>
+      </c>
+      <c r="H211" t="n">
+        <v>269.52</v>
+      </c>
+      <c r="I211" t="n">
+        <v>301.9024436918867</v>
+      </c>
+      <c r="J211" t="n">
+        <v>301.2523659919342</v>
+      </c>
+      <c r="K211" t="n">
+        <v>270.1700776999525</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -3400,6 +7756,24 @@
       <c r="D212" t="n">
         <v>0.809885</v>
       </c>
+      <c r="F212" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="G212" t="n">
+        <v>29.53979231277975</v>
+      </c>
+      <c r="H212" t="n">
+        <v>269.46</v>
+      </c>
+      <c r="I212" t="n">
+        <v>296.7302076872202</v>
+      </c>
+      <c r="J212" t="n">
+        <v>296.1241107477085</v>
+      </c>
+      <c r="K212" t="n">
+        <v>270.0660969395117</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -3414,6 +7788,24 @@
       <c r="D213" t="n">
         <v>0.809833</v>
       </c>
+      <c r="F213" t="n">
+        <v>71.89</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-18.021447618639</v>
+      </c>
+      <c r="H213" t="n">
+        <v>269.37</v>
+      </c>
+      <c r="I213" t="n">
+        <v>292.501447618639</v>
+      </c>
+      <c r="J213" t="n">
+        <v>291.9356459672932</v>
+      </c>
+      <c r="K213" t="n">
+        <v>269.9358016513459</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -3428,6 +7820,24 @@
       <c r="D214" t="n">
         <v>0.8097800000000001</v>
       </c>
+      <c r="F214" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-30.30258991589227</v>
+      </c>
+      <c r="H214" t="n">
+        <v>269.38</v>
+      </c>
+      <c r="I214" t="n">
+        <v>289.1325899158923</v>
+      </c>
+      <c r="J214" t="n">
+        <v>288.6037641452895</v>
+      </c>
+      <c r="K214" t="n">
+        <v>269.9088257706027</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -3442,6 +7852,24 @@
       <c r="D215" t="n">
         <v>0.809728</v>
       </c>
+      <c r="F215" t="n">
+        <v>71.69</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-18.06247267618176</v>
+      </c>
+      <c r="H215" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="I215" t="n">
+        <v>286.3724726761818</v>
+      </c>
+      <c r="J215" t="n">
+        <v>285.8776276110685</v>
+      </c>
+      <c r="K215" t="n">
+        <v>269.8948450651132</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -3456,6 +7884,24 @@
       <c r="D216" t="n">
         <v>0.809676</v>
       </c>
+      <c r="F216" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-34.63825268737398</v>
+      </c>
+      <c r="H216" t="n">
+        <v>269.43</v>
+      </c>
+      <c r="I216" t="n">
+        <v>284.098252687374</v>
+      </c>
+      <c r="J216" t="n">
+        <v>283.6346809350214</v>
+      </c>
+      <c r="K216" t="n">
+        <v>269.8935717523526</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -3470,6 +7916,24 @@
       <c r="D217" t="n">
         <v>0.809624</v>
       </c>
+      <c r="F217" t="n">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="G217" t="n">
+        <v>10.45459825203</v>
+      </c>
+      <c r="H217" t="n">
+        <v>269.42</v>
+      </c>
+      <c r="I217" t="n">
+        <v>282.16540174797</v>
+      </c>
+      <c r="J217" t="n">
+        <v>281.730651864127</v>
+      </c>
+      <c r="K217" t="n">
+        <v>269.854749883843</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -3484,6 +7948,24 @@
       <c r="D218" t="n">
         <v>0.809572</v>
       </c>
+      <c r="F218" t="n">
+        <v>71.39</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-16.31052681942424</v>
+      </c>
+      <c r="H218" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="I218" t="n">
+        <v>280.5305268194243</v>
+      </c>
+      <c r="J218" t="n">
+        <v>280.1223754421196</v>
+      </c>
+      <c r="K218" t="n">
+        <v>269.8081513773047</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -3498,6 +7980,24 @@
       <c r="D219" t="n">
         <v>0.809519</v>
       </c>
+      <c r="F219" t="n">
+        <v>71.29000000000001</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-31.18616226820592</v>
+      </c>
+      <c r="H219" t="n">
+        <v>249.36</v>
+      </c>
+      <c r="I219" t="n">
+        <v>259.1261622682059</v>
+      </c>
+      <c r="J219" t="n">
+        <v>258.7425896711263</v>
+      </c>
+      <c r="K219" t="n">
+        <v>249.7435725970796</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -3512,6 +8012,24 @@
       <c r="D220" t="n">
         <v>0.809467</v>
       </c>
+      <c r="F220" t="n">
+        <v>71.19</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-4.266954391173186</v>
+      </c>
+      <c r="H220" t="n">
+        <v>249.39</v>
+      </c>
+      <c r="I220" t="n">
+        <v>257.9969543911732</v>
+      </c>
+      <c r="J220" t="n">
+        <v>257.6361229912755</v>
+      </c>
+      <c r="K220" t="n">
+        <v>249.7508313998977</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -3526,6 +8044,24 @@
       <c r="D221" t="n">
         <v>0.809415</v>
       </c>
+      <c r="F221" t="n">
+        <v>71.09</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-7.616839165200105</v>
+      </c>
+      <c r="H221" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="I221" t="n">
+        <v>234.8668391652001</v>
+      </c>
+      <c r="J221" t="n">
+        <v>234.5270745885501</v>
+      </c>
+      <c r="K221" t="n">
+        <v>227.5897645766501</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -3540,6 +8076,24 @@
       <c r="D222" t="n">
         <v>0.8093630000000001</v>
       </c>
+      <c r="F222" t="n">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-6.766935626955586</v>
+      </c>
+      <c r="H222" t="n">
+        <v>213.18</v>
+      </c>
+      <c r="I222" t="n">
+        <v>219.9469356269556</v>
+      </c>
+      <c r="J222" t="n">
+        <v>219.6267099949269</v>
+      </c>
+      <c r="K222" t="n">
+        <v>213.5002256320287</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -3554,6 +8108,24 @@
       <c r="D223" t="n">
         <v>0.80931</v>
       </c>
+      <c r="F223" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-6.033959795521127</v>
+      </c>
+      <c r="H223" t="n">
+        <v>225.76</v>
+      </c>
+      <c r="I223" t="n">
+        <v>231.7939597955211</v>
+      </c>
+      <c r="J223" t="n">
+        <v>231.4918769423734</v>
+      </c>
+      <c r="K223" t="n">
+        <v>226.0620828531477</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -3568,6 +8140,24 @@
       <c r="D224" t="n">
         <v>0.809258</v>
       </c>
+      <c r="F224" t="n">
+        <v>70.79000000000001</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-5.399020680713051</v>
+      </c>
+      <c r="H224" t="n">
+        <v>246.41</v>
+      </c>
+      <c r="I224" t="n">
+        <v>251.809020680713</v>
+      </c>
+      <c r="J224" t="n">
+        <v>251.5238030547828</v>
+      </c>
+      <c r="K224" t="n">
+        <v>246.6952176259303</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -3582,6 +8172,24 @@
       <c r="D225" t="n">
         <v>0.809206</v>
       </c>
+      <c r="F225" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-4.846699181943791</v>
+      </c>
+      <c r="H225" t="n">
+        <v>254.49</v>
+      </c>
+      <c r="I225" t="n">
+        <v>259.3366991819438</v>
+      </c>
+      <c r="J225" t="n">
+        <v>259.0671762175206</v>
+      </c>
+      <c r="K225" t="n">
+        <v>254.7595229644232</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -3596,6 +8204,24 @@
       <c r="D226" t="n">
         <v>0.809154</v>
       </c>
+      <c r="F226" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-4.364338167736832</v>
+      </c>
+      <c r="H226" t="n">
+        <v>209.49</v>
+      </c>
+      <c r="I226" t="n">
+        <v>213.8543381677368</v>
+      </c>
+      <c r="J226" t="n">
+        <v>213.5994359442235</v>
+      </c>
+      <c r="K226" t="n">
+        <v>209.7449022235134</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -3610,6 +8236,24 @@
       <c r="D227" t="n">
         <v>0.809102</v>
       </c>
+      <c r="F227" t="n">
+        <v>70.48999999999999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-3.941491446910192</v>
+      </c>
+      <c r="H227" t="n">
+        <v>207.41</v>
+      </c>
+      <c r="I227" t="n">
+        <v>211.3514914469102</v>
+      </c>
+      <c r="J227" t="n">
+        <v>211.1102234769434</v>
+      </c>
+      <c r="K227" t="n">
+        <v>207.6512679699668</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -3624,6 +8268,24 @@
       <c r="D228" t="n">
         <v>0.80905</v>
       </c>
+      <c r="F228" t="n">
+        <v>70.39</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-3.569493188216995</v>
+      </c>
+      <c r="H228" t="n">
+        <v>193.38</v>
+      </c>
+      <c r="I228" t="n">
+        <v>196.949493188217</v>
+      </c>
+      <c r="J228" t="n">
+        <v>196.7209521977874</v>
+      </c>
+      <c r="K228" t="n">
+        <v>193.6085409904296</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -3638,6 +8300,24 @@
       <c r="D229" t="n">
         <v>0.808997</v>
       </c>
+      <c r="F229" t="n">
+        <v>70.29000000000001</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-3.241119301227457</v>
+      </c>
+      <c r="H229" t="n">
+        <v>230.06</v>
+      </c>
+      <c r="I229" t="n">
+        <v>233.3011193012275</v>
+      </c>
+      <c r="J229" t="n">
+        <v>233.0844698830642</v>
+      </c>
+      <c r="K229" t="n">
+        <v>230.2766494181632</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -3652,6 +8332,24 @@
       <c r="D230" t="n">
         <v>0.808945</v>
       </c>
+      <c r="F230" t="n">
+        <v>70.19</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-2.950319509261988</v>
+      </c>
+      <c r="H230" t="n">
+        <v>220.38</v>
+      </c>
+      <c r="I230" t="n">
+        <v>223.330319509262</v>
+      </c>
+      <c r="J230" t="n">
+        <v>223.1247915463448</v>
+      </c>
+      <c r="K230" t="n">
+        <v>220.5855279629172</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -3666,6 +8364,24 @@
       <c r="D231" t="n">
         <v>0.808893</v>
       </c>
+      <c r="F231" t="n">
+        <v>70.09</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-2.692004119536449</v>
+      </c>
+      <c r="H231" t="n">
+        <v>194.04</v>
+      </c>
+      <c r="I231" t="n">
+        <v>196.7320041195364</v>
+      </c>
+      <c r="J231" t="n">
+        <v>196.5368868889661</v>
+      </c>
+      <c r="K231" t="n">
+        <v>194.2351172305703</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -3680,6 +8396,24 @@
       <c r="D232" t="n">
         <v>0.808841</v>
       </c>
+      <c r="F232" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-2.461873378926668</v>
+      </c>
+      <c r="H232" t="n">
+        <v>206.91</v>
+      </c>
+      <c r="I232" t="n">
+        <v>209.3718733789267</v>
+      </c>
+      <c r="J232" t="n">
+        <v>209.1865102578743</v>
+      </c>
+      <c r="K232" t="n">
+        <v>207.0953631210523</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -3694,6 +8428,24 @@
       <c r="D233" t="n">
         <v>0.808789</v>
       </c>
+      <c r="F233" t="n">
+        <v>69.89</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-2.256280183548313</v>
+      </c>
+      <c r="H233" t="n">
+        <v>188.58</v>
+      </c>
+      <c r="I233" t="n">
+        <v>190.8362801835483</v>
+      </c>
+      <c r="J233" t="n">
+        <v>190.6600638888912</v>
+      </c>
+      <c r="K233" t="n">
+        <v>188.7562162946572</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -3708,6 +8460,24 @@
       <c r="D234" t="n">
         <v>0.808737</v>
       </c>
+      <c r="F234" t="n">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-2.072119060821564</v>
+      </c>
+      <c r="H234" t="n">
+        <v>205.12</v>
+      </c>
+      <c r="I234" t="n">
+        <v>207.1921190608216</v>
+      </c>
+      <c r="J234" t="n">
+        <v>207.0244873626069</v>
+      </c>
+      <c r="K234" t="n">
+        <v>205.2876316982147</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -3722,6 +8492,24 @@
       <c r="D235" t="n">
         <v>0.808685</v>
       </c>
+      <c r="F235" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1.906735959269298</v>
+      </c>
+      <c r="H235" t="n">
+        <v>207.58</v>
+      </c>
+      <c r="I235" t="n">
+        <v>209.4867359592693</v>
+      </c>
+      <c r="J235" t="n">
+        <v>209.3271678155228</v>
+      </c>
+      <c r="K235" t="n">
+        <v>207.7395681437465</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -3736,6 +8524,24 @@
       <c r="D236" t="n">
         <v>0.808633</v>
       </c>
+      <c r="F236" t="n">
+        <v>69.59</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1.757854604294693</v>
+      </c>
+      <c r="H236" t="n">
+        <v>172.7</v>
+      </c>
+      <c r="I236" t="n">
+        <v>174.4578546042947</v>
+      </c>
+      <c r="J236" t="n">
+        <v>174.3058666710751</v>
+      </c>
+      <c r="K236" t="n">
+        <v>172.8519879332196</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -3750,6 +8556,24 @@
       <c r="D237" t="n">
         <v>0.80858</v>
       </c>
+      <c r="F237" t="n">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1.623516109111165</v>
+      </c>
+      <c r="H237" t="n">
+        <v>203.17</v>
+      </c>
+      <c r="I237" t="n">
+        <v>204.7935161091112</v>
+      </c>
+      <c r="J237" t="n">
+        <v>204.6486595852568</v>
+      </c>
+      <c r="K237" t="n">
+        <v>203.3148565238543</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -3764,6 +8588,24 @@
       <c r="D238" t="n">
         <v>0.808528</v>
       </c>
+      <c r="F238" t="n">
+        <v>69.39</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1.502029242778917</v>
+      </c>
+      <c r="H238" t="n">
+        <v>179.35</v>
+      </c>
+      <c r="I238" t="n">
+        <v>180.8520292427789</v>
+      </c>
+      <c r="J238" t="n">
+        <v>180.7138870136082</v>
+      </c>
+      <c r="K238" t="n">
+        <v>179.4881422291707</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -3778,6 +8620,24 @@
       <c r="D239" t="n">
         <v>0.808476</v>
       </c>
+      <c r="F239" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1.391929306147688</v>
+      </c>
+      <c r="H239" t="n">
+        <v>213.31</v>
+      </c>
+      <c r="I239" t="n">
+        <v>214.7019293061477</v>
+      </c>
+      <c r="J239" t="n">
+        <v>214.5701133545692</v>
+      </c>
+      <c r="K239" t="n">
+        <v>213.4418159515785</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -3792,6 +8652,24 @@
       <c r="D240" t="n">
         <v>0.808424</v>
       </c>
+      <c r="F240" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1.291943991421476</v>
+      </c>
+      <c r="H240" t="n">
+        <v>180.56</v>
+      </c>
+      <c r="I240" t="n">
+        <v>181.8519439914215</v>
+      </c>
+      <c r="J240" t="n">
+        <v>181.7260930485707</v>
+      </c>
+      <c r="K240" t="n">
+        <v>180.6858509428508</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -3806,6 +8684,24 @@
       <c r="D241" t="n">
         <v>0.808372</v>
       </c>
+      <c r="F241" t="n">
+        <v>69.09</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1.200964931751287</v>
+      </c>
+      <c r="H241" t="n">
+        <v>199.17</v>
+      </c>
+      <c r="I241" t="n">
+        <v>200.3709649317513</v>
+      </c>
+      <c r="J241" t="n">
+        <v>200.2507423424665</v>
+      </c>
+      <c r="K241" t="n">
+        <v>199.2902225892848</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -3820,6 +8716,24 @@
       <c r="D242" t="n">
         <v>0.80832</v>
       </c>
+      <c r="F242" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1.118023905919927</v>
+      </c>
+      <c r="H242" t="n">
+        <v>168.67</v>
+      </c>
+      <c r="I242" t="n">
+        <v>169.7880239059199</v>
+      </c>
+      <c r="J242" t="n">
+        <v>169.6731156871682</v>
+      </c>
+      <c r="K242" t="n">
+        <v>168.7849082187517</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -3834,6 +8748,24 @@
       <c r="D243" t="n">
         <v>0.808268</v>
       </c>
+      <c r="F243" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1.042272866478243</v>
+      </c>
+      <c r="H243" t="n">
+        <v>167.04</v>
+      </c>
+      <c r="I243" t="n">
+        <v>168.0822728664782</v>
+      </c>
+      <c r="J243" t="n">
+        <v>167.9723859392966</v>
+      </c>
+      <c r="K243" t="n">
+        <v>167.1498869271816</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -3848,6 +8780,24 @@
       <c r="D244" t="n">
         <v>0.808216</v>
       </c>
+      <c r="F244" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-0.9729671202239842</v>
+      </c>
+      <c r="H244" t="n">
+        <v>185.97</v>
+      </c>
+      <c r="I244" t="n">
+        <v>186.942967120224</v>
+      </c>
+      <c r="J244" t="n">
+        <v>186.8378276978927</v>
+      </c>
+      <c r="K244" t="n">
+        <v>186.0751394223313</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -3862,6 +8812,24 @@
       <c r="D245" t="n">
         <v>0.808164</v>
       </c>
+      <c r="F245" t="n">
+        <v>68.69</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-0.9094511172451121</v>
+      </c>
+      <c r="H245" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="I245" t="n">
+        <v>196.3094511172451</v>
+      </c>
+      <c r="J245" t="n">
+        <v>196.208803234306</v>
+      </c>
+      <c r="K245" t="n">
+        <v>195.5006478829391</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -3876,6 +8844,24 @@
       <c r="D246" t="n">
         <v>0.8081120000000001</v>
       </c>
+      <c r="F246" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-0.8511464061896561</v>
+      </c>
+      <c r="H246" t="n">
+        <v>185.12</v>
+      </c>
+      <c r="I246" t="n">
+        <v>185.9711464061897</v>
+      </c>
+      <c r="J246" t="n">
+        <v>185.8747505745882</v>
+      </c>
+      <c r="K246" t="n">
+        <v>185.2163958316015</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -3890,6 +8876,24 @@
       <c r="D247" t="n">
         <v>0.80806</v>
       </c>
+      <c r="F247" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-0.797541394570743</v>
+      </c>
+      <c r="H247" t="n">
+        <v>183.07</v>
+      </c>
+      <c r="I247" t="n">
+        <v>183.8675413945707</v>
+      </c>
+      <c r="J247" t="n">
+        <v>183.7751733746735</v>
+      </c>
+      <c r="K247" t="n">
+        <v>183.1623680198972</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -3904,6 +8908,24 @@
       <c r="D248" t="n">
         <v>0.8080079999999999</v>
       </c>
+      <c r="F248" t="n">
+        <v>68.39</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-0.7481826180974451</v>
+      </c>
+      <c r="H248" t="n">
+        <v>169.48</v>
+      </c>
+      <c r="I248" t="n">
+        <v>170.2281826180974</v>
+      </c>
+      <c r="J248" t="n">
+        <v>170.1396322936343</v>
+      </c>
+      <c r="K248" t="n">
+        <v>169.5685503244632</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -3918,6 +8940,24 @@
       <c r="D249" t="n">
         <v>0.807956</v>
       </c>
+      <c r="F249" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-0.702667275578591</v>
+      </c>
+      <c r="H249" t="n">
+        <v>167.85</v>
+      </c>
+      <c r="I249" t="n">
+        <v>168.5526672755786</v>
+      </c>
+      <c r="J249" t="n">
+        <v>168.4677376227082</v>
+      </c>
+      <c r="K249" t="n">
+        <v>167.9349296528704</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -3932,6 +8972,24 @@
       <c r="D250" t="n">
         <v>0.807904</v>
       </c>
+      <c r="F250" t="n">
+        <v>68.19</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-0.6606368284893733</v>
+      </c>
+      <c r="H250" t="n">
+        <v>180.93</v>
+      </c>
+      <c r="I250" t="n">
+        <v>181.5906368284894</v>
+      </c>
+      <c r="J250" t="n">
+        <v>181.5091429702059</v>
+      </c>
+      <c r="K250" t="n">
+        <v>181.0114938582835</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -3946,6 +9004,24 @@
       <c r="D251" t="n">
         <v>0.807852</v>
       </c>
+      <c r="F251" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-0.621771498847977</v>
+      </c>
+      <c r="H251" t="n">
+        <v>172.48</v>
+      </c>
+      <c r="I251" t="n">
+        <v>173.101771498848</v>
+      </c>
+      <c r="J251" t="n">
+        <v>173.0235398368466</v>
+      </c>
+      <c r="K251" t="n">
+        <v>172.5582316620014</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -3960,6 +9036,24 @@
       <c r="D252" t="n">
         <v>0.8078</v>
       </c>
+      <c r="F252" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-0.5857855272223844</v>
+      </c>
+      <c r="H252" t="n">
+        <v>153.58</v>
+      </c>
+      <c r="I252" t="n">
+        <v>154.1657855272224</v>
+      </c>
+      <c r="J252" t="n">
+        <v>154.090652944146</v>
+      </c>
+      <c r="K252" t="n">
+        <v>153.6551325830764</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -3974,6 +9068,24 @@
       <c r="D253" t="n">
         <v>0.807748</v>
       </c>
+      <c r="F253" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-0.5524230757352768</v>
+      </c>
+      <c r="H253" t="n">
+        <v>153.37</v>
+      </c>
+      <c r="I253" t="n">
+        <v>153.9224230757353</v>
+      </c>
+      <c r="J253" t="n">
+        <v>153.8502362014342</v>
+      </c>
+      <c r="K253" t="n">
+        <v>153.4421868743011</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -3988,6 +9100,24 @@
       <c r="D254" t="n">
         <v>0.807696</v>
       </c>
+      <c r="F254" t="n">
+        <v>67.79000000000001</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-0.5214546798468689</v>
+      </c>
+      <c r="H254" t="n">
+        <v>157.65</v>
+      </c>
+      <c r="I254" t="n">
+        <v>158.1714546798469</v>
+      </c>
+      <c r="J254" t="n">
+        <v>158.1020692159199</v>
+      </c>
+      <c r="K254" t="n">
+        <v>157.719385463927</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -4002,6 +9132,24 @@
       <c r="D255" t="n">
         <v>0.807644</v>
       </c>
+      <c r="F255" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-0.4926741682714066</v>
+      </c>
+      <c r="H255" t="n">
+        <v>135.62</v>
+      </c>
+      <c r="I255" t="n">
+        <v>136.1126741682714</v>
+      </c>
+      <c r="J255" t="n">
+        <v>136.0459542657219</v>
+      </c>
+      <c r="K255" t="n">
+        <v>135.6867199025495</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -4016,6 +9164,24 @@
       <c r="D256" t="n">
         <v>0.807592</v>
       </c>
+      <c r="F256" t="n">
+        <v>67.59</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-0.4658959832434277</v>
+      </c>
+      <c r="H256" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="I256" t="n">
+        <v>145.2658959832434</v>
+      </c>
+      <c r="J256" t="n">
+        <v>145.2017136685877</v>
+      </c>
+      <c r="K256" t="n">
+        <v>144.8641823146557</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -4030,6 +9196,24 @@
       <c r="D257" t="n">
         <v>0.80754</v>
       </c>
+      <c r="F257" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-0.4409528440068584</v>
+      </c>
+      <c r="H257" t="n">
+        <v>145.65</v>
+      </c>
+      <c r="I257" t="n">
+        <v>146.0909528440069</v>
+      </c>
+      <c r="J257" t="n">
+        <v>146.0291874896237</v>
+      </c>
+      <c r="K257" t="n">
+        <v>145.7117653543832</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -4044,6 +9228,24 @@
       <c r="D258" t="n">
         <v>0.807488</v>
       </c>
+      <c r="F258" t="n">
+        <v>67.39</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-0.4176937052508549</v>
+      </c>
+      <c r="H258" t="n">
+        <v>161.35</v>
+      </c>
+      <c r="I258" t="n">
+        <v>161.7676937052508</v>
+      </c>
+      <c r="J258" t="n">
+        <v>161.7082315401649</v>
+      </c>
+      <c r="K258" t="n">
+        <v>161.4094621650859</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -4058,6 +9260,24 @@
       <c r="D259" t="n">
         <v>0.807436</v>
       </c>
+      <c r="F259" t="n">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-0.395981969594061</v>
+      </c>
+      <c r="H259" t="n">
+        <v>174.95</v>
+      </c>
+      <c r="I259" t="n">
+        <v>175.345981969594</v>
+      </c>
+      <c r="J259" t="n">
+        <v>175.2887156272463</v>
+      </c>
+      <c r="K259" t="n">
+        <v>175.0072663423477</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -4072,6 +9292,24 @@
       <c r="D260" t="n">
         <v>0.807384</v>
       </c>
+      <c r="F260" t="n">
+        <v>67.19</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-0.3756939193798416</v>
+      </c>
+      <c r="H260" t="n">
+        <v>187.42</v>
+      </c>
+      <c r="I260" t="n">
+        <v>187.7956939193798</v>
+      </c>
+      <c r="J260" t="n">
+        <v>187.7405220192619</v>
+      </c>
+      <c r="K260" t="n">
+        <v>187.4751719001179</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -4086,6 +9324,24 @@
       <c r="D261" t="n">
         <v>0.807332</v>
       </c>
+      <c r="F261" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-0.3567173382086537</v>
+      </c>
+      <c r="H261" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="I261" t="n">
+        <v>161.1567173382087</v>
+      </c>
+      <c r="J261" t="n">
+        <v>161.1035440985296</v>
+      </c>
+      <c r="K261" t="n">
+        <v>160.8531732396791</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -4100,6 +9356,24 @@
       <c r="D262" t="n">
         <v>0.80728</v>
       </c>
+      <c r="F262" t="n">
+        <v>66.99000000000001</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-0.338950296968477</v>
+      </c>
+      <c r="H262" t="n">
+        <v>169.61</v>
+      </c>
+      <c r="I262" t="n">
+        <v>169.9489502969685</v>
+      </c>
+      <c r="J262" t="n">
+        <v>169.8976851757826</v>
+      </c>
+      <c r="K262" t="n">
+        <v>169.6612651211859</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -4114,6 +9388,24 @@
       <c r="D263" t="n">
         <v>0.8072279999999999</v>
       </c>
+      <c r="F263" t="n">
+        <v>66.89</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-0.3223000827759961</v>
+      </c>
+      <c r="H263" t="n">
+        <v>162.24</v>
+      </c>
+      <c r="I263" t="n">
+        <v>162.562300082776</v>
+      </c>
+      <c r="J263" t="n">
+        <v>162.5128574452358</v>
+      </c>
+      <c r="K263" t="n">
+        <v>162.2894426375402</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -4128,6 +9420,24 @@
       <c r="D264" t="n">
         <v>0.807176</v>
       </c>
+      <c r="F264" t="n">
+        <v>66.78999999999999</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-0.3066822523221617</v>
+      </c>
+      <c r="H264" t="n">
+        <v>158.49</v>
+      </c>
+      <c r="I264" t="n">
+        <v>158.7966822523222</v>
+      </c>
+      <c r="J264" t="n">
+        <v>158.7489810619319</v>
+      </c>
+      <c r="K264" t="n">
+        <v>158.5377011903903</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -4142,6 +9452,24 @@
       <c r="D265" t="n">
         <v>0.807124</v>
       </c>
+      <c r="F265" t="n">
+        <v>66.69</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-0.2920197937235685</v>
+      </c>
+      <c r="H265" t="n">
+        <v>155.48</v>
+      </c>
+      <c r="I265" t="n">
+        <v>155.7720197937236</v>
+      </c>
+      <c r="J265" t="n">
+        <v>155.7259833256588</v>
+      </c>
+      <c r="K265" t="n">
+        <v>155.5260364680647</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -4156,6 +9484,24 @@
       <c r="D266" t="n">
         <v>0.807072</v>
       </c>
+      <c r="F266" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-0.2782423831919516</v>
+      </c>
+      <c r="H266" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="I266" t="n">
+        <v>163.028242383192</v>
+      </c>
+      <c r="J266" t="n">
+        <v>162.9837979579235</v>
+      </c>
+      <c r="K266" t="n">
+        <v>162.7944444252685</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -4170,6 +9516,24 @@
       <c r="D267" t="n">
         <v>0.80702</v>
       </c>
+      <c r="F267" t="n">
+        <v>66.49000000000001</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-0.2652857247135216</v>
+      </c>
+      <c r="H267" t="n">
+        <v>142.43</v>
+      </c>
+      <c r="I267" t="n">
+        <v>142.6952857247135</v>
+      </c>
+      <c r="J267" t="n">
+        <v>142.6523644603284</v>
+      </c>
+      <c r="K267" t="n">
+        <v>142.4729212643851</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -4184,6 +9548,24 @@
       <c r="D268" t="n">
         <v>0.806968</v>
       </c>
+      <c r="F268" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-0.2530909625317577</v>
+      </c>
+      <c r="H268" t="n">
+        <v>172.82</v>
+      </c>
+      <c r="I268" t="n">
+        <v>173.0730909625318</v>
+      </c>
+      <c r="J268" t="n">
+        <v>173.0316275442848</v>
+      </c>
+      <c r="K268" t="n">
+        <v>172.8614634182469</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -4198,6 +9580,24 @@
       <c r="D269" t="n">
         <v>0.806916</v>
       </c>
+      <c r="F269" t="n">
+        <v>66.28999999999999</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-0.2416041575926329</v>
+      </c>
+      <c r="H269" t="n">
+        <v>128.98</v>
+      </c>
+      <c r="I269" t="n">
+        <v>129.2216041575926</v>
+      </c>
+      <c r="J269" t="n">
+        <v>129.1815366233489</v>
+      </c>
+      <c r="K269" t="n">
+        <v>129.0200675342437</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -4212,6 +9612,24 @@
       <c r="D270" t="n">
         <v>0.806864</v>
       </c>
+      <c r="F270" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-0.2307758202817922</v>
+      </c>
+      <c r="H270" t="n">
+        <v>186.68</v>
+      </c>
+      <c r="I270" t="n">
+        <v>186.9107758202818</v>
+      </c>
+      <c r="J270" t="n">
+        <v>186.8720453606247</v>
+      </c>
+      <c r="K270" t="n">
+        <v>186.7187304596571</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -4226,6 +9644,24 @@
       <c r="D271" t="n">
         <v>0.806812</v>
       </c>
+      <c r="F271" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-0.2205604927849549</v>
+      </c>
+      <c r="H271" t="n">
+        <v>147.17</v>
+      </c>
+      <c r="I271" t="n">
+        <v>147.3905604927849</v>
+      </c>
+      <c r="J271" t="n">
+        <v>147.3531112646699</v>
+      </c>
+      <c r="K271" t="n">
+        <v>147.207449228115</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -4240,6 +9676,24 @@
       <c r="D272" t="n">
         <v>0.806761</v>
       </c>
+      <c r="F272" t="n">
+        <v>65.99000000000001</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-0.2109163752635936</v>
+      </c>
+      <c r="H272" t="n">
+        <v>131.48</v>
+      </c>
+      <c r="I272" t="n">
+        <v>131.6909163752636</v>
+      </c>
+      <c r="J272" t="n">
+        <v>131.6546953281909</v>
+      </c>
+      <c r="K272" t="n">
+        <v>131.5162210470726</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -4254,6 +9708,24 @@
       <c r="D273" t="n">
         <v>0.806709</v>
       </c>
+      <c r="F273" t="n">
+        <v>65.89</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-0.2018049907789532</v>
+      </c>
+      <c r="H273" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="I273" t="n">
+        <v>163.701804990779</v>
+      </c>
+      <c r="J273" t="n">
+        <v>163.6667617045456</v>
+      </c>
+      <c r="K273" t="n">
+        <v>163.5350432862334</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -4268,6 +9740,24 @@
       <c r="D274" t="n">
         <v>0.806657</v>
       </c>
+      <c r="F274" t="n">
+        <v>65.78999999999999</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-0.1931908845366195</v>
+      </c>
+      <c r="H274" t="n">
+        <v>142.56</v>
+      </c>
+      <c r="I274" t="n">
+        <v>142.7531908845366</v>
+      </c>
+      <c r="J274" t="n">
+        <v>142.719277417704</v>
+      </c>
+      <c r="K274" t="n">
+        <v>142.5939134668326</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -4282,6 +9772,24 @@
       <c r="D275" t="n">
         <v>0.806605</v>
       </c>
+      <c r="F275" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-0.1850413535747464</v>
+      </c>
+      <c r="H275" t="n">
+        <v>137.88</v>
+      </c>
+      <c r="I275" t="n">
+        <v>138.0650413535747</v>
+      </c>
+      <c r="J275" t="n">
+        <v>138.032212101862</v>
+      </c>
+      <c r="K275" t="n">
+        <v>137.9128292517128</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -4296,6 +9804,24 @@
       <c r="D276" t="n">
         <v>0.806553</v>
       </c>
+      <c r="F276" t="n">
+        <v>65.59</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-0.1773262034974721</v>
+      </c>
+      <c r="H276" t="n">
+        <v>133.56</v>
+      </c>
+      <c r="I276" t="n">
+        <v>133.7373262034975</v>
+      </c>
+      <c r="J276" t="n">
+        <v>133.7055377673724</v>
+      </c>
+      <c r="K276" t="n">
+        <v>133.5917884361251</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -4310,6 +9836,24 @@
       <c r="D277" t="n">
         <v>0.806501</v>
       </c>
+      <c r="F277" t="n">
+        <v>65.49000000000001</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-0.1700175292683355</v>
+      </c>
+      <c r="H277" t="n">
+        <v>148.29</v>
+      </c>
+      <c r="I277" t="n">
+        <v>148.4600175292683</v>
+      </c>
+      <c r="J277" t="n">
+        <v>148.4292285900683</v>
+      </c>
+      <c r="K277" t="n">
+        <v>148.3207889392</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -4324,6 +9868,24 @@
       <c r="D278" t="n">
         <v>0.806449</v>
       </c>
+      <c r="F278" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-0.1630895174380953</v>
+      </c>
+      <c r="H278" t="n">
+        <v>154.05</v>
+      </c>
+      <c r="I278" t="n">
+        <v>154.2130895174381</v>
+      </c>
+      <c r="J278" t="n">
+        <v>154.183260721406</v>
+      </c>
+      <c r="K278" t="n">
+        <v>154.0798287960321</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -4338,6 +9900,24 @@
       <c r="D279" t="n">
         <v>0.806397</v>
       </c>
+      <c r="F279" t="n">
+        <v>65.28999999999999</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-0.1565182674944481</v>
+      </c>
+      <c r="H279" t="n">
+        <v>160.6</v>
+      </c>
+      <c r="I279" t="n">
+        <v>160.7565182674944</v>
+      </c>
+      <c r="J279" t="n">
+        <v>160.7276121171642</v>
+      </c>
+      <c r="K279" t="n">
+        <v>160.6289061503303</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -4352,6 +9932,24 @@
       <c r="D280" t="n">
         <v>0.806346</v>
       </c>
+      <c r="F280" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-0.1502816302922554</v>
+      </c>
+      <c r="H280" t="n">
+        <v>128.29</v>
+      </c>
+      <c r="I280" t="n">
+        <v>128.4402816302922</v>
+      </c>
+      <c r="J280" t="n">
+        <v>128.4122623827028</v>
+      </c>
+      <c r="K280" t="n">
+        <v>128.3180192475894</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -4366,6 +9964,24 @@
       <c r="D281" t="n">
         <v>0.806294</v>
       </c>
+      <c r="F281" t="n">
+        <v>65.09</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-0.1443590617625432</v>
+      </c>
+      <c r="H281" t="n">
+        <v>149.28</v>
+      </c>
+      <c r="I281" t="n">
+        <v>149.4243590617625</v>
+      </c>
+      <c r="J281" t="n">
+        <v>149.3971926330201</v>
+      </c>
+      <c r="K281" t="n">
+        <v>149.3071664287424</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -4380,9 +9996,28 @@
       <c r="D282" t="n">
         <v>0.806242</v>
       </c>
+      <c r="F282" t="n">
+        <v>64.99000000000001</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-0.138731490303968</v>
+      </c>
+      <c r="H282" t="n">
+        <v>168.73</v>
+      </c>
+      <c r="I282" t="n">
+        <v>168.868731490304</v>
+      </c>
+      <c r="J282" t="n">
+        <v>168.8423853660493</v>
+      </c>
+      <c r="K282" t="n">
+        <v>168.7563461242546</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4902,4 +10537,224 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="23" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="22" customWidth="1" min="21" max="21"/>
+    <col width="23" customWidth="1" min="22" max="22"/>
+    <col width="11" customWidth="1" min="23" max="23"/>
+    <col width="21" customWidth="1" min="24" max="24"/>
+    <col width="19" customWidth="1" min="25" max="25"/>
+    <col width="17" customWidth="1" min="26" max="26"/>
+    <col width="16" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
+    <col width="14" customWidth="1" min="29" max="29"/>
+    <col width="14" customWidth="1" min="30" max="30"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>Peak
+Label</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>Position
+(eV)</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>Height
+(CPS)</t>
+        </is>
+      </c>
+      <c r="E2" s="12" t="inlineStr">
+        <is>
+          <t>FWHM
+(eV)</t>
+        </is>
+      </c>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>L/G 
+σ/γ (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="12" t="inlineStr">
+        <is>
+          <t>Area
+(CPS.eV)</t>
+        </is>
+      </c>
+      <c r="H2" s="12" t="inlineStr">
+        <is>
+          <t>Atomic
+(%)</t>
+        </is>
+      </c>
+      <c r="I2" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J2" s="12" t="inlineStr">
+        <is>
+          <t>RSF</t>
+        </is>
+      </c>
+      <c r="K2" s="12" t="inlineStr">
+        <is>
+          <t>TXFN</t>
+        </is>
+      </c>
+      <c r="L2" s="12" t="inlineStr">
+        <is>
+          <t>ECF</t>
+        </is>
+      </c>
+      <c r="M2" s="12" t="inlineStr">
+        <is>
+          <t>Instr.</t>
+        </is>
+      </c>
+      <c r="N2" s="12" t="inlineStr">
+        <is>
+          <t>Fitting Model</t>
+        </is>
+      </c>
+      <c r="O2" s="12" t="inlineStr">
+        <is>
+          <t>Corr. Area
+ Ac (a.u.)</t>
+        </is>
+      </c>
+      <c r="P2" s="12" t="inlineStr">
+        <is>
+          <t>σ or α
+W_g</t>
+        </is>
+      </c>
+      <c r="Q2" s="12" t="inlineStr">
+        <is>
+          <t>γ or β
+W_l</t>
+        </is>
+      </c>
+      <c r="R2" s="12" t="inlineStr">
+        <is>
+          <t>Bkg Type</t>
+        </is>
+      </c>
+      <c r="S2" s="12" t="inlineStr">
+        <is>
+          <t>Bkg Low
+(eV)</t>
+        </is>
+      </c>
+      <c r="T2" s="12" t="inlineStr">
+        <is>
+          <t>Bkg High
+(eV)</t>
+        </is>
+      </c>
+      <c r="U2" s="12" t="inlineStr">
+        <is>
+          <t>Bkg Offset Low
+(CPS)</t>
+        </is>
+      </c>
+      <c r="V2" s="12" t="inlineStr">
+        <is>
+          <t>Bkg Offset High
+(CPS)</t>
+        </is>
+      </c>
+      <c r="W2" s="12" t="inlineStr">
+        <is>
+          <t>Sheetname</t>
+        </is>
+      </c>
+      <c r="X2" s="12" t="inlineStr">
+        <is>
+          <t>Position
+Constraint</t>
+        </is>
+      </c>
+      <c r="Y2" s="12" t="inlineStr">
+        <is>
+          <t>Height
+Constraint</t>
+        </is>
+      </c>
+      <c r="Z2" s="12" t="inlineStr">
+        <is>
+          <t>FWHM
+Constraint</t>
+        </is>
+      </c>
+      <c r="AA2" s="12" t="inlineStr">
+        <is>
+          <t>L/G
+Constraint</t>
+        </is>
+      </c>
+      <c r="AB2" s="12" t="inlineStr">
+        <is>
+          <t>Area
+Constraint</t>
+        </is>
+      </c>
+      <c r="AC2" s="12" t="inlineStr">
+        <is>
+          <t>σ
+Constraint</t>
+        </is>
+      </c>
+      <c r="AD2" s="12" t="inlineStr">
+        <is>
+          <t>γ
+Constraint</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/DATA/UKSAF/Pt4f.xlsx
+++ b/DATA/UKSAF/Pt4f.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pt4f" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Experimental description" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results Table" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ti2p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Experimental description" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results Table" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -123,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -148,6 +149,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10027,6 +10031,3841 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D272"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="B1" s="13" t="inlineStr">
+        <is>
+          <t>Raw Data</t>
+        </is>
+      </c>
+      <c r="C1" s="13" t="inlineStr">
+        <is>
+          <t>Background</t>
+        </is>
+      </c>
+      <c r="D1" s="13" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>475.08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>39754.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>39754.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>474.98</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39971.8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39971.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>474.88</v>
+      </c>
+      <c r="B4" t="n">
+        <v>39341.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39341.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>474.78</v>
+      </c>
+      <c r="B5" t="n">
+        <v>39615.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39615.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>474.68</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40459.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40459.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>474.58</v>
+      </c>
+      <c r="B7" t="n">
+        <v>40072.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40072.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>474.48</v>
+      </c>
+      <c r="B8" t="n">
+        <v>39748.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39748.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>474.38</v>
+      </c>
+      <c r="B9" t="n">
+        <v>39559.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>39559.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>474.28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>39920.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>39920.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>474.18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>39662</v>
+      </c>
+      <c r="C11" t="n">
+        <v>39662</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>474.08</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40092</v>
+      </c>
+      <c r="C12" t="n">
+        <v>40092</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>473.98</v>
+      </c>
+      <c r="B13" t="n">
+        <v>40064.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>40064.8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>473.88</v>
+      </c>
+      <c r="B14" t="n">
+        <v>39726.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39726.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>473.78</v>
+      </c>
+      <c r="B15" t="n">
+        <v>40747.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40747.4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>473.68</v>
+      </c>
+      <c r="B16" t="n">
+        <v>41280.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>41280.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>473.58</v>
+      </c>
+      <c r="B17" t="n">
+        <v>40728.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40728.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>473.48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>41425.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>41425.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>473.38</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41429.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>41429.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>473.28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>41728.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>41728.1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>473.18</v>
+      </c>
+      <c r="B21" t="n">
+        <v>41685.1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>41685.1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>473.08</v>
+      </c>
+      <c r="B22" t="n">
+        <v>41736.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>41736.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>472.98</v>
+      </c>
+      <c r="B23" t="n">
+        <v>42194.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>42194.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>472.88</v>
+      </c>
+      <c r="B24" t="n">
+        <v>42707.3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>42707.3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>472.78</v>
+      </c>
+      <c r="B25" t="n">
+        <v>42958.4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>42958.4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>472.68</v>
+      </c>
+      <c r="B26" t="n">
+        <v>42753.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>42753.2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>472.58</v>
+      </c>
+      <c r="B27" t="n">
+        <v>43503</v>
+      </c>
+      <c r="C27" t="n">
+        <v>43503</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>472.48</v>
+      </c>
+      <c r="B28" t="n">
+        <v>43487.1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>43487.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>472.38</v>
+      </c>
+      <c r="B29" t="n">
+        <v>43224.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>43224.6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>472.28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>43880.6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>43880.6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>472.18</v>
+      </c>
+      <c r="B31" t="n">
+        <v>43020.9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>43020.9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>472.08</v>
+      </c>
+      <c r="B32" t="n">
+        <v>43735.4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>43735.4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>471.98</v>
+      </c>
+      <c r="B33" t="n">
+        <v>43776.9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>43776.9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>471.88</v>
+      </c>
+      <c r="B34" t="n">
+        <v>43034.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>43034.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>471.78</v>
+      </c>
+      <c r="B35" t="n">
+        <v>44211.1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>44211.1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>471.68</v>
+      </c>
+      <c r="B36" t="n">
+        <v>43680.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>43680.1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>471.58</v>
+      </c>
+      <c r="B37" t="n">
+        <v>42857.2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>42857.2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>471.48</v>
+      </c>
+      <c r="B38" t="n">
+        <v>42952.2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>42952.2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>471.38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>43123.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>43123.5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>471.28</v>
+      </c>
+      <c r="B40" t="n">
+        <v>43073.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>43073.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>471.18</v>
+      </c>
+      <c r="B41" t="n">
+        <v>43506</v>
+      </c>
+      <c r="C41" t="n">
+        <v>43506</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>471.08</v>
+      </c>
+      <c r="B42" t="n">
+        <v>43038.8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>43038.8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>470.98</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42615.4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>42615.4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>470.88</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42516.5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42516.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>470.78</v>
+      </c>
+      <c r="B45" t="n">
+        <v>42618.4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>42618.4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>470.68</v>
+      </c>
+      <c r="B46" t="n">
+        <v>42022.7</v>
+      </c>
+      <c r="C46" t="n">
+        <v>42022.7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>470.58</v>
+      </c>
+      <c r="B47" t="n">
+        <v>41575.6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>41575.6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>470.48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>41282.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>41282.9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>470.38</v>
+      </c>
+      <c r="B49" t="n">
+        <v>41105.6</v>
+      </c>
+      <c r="C49" t="n">
+        <v>41105.6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>470.28</v>
+      </c>
+      <c r="B50" t="n">
+        <v>40732.2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>40732.2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>470.18</v>
+      </c>
+      <c r="B51" t="n">
+        <v>40497.5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>40497.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>470.08</v>
+      </c>
+      <c r="B52" t="n">
+        <v>40692.9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>40692.9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>469.98</v>
+      </c>
+      <c r="B53" t="n">
+        <v>40088.3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>40088.3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>469.88</v>
+      </c>
+      <c r="B54" t="n">
+        <v>40540.7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>40540.7</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>469.78</v>
+      </c>
+      <c r="B55" t="n">
+        <v>40112</v>
+      </c>
+      <c r="C55" t="n">
+        <v>40112</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>469.68</v>
+      </c>
+      <c r="B56" t="n">
+        <v>39632.5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>39632.5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>469.58</v>
+      </c>
+      <c r="B57" t="n">
+        <v>39119.8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>39119.8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>469.48</v>
+      </c>
+      <c r="B58" t="n">
+        <v>39416.4</v>
+      </c>
+      <c r="C58" t="n">
+        <v>39416.4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>469.38</v>
+      </c>
+      <c r="B59" t="n">
+        <v>39218</v>
+      </c>
+      <c r="C59" t="n">
+        <v>39218</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>469.28</v>
+      </c>
+      <c r="B60" t="n">
+        <v>39187.2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>39187.2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>469.18</v>
+      </c>
+      <c r="B61" t="n">
+        <v>38351.3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>38351.3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>469.08</v>
+      </c>
+      <c r="B62" t="n">
+        <v>38289.6</v>
+      </c>
+      <c r="C62" t="n">
+        <v>38289.6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>468.98</v>
+      </c>
+      <c r="B63" t="n">
+        <v>37882.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>37882.1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>468.88</v>
+      </c>
+      <c r="B64" t="n">
+        <v>38425.6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>38425.6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>468.78</v>
+      </c>
+      <c r="B65" t="n">
+        <v>38451</v>
+      </c>
+      <c r="C65" t="n">
+        <v>38451</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>468.68</v>
+      </c>
+      <c r="B66" t="n">
+        <v>37652.8</v>
+      </c>
+      <c r="C66" t="n">
+        <v>37652.8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>468.58</v>
+      </c>
+      <c r="B67" t="n">
+        <v>37679.5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>37679.5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>468.48</v>
+      </c>
+      <c r="B68" t="n">
+        <v>36974.1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>36974.1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>468.38</v>
+      </c>
+      <c r="B69" t="n">
+        <v>36456.5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>36456.5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>468.28</v>
+      </c>
+      <c r="B70" t="n">
+        <v>36153.1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>36153.1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>468.18</v>
+      </c>
+      <c r="B71" t="n">
+        <v>36563.3</v>
+      </c>
+      <c r="C71" t="n">
+        <v>36563.3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>468.08</v>
+      </c>
+      <c r="B72" t="n">
+        <v>36024.3</v>
+      </c>
+      <c r="C72" t="n">
+        <v>36024.3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>467.98</v>
+      </c>
+      <c r="B73" t="n">
+        <v>36762</v>
+      </c>
+      <c r="C73" t="n">
+        <v>36762</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>467.88</v>
+      </c>
+      <c r="B74" t="n">
+        <v>36482.3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>36482.3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>467.78</v>
+      </c>
+      <c r="B75" t="n">
+        <v>35682.1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>35682.1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>467.68</v>
+      </c>
+      <c r="B76" t="n">
+        <v>36001.6</v>
+      </c>
+      <c r="C76" t="n">
+        <v>36001.6</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>467.58</v>
+      </c>
+      <c r="B77" t="n">
+        <v>35875.7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>35875.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>467.48</v>
+      </c>
+      <c r="B78" t="n">
+        <v>36327.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>36327.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>467.38</v>
+      </c>
+      <c r="B79" t="n">
+        <v>35330.9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>35330.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>467.28</v>
+      </c>
+      <c r="B80" t="n">
+        <v>36305.9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>35911.4</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>467.18</v>
+      </c>
+      <c r="B81" t="n">
+        <v>35775.8</v>
+      </c>
+      <c r="C81" t="n">
+        <v>35837.09</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>467.08</v>
+      </c>
+      <c r="B82" t="n">
+        <v>35652.5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>35836.59</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>466.98</v>
+      </c>
+      <c r="B83" t="n">
+        <v>35385.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>35836.98</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>466.88</v>
+      </c>
+      <c r="B84" t="n">
+        <v>36313</v>
+      </c>
+      <c r="C84" t="n">
+        <v>35837.94</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>466.78</v>
+      </c>
+      <c r="B85" t="n">
+        <v>36285.8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>35837.89</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>466.68</v>
+      </c>
+      <c r="B86" t="n">
+        <v>36279.6</v>
+      </c>
+      <c r="C86" t="n">
+        <v>35836.47</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>466.58</v>
+      </c>
+      <c r="B87" t="n">
+        <v>36632.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>35835.09</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>466.48</v>
+      </c>
+      <c r="B88" t="n">
+        <v>37237.3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>35833.16</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>466.38</v>
+      </c>
+      <c r="B89" t="n">
+        <v>37359.8</v>
+      </c>
+      <c r="C89" t="n">
+        <v>35829.75</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>466.28</v>
+      </c>
+      <c r="B90" t="n">
+        <v>38475.3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>35825.2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>466.18</v>
+      </c>
+      <c r="B91" t="n">
+        <v>37899.7</v>
+      </c>
+      <c r="C91" t="n">
+        <v>35818.75</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>466.08</v>
+      </c>
+      <c r="B92" t="n">
+        <v>37570.5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>35811.48</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>465.98</v>
+      </c>
+      <c r="B93" t="n">
+        <v>38412.2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>35805.55</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>465.88</v>
+      </c>
+      <c r="B94" t="n">
+        <v>38787</v>
+      </c>
+      <c r="C94" t="n">
+        <v>35798.78</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>465.78</v>
+      </c>
+      <c r="B95" t="n">
+        <v>39270.7</v>
+      </c>
+      <c r="C95" t="n">
+        <v>35790.13</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>465.68</v>
+      </c>
+      <c r="B96" t="n">
+        <v>39573.3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>35780.13</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>465.58</v>
+      </c>
+      <c r="B97" t="n">
+        <v>40278.3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>35768.87</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>465.48</v>
+      </c>
+      <c r="B98" t="n">
+        <v>40182.2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>35756.03</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>465.38</v>
+      </c>
+      <c r="B99" t="n">
+        <v>40908.6</v>
+      </c>
+      <c r="C99" t="n">
+        <v>35742.22</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>465.28</v>
+      </c>
+      <c r="B100" t="n">
+        <v>41359.4</v>
+      </c>
+      <c r="C100" t="n">
+        <v>35727.35</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>465.18</v>
+      </c>
+      <c r="B101" t="n">
+        <v>42018.6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>35710.62</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>465.08</v>
+      </c>
+      <c r="B102" t="n">
+        <v>43477.4</v>
+      </c>
+      <c r="C102" t="n">
+        <v>35692.04</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>464.98</v>
+      </c>
+      <c r="B103" t="n">
+        <v>44431.8</v>
+      </c>
+      <c r="C103" t="n">
+        <v>35670.1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>464.88</v>
+      </c>
+      <c r="B104" t="n">
+        <v>45237.4</v>
+      </c>
+      <c r="C104" t="n">
+        <v>35644.37</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>464.78</v>
+      </c>
+      <c r="B105" t="n">
+        <v>46298.1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>35615.82</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>464.68</v>
+      </c>
+      <c r="B106" t="n">
+        <v>48371.8</v>
+      </c>
+      <c r="C106" t="n">
+        <v>35584.13</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>464.58</v>
+      </c>
+      <c r="B107" t="n">
+        <v>49874.7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>35547.38</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>464.48</v>
+      </c>
+      <c r="B108" t="n">
+        <v>52045.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>35504.89</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>464.38</v>
+      </c>
+      <c r="B109" t="n">
+        <v>53500.1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>35456.47</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>464.28</v>
+      </c>
+      <c r="B110" t="n">
+        <v>56491.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>35402.04</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>464.18</v>
+      </c>
+      <c r="B111" t="n">
+        <v>58241.6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>35340.32</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>464.08</v>
+      </c>
+      <c r="B112" t="n">
+        <v>58492.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>35271.36</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>463.98</v>
+      </c>
+      <c r="B113" t="n">
+        <v>59993.4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>35199.04</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>463.88</v>
+      </c>
+      <c r="B114" t="n">
+        <v>60943.2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>35123.52</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>463.78</v>
+      </c>
+      <c r="B115" t="n">
+        <v>60757.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>35044.25</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>463.68</v>
+      </c>
+      <c r="B116" t="n">
+        <v>61064.9</v>
+      </c>
+      <c r="C116" t="n">
+        <v>34963.67</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>463.58</v>
+      </c>
+      <c r="B117" t="n">
+        <v>60081.4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>34882.89</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>463.48</v>
+      </c>
+      <c r="B118" t="n">
+        <v>58455.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>34803.56</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>463.38</v>
+      </c>
+      <c r="B119" t="n">
+        <v>57070.7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>34728.31</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>463.28</v>
+      </c>
+      <c r="B120" t="n">
+        <v>54895.6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>34657.83</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>463.18</v>
+      </c>
+      <c r="B121" t="n">
+        <v>53543.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>34592.81</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>463.08</v>
+      </c>
+      <c r="B122" t="n">
+        <v>52083.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>34532.9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>462.98</v>
+      </c>
+      <c r="B123" t="n">
+        <v>50127</v>
+      </c>
+      <c r="C123" t="n">
+        <v>34477.52</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>462.88</v>
+      </c>
+      <c r="B124" t="n">
+        <v>48588.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>34427.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>462.78</v>
+      </c>
+      <c r="B125" t="n">
+        <v>47326.9</v>
+      </c>
+      <c r="C125" t="n">
+        <v>34382.34</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>462.68</v>
+      </c>
+      <c r="B126" t="n">
+        <v>46217.6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>34341.35</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>462.58</v>
+      </c>
+      <c r="B127" t="n">
+        <v>45448.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>34303.72</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>462.48</v>
+      </c>
+      <c r="B128" t="n">
+        <v>44004.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>34269.08</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>462.38</v>
+      </c>
+      <c r="B129" t="n">
+        <v>42300.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>34238.26</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>462.28</v>
+      </c>
+      <c r="B130" t="n">
+        <v>41976.4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>34211.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>462.18</v>
+      </c>
+      <c r="B131" t="n">
+        <v>40976</v>
+      </c>
+      <c r="C131" t="n">
+        <v>34187.87</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>462.08</v>
+      </c>
+      <c r="B132" t="n">
+        <v>39662.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>34166.54</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>461.98</v>
+      </c>
+      <c r="B133" t="n">
+        <v>39619.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>34148.24</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>461.88</v>
+      </c>
+      <c r="B134" t="n">
+        <v>39377.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>34131.44</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>461.78</v>
+      </c>
+      <c r="B135" t="n">
+        <v>38388.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>34115.52</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>461.68</v>
+      </c>
+      <c r="B136" t="n">
+        <v>38223</v>
+      </c>
+      <c r="C136" t="n">
+        <v>34101.42</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>461.58</v>
+      </c>
+      <c r="B137" t="n">
+        <v>36865.2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>34089.26</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>461.48</v>
+      </c>
+      <c r="B138" t="n">
+        <v>36879.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>34079.33</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>461.38</v>
+      </c>
+      <c r="B139" t="n">
+        <v>36851.5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>34070.73</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>461.28</v>
+      </c>
+      <c r="B140" t="n">
+        <v>36886.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>34062.12</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>461.18</v>
+      </c>
+      <c r="B141" t="n">
+        <v>36040.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>34053.91</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>461.08</v>
+      </c>
+      <c r="B142" t="n">
+        <v>36166.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>34046.87</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>460.98</v>
+      </c>
+      <c r="B143" t="n">
+        <v>36580.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>34040.25</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>460.88</v>
+      </c>
+      <c r="B144" t="n">
+        <v>36225.1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>34033.03</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>460.78</v>
+      </c>
+      <c r="B145" t="n">
+        <v>36968.4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>34025.52</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>460.68</v>
+      </c>
+      <c r="B146" t="n">
+        <v>36678</v>
+      </c>
+      <c r="C146" t="n">
+        <v>34017.35</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>460.58</v>
+      </c>
+      <c r="B147" t="n">
+        <v>36365.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>34009.03</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>460.48</v>
+      </c>
+      <c r="B148" t="n">
+        <v>36258.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>34001.53</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>460.38</v>
+      </c>
+      <c r="B149" t="n">
+        <v>36255.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>33994.47</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>460.28</v>
+      </c>
+      <c r="B150" t="n">
+        <v>36053.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>33987.61</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>460.18</v>
+      </c>
+      <c r="B151" t="n">
+        <v>36402</v>
+      </c>
+      <c r="C151" t="n">
+        <v>33980.86</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>460.08</v>
+      </c>
+      <c r="B152" t="n">
+        <v>37028.1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>33973.39</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>459.98</v>
+      </c>
+      <c r="B153" t="n">
+        <v>37042</v>
+      </c>
+      <c r="C153" t="n">
+        <v>33964.58</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>459.88</v>
+      </c>
+      <c r="B154" t="n">
+        <v>37572.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>33954.81</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>459.78</v>
+      </c>
+      <c r="B155" t="n">
+        <v>37672.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>33944.12</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>459.68</v>
+      </c>
+      <c r="B156" t="n">
+        <v>37673</v>
+      </c>
+      <c r="C156" t="n">
+        <v>33932.72</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>459.58</v>
+      </c>
+      <c r="B157" t="n">
+        <v>37782.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>33921.12</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>459.48</v>
+      </c>
+      <c r="B158" t="n">
+        <v>38926.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>33908.66</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>459.38</v>
+      </c>
+      <c r="B159" t="n">
+        <v>39739.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>33893.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>459.28</v>
+      </c>
+      <c r="B160" t="n">
+        <v>40351</v>
+      </c>
+      <c r="C160" t="n">
+        <v>33876.17</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>459.18</v>
+      </c>
+      <c r="B161" t="n">
+        <v>41886</v>
+      </c>
+      <c r="C161" t="n">
+        <v>33855.84</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>459.08</v>
+      </c>
+      <c r="B162" t="n">
+        <v>44103.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>33831.14</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>458.98</v>
+      </c>
+      <c r="B163" t="n">
+        <v>47130.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>33799.57</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>458.88</v>
+      </c>
+      <c r="B164" t="n">
+        <v>50709.4</v>
+      </c>
+      <c r="C164" t="n">
+        <v>33758.82</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>458.78</v>
+      </c>
+      <c r="B165" t="n">
+        <v>55999.6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>33706.05</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>458.68</v>
+      </c>
+      <c r="B166" t="n">
+        <v>62969.8</v>
+      </c>
+      <c r="C166" t="n">
+        <v>33636.73</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>458.58</v>
+      </c>
+      <c r="B167" t="n">
+        <v>71303.89999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>33545.35</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>458.48</v>
+      </c>
+      <c r="B168" t="n">
+        <v>81636.39999999999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>33426.25</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>458.38</v>
+      </c>
+      <c r="B169" t="n">
+        <v>92709.10000000001</v>
+      </c>
+      <c r="C169" t="n">
+        <v>33273.65</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>458.28</v>
+      </c>
+      <c r="B170" t="n">
+        <v>103772</v>
+      </c>
+      <c r="C170" t="n">
+        <v>33083.73</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>458.18</v>
+      </c>
+      <c r="B171" t="n">
+        <v>113444</v>
+      </c>
+      <c r="C171" t="n">
+        <v>32856.27</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>458.08</v>
+      </c>
+      <c r="B172" t="n">
+        <v>119024</v>
+      </c>
+      <c r="C172" t="n">
+        <v>32597.08</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>457.98</v>
+      </c>
+      <c r="B173" t="n">
+        <v>120755</v>
+      </c>
+      <c r="C173" t="n">
+        <v>32318.49</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>457.88</v>
+      </c>
+      <c r="B174" t="n">
+        <v>117239</v>
+      </c>
+      <c r="C174" t="n">
+        <v>32036.54</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>457.78</v>
+      </c>
+      <c r="B175" t="n">
+        <v>108874</v>
+      </c>
+      <c r="C175" t="n">
+        <v>31769.52</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>457.68</v>
+      </c>
+      <c r="B176" t="n">
+        <v>97209</v>
+      </c>
+      <c r="C176" t="n">
+        <v>31533.4</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>457.58</v>
+      </c>
+      <c r="B177" t="n">
+        <v>86220.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>31334.9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>457.48</v>
+      </c>
+      <c r="B178" t="n">
+        <v>73988.89999999999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>31175.12</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>457.38</v>
+      </c>
+      <c r="B179" t="n">
+        <v>64204.4</v>
+      </c>
+      <c r="C179" t="n">
+        <v>31051.83</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>457.28</v>
+      </c>
+      <c r="B180" t="n">
+        <v>55645.9</v>
+      </c>
+      <c r="C180" t="n">
+        <v>30958.84</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>457.18</v>
+      </c>
+      <c r="B181" t="n">
+        <v>49088.4</v>
+      </c>
+      <c r="C181" t="n">
+        <v>30890.4</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>457.08</v>
+      </c>
+      <c r="B182" t="n">
+        <v>44998.2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>30839.21</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>456.98</v>
+      </c>
+      <c r="B183" t="n">
+        <v>41793.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>30799.7</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>456.88</v>
+      </c>
+      <c r="B184" t="n">
+        <v>38432.4</v>
+      </c>
+      <c r="C184" t="n">
+        <v>30770.43</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>456.78</v>
+      </c>
+      <c r="B185" t="n">
+        <v>37270.1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>30748.28</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>456.68</v>
+      </c>
+      <c r="B186" t="n">
+        <v>36334.8</v>
+      </c>
+      <c r="C186" t="n">
+        <v>30729.46</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>456.58</v>
+      </c>
+      <c r="B187" t="n">
+        <v>34625.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>30714.67</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>456.48</v>
+      </c>
+      <c r="B188" t="n">
+        <v>34150.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>30703.24</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>456.38</v>
+      </c>
+      <c r="B189" t="n">
+        <v>33500.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>30693.56</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>456.28</v>
+      </c>
+      <c r="B190" t="n">
+        <v>32882.3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>30685.81</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>456.18</v>
+      </c>
+      <c r="B191" t="n">
+        <v>32781.7</v>
+      </c>
+      <c r="C191" t="n">
+        <v>30679.17</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>456.08</v>
+      </c>
+      <c r="B192" t="n">
+        <v>31582.9</v>
+      </c>
+      <c r="C192" t="n">
+        <v>30674.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>455.98</v>
+      </c>
+      <c r="B193" t="n">
+        <v>32062.6</v>
+      </c>
+      <c r="C193" t="n">
+        <v>30670.94</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>455.88</v>
+      </c>
+      <c r="B194" t="n">
+        <v>32227.9</v>
+      </c>
+      <c r="C194" t="n">
+        <v>30666.41</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>455.78</v>
+      </c>
+      <c r="B195" t="n">
+        <v>31659.9</v>
+      </c>
+      <c r="C195" t="n">
+        <v>30662.46</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>455.68</v>
+      </c>
+      <c r="B196" t="n">
+        <v>31408.9</v>
+      </c>
+      <c r="C196" t="n">
+        <v>30659.75</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>455.58</v>
+      </c>
+      <c r="B197" t="n">
+        <v>31413.7</v>
+      </c>
+      <c r="C197" t="n">
+        <v>30657.43</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>455.48</v>
+      </c>
+      <c r="B198" t="n">
+        <v>31525.9</v>
+      </c>
+      <c r="C198" t="n">
+        <v>30654.93</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>455.38</v>
+      </c>
+      <c r="B199" t="n">
+        <v>30839.3</v>
+      </c>
+      <c r="C199" t="n">
+        <v>30653.29</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>455.28</v>
+      </c>
+      <c r="B200" t="n">
+        <v>31315</v>
+      </c>
+      <c r="C200" t="n">
+        <v>30651.98</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>455.18</v>
+      </c>
+      <c r="B201" t="n">
+        <v>30985.2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>30650.44</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>455.08</v>
+      </c>
+      <c r="B202" t="n">
+        <v>30875.4</v>
+      </c>
+      <c r="C202" t="n">
+        <v>30649.57</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>454.98</v>
+      </c>
+      <c r="B203" t="n">
+        <v>30713.9</v>
+      </c>
+      <c r="C203" t="n">
+        <v>30649.12</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>454.88</v>
+      </c>
+      <c r="B204" t="n">
+        <v>30565.6</v>
+      </c>
+      <c r="C204" t="n">
+        <v>30649.15</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>454.78</v>
+      </c>
+      <c r="B205" t="n">
+        <v>30870.9</v>
+      </c>
+      <c r="C205" t="n">
+        <v>30648.94</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>454.68</v>
+      </c>
+      <c r="B206" t="n">
+        <v>31009.2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>30648.05</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>454.58</v>
+      </c>
+      <c r="B207" t="n">
+        <v>31029.9</v>
+      </c>
+      <c r="C207" t="n">
+        <v>30646.9</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>454.48</v>
+      </c>
+      <c r="B208" t="n">
+        <v>30333.4</v>
+      </c>
+      <c r="C208" t="n">
+        <v>30646.78</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>454.38</v>
+      </c>
+      <c r="B209" t="n">
+        <v>30287.4</v>
+      </c>
+      <c r="C209" t="n">
+        <v>30647.81</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>454.28</v>
+      </c>
+      <c r="B210" t="n">
+        <v>30217.2</v>
+      </c>
+      <c r="C210" t="n">
+        <v>30649.03</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>454.18</v>
+      </c>
+      <c r="B211" t="n">
+        <v>30891.8</v>
+      </c>
+      <c r="C211" t="n">
+        <v>30649.33</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>454.08</v>
+      </c>
+      <c r="B212" t="n">
+        <v>30333.1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>30649.44</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>453.98</v>
+      </c>
+      <c r="B213" t="n">
+        <v>30538.3</v>
+      </c>
+      <c r="C213" t="n">
+        <v>30650.1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>453.88</v>
+      </c>
+      <c r="B214" t="n">
+        <v>30385.8</v>
+      </c>
+      <c r="C214" t="n">
+        <v>30385.8</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>453.78</v>
+      </c>
+      <c r="B215" t="n">
+        <v>30989.1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>30989.1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>453.68</v>
+      </c>
+      <c r="B216" t="n">
+        <v>30624.1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>30624.1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>453.58</v>
+      </c>
+      <c r="B217" t="n">
+        <v>30723.4</v>
+      </c>
+      <c r="C217" t="n">
+        <v>30723.4</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>453.48</v>
+      </c>
+      <c r="B218" t="n">
+        <v>30451.6</v>
+      </c>
+      <c r="C218" t="n">
+        <v>30451.6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>453.38</v>
+      </c>
+      <c r="B219" t="n">
+        <v>30635.9</v>
+      </c>
+      <c r="C219" t="n">
+        <v>30635.9</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>453.28</v>
+      </c>
+      <c r="B220" t="n">
+        <v>30125.8</v>
+      </c>
+      <c r="C220" t="n">
+        <v>30125.8</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>453.18</v>
+      </c>
+      <c r="B221" t="n">
+        <v>30531</v>
+      </c>
+      <c r="C221" t="n">
+        <v>30531</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>453.08</v>
+      </c>
+      <c r="B222" t="n">
+        <v>30227.4</v>
+      </c>
+      <c r="C222" t="n">
+        <v>30227.4</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>452.98</v>
+      </c>
+      <c r="B223" t="n">
+        <v>30296</v>
+      </c>
+      <c r="C223" t="n">
+        <v>30296</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>452.88</v>
+      </c>
+      <c r="B224" t="n">
+        <v>30264.3</v>
+      </c>
+      <c r="C224" t="n">
+        <v>30264.3</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>452.78</v>
+      </c>
+      <c r="B225" t="n">
+        <v>30284.3</v>
+      </c>
+      <c r="C225" t="n">
+        <v>30284.3</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>452.68</v>
+      </c>
+      <c r="B226" t="n">
+        <v>30439.6</v>
+      </c>
+      <c r="C226" t="n">
+        <v>30439.6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>452.58</v>
+      </c>
+      <c r="B227" t="n">
+        <v>30214.6</v>
+      </c>
+      <c r="C227" t="n">
+        <v>30214.6</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>452.48</v>
+      </c>
+      <c r="B228" t="n">
+        <v>30825.9</v>
+      </c>
+      <c r="C228" t="n">
+        <v>30825.9</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>452.38</v>
+      </c>
+      <c r="B229" t="n">
+        <v>30212.1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>30212.1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>452.28</v>
+      </c>
+      <c r="B230" t="n">
+        <v>30610.7</v>
+      </c>
+      <c r="C230" t="n">
+        <v>30610.7</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>452.18</v>
+      </c>
+      <c r="B231" t="n">
+        <v>30346.7</v>
+      </c>
+      <c r="C231" t="n">
+        <v>30346.7</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>452.08</v>
+      </c>
+      <c r="B232" t="n">
+        <v>29739.6</v>
+      </c>
+      <c r="C232" t="n">
+        <v>29739.6</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>451.98</v>
+      </c>
+      <c r="B233" t="n">
+        <v>30374</v>
+      </c>
+      <c r="C233" t="n">
+        <v>30374</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>451.88</v>
+      </c>
+      <c r="B234" t="n">
+        <v>30580.4</v>
+      </c>
+      <c r="C234" t="n">
+        <v>30580.4</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>451.78</v>
+      </c>
+      <c r="B235" t="n">
+        <v>30454.1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>30454.1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>451.68</v>
+      </c>
+      <c r="B236" t="n">
+        <v>29955.2</v>
+      </c>
+      <c r="C236" t="n">
+        <v>29955.2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>451.58</v>
+      </c>
+      <c r="B237" t="n">
+        <v>30165.1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>30165.1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>451.48</v>
+      </c>
+      <c r="B238" t="n">
+        <v>30325.2</v>
+      </c>
+      <c r="C238" t="n">
+        <v>30325.2</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>451.38</v>
+      </c>
+      <c r="B239" t="n">
+        <v>30971.6</v>
+      </c>
+      <c r="C239" t="n">
+        <v>30971.6</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>451.28</v>
+      </c>
+      <c r="B240" t="n">
+        <v>30521.3</v>
+      </c>
+      <c r="C240" t="n">
+        <v>30521.3</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>451.18</v>
+      </c>
+      <c r="B241" t="n">
+        <v>30670.1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>30670.1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>451.08</v>
+      </c>
+      <c r="B242" t="n">
+        <v>30170.9</v>
+      </c>
+      <c r="C242" t="n">
+        <v>30170.9</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>450.98</v>
+      </c>
+      <c r="B243" t="n">
+        <v>30373.3</v>
+      </c>
+      <c r="C243" t="n">
+        <v>30373.3</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>450.88</v>
+      </c>
+      <c r="B244" t="n">
+        <v>30766</v>
+      </c>
+      <c r="C244" t="n">
+        <v>30766</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>450.78</v>
+      </c>
+      <c r="B245" t="n">
+        <v>30578.8</v>
+      </c>
+      <c r="C245" t="n">
+        <v>30578.8</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>450.68</v>
+      </c>
+      <c r="B246" t="n">
+        <v>29672.6</v>
+      </c>
+      <c r="C246" t="n">
+        <v>29672.6</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>450.58</v>
+      </c>
+      <c r="B247" t="n">
+        <v>30111</v>
+      </c>
+      <c r="C247" t="n">
+        <v>30111</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>450.48</v>
+      </c>
+      <c r="B248" t="n">
+        <v>30286.2</v>
+      </c>
+      <c r="C248" t="n">
+        <v>30286.2</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>450.38</v>
+      </c>
+      <c r="B249" t="n">
+        <v>30475.6</v>
+      </c>
+      <c r="C249" t="n">
+        <v>30475.6</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="B250" t="n">
+        <v>30163.7</v>
+      </c>
+      <c r="C250" t="n">
+        <v>30163.7</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>450.18</v>
+      </c>
+      <c r="B251" t="n">
+        <v>30019.2</v>
+      </c>
+      <c r="C251" t="n">
+        <v>30019.2</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>450.08</v>
+      </c>
+      <c r="B252" t="n">
+        <v>29831.2</v>
+      </c>
+      <c r="C252" t="n">
+        <v>29831.2</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>449.98</v>
+      </c>
+      <c r="B253" t="n">
+        <v>30011.3</v>
+      </c>
+      <c r="C253" t="n">
+        <v>30011.3</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>449.88</v>
+      </c>
+      <c r="B254" t="n">
+        <v>30570.4</v>
+      </c>
+      <c r="C254" t="n">
+        <v>30570.4</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>449.78</v>
+      </c>
+      <c r="B255" t="n">
+        <v>29994.1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>29994.1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>449.68</v>
+      </c>
+      <c r="B256" t="n">
+        <v>30867.8</v>
+      </c>
+      <c r="C256" t="n">
+        <v>30867.8</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>449.58</v>
+      </c>
+      <c r="B257" t="n">
+        <v>30532.7</v>
+      </c>
+      <c r="C257" t="n">
+        <v>30532.7</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>449.48</v>
+      </c>
+      <c r="B258" t="n">
+        <v>30713.9</v>
+      </c>
+      <c r="C258" t="n">
+        <v>30713.9</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>449.38</v>
+      </c>
+      <c r="B259" t="n">
+        <v>30454.5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>30454.5</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>449.28</v>
+      </c>
+      <c r="B260" t="n">
+        <v>30068.4</v>
+      </c>
+      <c r="C260" t="n">
+        <v>30068.4</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>449.18</v>
+      </c>
+      <c r="B261" t="n">
+        <v>29912.4</v>
+      </c>
+      <c r="C261" t="n">
+        <v>29912.4</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>449.08</v>
+      </c>
+      <c r="B262" t="n">
+        <v>30174.8</v>
+      </c>
+      <c r="C262" t="n">
+        <v>30174.8</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>448.98</v>
+      </c>
+      <c r="B263" t="n">
+        <v>30120.3</v>
+      </c>
+      <c r="C263" t="n">
+        <v>30120.3</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>448.88</v>
+      </c>
+      <c r="B264" t="n">
+        <v>30110.4</v>
+      </c>
+      <c r="C264" t="n">
+        <v>30110.4</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>448.78</v>
+      </c>
+      <c r="B265" t="n">
+        <v>30306.8</v>
+      </c>
+      <c r="C265" t="n">
+        <v>30306.8</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>448.68</v>
+      </c>
+      <c r="B266" t="n">
+        <v>29977.1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>29977.1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>448.58</v>
+      </c>
+      <c r="B267" t="n">
+        <v>30408.4</v>
+      </c>
+      <c r="C267" t="n">
+        <v>30408.4</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>448.48</v>
+      </c>
+      <c r="B268" t="n">
+        <v>30672.7</v>
+      </c>
+      <c r="C268" t="n">
+        <v>30672.7</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>448.38</v>
+      </c>
+      <c r="B269" t="n">
+        <v>30340.6</v>
+      </c>
+      <c r="C269" t="n">
+        <v>30340.6</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>448.28</v>
+      </c>
+      <c r="B270" t="n">
+        <v>29974.9</v>
+      </c>
+      <c r="C270" t="n">
+        <v>29974.9</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>448.18</v>
+      </c>
+      <c r="B271" t="n">
+        <v>30914.7</v>
+      </c>
+      <c r="C271" t="n">
+        <v>30914.7</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>448.08</v>
+      </c>
+      <c r="B272" t="n">
+        <v>30207.3</v>
+      </c>
+      <c r="C272" t="n">
+        <v>30207.3</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10539,13 +14378,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="B2:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10585,7 +14424,6 @@
     <col width="14" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="B2" s="12" t="inlineStr">
         <is>

--- a/DATA/UKSAF/Pt4f.xlsx
+++ b/DATA/UKSAF/Pt4f.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pt4f" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pt4f1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Experimental description" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results Table" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pt4f" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results Table" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -123,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -148,6 +149,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,6 +239,39 @@
       <rowOff>0</rowOff>
     </from>
     <ext cx="5734050" cy="4086225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5495925" cy="4124325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -10833,6 +10870,5814 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AP282"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Raw Data</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Background</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr"/>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>BE_new</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Residuals</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Background_new</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Calculated Fit</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr"/>
+      <c r="K1" s="2" t="inlineStr"/>
+      <c r="L1" s="2" t="inlineStr"/>
+      <c r="M1" s="2" t="inlineStr"/>
+      <c r="N1" s="2" t="inlineStr"/>
+      <c r="O1" s="2" t="inlineStr"/>
+      <c r="P1" s="2" t="inlineStr"/>
+      <c r="Q1" s="2" t="inlineStr"/>
+      <c r="R1" s="2" t="inlineStr"/>
+      <c r="S1" s="2" t="inlineStr"/>
+      <c r="T1" s="2" t="inlineStr"/>
+      <c r="U1" s="2" t="inlineStr"/>
+      <c r="V1" s="2" t="inlineStr"/>
+      <c r="W1" s="2" t="inlineStr"/>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="Y1" s="4" t="inlineStr">
+        <is>
+          <t>Peak
+Label</t>
+        </is>
+      </c>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Position
+(eV)</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>Height
+(CPS)</t>
+        </is>
+      </c>
+      <c r="AB1" s="4" t="inlineStr">
+        <is>
+          <t>FWHM
+(eV)</t>
+        </is>
+      </c>
+      <c r="AC1" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">σ/γ (%)
+L/G 
+</t>
+        </is>
+      </c>
+      <c r="AD1" s="4" t="inlineStr">
+        <is>
+          <t>Area
+(CPS.eV)</t>
+        </is>
+      </c>
+      <c r="AE1" s="4" t="inlineStr">
+        <is>
+          <t>σ
+W_g</t>
+        </is>
+      </c>
+      <c r="AF1" s="4" t="inlineStr">
+        <is>
+          <t>γ
+W_l</t>
+        </is>
+      </c>
+      <c r="AG1" s="4" t="inlineStr">
+        <is>
+          <t>W_g
+Skew</t>
+        </is>
+      </c>
+      <c r="AH1" s="4" t="inlineStr">
+        <is>
+          <t>Conc.
+(%)</t>
+        </is>
+      </c>
+      <c r="AI1" s="4" t="inlineStr">
+        <is>
+          <t>A/Aᴀ</t>
+        </is>
+      </c>
+      <c r="AJ1" s="4" t="inlineStr">
+        <is>
+          <t>Split
+(eV)</t>
+        </is>
+      </c>
+      <c r="AK1" s="4" t="inlineStr">
+        <is>
+          <t>Fitting Model</t>
+        </is>
+      </c>
+      <c r="AL1" s="4" t="inlineStr">
+        <is>
+          <t>Bkg Type</t>
+        </is>
+      </c>
+      <c r="AM1" s="4" t="inlineStr">
+        <is>
+          <t>Bkg Low
+(eV)</t>
+        </is>
+      </c>
+      <c r="AN1" s="4" t="inlineStr">
+        <is>
+          <t>Bkg High
+(eV)</t>
+        </is>
+      </c>
+      <c r="AO1" s="4" t="inlineStr">
+        <is>
+          <t>Bkg Offset Low
+(CPS)</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>Bkg Offset High
+(CPS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>89.99000000000001</v>
+      </c>
+      <c r="B2" t="n">
+        <v>663.0584521015303</v>
+      </c>
+      <c r="C2" t="n">
+        <v>663.0584521015303</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>89.99000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>663.0584521015303</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>89.8900000000001</v>
+      </c>
+      <c r="B3" t="n">
+        <v>719.3057252452363</v>
+      </c>
+      <c r="C3" t="n">
+        <v>719.3057252452363</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>89.8900000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>719.3057252452363</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>89.78999999999996</v>
+      </c>
+      <c r="B4" t="n">
+        <v>655.6335197164053</v>
+      </c>
+      <c r="C4" t="n">
+        <v>655.6335197164053</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>89.78999999999996</v>
+      </c>
+      <c r="H4" t="n">
+        <v>655.6335197164053</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>89.69000000000005</v>
+      </c>
+      <c r="B5" t="n">
+        <v>696.1938803853632</v>
+      </c>
+      <c r="C5" t="n">
+        <v>696.1938803853632</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>89.69000000000005</v>
+      </c>
+      <c r="H5" t="n">
+        <v>696.1938803853632</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>89.58999999999992</v>
+      </c>
+      <c r="B6" t="n">
+        <v>727.9634202950109</v>
+      </c>
+      <c r="C6" t="n">
+        <v>727.9634202950109</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>89.58999999999992</v>
+      </c>
+      <c r="H6" t="n">
+        <v>727.9634202950109</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>89.49000000000001</v>
+      </c>
+      <c r="B7" t="n">
+        <v>719.0802323300383</v>
+      </c>
+      <c r="C7" t="n">
+        <v>719.0802323300383</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>89.49000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>719.0802323300383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>89.3900000000001</v>
+      </c>
+      <c r="B8" t="n">
+        <v>687.2760992157685</v>
+      </c>
+      <c r="C8" t="n">
+        <v>687.2760992157685</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>89.3900000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>687.2760992157685</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>89.28999999999996</v>
+      </c>
+      <c r="B9" t="n">
+        <v>702.4647157887554</v>
+      </c>
+      <c r="C9" t="n">
+        <v>702.4647157887554</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>89.28999999999996</v>
+      </c>
+      <c r="H9" t="n">
+        <v>702.4647157887554</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>89.19000000000005</v>
+      </c>
+      <c r="B10" t="n">
+        <v>713.1925690497313</v>
+      </c>
+      <c r="C10" t="n">
+        <v>713.1925690497313</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>89.19000000000005</v>
+      </c>
+      <c r="H10" t="n">
+        <v>713.1925690497313</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>89.08999999999992</v>
+      </c>
+      <c r="B11" t="n">
+        <v>682.7760613760869</v>
+      </c>
+      <c r="C11" t="n">
+        <v>682.7760613760869</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>89.08999999999992</v>
+      </c>
+      <c r="H11" t="n">
+        <v>682.7760613760869</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>88.99000000000001</v>
+      </c>
+      <c r="B12" t="n">
+        <v>676.3782800157472</v>
+      </c>
+      <c r="C12" t="n">
+        <v>676.3782800157472</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>88.99000000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>676.3782800157472</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>88.8900000000001</v>
+      </c>
+      <c r="B13" t="n">
+        <v>690.925734512584</v>
+      </c>
+      <c r="C13" t="n">
+        <v>690.925734512584</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.8900000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>690.925734512584</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>88.78999999999996</v>
+      </c>
+      <c r="B14" t="n">
+        <v>661.9946998490896</v>
+      </c>
+      <c r="C14" t="n">
+        <v>661.9946998490896</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>88.78999999999996</v>
+      </c>
+      <c r="H14" t="n">
+        <v>661.9946998490896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>88.69000000000005</v>
+      </c>
+      <c r="B15" t="n">
+        <v>696.1359305913319</v>
+      </c>
+      <c r="C15" t="n">
+        <v>696.1359305913319</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>88.69000000000005</v>
+      </c>
+      <c r="H15" t="n">
+        <v>696.1359305913319</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>88.58999999999992</v>
+      </c>
+      <c r="B16" t="n">
+        <v>681.1692087871093</v>
+      </c>
+      <c r="C16" t="n">
+        <v>681.1692087871093</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>88.58999999999992</v>
+      </c>
+      <c r="H16" t="n">
+        <v>681.1692087871093</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>88.49000000000001</v>
+      </c>
+      <c r="B17" t="n">
+        <v>684.8916232013402</v>
+      </c>
+      <c r="C17" t="n">
+        <v>684.8916232013402</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>88.49000000000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>684.8916232013402</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>88.3900000000001</v>
+      </c>
+      <c r="B18" t="n">
+        <v>676.6966615455898</v>
+      </c>
+      <c r="C18" t="n">
+        <v>676.6966615455898</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>88.3900000000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>676.6966615455898</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>88.28999999999996</v>
+      </c>
+      <c r="B19" t="n">
+        <v>716.5934833743249</v>
+      </c>
+      <c r="C19" t="n">
+        <v>716.5934833743249</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>88.28999999999996</v>
+      </c>
+      <c r="H19" t="n">
+        <v>716.5934833743249</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>88.19000000000005</v>
+      </c>
+      <c r="B20" t="n">
+        <v>700.3413277270548</v>
+      </c>
+      <c r="C20" t="n">
+        <v>700.3413277270548</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>88.19000000000005</v>
+      </c>
+      <c r="H20" t="n">
+        <v>700.3413277270548</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>88.08999999999992</v>
+      </c>
+      <c r="B21" t="n">
+        <v>696.3023488377764</v>
+      </c>
+      <c r="C21" t="n">
+        <v>696.3023488377764</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>88.08999999999992</v>
+      </c>
+      <c r="H21" t="n">
+        <v>696.3023488377764</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>87.99000000000001</v>
+      </c>
+      <c r="B22" t="n">
+        <v>649.7993114021127</v>
+      </c>
+      <c r="C22" t="n">
+        <v>649.7993114021127</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>87.99000000000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>649.7993114021127</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>87.8900000000001</v>
+      </c>
+      <c r="B23" t="n">
+        <v>662.5318799375026</v>
+      </c>
+      <c r="C23" t="n">
+        <v>662.5318799375026</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>87.8900000000001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>662.5318799375026</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>87.78999999999996</v>
+      </c>
+      <c r="B24" t="n">
+        <v>655.9805811031689</v>
+      </c>
+      <c r="C24" t="n">
+        <v>655.9805811031689</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>87.78999999999996</v>
+      </c>
+      <c r="H24" t="n">
+        <v>655.9805811031689</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>87.69000000000005</v>
+      </c>
+      <c r="B25" t="n">
+        <v>658.3329877062479</v>
+      </c>
+      <c r="C25" t="n">
+        <v>658.3329877062479</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>87.69000000000005</v>
+      </c>
+      <c r="H25" t="n">
+        <v>658.3329877062479</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>87.58999999999992</v>
+      </c>
+      <c r="B26" t="n">
+        <v>663.4370810271399</v>
+      </c>
+      <c r="C26" t="n">
+        <v>663.4370810271399</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>87.58999999999992</v>
+      </c>
+      <c r="H26" t="n">
+        <v>663.4370810271399</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>87.49000000000001</v>
+      </c>
+      <c r="B27" t="n">
+        <v>673.6252514765287</v>
+      </c>
+      <c r="C27" t="n">
+        <v>673.6252514765287</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.49000000000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>673.6252514765287</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>87.3900000000001</v>
+      </c>
+      <c r="B28" t="n">
+        <v>714.4969656151859</v>
+      </c>
+      <c r="C28" t="n">
+        <v>714.4969656151859</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>87.3900000000001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>714.4969656151859</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>87.28999999999996</v>
+      </c>
+      <c r="B29" t="n">
+        <v>672.6581441346685</v>
+      </c>
+      <c r="C29" t="n">
+        <v>672.6581441346685</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>87.28999999999996</v>
+      </c>
+      <c r="H29" t="n">
+        <v>672.6581441346685</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>87.19000000000005</v>
+      </c>
+      <c r="B30" t="n">
+        <v>652.3851767970431</v>
+      </c>
+      <c r="C30" t="n">
+        <v>652.3851767970431</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>87.19000000000005</v>
+      </c>
+      <c r="H30" t="n">
+        <v>652.3851767970431</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>87.08999999999992</v>
+      </c>
+      <c r="B31" t="n">
+        <v>682.0034511120928</v>
+      </c>
+      <c r="C31" t="n">
+        <v>682.0034511120928</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>87.08999999999992</v>
+      </c>
+      <c r="H31" t="n">
+        <v>682.0034511120928</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>86.99000000000001</v>
+      </c>
+      <c r="B32" t="n">
+        <v>646.3145844723894</v>
+      </c>
+      <c r="C32" t="n">
+        <v>646.3145844723894</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.99000000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>646.3145844723894</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>86.8900000000001</v>
+      </c>
+      <c r="B33" t="n">
+        <v>632.4952187067868</v>
+      </c>
+      <c r="C33" t="n">
+        <v>632.4952187067868</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>86.8900000000001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>632.4952187067868</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>86.78999999999996</v>
+      </c>
+      <c r="B34" t="n">
+        <v>666.8001161987389</v>
+      </c>
+      <c r="C34" t="n">
+        <v>666.8001161987389</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>86.78999999999996</v>
+      </c>
+      <c r="H34" t="n">
+        <v>666.8001161987389</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>86.69000000000005</v>
+      </c>
+      <c r="B35" t="n">
+        <v>746.9337135268154</v>
+      </c>
+      <c r="C35" t="n">
+        <v>746.9337135268154</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>86.69000000000005</v>
+      </c>
+      <c r="H35" t="n">
+        <v>746.9337135268154</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>86.58999999999992</v>
+      </c>
+      <c r="B36" t="n">
+        <v>650.4365956646838</v>
+      </c>
+      <c r="C36" t="n">
+        <v>650.4365956646838</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>86.58999999999992</v>
+      </c>
+      <c r="H36" t="n">
+        <v>650.4365956646838</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>86.49000000000001</v>
+      </c>
+      <c r="B37" t="n">
+        <v>674.8973906334312</v>
+      </c>
+      <c r="C37" t="n">
+        <v>674.8973906334312</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>86.49000000000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>674.8973906334312</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>86.3900000000001</v>
+      </c>
+      <c r="B38" t="n">
+        <v>673.8540689951554</v>
+      </c>
+      <c r="C38" t="n">
+        <v>673.8540689951554</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>86.3900000000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>673.8540689951554</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>86.28999999999996</v>
+      </c>
+      <c r="B39" t="n">
+        <v>659.8723594934916</v>
+      </c>
+      <c r="C39" t="n">
+        <v>659.8723594934916</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>86.28999999999996</v>
+      </c>
+      <c r="H39" t="n">
+        <v>659.8723594934916</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>86.19000000000005</v>
+      </c>
+      <c r="B40" t="n">
+        <v>716.8405037571767</v>
+      </c>
+      <c r="C40" t="n">
+        <v>716.8405037571767</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>86.19000000000005</v>
+      </c>
+      <c r="H40" t="n">
+        <v>716.8405037571767</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>86.08999999999992</v>
+      </c>
+      <c r="B41" t="n">
+        <v>665.6808057520223</v>
+      </c>
+      <c r="C41" t="n">
+        <v>665.6808057520223</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>86.08999999999992</v>
+      </c>
+      <c r="H41" t="n">
+        <v>665.6808057520223</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>85.99000000000001</v>
+      </c>
+      <c r="B42" t="n">
+        <v>718.4045116436408</v>
+      </c>
+      <c r="C42" t="n">
+        <v>718.4045116436408</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>85.99000000000001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>718.4045116436408</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>85.8900000000001</v>
+      </c>
+      <c r="B43" t="n">
+        <v>692.9492456088499</v>
+      </c>
+      <c r="C43" t="n">
+        <v>692.9492456088499</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>85.8900000000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>692.9492456088499</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>85.78999999999996</v>
+      </c>
+      <c r="B44" t="n">
+        <v>667.0884468068474</v>
+      </c>
+      <c r="C44" t="n">
+        <v>667.0884468068474</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>85.78999999999996</v>
+      </c>
+      <c r="H44" t="n">
+        <v>667.0884468068474</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>85.69000000000005</v>
+      </c>
+      <c r="B45" t="n">
+        <v>664.3723761724395</v>
+      </c>
+      <c r="C45" t="n">
+        <v>664.3723761724395</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>85.69000000000005</v>
+      </c>
+      <c r="H45" t="n">
+        <v>664.3723761724395</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>85.58999999999992</v>
+      </c>
+      <c r="B46" t="n">
+        <v>617.7615232957836</v>
+      </c>
+      <c r="C46" t="n">
+        <v>617.7615232957836</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>85.58999999999992</v>
+      </c>
+      <c r="H46" t="n">
+        <v>617.7615232957836</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>85.49000000000001</v>
+      </c>
+      <c r="B47" t="n">
+        <v>656.7227629881553</v>
+      </c>
+      <c r="C47" t="n">
+        <v>656.7227629881553</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>85.49000000000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>656.7227629881553</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>85.3900000000001</v>
+      </c>
+      <c r="B48" t="n">
+        <v>730.7764199384512</v>
+      </c>
+      <c r="C48" t="n">
+        <v>730.7764199384512</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>85.3900000000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>730.7764199384512</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>85.28999999999996</v>
+      </c>
+      <c r="B49" t="n">
+        <v>637.8814054241611</v>
+      </c>
+      <c r="C49" t="n">
+        <v>637.8814054241611</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>85.28999999999996</v>
+      </c>
+      <c r="H49" t="n">
+        <v>637.8814054241611</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>85.19000000000005</v>
+      </c>
+      <c r="B50" t="n">
+        <v>615.9815354238348</v>
+      </c>
+      <c r="C50" t="n">
+        <v>615.9815354238348</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>85.19000000000005</v>
+      </c>
+      <c r="H50" t="n">
+        <v>615.9815354238348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>85.08999999999992</v>
+      </c>
+      <c r="B51" t="n">
+        <v>699.6489401609767</v>
+      </c>
+      <c r="C51" t="n">
+        <v>699.6489401609767</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>85.08999999999992</v>
+      </c>
+      <c r="H51" t="n">
+        <v>699.6489401609767</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>84.99000000000001</v>
+      </c>
+      <c r="B52" t="n">
+        <v>682.0888007957709</v>
+      </c>
+      <c r="C52" t="n">
+        <v>682.0888007957709</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>84.99000000000001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>682.0888007957709</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>84.8900000000001</v>
+      </c>
+      <c r="B53" t="n">
+        <v>673.6443705218185</v>
+      </c>
+      <c r="C53" t="n">
+        <v>673.6443705218185</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>84.8900000000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>673.6443705218185</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>84.78999999999996</v>
+      </c>
+      <c r="B54" t="n">
+        <v>677.5264324099049</v>
+      </c>
+      <c r="C54" t="n">
+        <v>677.5264324099049</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>84.78999999999996</v>
+      </c>
+      <c r="H54" t="n">
+        <v>677.5264324099049</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>84.69000000000005</v>
+      </c>
+      <c r="B55" t="n">
+        <v>655.0553310697341</v>
+      </c>
+      <c r="C55" t="n">
+        <v>655.0553310697341</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>84.69000000000005</v>
+      </c>
+      <c r="H55" t="n">
+        <v>655.0553310697341</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>84.58999999999992</v>
+      </c>
+      <c r="B56" t="n">
+        <v>719.923775810921</v>
+      </c>
+      <c r="C56" t="n">
+        <v>719.923775810921</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>84.58999999999992</v>
+      </c>
+      <c r="H56" t="n">
+        <v>719.923775810921</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>84.49000000000001</v>
+      </c>
+      <c r="B57" t="n">
+        <v>734.7651761484487</v>
+      </c>
+      <c r="C57" t="n">
+        <v>734.7651761484487</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>84.49000000000001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>734.7651761484487</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>84.3900000000001</v>
+      </c>
+      <c r="B58" t="n">
+        <v>731.3348174282127</v>
+      </c>
+      <c r="C58" t="n">
+        <v>731.3348174282127</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>84.3900000000001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>731.3348174282127</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>84.28999999999996</v>
+      </c>
+      <c r="B59" t="n">
+        <v>728.2325512590576</v>
+      </c>
+      <c r="C59" t="n">
+        <v>728.2325512590576</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>84.28999999999996</v>
+      </c>
+      <c r="H59" t="n">
+        <v>728.2325512590576</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>84.19000000000005</v>
+      </c>
+      <c r="B60" t="n">
+        <v>726.0215185230469</v>
+      </c>
+      <c r="C60" t="n">
+        <v>726.0215185230469</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>84.19000000000005</v>
+      </c>
+      <c r="H60" t="n">
+        <v>726.0215185230469</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>84.08999999999992</v>
+      </c>
+      <c r="B61" t="n">
+        <v>681.9600732166285</v>
+      </c>
+      <c r="C61" t="n">
+        <v>681.9600732166285</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>84.08999999999992</v>
+      </c>
+      <c r="H61" t="n">
+        <v>681.9600732166285</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>83.99000000000001</v>
+      </c>
+      <c r="B62" t="n">
+        <v>647.7707099831988</v>
+      </c>
+      <c r="C62" t="n">
+        <v>647.7707099831988</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>83.99000000000001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>647.7707099831988</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>83.8900000000001</v>
+      </c>
+      <c r="B63" t="n">
+        <v>699.6551471127742</v>
+      </c>
+      <c r="C63" t="n">
+        <v>699.6551471127742</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>83.8900000000001</v>
+      </c>
+      <c r="H63" t="n">
+        <v>699.6551471127742</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>83.78999999999996</v>
+      </c>
+      <c r="B64" t="n">
+        <v>721.1292340467685</v>
+      </c>
+      <c r="C64" t="n">
+        <v>721.1292340467685</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>83.78999999999996</v>
+      </c>
+      <c r="H64" t="n">
+        <v>721.1292340467685</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>83.69000000000005</v>
+      </c>
+      <c r="B65" t="n">
+        <v>657.9300762933049</v>
+      </c>
+      <c r="C65" t="n">
+        <v>657.9300762933049</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>83.69000000000005</v>
+      </c>
+      <c r="H65" t="n">
+        <v>657.9300762933049</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>83.58999999999992</v>
+      </c>
+      <c r="B66" t="n">
+        <v>682.3776482085567</v>
+      </c>
+      <c r="C66" t="n">
+        <v>682.3776482085567</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>83.58999999999992</v>
+      </c>
+      <c r="H66" t="n">
+        <v>682.3776482085567</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>83.49000000000001</v>
+      </c>
+      <c r="B67" t="n">
+        <v>704.7293792995468</v>
+      </c>
+      <c r="C67" t="n">
+        <v>704.7293792995468</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>83.49000000000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>704.7293792995468</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>83.3900000000001</v>
+      </c>
+      <c r="B68" t="n">
+        <v>687.4607786170831</v>
+      </c>
+      <c r="C68" t="n">
+        <v>687.4607786170831</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>83.3900000000001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>687.4607786170831</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>83.28999999999996</v>
+      </c>
+      <c r="B69" t="n">
+        <v>739.5503663350954</v>
+      </c>
+      <c r="C69" t="n">
+        <v>739.5503663350954</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>83.28999999999996</v>
+      </c>
+      <c r="H69" t="n">
+        <v>739.5503663350954</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>83.19000000000005</v>
+      </c>
+      <c r="B70" t="n">
+        <v>737.0290982764189</v>
+      </c>
+      <c r="C70" t="n">
+        <v>737.0290982764189</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>83.19000000000005</v>
+      </c>
+      <c r="H70" t="n">
+        <v>737.0290982764189</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>83.08999999999992</v>
+      </c>
+      <c r="B71" t="n">
+        <v>686.1577237662345</v>
+      </c>
+      <c r="C71" t="n">
+        <v>686.1577237662345</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>83.08999999999992</v>
+      </c>
+      <c r="H71" t="n">
+        <v>686.1577237662345</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>82.99000000000001</v>
+      </c>
+      <c r="B72" t="n">
+        <v>666.7800533978087</v>
+      </c>
+      <c r="C72" t="n">
+        <v>666.7800533978087</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>82.99000000000001</v>
+      </c>
+      <c r="H72" t="n">
+        <v>666.7800533978087</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>82.8900000000001</v>
+      </c>
+      <c r="B73" t="n">
+        <v>710.9576619934436</v>
+      </c>
+      <c r="C73" t="n">
+        <v>710.9576619934436</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>82.8900000000001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>710.9576619934436</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>82.78999999999996</v>
+      </c>
+      <c r="B74" t="n">
+        <v>707.1672973092041</v>
+      </c>
+      <c r="C74" t="n">
+        <v>707.1672973092041</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>82.78999999999996</v>
+      </c>
+      <c r="H74" t="n">
+        <v>707.1672973092041</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>82.69000000000005</v>
+      </c>
+      <c r="B75" t="n">
+        <v>680.3022385182772</v>
+      </c>
+      <c r="C75" t="n">
+        <v>680.3022385182772</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>82.69000000000005</v>
+      </c>
+      <c r="H75" t="n">
+        <v>680.3022385182772</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>82.58999999999992</v>
+      </c>
+      <c r="B76" t="n">
+        <v>718.1163943455113</v>
+      </c>
+      <c r="C76" t="n">
+        <v>718.1163943455113</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>82.58999999999992</v>
+      </c>
+      <c r="H76" t="n">
+        <v>718.1163943455113</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>82.49000000000001</v>
+      </c>
+      <c r="B77" t="n">
+        <v>725.2446768405231</v>
+      </c>
+      <c r="C77" t="n">
+        <v>725.2446768405231</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>82.49000000000001</v>
+      </c>
+      <c r="H77" t="n">
+        <v>725.2446768405231</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>82.3900000000001</v>
+      </c>
+      <c r="B78" t="n">
+        <v>723.8681278865233</v>
+      </c>
+      <c r="C78" t="n">
+        <v>723.8681278865233</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>82.3900000000001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>723.8681278865233</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>82.28999999999996</v>
+      </c>
+      <c r="B79" t="n">
+        <v>721.4165921972358</v>
+      </c>
+      <c r="C79" t="n">
+        <v>728.291714688466</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>82.28999999999996</v>
+      </c>
+      <c r="H79" t="n">
+        <v>721.4165921972358</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>82.19000000000005</v>
+      </c>
+      <c r="B80" t="n">
+        <v>725.8522814221197</v>
+      </c>
+      <c r="C80" t="n">
+        <v>726.1499951969053</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>82.19000000000005</v>
+      </c>
+      <c r="H80" t="n">
+        <v>725.8522814221197</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>82.08999999999992</v>
+      </c>
+      <c r="B81" t="n">
+        <v>737.6062704460421</v>
+      </c>
+      <c r="C81" t="n">
+        <v>726.1641388629433</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>82.08999999999992</v>
+      </c>
+      <c r="H81" t="n">
+        <v>737.6062704460421</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.99000000000001</v>
+      </c>
+      <c r="B82" t="n">
+        <v>733.0614363848073</v>
+      </c>
+      <c r="C82" t="n">
+        <v>726.1418735753688</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>81.99000000000001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>733.0614363848073</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81.8900000000001</v>
+      </c>
+      <c r="B83" t="n">
+        <v>733.0196234011446</v>
+      </c>
+      <c r="C83" t="n">
+        <v>726.1053226198067</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>81.8900000000001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>733.0196234011446</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>81.78999999999996</v>
+      </c>
+      <c r="B84" t="n">
+        <v>797.3353742537885</v>
+      </c>
+      <c r="C84" t="n">
+        <v>726.0772160546927</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>81.78999999999996</v>
+      </c>
+      <c r="H84" t="n">
+        <v>797.3353742537885</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>81.69000000000005</v>
+      </c>
+      <c r="B85" t="n">
+        <v>721.4856742577507</v>
+      </c>
+      <c r="C85" t="n">
+        <v>725.9215120238525</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>81.69000000000005</v>
+      </c>
+      <c r="H85" t="n">
+        <v>721.4856742577507</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>81.58999999999992</v>
+      </c>
+      <c r="B86" t="n">
+        <v>727.8630380921937</v>
+      </c>
+      <c r="C86" t="n">
+        <v>725.7889911126185</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>81.58999999999992</v>
+      </c>
+      <c r="H86" t="n">
+        <v>727.8630380921937</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>81.49000000000001</v>
+      </c>
+      <c r="B87" t="n">
+        <v>737.6216523406977</v>
+      </c>
+      <c r="C87" t="n">
+        <v>725.7935427354854</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>81.49000000000001</v>
+      </c>
+      <c r="H87" t="n">
+        <v>737.6216523406977</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>81.3900000000001</v>
+      </c>
+      <c r="B88" t="n">
+        <v>742.60208987363</v>
+      </c>
+      <c r="C88" t="n">
+        <v>725.7656994192974</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>81.3900000000001</v>
+      </c>
+      <c r="H88" t="n">
+        <v>742.60208987363</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>81.28999999999996</v>
+      </c>
+      <c r="B89" t="n">
+        <v>745.3206918516341</v>
+      </c>
+      <c r="C89" t="n">
+        <v>725.7085023557462</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>81.28999999999996</v>
+      </c>
+      <c r="H89" t="n">
+        <v>745.3206918516341</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>81.19000000000005</v>
+      </c>
+      <c r="B90" t="n">
+        <v>723.8894190543509</v>
+      </c>
+      <c r="C90" t="n">
+        <v>725.6360552601614</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>81.19000000000005</v>
+      </c>
+      <c r="H90" t="n">
+        <v>723.8894190543509</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>81.08999999999992</v>
+      </c>
+      <c r="B91" t="n">
+        <v>806.0272905247631</v>
+      </c>
+      <c r="C91" t="n">
+        <v>725.5998339100749</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>81.08999999999992</v>
+      </c>
+      <c r="H91" t="n">
+        <v>806.0272905247631</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>80.99000000000001</v>
+      </c>
+      <c r="B92" t="n">
+        <v>784.831187415845</v>
+      </c>
+      <c r="C92" t="n">
+        <v>725.4423527061978</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>80.99000000000001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>784.831187415845</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>80.8900000000001</v>
+      </c>
+      <c r="B93" t="n">
+        <v>716.7695074912883</v>
+      </c>
+      <c r="C93" t="n">
+        <v>725.1646733984727</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>80.8900000000001</v>
+      </c>
+      <c r="H93" t="n">
+        <v>716.7695074912883</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>80.78999999999996</v>
+      </c>
+      <c r="B94" t="n">
+        <v>766.6901524945013</v>
+      </c>
+      <c r="C94" t="n">
+        <v>725.0632657029182</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>80.78999999999996</v>
+      </c>
+      <c r="H94" t="n">
+        <v>766.6901524945013</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>80.69000000000005</v>
+      </c>
+      <c r="B95" t="n">
+        <v>763.5758943779854</v>
+      </c>
+      <c r="C95" t="n">
+        <v>724.9964548688868</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>80.69000000000005</v>
+      </c>
+      <c r="H95" t="n">
+        <v>763.5758943779854</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>80.58999999999992</v>
+      </c>
+      <c r="B96" t="n">
+        <v>778.2764228439355</v>
+      </c>
+      <c r="C96" t="n">
+        <v>724.8364387228661</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>80.58999999999992</v>
+      </c>
+      <c r="H96" t="n">
+        <v>778.2764228439355</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>80.49000000000001</v>
+      </c>
+      <c r="B97" t="n">
+        <v>737.6571201662875</v>
+      </c>
+      <c r="C97" t="n">
+        <v>724.6533777574153</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>80.49000000000001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>737.6571201662875</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>80.3900000000001</v>
+      </c>
+      <c r="B98" t="n">
+        <v>773.5667981806214</v>
+      </c>
+      <c r="C98" t="n">
+        <v>724.5210170129957</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>80.3900000000001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>773.5667981806214</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>80.28999999999996</v>
+      </c>
+      <c r="B99" t="n">
+        <v>782.7770491401395</v>
+      </c>
+      <c r="C99" t="n">
+        <v>724.3966820294319</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>80.28999999999996</v>
+      </c>
+      <c r="H99" t="n">
+        <v>782.7770491401395</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>80.19000000000005</v>
+      </c>
+      <c r="B100" t="n">
+        <v>744.9192610235395</v>
+      </c>
+      <c r="C100" t="n">
+        <v>724.1829880135994</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>80.19000000000005</v>
+      </c>
+      <c r="H100" t="n">
+        <v>744.9192610235395</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>80.08999999999992</v>
+      </c>
+      <c r="B101" t="n">
+        <v>800.4619209438487</v>
+      </c>
+      <c r="C101" t="n">
+        <v>724.0250068378675</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>80.08999999999992</v>
+      </c>
+      <c r="H101" t="n">
+        <v>800.4619209438487</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>79.99000000000001</v>
+      </c>
+      <c r="B102" t="n">
+        <v>772.5872318618659</v>
+      </c>
+      <c r="C102" t="n">
+        <v>723.8308414694312</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>79.99000000000001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>772.5872318618659</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>79.8900000000001</v>
+      </c>
+      <c r="B103" t="n">
+        <v>745.4911490428117</v>
+      </c>
+      <c r="C103" t="n">
+        <v>723.5822483923105</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>79.8900000000001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>745.4911490428117</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>79.78999999999996</v>
+      </c>
+      <c r="B104" t="n">
+        <v>829.1012978732535</v>
+      </c>
+      <c r="C104" t="n">
+        <v>723.4403605202237</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>79.78999999999996</v>
+      </c>
+      <c r="H104" t="n">
+        <v>829.1012978732535</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>79.69000000000005</v>
+      </c>
+      <c r="B105" t="n">
+        <v>822.0124290016578</v>
+      </c>
+      <c r="C105" t="n">
+        <v>723.1845602547365</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>79.69000000000005</v>
+      </c>
+      <c r="H105" t="n">
+        <v>822.0124290016578</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>79.58999999999992</v>
+      </c>
+      <c r="B106" t="n">
+        <v>746.1147648134364</v>
+      </c>
+      <c r="C106" t="n">
+        <v>722.7785206214915</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>79.58999999999992</v>
+      </c>
+      <c r="H106" t="n">
+        <v>746.1147648134364</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>79.49000000000001</v>
+      </c>
+      <c r="B107" t="n">
+        <v>716.3903625923773</v>
+      </c>
+      <c r="C107" t="n">
+        <v>722.5372878520899</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>79.49000000000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>716.3903625923773</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>79.3900000000001</v>
+      </c>
+      <c r="B108" t="n">
+        <v>807.8316998894958</v>
+      </c>
+      <c r="C108" t="n">
+        <v>722.5016728554211</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>79.3900000000001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>807.8316998894958</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>79.28999999999996</v>
+      </c>
+      <c r="B109" t="n">
+        <v>791.6153563105605</v>
+      </c>
+      <c r="C109" t="n">
+        <v>722.342147771554</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>79.28999999999996</v>
+      </c>
+      <c r="H109" t="n">
+        <v>791.6153563105605</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>79.19000000000005</v>
+      </c>
+      <c r="B110" t="n">
+        <v>836.38352991973</v>
+      </c>
+      <c r="C110" t="n">
+        <v>722.0332273826207</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>79.19000000000005</v>
+      </c>
+      <c r="H110" t="n">
+        <v>836.38352991973</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>79.08999999999992</v>
+      </c>
+      <c r="B111" t="n">
+        <v>768.3180098013358</v>
+      </c>
+      <c r="C111" t="n">
+        <v>721.6676684524707</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>79.08999999999992</v>
+      </c>
+      <c r="H111" t="n">
+        <v>768.3180098013358</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>78.99000000000001</v>
+      </c>
+      <c r="B112" t="n">
+        <v>847.4106352022101</v>
+      </c>
+      <c r="C112" t="n">
+        <v>721.346366674301</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>78.99000000000001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>847.4106352022101</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>78.8900000000001</v>
+      </c>
+      <c r="B113" t="n">
+        <v>786.9778637670242</v>
+      </c>
+      <c r="C113" t="n">
+        <v>721.0014688513353</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>78.8900000000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>786.9778637670242</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>78.78999999999996</v>
+      </c>
+      <c r="B114" t="n">
+        <v>829.7842058510299</v>
+      </c>
+      <c r="C114" t="n">
+        <v>720.6190379506938</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>78.78999999999996</v>
+      </c>
+      <c r="H114" t="n">
+        <v>829.7842058510299</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>78.69000000000005</v>
+      </c>
+      <c r="B115" t="n">
+        <v>883.630701499295</v>
+      </c>
+      <c r="C115" t="n">
+        <v>720.2668643834538</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>78.69000000000005</v>
+      </c>
+      <c r="H115" t="n">
+        <v>883.630701499295</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>78.58999999999992</v>
+      </c>
+      <c r="B116" t="n">
+        <v>828.6073650497588</v>
+      </c>
+      <c r="C116" t="n">
+        <v>719.7232924312523</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>78.58999999999992</v>
+      </c>
+      <c r="H116" t="n">
+        <v>828.6073650497588</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>78.49000000000001</v>
+      </c>
+      <c r="B117" t="n">
+        <v>922.2741591675799</v>
+      </c>
+      <c r="C117" t="n">
+        <v>719.1788966589448</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>78.49000000000001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>922.2741591675799</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>78.3900000000001</v>
+      </c>
+      <c r="B118" t="n">
+        <v>832.047372135121</v>
+      </c>
+      <c r="C118" t="n">
+        <v>718.556364908848</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>78.3900000000001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>832.047372135121</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>78.28999999999996</v>
+      </c>
+      <c r="B119" t="n">
+        <v>953.3967784852695</v>
+      </c>
+      <c r="C119" t="n">
+        <v>717.9235263402235</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>78.28999999999996</v>
+      </c>
+      <c r="H119" t="n">
+        <v>953.3967784852695</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>78.19000000000005</v>
+      </c>
+      <c r="B120" t="n">
+        <v>904.9046358314954</v>
+      </c>
+      <c r="C120" t="n">
+        <v>717.2241654806871</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>78.19000000000005</v>
+      </c>
+      <c r="H120" t="n">
+        <v>904.9046358314954</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>78.08999999999992</v>
+      </c>
+      <c r="B121" t="n">
+        <v>875.9589819631605</v>
+      </c>
+      <c r="C121" t="n">
+        <v>716.3831044785201</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>78.08999999999992</v>
+      </c>
+      <c r="H121" t="n">
+        <v>875.9589819631605</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>77.99000000000001</v>
+      </c>
+      <c r="B122" t="n">
+        <v>890.1932574118017</v>
+      </c>
+      <c r="C122" t="n">
+        <v>715.6909080768962</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>77.99000000000001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>890.1932574118017</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>77.8900000000001</v>
+      </c>
+      <c r="B123" t="n">
+        <v>942.5247986643097</v>
+      </c>
+      <c r="C123" t="n">
+        <v>715.0209796475474</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>77.8900000000001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>942.5247986643097</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>77.78999999999996</v>
+      </c>
+      <c r="B124" t="n">
+        <v>941.201314167571</v>
+      </c>
+      <c r="C124" t="n">
+        <v>714.2159423751019</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>77.78999999999996</v>
+      </c>
+      <c r="H124" t="n">
+        <v>941.201314167571</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>77.69000000000005</v>
+      </c>
+      <c r="B125" t="n">
+        <v>972.8321392833244</v>
+      </c>
+      <c r="C125" t="n">
+        <v>713.3069749291706</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>77.69000000000005</v>
+      </c>
+      <c r="H125" t="n">
+        <v>972.8321392833244</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>77.58999999999992</v>
+      </c>
+      <c r="B126" t="n">
+        <v>997.3833561312472</v>
+      </c>
+      <c r="C126" t="n">
+        <v>712.3322760849038</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>77.58999999999992</v>
+      </c>
+      <c r="H126" t="n">
+        <v>997.3833561312472</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>77.49000000000001</v>
+      </c>
+      <c r="B127" t="n">
+        <v>979.0716265384989</v>
+      </c>
+      <c r="C127" t="n">
+        <v>711.2444121801331</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>77.49000000000001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>979.0716265384989</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>77.3900000000001</v>
+      </c>
+      <c r="B128" t="n">
+        <v>985.2645720966332</v>
+      </c>
+      <c r="C128" t="n">
+        <v>710.1411610187621</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>77.3900000000001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>985.2645720966332</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>77.28999999999996</v>
+      </c>
+      <c r="B129" t="n">
+        <v>969.8824922259175</v>
+      </c>
+      <c r="C129" t="n">
+        <v>709.0576002829594</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>77.28999999999996</v>
+      </c>
+      <c r="H129" t="n">
+        <v>969.8824922259175</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>77.19000000000005</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1030.394588002078</v>
+      </c>
+      <c r="C130" t="n">
+        <v>707.9838837726392</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>77.19000000000005</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1030.394588002078</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>77.08999999999992</v>
+      </c>
+      <c r="B131" t="n">
+        <v>968.6429082047515</v>
+      </c>
+      <c r="C131" t="n">
+        <v>706.8191162542154</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>77.08999999999992</v>
+      </c>
+      <c r="H131" t="n">
+        <v>968.6429082047515</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>76.99000000000001</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1042.260943267595</v>
+      </c>
+      <c r="C132" t="n">
+        <v>705.6512080310176</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>76.99000000000001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1042.260943267595</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>76.8900000000001</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1033.685366563763</v>
+      </c>
+      <c r="C133" t="n">
+        <v>704.4499883690344</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>76.8900000000001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1033.685366563763</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>76.78999999999996</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1084.680213273053</v>
+      </c>
+      <c r="C134" t="n">
+        <v>703.1156107356292</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>76.78999999999996</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1084.680213273053</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>76.69000000000005</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1117.806633764453</v>
+      </c>
+      <c r="C135" t="n">
+        <v>701.68669817708</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>76.69000000000005</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1117.806633764453</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>76.58999999999992</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1119.599594040355</v>
+      </c>
+      <c r="C136" t="n">
+        <v>700.0883947677366</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>76.58999999999992</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1119.599594040355</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>76.49000000000001</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1162.827989412918</v>
+      </c>
+      <c r="C137" t="n">
+        <v>698.4125906905299</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>76.49000000000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1162.827989412918</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>76.3900000000001</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1083.269330731448</v>
+      </c>
+      <c r="C138" t="n">
+        <v>696.6493855018924</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>76.3900000000001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1083.269330731448</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>76.28999999999996</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1289.368772397249</v>
+      </c>
+      <c r="C139" t="n">
+        <v>694.9316664910868</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>76.28999999999996</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1289.368772397249</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>76.19000000000005</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1344.891748928304</v>
+      </c>
+      <c r="C140" t="n">
+        <v>692.9338365949583</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>76.19000000000005</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1344.891748928304</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>76.08999999999992</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1283.438891558743</v>
+      </c>
+      <c r="C141" t="n">
+        <v>690.438772962759</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>76.08999999999992</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1283.438891558743</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>75.99000000000001</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1494.029927798633</v>
+      </c>
+      <c r="C142" t="n">
+        <v>687.9226565701488</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>75.99000000000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1494.029927798633</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>75.8900000000001</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1483.801574667642</v>
+      </c>
+      <c r="C143" t="n">
+        <v>685.0861026745848</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>75.8900000000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1483.801574667642</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>75.78999999999996</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1506.122664739082</v>
+      </c>
+      <c r="C144" t="n">
+        <v>681.8656455229853</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>75.78999999999996</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1506.122664739082</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>75.69000000000005</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1603.995574133268</v>
+      </c>
+      <c r="C145" t="n">
+        <v>678.587742106839</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>75.69000000000005</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1603.995574133268</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>75.58999999999992</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1853.96884724478</v>
+      </c>
+      <c r="C146" t="n">
+        <v>675.005960292692</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>75.58999999999992</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1853.96884724478</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>75.49000000000001</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1910.8564543001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>670.7098425112299</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>75.49000000000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1910.8564543001</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>75.3900000000001</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1998.458023564941</v>
+      </c>
+      <c r="C148" t="n">
+        <v>665.8082536844316</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>75.3900000000001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1998.458023564941</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>75.28999999999996</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2206.018527058285</v>
+      </c>
+      <c r="C149" t="n">
+        <v>660.5520574962629</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>75.28999999999996</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2206.018527058285</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>75.19000000000005</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2456.191269121931</v>
+      </c>
+      <c r="C150" t="n">
+        <v>654.6214162059825</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>75.19000000000005</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2456.191269121931</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>75.08999999999992</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2556.783800935697</v>
+      </c>
+      <c r="C151" t="n">
+        <v>647.7539690454531</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>75.08999999999992</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2556.783800935697</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>74.99000000000001</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2897.093841324819</v>
+      </c>
+      <c r="C152" t="n">
+        <v>640.1002426741543</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>74.99000000000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2897.093841324819</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>74.8900000000001</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3191.238642080546</v>
+      </c>
+      <c r="C153" t="n">
+        <v>631.4228083344894</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>74.8900000000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3191.238642080546</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>74.78999999999996</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3516.814568607721</v>
+      </c>
+      <c r="C154" t="n">
+        <v>621.3825176397038</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>74.78999999999996</v>
+      </c>
+      <c r="H154" t="n">
+        <v>3516.814568607721</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>74.69000000000005</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4005.122565120793</v>
+      </c>
+      <c r="C155" t="n">
+        <v>609.8995567966389</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>74.69000000000005</v>
+      </c>
+      <c r="H155" t="n">
+        <v>4005.122565120793</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>74.58999999999992</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4325.983211555804</v>
+      </c>
+      <c r="C156" t="n">
+        <v>596.6316529090402</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>74.58999999999992</v>
+      </c>
+      <c r="H156" t="n">
+        <v>4325.983211555804</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>74.49000000000001</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4603.989571452652</v>
+      </c>
+      <c r="C157" t="n">
+        <v>581.682462730435</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>74.49000000000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>4603.989571452652</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>74.3900000000001</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4649.545474679962</v>
+      </c>
+      <c r="C158" t="n">
+        <v>565.5430796333972</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>74.3900000000001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>4649.545474679962</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>74.28999999999996</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4438.161944126901</v>
+      </c>
+      <c r="C159" t="n">
+        <v>548.9717575462114</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>74.28999999999996</v>
+      </c>
+      <c r="H159" t="n">
+        <v>4438.161944126901</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>74.19000000000005</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3647.723203353142</v>
+      </c>
+      <c r="C160" t="n">
+        <v>533.3291691830023</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>74.19000000000005</v>
+      </c>
+      <c r="H160" t="n">
+        <v>3647.723203353142</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>74.08999999999992</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3115.396070188221</v>
+      </c>
+      <c r="C161" t="n">
+        <v>520.0440211774679</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>74.08999999999992</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3115.396070188221</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>73.99000000000001</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2367.059443253342</v>
+      </c>
+      <c r="C162" t="n">
+        <v>509.4822771328174</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>73.99000000000001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2367.059443253342</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>73.8900000000001</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1981.837718612646</v>
+      </c>
+      <c r="C163" t="n">
+        <v>501.4338637624141</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>73.8900000000001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1981.837718612646</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>73.78999999999996</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1705.723781388479</v>
+      </c>
+      <c r="C164" t="n">
+        <v>495.2772806080767</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>73.78999999999996</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1705.723781388479</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>73.69000000000005</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1406.626224229025</v>
+      </c>
+      <c r="C165" t="n">
+        <v>490.375154533487</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>73.69000000000005</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1406.626224229025</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>73.58999999999992</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1246.308299324753</v>
+      </c>
+      <c r="C166" t="n">
+        <v>486.5201544235096</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>73.58999999999992</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1246.308299324753</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>73.49000000000001</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1221.724286943685</v>
+      </c>
+      <c r="C167" t="n">
+        <v>483.3256666739943</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>73.49000000000001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1221.724286943685</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>73.3900000000001</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1125.940974402541</v>
+      </c>
+      <c r="C168" t="n">
+        <v>480.431553736556</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>73.3900000000001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1125.940974402541</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>73.28999999999996</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1129.356094653864</v>
+      </c>
+      <c r="C169" t="n">
+        <v>477.74249235753</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>73.28999999999996</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1129.356094653864</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>73.19000000000005</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1153.405123847873</v>
+      </c>
+      <c r="C170" t="n">
+        <v>475.1134804792273</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>73.19000000000005</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1153.405123847873</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>73.08999999999992</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1167.143453529598</v>
+      </c>
+      <c r="C171" t="n">
+        <v>472.4080559778475</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>73.08999999999992</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1167.143453529598</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>72.99000000000001</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1175.248158821646</v>
+      </c>
+      <c r="C172" t="n">
+        <v>469.6309503426071</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>72.99000000000001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1175.248158821646</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>72.8900000000001</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1153.290685873624</v>
+      </c>
+      <c r="C173" t="n">
+        <v>466.8340539783405</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>72.8900000000001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1153.290685873624</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>72.78999999999996</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1272.387990762125</v>
+      </c>
+      <c r="C174" t="n">
+        <v>463.9418276410916</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>72.78999999999996</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1272.387990762125</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>72.69000000000005</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1390.01974568348</v>
+      </c>
+      <c r="C175" t="n">
+        <v>460.6980665332875</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>72.69000000000005</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1390.01974568348</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>72.58999999999992</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1423.974771179029</v>
+      </c>
+      <c r="C176" t="n">
+        <v>457.048248883355</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>72.58999999999992</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1423.974771179029</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>72.49000000000001</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1460.347066345701</v>
+      </c>
+      <c r="C177" t="n">
+        <v>453.1606092820276</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>72.49000000000001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1460.347066345701</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>72.3900000000001</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1563.514504136559</v>
+      </c>
+      <c r="C178" t="n">
+        <v>449.0398361693408</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>72.3900000000001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1563.514504136559</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>72.28999999999996</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1691.483502605306</v>
+      </c>
+      <c r="C179" t="n">
+        <v>444.5176373471164</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>72.28999999999996</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1691.483502605306</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>72.19000000000005</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1976.169352851299</v>
+      </c>
+      <c r="C180" t="n">
+        <v>439.3022549065553</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>72.19000000000005</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1976.169352851299</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>72.08999999999992</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2039.992212029949</v>
+      </c>
+      <c r="C181" t="n">
+        <v>433.2889766593172</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>72.08999999999992</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2039.992212029949</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>71.99000000000001</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2297.551928326278</v>
+      </c>
+      <c r="C182" t="n">
+        <v>426.5623429228211</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>71.99000000000001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2297.551928326278</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>71.8900000000001</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2497.673782325182</v>
+      </c>
+      <c r="C183" t="n">
+        <v>418.9786054692642</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>71.8900000000001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2497.673782325182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>71.78999999999996</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2820.185098681088</v>
+      </c>
+      <c r="C184" t="n">
+        <v>410.3286163306945</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>71.78999999999996</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2820.185098681088</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>71.69000000000005</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3060.145593850842</v>
+      </c>
+      <c r="C185" t="n">
+        <v>400.4945591965039</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>71.69000000000005</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3060.145593850842</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>71.58999999999992</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3342.327727964144</v>
+      </c>
+      <c r="C186" t="n">
+        <v>389.4831366061619</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>71.58999999999992</v>
+      </c>
+      <c r="H186" t="n">
+        <v>3342.327727964144</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>71.49000000000001</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3837.126306563296</v>
+      </c>
+      <c r="C187" t="n">
+        <v>376.9657495202136</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>71.49000000000001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>3837.126306563296</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>71.3900000000001</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4352.917680156717</v>
+      </c>
+      <c r="C188" t="n">
+        <v>362.3914808256494</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>71.3900000000001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>4352.917680156717</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>71.28999999999996</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4791.42239630916</v>
+      </c>
+      <c r="C189" t="n">
+        <v>345.6402581180666</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>71.28999999999996</v>
+      </c>
+      <c r="H189" t="n">
+        <v>4791.42239630916</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>71.19000000000005</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5438.895437440508</v>
+      </c>
+      <c r="C190" t="n">
+        <v>326.5067947119925</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>71.19000000000005</v>
+      </c>
+      <c r="H190" t="n">
+        <v>5438.895437440508</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>71.08999999999992</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5466.729306620106</v>
+      </c>
+      <c r="C191" t="n">
+        <v>305.5535489089791</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>71.08999999999992</v>
+      </c>
+      <c r="H191" t="n">
+        <v>5466.729306620106</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>70.99000000000001</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5120.152022798487</v>
+      </c>
+      <c r="C192" t="n">
+        <v>284.737779678851</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>70.99000000000001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>5120.152022798487</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>70.8900000000001</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4454.018417051126</v>
+      </c>
+      <c r="C193" t="n">
+        <v>265.8092494061329</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>70.8900000000001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>4454.018417051126</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>70.78999999999996</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3482.962456849611</v>
+      </c>
+      <c r="C194" t="n">
+        <v>250.2036093780918</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>70.78999999999996</v>
+      </c>
+      <c r="H194" t="n">
+        <v>3482.962456849611</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>70.69000000000005</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2585.837730366292</v>
+      </c>
+      <c r="C195" t="n">
+        <v>238.5105499560426</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>70.69000000000005</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2585.837730366292</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>70.58999999999992</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1816.319280838561</v>
+      </c>
+      <c r="C196" t="n">
+        <v>230.3318656003072</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>70.58999999999992</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1816.319280838561</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>70.49000000000001</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1361.417099436269</v>
+      </c>
+      <c r="C197" t="n">
+        <v>224.7252504024597</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>70.49000000000001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1361.417099436269</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>70.3900000000001</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1007.095829473105</v>
+      </c>
+      <c r="C198" t="n">
+        <v>220.800332934477</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>70.3900000000001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1007.095829473105</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>70.28999999999996</v>
+      </c>
+      <c r="B199" t="n">
+        <v>813.3561157957721</v>
+      </c>
+      <c r="C199" t="n">
+        <v>217.9969384512586</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>70.28999999999996</v>
+      </c>
+      <c r="H199" t="n">
+        <v>813.3561157957721</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>70.19000000000005</v>
+      </c>
+      <c r="B200" t="n">
+        <v>657.5053793157906</v>
+      </c>
+      <c r="C200" t="n">
+        <v>215.903455784276</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>70.19000000000005</v>
+      </c>
+      <c r="H200" t="n">
+        <v>657.5053793157906</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>70.08999999999992</v>
+      </c>
+      <c r="B201" t="n">
+        <v>569.1594896725317</v>
+      </c>
+      <c r="C201" t="n">
+        <v>214.3002440013519</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>70.08999999999992</v>
+      </c>
+      <c r="H201" t="n">
+        <v>569.1594896725317</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>69.99000000000001</v>
+      </c>
+      <c r="B202" t="n">
+        <v>494.4089890524279</v>
+      </c>
+      <c r="C202" t="n">
+        <v>213.0228063873866</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>69.99000000000001</v>
+      </c>
+      <c r="H202" t="n">
+        <v>494.4089890524279</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>69.8900000000001</v>
+      </c>
+      <c r="B203" t="n">
+        <v>505.9492371254116</v>
+      </c>
+      <c r="C203" t="n">
+        <v>211.871447688114</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>69.8900000000001</v>
+      </c>
+      <c r="H203" t="n">
+        <v>505.9492371254116</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>69.78999999999996</v>
+      </c>
+      <c r="B204" t="n">
+        <v>392.586476910489</v>
+      </c>
+      <c r="C204" t="n">
+        <v>210.9185920971935</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>69.78999999999996</v>
+      </c>
+      <c r="H204" t="n">
+        <v>392.586476910489</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>69.69000000000005</v>
+      </c>
+      <c r="B205" t="n">
+        <v>419.7341317690443</v>
+      </c>
+      <c r="C205" t="n">
+        <v>210.1354152617847</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>69.69000000000005</v>
+      </c>
+      <c r="H205" t="n">
+        <v>419.7341317690443</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>69.58999999999992</v>
+      </c>
+      <c r="B206" t="n">
+        <v>357.5257436753192</v>
+      </c>
+      <c r="C206" t="n">
+        <v>209.4208549745151</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+      <c r="F206" t="n">
+        <v>69.58999999999992</v>
+      </c>
+      <c r="H206" t="n">
+        <v>357.5257436753192</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>69.49000000000001</v>
+      </c>
+      <c r="B207" t="n">
+        <v>353.9028767654225</v>
+      </c>
+      <c r="C207" t="n">
+        <v>208.8345774508288</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" t="n">
+        <v>69.49000000000001</v>
+      </c>
+      <c r="H207" t="n">
+        <v>353.9028767654225</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>69.3900000000001</v>
+      </c>
+      <c r="B208" t="n">
+        <v>325.3992746520774</v>
+      </c>
+      <c r="C208" t="n">
+        <v>208.3110649944005</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F208" t="n">
+        <v>69.3900000000001</v>
+      </c>
+      <c r="H208" t="n">
+        <v>325.3992746520774</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>69.28999999999996</v>
+      </c>
+      <c r="B209" t="n">
+        <v>337.4059616661852</v>
+      </c>
+      <c r="C209" t="n">
+        <v>207.8188091887504</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>69.28999999999996</v>
+      </c>
+      <c r="H209" t="n">
+        <v>337.4059616661852</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>69.19000000000005</v>
+      </c>
+      <c r="B210" t="n">
+        <v>343.1256473853349</v>
+      </c>
+      <c r="C210" t="n">
+        <v>207.2897260681103</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>69.19000000000005</v>
+      </c>
+      <c r="H210" t="n">
+        <v>343.1256473853349</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>69.08999999999992</v>
+      </c>
+      <c r="B211" t="n">
+        <v>249.3342074753962</v>
+      </c>
+      <c r="C211" t="n">
+        <v>206.9330634118216</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>69.08999999999992</v>
+      </c>
+      <c r="H211" t="n">
+        <v>249.3342074753962</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>68.99000000000001</v>
+      </c>
+      <c r="B212" t="n">
+        <v>326.2697790427036</v>
+      </c>
+      <c r="C212" t="n">
+        <v>206.6097377332822</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>68.99000000000001</v>
+      </c>
+      <c r="H212" t="n">
+        <v>326.2697790427036</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>68.8900000000001</v>
+      </c>
+      <c r="B213" t="n">
+        <v>274.4837515882904</v>
+      </c>
+      <c r="C213" t="n">
+        <v>206.2353707132517</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" t="n">
+        <v>68.8900000000001</v>
+      </c>
+      <c r="H213" t="n">
+        <v>274.4837515882904</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>68.78999999999996</v>
+      </c>
+      <c r="B214" t="n">
+        <v>258.8258539356368</v>
+      </c>
+      <c r="C214" t="n">
+        <v>205.9932895968568</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>68.78999999999996</v>
+      </c>
+      <c r="H214" t="n">
+        <v>258.8258539356368</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>68.69000000000005</v>
+      </c>
+      <c r="B215" t="n">
+        <v>268.3110871798925</v>
+      </c>
+      <c r="C215" t="n">
+        <v>205.7632347909833</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>68.69000000000005</v>
+      </c>
+      <c r="H215" t="n">
+        <v>268.3110871798925</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>68.58999999999992</v>
+      </c>
+      <c r="B216" t="n">
+        <v>249.4578078144838</v>
+      </c>
+      <c r="C216" t="n">
+        <v>205.5509560993522</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>68.58999999999992</v>
+      </c>
+      <c r="H216" t="n">
+        <v>249.4578078144838</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>68.49000000000001</v>
+      </c>
+      <c r="B217" t="n">
+        <v>292.6197839984981</v>
+      </c>
+      <c r="C217" t="n">
+        <v>205.2895327099639</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>68.49000000000001</v>
+      </c>
+      <c r="H217" t="n">
+        <v>292.6197839984981</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>68.3900000000001</v>
+      </c>
+      <c r="B218" t="n">
+        <v>264.2210946030742</v>
+      </c>
+      <c r="C218" t="n">
+        <v>204.9974665413889</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>68.3900000000001</v>
+      </c>
+      <c r="H218" t="n">
+        <v>264.2210946030742</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>68.28999999999996</v>
+      </c>
+      <c r="B219" t="n">
+        <v>227.93658950562</v>
+      </c>
+      <c r="C219" t="n">
+        <v>204.8329929190983</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>68.28999999999996</v>
+      </c>
+      <c r="H219" t="n">
+        <v>227.93658950562</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>68.19000000000005</v>
+      </c>
+      <c r="B220" t="n">
+        <v>253.7311588983862</v>
+      </c>
+      <c r="C220" t="n">
+        <v>204.6891472947108</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>68.19000000000005</v>
+      </c>
+      <c r="H220" t="n">
+        <v>253.7311588983862</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>68.08999999999992</v>
+      </c>
+      <c r="B221" t="n">
+        <v>227.2493096866255</v>
+      </c>
+      <c r="C221" t="n">
+        <v>204.5461525104833</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>68.08999999999992</v>
+      </c>
+      <c r="H221" t="n">
+        <v>227.2493096866255</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>67.99000000000001</v>
+      </c>
+      <c r="B222" t="n">
+        <v>213.1775235586504</v>
+      </c>
+      <c r="C222" t="n">
+        <v>204.483413594071</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>67.99000000000001</v>
+      </c>
+      <c r="H222" t="n">
+        <v>213.1775235586504</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>67.8900000000001</v>
+      </c>
+      <c r="B223" t="n">
+        <v>225.756508630809</v>
+      </c>
+      <c r="C223" t="n">
+        <v>204.4235716764933</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>67.8900000000001</v>
+      </c>
+      <c r="H223" t="n">
+        <v>225.756508630809</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>67.78999999999996</v>
+      </c>
+      <c r="B224" t="n">
+        <v>246.40967404709</v>
+      </c>
+      <c r="C224" t="n">
+        <v>204.2972515405839</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>67.78999999999996</v>
+      </c>
+      <c r="H224" t="n">
+        <v>246.40967404709</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>67.69000000000005</v>
+      </c>
+      <c r="B225" t="n">
+        <v>254.4926755362664</v>
+      </c>
+      <c r="C225" t="n">
+        <v>204.1129903518004</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>67.69000000000005</v>
+      </c>
+      <c r="H225" t="n">
+        <v>254.4926755362664</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>67.58999999999992</v>
+      </c>
+      <c r="B226" t="n">
+        <v>209.4916418877</v>
+      </c>
+      <c r="C226" t="n">
+        <v>204.001549357188</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>67.58999999999992</v>
+      </c>
+      <c r="H226" t="n">
+        <v>209.4916418877</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>67.49000000000001</v>
+      </c>
+      <c r="B227" t="n">
+        <v>207.4064827425961</v>
+      </c>
+      <c r="C227" t="n">
+        <v>203.9836869455565</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>67.49000000000001</v>
+      </c>
+      <c r="H227" t="n">
+        <v>207.4064827425961</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>67.3900000000001</v>
+      </c>
+      <c r="B228" t="n">
+        <v>193.3786539768865</v>
+      </c>
+      <c r="C228" t="n">
+        <v>203.9979916879162</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>67.3900000000001</v>
+      </c>
+      <c r="H228" t="n">
+        <v>193.3786539768865</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>67.28999999999996</v>
+      </c>
+      <c r="B229" t="n">
+        <v>230.056477341696</v>
+      </c>
+      <c r="C229" t="n">
+        <v>230.056477341696</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>67.28999999999996</v>
+      </c>
+      <c r="H229" t="n">
+        <v>230.056477341696</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>67.19000000000005</v>
+      </c>
+      <c r="B230" t="n">
+        <v>220.3796302591647</v>
+      </c>
+      <c r="C230" t="n">
+        <v>220.3796302591647</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>67.19000000000005</v>
+      </c>
+      <c r="H230" t="n">
+        <v>220.3796302591647</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>67.08999999999992</v>
+      </c>
+      <c r="B231" t="n">
+        <v>194.0404973216482</v>
+      </c>
+      <c r="C231" t="n">
+        <v>194.0404973216482</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>67.08999999999992</v>
+      </c>
+      <c r="H231" t="n">
+        <v>194.0404973216482</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>66.99000000000001</v>
+      </c>
+      <c r="B232" t="n">
+        <v>206.9133488534829</v>
+      </c>
+      <c r="C232" t="n">
+        <v>206.9133488534829</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>66.99000000000001</v>
+      </c>
+      <c r="H232" t="n">
+        <v>206.9133488534829</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>66.8900000000001</v>
+      </c>
+      <c r="B233" t="n">
+        <v>188.5819416436178</v>
+      </c>
+      <c r="C233" t="n">
+        <v>188.5819416436178</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>66.8900000000001</v>
+      </c>
+      <c r="H233" t="n">
+        <v>188.5819416436178</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>66.78999999999996</v>
+      </c>
+      <c r="B234" t="n">
+        <v>205.1210714979035</v>
+      </c>
+      <c r="C234" t="n">
+        <v>205.1210714979035</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>66.78999999999996</v>
+      </c>
+      <c r="H234" t="n">
+        <v>205.1210714979035</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>66.69000000000005</v>
+      </c>
+      <c r="B235" t="n">
+        <v>207.5777342228433</v>
+      </c>
+      <c r="C235" t="n">
+        <v>207.5777342228433</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>66.69000000000005</v>
+      </c>
+      <c r="H235" t="n">
+        <v>207.5777342228433</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>66.58999999999992</v>
+      </c>
+      <c r="B236" t="n">
+        <v>172.6988633904379</v>
+      </c>
+      <c r="C236" t="n">
+        <v>172.6988633904379</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>66.58999999999992</v>
+      </c>
+      <c r="H236" t="n">
+        <v>172.6988633904379</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>66.49000000000001</v>
+      </c>
+      <c r="B237" t="n">
+        <v>203.1672809122165</v>
+      </c>
+      <c r="C237" t="n">
+        <v>203.1672809122165</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>66.49000000000001</v>
+      </c>
+      <c r="H237" t="n">
+        <v>203.1672809122165</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>66.3900000000001</v>
+      </c>
+      <c r="B238" t="n">
+        <v>179.3506223655829</v>
+      </c>
+      <c r="C238" t="n">
+        <v>179.3506223655829</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>66.3900000000001</v>
+      </c>
+      <c r="H238" t="n">
+        <v>179.3506223655829</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>66.28999999999996</v>
+      </c>
+      <c r="B239" t="n">
+        <v>213.306270068623</v>
+      </c>
+      <c r="C239" t="n">
+        <v>213.306270068623</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>66.28999999999996</v>
+      </c>
+      <c r="H239" t="n">
+        <v>213.306270068623</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>66.19000000000005</v>
+      </c>
+      <c r="B240" t="n">
+        <v>180.5562427636983</v>
+      </c>
+      <c r="C240" t="n">
+        <v>180.5562427636983</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>66.19000000000005</v>
+      </c>
+      <c r="H240" t="n">
+        <v>180.5562427636983</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>66.08999999999992</v>
+      </c>
+      <c r="B241" t="n">
+        <v>199.1682047374229</v>
+      </c>
+      <c r="C241" t="n">
+        <v>199.1682047374229</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>66.08999999999992</v>
+      </c>
+      <c r="H241" t="n">
+        <v>199.1682047374229</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>65.99000000000001</v>
+      </c>
+      <c r="B242" t="n">
+        <v>168.674534837688</v>
+      </c>
+      <c r="C242" t="n">
+        <v>168.674534837688</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>65.99000000000001</v>
+      </c>
+      <c r="H242" t="n">
+        <v>168.674534837688</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>65.8900000000001</v>
+      </c>
+      <c r="B243" t="n">
+        <v>167.039892708854</v>
+      </c>
+      <c r="C243" t="n">
+        <v>167.039892708854</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>65.8900000000001</v>
+      </c>
+      <c r="H243" t="n">
+        <v>167.039892708854</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>65.78999999999996</v>
+      </c>
+      <c r="B244" t="n">
+        <v>185.9676126184089</v>
+      </c>
+      <c r="C244" t="n">
+        <v>185.9676126184089</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>65.78999999999996</v>
+      </c>
+      <c r="H244" t="n">
+        <v>185.9676126184089</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>65.69000000000005</v>
+      </c>
+      <c r="B245" t="n">
+        <v>195.3984587286739</v>
+      </c>
+      <c r="C245" t="n">
+        <v>195.3984587286739</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>65.69000000000005</v>
+      </c>
+      <c r="H245" t="n">
+        <v>195.3984587286739</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>65.58999999999992</v>
+      </c>
+      <c r="B246" t="n">
+        <v>185.1228542578256</v>
+      </c>
+      <c r="C246" t="n">
+        <v>185.1228542578256</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" t="n">
+        <v>65.58999999999992</v>
+      </c>
+      <c r="H246" t="n">
+        <v>185.1228542578256</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>65.49000000000001</v>
+      </c>
+      <c r="B247" t="n">
+        <v>183.0680890032918</v>
+      </c>
+      <c r="C247" t="n">
+        <v>183.0680890032918</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>65.49000000000001</v>
+      </c>
+      <c r="H247" t="n">
+        <v>183.0680890032918</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>65.3900000000001</v>
+      </c>
+      <c r="B248" t="n">
+        <v>169.4760447916357</v>
+      </c>
+      <c r="C248" t="n">
+        <v>169.4760447916357</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" t="n">
+        <v>65.3900000000001</v>
+      </c>
+      <c r="H248" t="n">
+        <v>169.4760447916357</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>65.28999999999996</v>
+      </c>
+      <c r="B249" t="n">
+        <v>167.8482491620831</v>
+      </c>
+      <c r="C249" t="n">
+        <v>167.8482491620831</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>65.28999999999996</v>
+      </c>
+      <c r="H249" t="n">
+        <v>167.8482491620831</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>65.19000000000005</v>
+      </c>
+      <c r="B250" t="n">
+        <v>180.9323880064958</v>
+      </c>
+      <c r="C250" t="n">
+        <v>180.9323880064958</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>65.19000000000005</v>
+      </c>
+      <c r="H250" t="n">
+        <v>180.9323880064958</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>65.08999999999992</v>
+      </c>
+      <c r="B251" t="n">
+        <v>172.4808504528057</v>
+      </c>
+      <c r="C251" t="n">
+        <v>172.4808504528057</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>65.08999999999992</v>
+      </c>
+      <c r="H251" t="n">
+        <v>172.4808504528057</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>64.99000000000001</v>
+      </c>
+      <c r="B252" t="n">
+        <v>153.578856152513</v>
+      </c>
+      <c r="C252" t="n">
+        <v>153.578856152513</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>64.99000000000001</v>
+      </c>
+      <c r="H252" t="n">
+        <v>153.578856152513</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>64.8900000000001</v>
+      </c>
+      <c r="B253" t="n">
+        <v>153.3720912958002</v>
+      </c>
+      <c r="C253" t="n">
+        <v>153.3720912958002</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>64.8900000000001</v>
+      </c>
+      <c r="H253" t="n">
+        <v>153.3720912958002</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>64.78999999999996</v>
+      </c>
+      <c r="B254" t="n">
+        <v>157.6533745369545</v>
+      </c>
+      <c r="C254" t="n">
+        <v>157.6533745369545</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>64.78999999999996</v>
+      </c>
+      <c r="H254" t="n">
+        <v>157.6533745369545</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>64.69000000000005</v>
+      </c>
+      <c r="B255" t="n">
+        <v>135.6241116135327</v>
+      </c>
+      <c r="C255" t="n">
+        <v>135.6241116135327</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>64.69000000000005</v>
+      </c>
+      <c r="H255" t="n">
+        <v>135.6241116135327</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>64.58999999999992</v>
+      </c>
+      <c r="B256" t="n">
+        <v>144.8045547751835</v>
+      </c>
+      <c r="C256" t="n">
+        <v>144.8045547751835</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>64.58999999999992</v>
+      </c>
+      <c r="H256" t="n">
+        <v>144.8045547751835</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>64.49000000000001</v>
+      </c>
+      <c r="B257" t="n">
+        <v>145.654704410927</v>
+      </c>
+      <c r="C257" t="n">
+        <v>145.654704410927</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>64.49000000000001</v>
+      </c>
+      <c r="H257" t="n">
+        <v>145.654704410927</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>64.3900000000001</v>
+      </c>
+      <c r="B258" t="n">
+        <v>161.3472893714829</v>
+      </c>
+      <c r="C258" t="n">
+        <v>161.3472893714829</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>64.3900000000001</v>
+      </c>
+      <c r="H258" t="n">
+        <v>161.3472893714829</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>64.28999999999996</v>
+      </c>
+      <c r="B259" t="n">
+        <v>174.9463734587014</v>
+      </c>
+      <c r="C259" t="n">
+        <v>174.9463734587014</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>64.28999999999996</v>
+      </c>
+      <c r="H259" t="n">
+        <v>174.9463734587014</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>64.19000000000005</v>
+      </c>
+      <c r="B260" t="n">
+        <v>187.4238280669421</v>
+      </c>
+      <c r="C260" t="n">
+        <v>187.4238280669421</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
+      <c r="F260" t="n">
+        <v>64.19000000000005</v>
+      </c>
+      <c r="H260" t="n">
+        <v>187.4238280669421</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>64.08999999999992</v>
+      </c>
+      <c r="B261" t="n">
+        <v>160.8049724277001</v>
+      </c>
+      <c r="C261" t="n">
+        <v>160.8049724277001</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>64.08999999999992</v>
+      </c>
+      <c r="H261" t="n">
+        <v>160.8049724277001</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>63.99000000000001</v>
+      </c>
+      <c r="B262" t="n">
+        <v>169.6102963036369</v>
+      </c>
+      <c r="C262" t="n">
+        <v>169.6102963036369</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>63.99000000000001</v>
+      </c>
+      <c r="H262" t="n">
+        <v>169.6102963036369</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>63.8900000000001</v>
+      </c>
+      <c r="B263" t="n">
+        <v>162.2366914923665</v>
+      </c>
+      <c r="C263" t="n">
+        <v>162.2366914923665</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>63.8900000000001</v>
+      </c>
+      <c r="H263" t="n">
+        <v>162.2366914923665</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>63.78999999999996</v>
+      </c>
+      <c r="B264" t="n">
+        <v>158.4933149647661</v>
+      </c>
+      <c r="C264" t="n">
+        <v>158.4933149647661</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>63.78999999999996</v>
+      </c>
+      <c r="H264" t="n">
+        <v>158.4933149647661</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>63.69000000000005</v>
+      </c>
+      <c r="B265" t="n">
+        <v>155.4792076558249</v>
+      </c>
+      <c r="C265" t="n">
+        <v>155.4792076558249</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>63.69000000000005</v>
+      </c>
+      <c r="H265" t="n">
+        <v>155.4792076558249</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>63.58999999999992</v>
+      </c>
+      <c r="B266" t="n">
+        <v>162.7475615558463</v>
+      </c>
+      <c r="C266" t="n">
+        <v>162.7475615558463</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="n">
+        <v>63.58999999999992</v>
+      </c>
+      <c r="H266" t="n">
+        <v>162.7475615558463</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>63.49000000000001</v>
+      </c>
+      <c r="B267" t="n">
+        <v>142.4276969591832</v>
+      </c>
+      <c r="C267" t="n">
+        <v>142.4276969591832</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>63.49000000000001</v>
+      </c>
+      <c r="H267" t="n">
+        <v>142.4276969591832</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>63.3900000000001</v>
+      </c>
+      <c r="B268" t="n">
+        <v>172.8209792705535</v>
+      </c>
+      <c r="C268" t="n">
+        <v>172.8209792705535</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" t="n">
+        <v>63.3900000000001</v>
+      </c>
+      <c r="H268" t="n">
+        <v>172.8209792705535</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>63.28999999999996</v>
+      </c>
+      <c r="B269" t="n">
+        <v>128.983686034234</v>
+      </c>
+      <c r="C269" t="n">
+        <v>128.983686034234</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>63.28999999999996</v>
+      </c>
+      <c r="H269" t="n">
+        <v>128.983686034234</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>63.19000000000005</v>
+      </c>
+      <c r="B270" t="n">
+        <v>186.67706081818</v>
+      </c>
+      <c r="C270" t="n">
+        <v>186.67706081818</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>63.19000000000005</v>
+      </c>
+      <c r="H270" t="n">
+        <v>186.67706081818</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>63.08999999999992</v>
+      </c>
+      <c r="B271" t="n">
+        <v>147.1743107440147</v>
+      </c>
+      <c r="C271" t="n">
+        <v>147.1743107440147</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+      <c r="F271" t="n">
+        <v>63.08999999999992</v>
+      </c>
+      <c r="H271" t="n">
+        <v>147.1743107440147</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>62.99000000000001</v>
+      </c>
+      <c r="B272" t="n">
+        <v>131.481318506968</v>
+      </c>
+      <c r="C272" t="n">
+        <v>131.481318506968</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>62.99000000000001</v>
+      </c>
+      <c r="H272" t="n">
+        <v>131.481318506968</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>62.8900000000001</v>
+      </c>
+      <c r="B273" t="n">
+        <v>163.4976181002071</v>
+      </c>
+      <c r="C273" t="n">
+        <v>163.4976181002071</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+      <c r="F273" t="n">
+        <v>62.8900000000001</v>
+      </c>
+      <c r="H273" t="n">
+        <v>163.4976181002071</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>62.78999999999996</v>
+      </c>
+      <c r="B274" t="n">
+        <v>142.5636918789523</v>
+      </c>
+      <c r="C274" t="n">
+        <v>142.5636918789523</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" t="n">
+        <v>62.78999999999996</v>
+      </c>
+      <c r="H274" t="n">
+        <v>142.5636918789523</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>62.69000000000005</v>
+      </c>
+      <c r="B275" t="n">
+        <v>137.8754160958586</v>
+      </c>
+      <c r="C275" t="n">
+        <v>137.8754160958586</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1</v>
+      </c>
+      <c r="F275" t="n">
+        <v>62.69000000000005</v>
+      </c>
+      <c r="H275" t="n">
+        <v>137.8754160958586</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>62.58999999999992</v>
+      </c>
+      <c r="B276" t="n">
+        <v>133.5622085591399</v>
+      </c>
+      <c r="C276" t="n">
+        <v>133.5622085591399</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>62.58999999999992</v>
+      </c>
+      <c r="H276" t="n">
+        <v>133.5622085591399</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>62.49000000000001</v>
+      </c>
+      <c r="B277" t="n">
+        <v>148.2911986469948</v>
+      </c>
+      <c r="C277" t="n">
+        <v>148.2911986469948</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" t="n">
+        <v>62.49000000000001</v>
+      </c>
+      <c r="H277" t="n">
+        <v>148.2911986469948</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>62.3900000000001</v>
+      </c>
+      <c r="B278" t="n">
+        <v>154.049419120118</v>
+      </c>
+      <c r="C278" t="n">
+        <v>154.049419120118</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" t="n">
+        <v>62.3900000000001</v>
+      </c>
+      <c r="H278" t="n">
+        <v>154.049419120118</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>62.28999999999996</v>
+      </c>
+      <c r="B279" t="n">
+        <v>160.5970756339619</v>
+      </c>
+      <c r="C279" t="n">
+        <v>160.5970756339619</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+      <c r="F279" t="n">
+        <v>62.28999999999996</v>
+      </c>
+      <c r="H279" t="n">
+        <v>160.5970756339619</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>62.19000000000005</v>
+      </c>
+      <c r="B280" t="n">
+        <v>128.2886006751444</v>
+      </c>
+      <c r="C280" t="n">
+        <v>128.2886006751444</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" t="n">
+        <v>62.19000000000005</v>
+      </c>
+      <c r="H280" t="n">
+        <v>128.2886006751444</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>62.08999999999992</v>
+      </c>
+      <c r="B281" t="n">
+        <v>149.2792951454432</v>
+      </c>
+      <c r="C281" t="n">
+        <v>149.2792951454432</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F281" t="n">
+        <v>62.08999999999992</v>
+      </c>
+      <c r="H281" t="n">
+        <v>149.2792951454432</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>61.99000000000001</v>
+      </c>
+      <c r="B282" t="n">
+        <v>168.7334572001955</v>
+      </c>
+      <c r="C282" t="n">
+        <v>168.7334572001955</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="n">
+        <v>61.99000000000001</v>
+      </c>
+      <c r="H282" t="n">
+        <v>168.7334572001955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DATA/UKSAF/Pt4f.xlsx
+++ b/DATA/UKSAF/Pt4f.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pt4f" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Experimental description" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pt4f1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Experimental description" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results Table" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,16 +28,25 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -43,15 +54,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -126,6 +195,39 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5743575" cy="4076700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4674,6 +4776,7790 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AP282"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Raw Data</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Background</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>BE_new</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Residuals</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Background_new</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Calculated Fit</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr"/>
+      <c r="K1" s="3" t="inlineStr"/>
+      <c r="L1" s="3" t="inlineStr"/>
+      <c r="M1" s="3" t="inlineStr"/>
+      <c r="N1" s="3" t="inlineStr"/>
+      <c r="O1" s="3" t="inlineStr"/>
+      <c r="P1" s="3" t="inlineStr"/>
+      <c r="Q1" s="3" t="inlineStr"/>
+      <c r="R1" s="3" t="inlineStr"/>
+      <c r="S1" s="3" t="inlineStr"/>
+      <c r="T1" s="3" t="inlineStr"/>
+      <c r="U1" s="3" t="inlineStr"/>
+      <c r="V1" s="3" t="inlineStr"/>
+      <c r="W1" s="3" t="inlineStr"/>
+      <c r="X1" s="4" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>Peak
+Label</t>
+        </is>
+      </c>
+      <c r="Z1" s="5" t="inlineStr">
+        <is>
+          <t>Position
+(eV)</t>
+        </is>
+      </c>
+      <c r="AA1" s="5" t="inlineStr">
+        <is>
+          <t>Height
+(CPS)</t>
+        </is>
+      </c>
+      <c r="AB1" s="5" t="inlineStr">
+        <is>
+          <t>FWHM
+(eV)</t>
+        </is>
+      </c>
+      <c r="AC1" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">σ/γ (%)
+L/G 
+</t>
+        </is>
+      </c>
+      <c r="AD1" s="5" t="inlineStr">
+        <is>
+          <t>Area
+(CPS.eV)</t>
+        </is>
+      </c>
+      <c r="AE1" s="5" t="inlineStr">
+        <is>
+          <t>σ
+W_g</t>
+        </is>
+      </c>
+      <c r="AF1" s="5" t="inlineStr">
+        <is>
+          <t>γ
+W_l</t>
+        </is>
+      </c>
+      <c r="AG1" s="5" t="inlineStr">
+        <is>
+          <t>W_g
+Skew</t>
+        </is>
+      </c>
+      <c r="AH1" s="5" t="inlineStr">
+        <is>
+          <t>Conc.
+(%)</t>
+        </is>
+      </c>
+      <c r="AI1" s="5" t="inlineStr">
+        <is>
+          <t>A/Aᴀ</t>
+        </is>
+      </c>
+      <c r="AJ1" s="5" t="inlineStr">
+        <is>
+          <t>Split
+(eV)</t>
+        </is>
+      </c>
+      <c r="AK1" s="5" t="inlineStr">
+        <is>
+          <t>Fitting Model</t>
+        </is>
+      </c>
+      <c r="AL1" s="5" t="inlineStr">
+        <is>
+          <t>Bkg Type</t>
+        </is>
+      </c>
+      <c r="AM1" s="5" t="inlineStr">
+        <is>
+          <t>Bkg Low
+(eV)</t>
+        </is>
+      </c>
+      <c r="AN1" s="5" t="inlineStr">
+        <is>
+          <t>Bkg High
+(eV)</t>
+        </is>
+      </c>
+      <c r="AO1" s="5" t="inlineStr">
+        <is>
+          <t>Bkg Offset Low
+(CPS)</t>
+        </is>
+      </c>
+      <c r="AP1" s="3" t="inlineStr">
+        <is>
+          <t>Bkg Offset High
+(CPS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>663.0599999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>663.0599999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-27.71505304805135</v>
+      </c>
+      <c r="H2" t="n">
+        <v>663.0599999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>690.7750530480513</v>
+      </c>
+      <c r="X2" s="6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y2" s="7" t="inlineStr">
+        <is>
+          <t>Pt4f7/2 p1</t>
+        </is>
+      </c>
+      <c r="Z2" s="7" t="inlineStr">
+        <is>
+          <t>71.08</t>
+        </is>
+      </c>
+      <c r="AA2" s="7" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="AB2" s="7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="AC2" s="7" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="AD2" s="7" t="inlineStr">
+        <is>
+          <t>7939</t>
+        </is>
+      </c>
+      <c r="AE2" s="7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="AF2" s="7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="AG2" s="7" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AH2" s="7" t="inlineStr">
+        <is>
+          <t>57.4</t>
+        </is>
+      </c>
+      <c r="AI2" s="7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="AJ2" s="7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK2" s="7" t="inlineStr">
+        <is>
+          <t>LA (Area, σ, γ)</t>
+        </is>
+      </c>
+      <c r="AL2" s="7" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM2" s="7" t="inlineStr">
+        <is>
+          <t>61.99</t>
+        </is>
+      </c>
+      <c r="AN2" s="7" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="AO2" s="7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>89.89</v>
+      </c>
+      <c r="B3" t="n">
+        <v>719.3099999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>719.3099999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>89.89</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-27.99313613846721</v>
+      </c>
+      <c r="H3" t="n">
+        <v>719.3099999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>747.3031361384672</v>
+      </c>
+      <c r="X3" s="8" t="inlineStr"/>
+      <c r="Y3" s="9" t="inlineStr"/>
+      <c r="Z3" s="9" t="inlineStr">
+        <is>
+          <t>61.99,89.99</t>
+        </is>
+      </c>
+      <c r="AA3" s="9" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AB3" s="9" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AC3" s="9" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="AD3" s="9" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AE3" s="9" t="inlineStr">
+        <is>
+          <t>0.01:10</t>
+        </is>
+      </c>
+      <c r="AF3" s="9" t="inlineStr">
+        <is>
+          <t>0.01:10</t>
+        </is>
+      </c>
+      <c r="AG3" s="9" t="inlineStr">
+        <is>
+          <t>0.01:2</t>
+        </is>
+      </c>
+      <c r="AH3" s="9" t="inlineStr"/>
+      <c r="AI3" s="9" t="inlineStr"/>
+      <c r="AJ3" s="9" t="inlineStr"/>
+      <c r="AK3" s="9" t="inlineStr"/>
+      <c r="AL3" s="9" t="inlineStr"/>
+      <c r="AM3" s="9" t="inlineStr"/>
+      <c r="AN3" s="9" t="inlineStr"/>
+      <c r="AO3" s="9" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="B4" t="n">
+        <v>655.63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>655.63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-28.2757170129006</v>
+      </c>
+      <c r="H4" t="n">
+        <v>655.63</v>
+      </c>
+      <c r="I4" t="n">
+        <v>683.9057170129006</v>
+      </c>
+      <c r="X4" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Y4" s="7" t="inlineStr">
+        <is>
+          <t>Pt4f5/2_p2</t>
+        </is>
+      </c>
+      <c r="Z4" s="7" t="inlineStr">
+        <is>
+          <t>74.40</t>
+        </is>
+      </c>
+      <c r="AA4" s="7" t="inlineStr">
+        <is>
+          <t>3824</t>
+        </is>
+      </c>
+      <c r="AB4" s="7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="AC4" s="7" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="AD4" s="7" t="inlineStr">
+        <is>
+          <t>5903</t>
+        </is>
+      </c>
+      <c r="AE4" s="7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="AF4" s="7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="AG4" s="7" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AH4" s="7" t="inlineStr">
+        <is>
+          <t>42.6</t>
+        </is>
+      </c>
+      <c r="AI4" s="7" t="inlineStr">
+        <is>
+          <t>74.4</t>
+        </is>
+      </c>
+      <c r="AJ4" s="7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="AK4" s="7" t="inlineStr">
+        <is>
+          <t>LA (Area, σ, γ)</t>
+        </is>
+      </c>
+      <c r="AL4" s="7" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM4" s="7" t="inlineStr">
+        <is>
+          <t>61.99</t>
+        </is>
+      </c>
+      <c r="AN4" s="7" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="AO4" s="7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="B5" t="n">
+        <v>696.1900000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>696.1900000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-28.56289684231967</v>
+      </c>
+      <c r="H5" t="n">
+        <v>696.1900000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>724.7528968423197</v>
+      </c>
+      <c r="X5" s="8" t="inlineStr"/>
+      <c r="Y5" s="9" t="inlineStr"/>
+      <c r="Z5" s="9" t="inlineStr">
+        <is>
+          <t>A+3.3#0.2</t>
+        </is>
+      </c>
+      <c r="AA5" s="9" t="inlineStr">
+        <is>
+          <t>A*0.75#0.05</t>
+        </is>
+      </c>
+      <c r="AB5" s="9" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AC5" s="9" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AD5" s="9" t="inlineStr">
+        <is>
+          <t>A*0.75#0.05</t>
+        </is>
+      </c>
+      <c r="AE5" s="9" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AF5" s="9" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AG5" s="9" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AH5" s="9" t="inlineStr"/>
+      <c r="AI5" s="9" t="inlineStr"/>
+      <c r="AJ5" s="9" t="inlineStr"/>
+      <c r="AK5" s="9" t="inlineStr"/>
+      <c r="AL5" s="9" t="inlineStr"/>
+      <c r="AM5" s="9" t="inlineStr"/>
+      <c r="AN5" s="9" t="inlineStr"/>
+      <c r="AO5" s="9" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>89.59</v>
+      </c>
+      <c r="B6" t="n">
+        <v>727.96</v>
+      </c>
+      <c r="C6" t="n">
+        <v>727.96</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>89.59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-28.85477973048125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>727.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>756.8147797304813</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>89.48999999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>719.08</v>
+      </c>
+      <c r="C7" t="n">
+        <v>719.08</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>89.48999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-29.1514728184909</v>
+      </c>
+      <c r="H7" t="n">
+        <v>719.08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>748.2314728184909</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>89.39</v>
+      </c>
+      <c r="B8" t="n">
+        <v>687.28</v>
+      </c>
+      <c r="C8" t="n">
+        <v>687.28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>89.39</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-29.4530863938063</v>
+      </c>
+      <c r="H8" t="n">
+        <v>687.28</v>
+      </c>
+      <c r="I8" t="n">
+        <v>716.7330863938063</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="B9" t="n">
+        <v>702.46</v>
+      </c>
+      <c r="C9" t="n">
+        <v>702.46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-29.75973400390092</v>
+      </c>
+      <c r="H9" t="n">
+        <v>702.46</v>
+      </c>
+      <c r="I9" t="n">
+        <v>732.219734003901</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>89.19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>713.1900000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>713.1900000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>89.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-30.07153257482025</v>
+      </c>
+      <c r="H10" t="n">
+        <v>713.1900000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>743.2615325748203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>89.09</v>
+      </c>
+      <c r="B11" t="n">
+        <v>682.78</v>
+      </c>
+      <c r="C11" t="n">
+        <v>682.78</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>89.09</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-30.38860253487735</v>
+      </c>
+      <c r="H11" t="n">
+        <v>682.78</v>
+      </c>
+      <c r="I11" t="n">
+        <v>713.1686025348773</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>676.38</v>
+      </c>
+      <c r="C12" t="n">
+        <v>676.38</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-30.71106794374589</v>
+      </c>
+      <c r="H12" t="n">
+        <v>676.38</v>
+      </c>
+      <c r="I12" t="n">
+        <v>707.0910679437459</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="B13" t="n">
+        <v>690.9299999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>690.9299999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-31.03905662722445</v>
+      </c>
+      <c r="H13" t="n">
+        <v>690.9299999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>721.9690566272244</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="B14" t="n">
+        <v>661.99</v>
+      </c>
+      <c r="C14" t="n">
+        <v>661.99</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-31.37270031796334</v>
+      </c>
+      <c r="H14" t="n">
+        <v>661.99</v>
+      </c>
+      <c r="I14" t="n">
+        <v>693.3627003179633</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="B15" t="n">
+        <v>696.14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>696.14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-31.71213480246217</v>
+      </c>
+      <c r="H15" t="n">
+        <v>696.14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>727.8521348024622</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>88.59</v>
+      </c>
+      <c r="B16" t="n">
+        <v>681.17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>681.17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>88.59</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-32.05750007465952</v>
+      </c>
+      <c r="H16" t="n">
+        <v>681.17</v>
+      </c>
+      <c r="I16" t="n">
+        <v>713.2275000746595</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>88.48999999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>684.89</v>
+      </c>
+      <c r="C17" t="n">
+        <v>684.89</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>88.48999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-32.40894049646533</v>
+      </c>
+      <c r="H17" t="n">
+        <v>684.89</v>
+      </c>
+      <c r="I17" t="n">
+        <v>717.2989404964653</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>88.39</v>
+      </c>
+      <c r="B18" t="n">
+        <v>676.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>676.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>88.39</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-32.76660496559555</v>
+      </c>
+      <c r="H18" t="n">
+        <v>676.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>709.4666049655956</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>88.29000000000001</v>
+      </c>
+      <c r="B19" t="n">
+        <v>716.59</v>
+      </c>
+      <c r="C19" t="n">
+        <v>716.59</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>88.29000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-33.13064709110063</v>
+      </c>
+      <c r="H19" t="n">
+        <v>716.59</v>
+      </c>
+      <c r="I19" t="n">
+        <v>749.7206470911007</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>88.19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>700.34</v>
+      </c>
+      <c r="C20" t="n">
+        <v>700.34</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>88.19</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-33.50122537699542</v>
+      </c>
+      <c r="H20" t="n">
+        <v>700.34</v>
+      </c>
+      <c r="I20" t="n">
+        <v>733.8412253769955</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>88.09</v>
+      </c>
+      <c r="B21" t="n">
+        <v>696.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>696.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>88.09</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-33.87850341443004</v>
+      </c>
+      <c r="H21" t="n">
+        <v>696.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>730.17850341443</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>649.8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>649.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-34.2626500828602</v>
+      </c>
+      <c r="H22" t="n">
+        <v>649.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>684.0626500828602</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="B23" t="n">
+        <v>662.53</v>
+      </c>
+      <c r="C23" t="n">
+        <v>662.53</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-34.65383976071234</v>
+      </c>
+      <c r="H23" t="n">
+        <v>662.53</v>
+      </c>
+      <c r="I23" t="n">
+        <v>697.1838397607123</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="B24" t="n">
+        <v>655.98</v>
+      </c>
+      <c r="C24" t="n">
+        <v>655.98</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-35.05225254606387</v>
+      </c>
+      <c r="H24" t="n">
+        <v>655.98</v>
+      </c>
+      <c r="I24" t="n">
+        <v>691.0322525460639</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="B25" t="n">
+        <v>658.33</v>
+      </c>
+      <c r="C25" t="n">
+        <v>658.33</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-35.45807448789344</v>
+      </c>
+      <c r="H25" t="n">
+        <v>658.33</v>
+      </c>
+      <c r="I25" t="n">
+        <v>693.7880744878935</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>87.59</v>
+      </c>
+      <c r="B26" t="n">
+        <v>663.4400000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>663.4400000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>87.59</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-35.87149782849224</v>
+      </c>
+      <c r="H26" t="n">
+        <v>663.4400000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>699.3114978284923</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>87.48999999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>673.63</v>
+      </c>
+      <c r="C27" t="n">
+        <v>673.63</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.48999999999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-36.29272125766624</v>
+      </c>
+      <c r="H27" t="n">
+        <v>673.63</v>
+      </c>
+      <c r="I27" t="n">
+        <v>709.9227212576662</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>87.39</v>
+      </c>
+      <c r="B28" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>87.39</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-36.72195017939259</v>
+      </c>
+      <c r="H28" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>751.2219501793926</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="B29" t="n">
+        <v>672.66</v>
+      </c>
+      <c r="C29" t="n">
+        <v>672.66</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-37.1593969916496</v>
+      </c>
+      <c r="H29" t="n">
+        <v>672.66</v>
+      </c>
+      <c r="I29" t="n">
+        <v>709.8193969916496</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="B30" t="n">
+        <v>652.39</v>
+      </c>
+      <c r="C30" t="n">
+        <v>652.39</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-37.60528138017298</v>
+      </c>
+      <c r="H30" t="n">
+        <v>652.39</v>
+      </c>
+      <c r="I30" t="n">
+        <v>689.995281380173</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>87.09</v>
+      </c>
+      <c r="B31" t="n">
+        <v>682</v>
+      </c>
+      <c r="C31" t="n">
+        <v>682</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>87.09</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-38.05983062694963</v>
+      </c>
+      <c r="H31" t="n">
+        <v>682</v>
+      </c>
+      <c r="I31" t="n">
+        <v>720.0598306269496</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>646.3099999999999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>646.3099999999999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-38.52327993431254</v>
+      </c>
+      <c r="H32" t="n">
+        <v>646.3099999999999</v>
+      </c>
+      <c r="I32" t="n">
+        <v>684.8332799343125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>86.89</v>
+      </c>
+      <c r="B33" t="n">
+        <v>632.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>632.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>86.89</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-38.99587276555394</v>
+      </c>
+      <c r="H33" t="n">
+        <v>632.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>671.4958727655539</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="B34" t="n">
+        <v>666.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>666.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-39.47786120304397</v>
+      </c>
+      <c r="H34" t="n">
+        <v>666.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>706.2778612030439</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>86.69</v>
+      </c>
+      <c r="B35" t="n">
+        <v>746.9299999999999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>746.9299999999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>86.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-39.96950632489961</v>
+      </c>
+      <c r="H35" t="n">
+        <v>746.9299999999999</v>
+      </c>
+      <c r="I35" t="n">
+        <v>786.8995063248996</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>86.59</v>
+      </c>
+      <c r="B36" t="n">
+        <v>650.4400000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>650.4400000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>86.59</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-40.47107860132974</v>
+      </c>
+      <c r="H36" t="n">
+        <v>650.4400000000001</v>
+      </c>
+      <c r="I36" t="n">
+        <v>690.9110786013298</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>86.48999999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>674.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>674.9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>86.48999999999999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-40.98285831185319</v>
+      </c>
+      <c r="H37" t="n">
+        <v>674.9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>715.8828583118532</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="B38" t="n">
+        <v>673.85</v>
+      </c>
+      <c r="C38" t="n">
+        <v>673.85</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-41.50513598467512</v>
+      </c>
+      <c r="H38" t="n">
+        <v>673.85</v>
+      </c>
+      <c r="I38" t="n">
+        <v>715.3551359846751</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="B39" t="n">
+        <v>659.87</v>
+      </c>
+      <c r="C39" t="n">
+        <v>659.87</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-42.03821285959418</v>
+      </c>
+      <c r="H39" t="n">
+        <v>659.87</v>
+      </c>
+      <c r="I39" t="n">
+        <v>701.9082128595942</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>86.19</v>
+      </c>
+      <c r="B40" t="n">
+        <v>716.84</v>
+      </c>
+      <c r="C40" t="n">
+        <v>700.3099999999999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>86.19</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-26.05240137591238</v>
+      </c>
+      <c r="H40" t="n">
+        <v>700.3099999999999</v>
+      </c>
+      <c r="I40" t="n">
+        <v>742.8924013759124</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>86.09</v>
+      </c>
+      <c r="B41" t="n">
+        <v>665.6799999999999</v>
+      </c>
+      <c r="C41" t="n">
+        <v>697.55</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>86.09</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-75.00802568692495</v>
+      </c>
+      <c r="H41" t="n">
+        <v>697.55</v>
+      </c>
+      <c r="I41" t="n">
+        <v>740.6880256869249</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>718.4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>697.58</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-22.88542220268175</v>
+      </c>
+      <c r="H42" t="n">
+        <v>697.58</v>
+      </c>
+      <c r="I42" t="n">
+        <v>741.2854222026817</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="B43" t="n">
+        <v>692.95</v>
+      </c>
+      <c r="C43" t="n">
+        <v>697.6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-48.93494016283319</v>
+      </c>
+      <c r="H43" t="n">
+        <v>697.6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>741.8849401628332</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>85.79000000000001</v>
+      </c>
+      <c r="B44" t="n">
+        <v>667.09</v>
+      </c>
+      <c r="C44" t="n">
+        <v>697.5700000000001</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>85.79000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-75.35694224151098</v>
+      </c>
+      <c r="H44" t="n">
+        <v>697.5700000000001</v>
+      </c>
+      <c r="I44" t="n">
+        <v>742.446942241511</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>85.69</v>
+      </c>
+      <c r="B45" t="n">
+        <v>664.37</v>
+      </c>
+      <c r="C45" t="n">
+        <v>697.64</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>85.69</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-78.75180518633431</v>
+      </c>
+      <c r="H45" t="n">
+        <v>697.64</v>
+      </c>
+      <c r="I45" t="n">
+        <v>743.1218051863343</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>85.59</v>
+      </c>
+      <c r="B46" t="n">
+        <v>617.76</v>
+      </c>
+      <c r="C46" t="n">
+        <v>697.76</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>85.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-126.0999204937921</v>
+      </c>
+      <c r="H46" t="n">
+        <v>697.76</v>
+      </c>
+      <c r="I46" t="n">
+        <v>743.8599204937921</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>85.48999999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>656.72</v>
+      </c>
+      <c r="C47" t="n">
+        <v>697.97</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>85.48999999999999</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-87.98169512342179</v>
+      </c>
+      <c r="H47" t="n">
+        <v>697.97</v>
+      </c>
+      <c r="I47" t="n">
+        <v>744.7016951234218</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>85.39</v>
+      </c>
+      <c r="B48" t="n">
+        <v>730.78</v>
+      </c>
+      <c r="C48" t="n">
+        <v>698.2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>85.39</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-14.79755225338704</v>
+      </c>
+      <c r="H48" t="n">
+        <v>698.2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>745.577552253387</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>85.29000000000001</v>
+      </c>
+      <c r="B49" t="n">
+        <v>637.88</v>
+      </c>
+      <c r="C49" t="n">
+        <v>698.22</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>85.29000000000001</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-108.3779320802616</v>
+      </c>
+      <c r="H49" t="n">
+        <v>698.22</v>
+      </c>
+      <c r="I49" t="n">
+        <v>746.2579320802616</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>85.19</v>
+      </c>
+      <c r="B50" t="n">
+        <v>615.98</v>
+      </c>
+      <c r="C50" t="n">
+        <v>698.27</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>85.19</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-131.0032926660415</v>
+      </c>
+      <c r="H50" t="n">
+        <v>698.27</v>
+      </c>
+      <c r="I50" t="n">
+        <v>746.9832926660415</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="B51" t="n">
+        <v>699.65</v>
+      </c>
+      <c r="C51" t="n">
+        <v>698.55</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-48.304110835644</v>
+      </c>
+      <c r="H51" t="n">
+        <v>698.55</v>
+      </c>
+      <c r="I51" t="n">
+        <v>747.954110835644</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>682.09</v>
+      </c>
+      <c r="C52" t="n">
+        <v>698.7</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-66.72088312841674</v>
+      </c>
+      <c r="H52" t="n">
+        <v>698.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>748.8108831284168</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>84.89</v>
+      </c>
+      <c r="B53" t="n">
+        <v>673.64</v>
+      </c>
+      <c r="C53" t="n">
+        <v>698.73</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>84.89</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-75.92412680745144</v>
+      </c>
+      <c r="H53" t="n">
+        <v>698.73</v>
+      </c>
+      <c r="I53" t="n">
+        <v>749.5641268074514</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>84.79000000000001</v>
+      </c>
+      <c r="B54" t="n">
+        <v>677.53</v>
+      </c>
+      <c r="C54" t="n">
+        <v>698.8099999999999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>84.79000000000001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-72.85438093081427</v>
+      </c>
+      <c r="H54" t="n">
+        <v>698.8099999999999</v>
+      </c>
+      <c r="I54" t="n">
+        <v>750.3843809308142</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>84.69</v>
+      </c>
+      <c r="B55" t="n">
+        <v>655.0599999999999</v>
+      </c>
+      <c r="C55" t="n">
+        <v>698.9</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>84.69</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-96.17220748913155</v>
+      </c>
+      <c r="H55" t="n">
+        <v>698.9</v>
+      </c>
+      <c r="I55" t="n">
+        <v>751.2322074891315</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>84.59</v>
+      </c>
+      <c r="B56" t="n">
+        <v>719.92</v>
+      </c>
+      <c r="C56" t="n">
+        <v>699.02</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>84.59</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-32.20819261433985</v>
+      </c>
+      <c r="H56" t="n">
+        <v>699.02</v>
+      </c>
+      <c r="I56" t="n">
+        <v>752.1281926143398</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>84.48999999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>734.77</v>
+      </c>
+      <c r="C57" t="n">
+        <v>699.0599999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>84.48999999999999</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-18.19294786480918</v>
+      </c>
+      <c r="H57" t="n">
+        <v>699.0599999999999</v>
+      </c>
+      <c r="I57" t="n">
+        <v>752.9629478648092</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>84.39</v>
+      </c>
+      <c r="B58" t="n">
+        <v>731.33</v>
+      </c>
+      <c r="C58" t="n">
+        <v>698.96</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>84.39</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-22.34711159248354</v>
+      </c>
+      <c r="H58" t="n">
+        <v>698.96</v>
+      </c>
+      <c r="I58" t="n">
+        <v>753.6771115924836</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="B59" t="n">
+        <v>728.23</v>
+      </c>
+      <c r="C59" t="n">
+        <v>698.83</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-26.15135039816505</v>
+      </c>
+      <c r="H59" t="n">
+        <v>698.83</v>
+      </c>
+      <c r="I59" t="n">
+        <v>754.3813503981651</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="B60" t="n">
+        <v>726.02</v>
+      </c>
+      <c r="C60" t="n">
+        <v>698.71</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-29.09636068158943</v>
+      </c>
+      <c r="H60" t="n">
+        <v>698.71</v>
+      </c>
+      <c r="I60" t="n">
+        <v>755.1163606815894</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>84.09</v>
+      </c>
+      <c r="B61" t="n">
+        <v>681.96</v>
+      </c>
+      <c r="C61" t="n">
+        <v>698.6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>84.09</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-73.92287029352099</v>
+      </c>
+      <c r="H61" t="n">
+        <v>698.6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>755.882870293521</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>647.77</v>
+      </c>
+      <c r="C62" t="n">
+        <v>698.58</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-108.9916402977286</v>
+      </c>
+      <c r="H62" t="n">
+        <v>698.58</v>
+      </c>
+      <c r="I62" t="n">
+        <v>756.7616402977286</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>83.89</v>
+      </c>
+      <c r="B63" t="n">
+        <v>699.66</v>
+      </c>
+      <c r="C63" t="n">
+        <v>698.71</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>83.89</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-58.15346685138911</v>
+      </c>
+      <c r="H63" t="n">
+        <v>698.71</v>
+      </c>
+      <c r="I63" t="n">
+        <v>757.8134668513891</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>83.79000000000001</v>
+      </c>
+      <c r="B64" t="n">
+        <v>721.13</v>
+      </c>
+      <c r="C64" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>83.79000000000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-37.71918321324836</v>
+      </c>
+      <c r="H64" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>758.8491832132484</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>83.69</v>
+      </c>
+      <c r="B65" t="n">
+        <v>657.9299999999999</v>
+      </c>
+      <c r="C65" t="n">
+        <v>698.76</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>83.69</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-101.8496618896951</v>
+      </c>
+      <c r="H65" t="n">
+        <v>698.76</v>
+      </c>
+      <c r="I65" t="n">
+        <v>759.779661889695</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>83.59</v>
+      </c>
+      <c r="B66" t="n">
+        <v>682.38</v>
+      </c>
+      <c r="C66" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>83.59</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-78.43581692983878</v>
+      </c>
+      <c r="H66" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="I66" t="n">
+        <v>760.8158169298388</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>83.48999999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>704.73</v>
+      </c>
+      <c r="C67" t="n">
+        <v>698.9</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>83.48999999999999</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-57.20860638171416</v>
+      </c>
+      <c r="H67" t="n">
+        <v>698.9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>761.9386063817142</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>83.39</v>
+      </c>
+      <c r="B68" t="n">
+        <v>687.46</v>
+      </c>
+      <c r="C68" t="n">
+        <v>698.92</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>83.39</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-75.54903492285155</v>
+      </c>
+      <c r="H68" t="n">
+        <v>698.92</v>
+      </c>
+      <c r="I68" t="n">
+        <v>763.0090349228516</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>83.29000000000001</v>
+      </c>
+      <c r="B69" t="n">
+        <v>739.55</v>
+      </c>
+      <c r="C69" t="n">
+        <v>698.9400000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>83.29000000000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-24.55815667972092</v>
+      </c>
+      <c r="H69" t="n">
+        <v>698.9400000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>764.1081566797209</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>83.19</v>
+      </c>
+      <c r="B70" t="n">
+        <v>737.03</v>
+      </c>
+      <c r="C70" t="n">
+        <v>698.88</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>83.19</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-28.1270782519307</v>
+      </c>
+      <c r="H70" t="n">
+        <v>698.88</v>
+      </c>
+      <c r="I70" t="n">
+        <v>765.1570782519307</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>83.09</v>
+      </c>
+      <c r="B71" t="n">
+        <v>686.16</v>
+      </c>
+      <c r="C71" t="n">
+        <v>698.73</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>83.09</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-79.98696195860623</v>
+      </c>
+      <c r="H71" t="n">
+        <v>698.73</v>
+      </c>
+      <c r="I71" t="n">
+        <v>766.1469619586062</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>82.98999999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>666.78</v>
+      </c>
+      <c r="C72" t="n">
+        <v>698.6799999999999</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>82.98999999999999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-100.4890293260729</v>
+      </c>
+      <c r="H72" t="n">
+        <v>698.6799999999999</v>
+      </c>
+      <c r="I72" t="n">
+        <v>767.2690293260729</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>82.89</v>
+      </c>
+      <c r="B73" t="n">
+        <v>710.96</v>
+      </c>
+      <c r="C73" t="n">
+        <v>698.77</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>82.89</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-57.60456483786265</v>
+      </c>
+      <c r="H73" t="n">
+        <v>698.77</v>
+      </c>
+      <c r="I73" t="n">
+        <v>768.5645648378627</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>82.79000000000001</v>
+      </c>
+      <c r="B74" t="n">
+        <v>707.17</v>
+      </c>
+      <c r="C74" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>82.79000000000001</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-62.66491997016794</v>
+      </c>
+      <c r="H74" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>769.8349199701679</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>82.69</v>
+      </c>
+      <c r="B75" t="n">
+        <v>680.3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>698.76</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>82.69</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-90.77151753820965</v>
+      </c>
+      <c r="H75" t="n">
+        <v>698.76</v>
+      </c>
+      <c r="I75" t="n">
+        <v>771.0715175382096</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="B76" t="n">
+        <v>718.12</v>
+      </c>
+      <c r="C76" t="n">
+        <v>698.78</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-54.28585638160041</v>
+      </c>
+      <c r="H76" t="n">
+        <v>698.78</v>
+      </c>
+      <c r="I76" t="n">
+        <v>772.4058563816004</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>725.24</v>
+      </c>
+      <c r="C77" t="n">
+        <v>698.78</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-48.51951641969936</v>
+      </c>
+      <c r="H77" t="n">
+        <v>698.78</v>
+      </c>
+      <c r="I77" t="n">
+        <v>773.7595164196994</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="B78" t="n">
+        <v>723.87</v>
+      </c>
+      <c r="C78" t="n">
+        <v>698.6900000000001</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-51.19416411121165</v>
+      </c>
+      <c r="H78" t="n">
+        <v>698.6900000000001</v>
+      </c>
+      <c r="I78" t="n">
+        <v>775.0641641112117</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>82.29000000000001</v>
+      </c>
+      <c r="B79" t="n">
+        <v>721.42</v>
+      </c>
+      <c r="C79" t="n">
+        <v>698.6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>82.29000000000001</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-54.99155835593967</v>
+      </c>
+      <c r="H79" t="n">
+        <v>698.6</v>
+      </c>
+      <c r="I79" t="n">
+        <v>776.4115583559396</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>82.19</v>
+      </c>
+      <c r="B80" t="n">
+        <v>725.85</v>
+      </c>
+      <c r="C80" t="n">
+        <v>698.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>82.19</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-51.94355688067412</v>
+      </c>
+      <c r="H80" t="n">
+        <v>698.5</v>
+      </c>
+      <c r="I80" t="n">
+        <v>777.7935568806741</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>82.09</v>
+      </c>
+      <c r="B81" t="n">
+        <v>737.61</v>
+      </c>
+      <c r="C81" t="n">
+        <v>698.41</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>82.09</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-41.62212315580189</v>
+      </c>
+      <c r="H81" t="n">
+        <v>698.41</v>
+      </c>
+      <c r="I81" t="n">
+        <v>779.2321231558019</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="B82" t="n">
+        <v>733.0599999999999</v>
+      </c>
+      <c r="C82" t="n">
+        <v>698.28</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-47.61933389436626</v>
+      </c>
+      <c r="H82" t="n">
+        <v>698.28</v>
+      </c>
+      <c r="I82" t="n">
+        <v>780.6793338943662</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="B83" t="n">
+        <v>733.02</v>
+      </c>
+      <c r="C83" t="n">
+        <v>698.14</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-49.14738719110858</v>
+      </c>
+      <c r="H83" t="n">
+        <v>698.14</v>
+      </c>
+      <c r="I83" t="n">
+        <v>782.1673871911086</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="B84" t="n">
+        <v>797.34</v>
+      </c>
+      <c r="C84" t="n">
+        <v>698.01</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>13.62138863443454</v>
+      </c>
+      <c r="H84" t="n">
+        <v>698.01</v>
+      </c>
+      <c r="I84" t="n">
+        <v>783.7186113655655</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>81.69</v>
+      </c>
+      <c r="B85" t="n">
+        <v>721.49</v>
+      </c>
+      <c r="C85" t="n">
+        <v>697.75</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>81.69</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-63.70547458066994</v>
+      </c>
+      <c r="H85" t="n">
+        <v>697.75</v>
+      </c>
+      <c r="I85" t="n">
+        <v>785.19547458067</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>81.59</v>
+      </c>
+      <c r="B86" t="n">
+        <v>727.86</v>
+      </c>
+      <c r="C86" t="n">
+        <v>697.52</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>81.59</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-58.90059531664963</v>
+      </c>
+      <c r="H86" t="n">
+        <v>697.52</v>
+      </c>
+      <c r="I86" t="n">
+        <v>786.7605953166496</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>81.48999999999999</v>
+      </c>
+      <c r="B87" t="n">
+        <v>737.62</v>
+      </c>
+      <c r="C87" t="n">
+        <v>697.42</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>81.48999999999999</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-50.89675378946538</v>
+      </c>
+      <c r="H87" t="n">
+        <v>697.42</v>
+      </c>
+      <c r="I87" t="n">
+        <v>788.5167537894654</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>81.39</v>
+      </c>
+      <c r="B88" t="n">
+        <v>742.6</v>
+      </c>
+      <c r="C88" t="n">
+        <v>697.28</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>81.39</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-47.69690441373734</v>
+      </c>
+      <c r="H88" t="n">
+        <v>697.28</v>
+      </c>
+      <c r="I88" t="n">
+        <v>790.2969044137374</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>81.29000000000001</v>
+      </c>
+      <c r="B89" t="n">
+        <v>745.3200000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>697.12</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>81.29000000000001</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-46.80418942229312</v>
+      </c>
+      <c r="H89" t="n">
+        <v>697.12</v>
+      </c>
+      <c r="I89" t="n">
+        <v>792.1241894222932</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>81.19</v>
+      </c>
+      <c r="B90" t="n">
+        <v>723.89</v>
+      </c>
+      <c r="C90" t="n">
+        <v>696.9400000000001</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>81.19</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-70.11195376830506</v>
+      </c>
+      <c r="H90" t="n">
+        <v>696.9400000000001</v>
+      </c>
+      <c r="I90" t="n">
+        <v>794.001953768305</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>81.09</v>
+      </c>
+      <c r="B91" t="n">
+        <v>806.03</v>
+      </c>
+      <c r="C91" t="n">
+        <v>696.8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>81.09</v>
+      </c>
+      <c r="G91" t="n">
+        <v>10.03623854821137</v>
+      </c>
+      <c r="H91" t="n">
+        <v>696.8</v>
+      </c>
+      <c r="I91" t="n">
+        <v>795.9937614517886</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>80.98999999999999</v>
+      </c>
+      <c r="B92" t="n">
+        <v>784.83</v>
+      </c>
+      <c r="C92" t="n">
+        <v>696.54</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>80.98999999999999</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-13.11341343026652</v>
+      </c>
+      <c r="H92" t="n">
+        <v>696.54</v>
+      </c>
+      <c r="I92" t="n">
+        <v>797.9434134302666</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>80.89</v>
+      </c>
+      <c r="B93" t="n">
+        <v>716.77</v>
+      </c>
+      <c r="C93" t="n">
+        <v>696.16</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>80.89</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-83.084967294021</v>
+      </c>
+      <c r="H93" t="n">
+        <v>696.16</v>
+      </c>
+      <c r="I93" t="n">
+        <v>799.854967294021</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>80.79000000000001</v>
+      </c>
+      <c r="B94" t="n">
+        <v>766.6900000000001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>695.95</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>80.79000000000001</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-35.33275891003484</v>
+      </c>
+      <c r="H94" t="n">
+        <v>695.95</v>
+      </c>
+      <c r="I94" t="n">
+        <v>802.0227589100349</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>80.69</v>
+      </c>
+      <c r="B95" t="n">
+        <v>763.58</v>
+      </c>
+      <c r="C95" t="n">
+        <v>695.78</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>80.69</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-40.74142626586683</v>
+      </c>
+      <c r="H95" t="n">
+        <v>695.78</v>
+      </c>
+      <c r="I95" t="n">
+        <v>804.3214262658669</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="B96" t="n">
+        <v>778.28</v>
+      </c>
+      <c r="C96" t="n">
+        <v>695.52</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-28.34593577598378</v>
+      </c>
+      <c r="H96" t="n">
+        <v>695.52</v>
+      </c>
+      <c r="I96" t="n">
+        <v>806.6259357759837</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>80.48999999999999</v>
+      </c>
+      <c r="B97" t="n">
+        <v>737.66</v>
+      </c>
+      <c r="C97" t="n">
+        <v>695.23</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>80.48999999999999</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-71.34161134913325</v>
+      </c>
+      <c r="H97" t="n">
+        <v>695.23</v>
+      </c>
+      <c r="I97" t="n">
+        <v>809.0016113491332</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>80.39</v>
+      </c>
+      <c r="B98" t="n">
+        <v>773.5700000000001</v>
+      </c>
+      <c r="C98" t="n">
+        <v>694.99</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>80.39</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-37.96416655699898</v>
+      </c>
+      <c r="H98" t="n">
+        <v>694.99</v>
+      </c>
+      <c r="I98" t="n">
+        <v>811.534166556999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>80.29000000000001</v>
+      </c>
+      <c r="B99" t="n">
+        <v>782.78</v>
+      </c>
+      <c r="C99" t="n">
+        <v>694.76</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>80.29000000000001</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-31.40974029266192</v>
+      </c>
+      <c r="H99" t="n">
+        <v>694.76</v>
+      </c>
+      <c r="I99" t="n">
+        <v>814.1897402926619</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>80.19</v>
+      </c>
+      <c r="B100" t="n">
+        <v>744.92</v>
+      </c>
+      <c r="C100" t="n">
+        <v>694.4400000000001</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>80.19</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-71.95493636339427</v>
+      </c>
+      <c r="H100" t="n">
+        <v>694.4400000000001</v>
+      </c>
+      <c r="I100" t="n">
+        <v>816.8749363633942</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>80.09</v>
+      </c>
+      <c r="B101" t="n">
+        <v>800.46</v>
+      </c>
+      <c r="C101" t="n">
+        <v>694.1799999999999</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>80.09</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-19.28686752751037</v>
+      </c>
+      <c r="H101" t="n">
+        <v>694.1799999999999</v>
+      </c>
+      <c r="I101" t="n">
+        <v>819.7468675275104</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="B102" t="n">
+        <v>772.59</v>
+      </c>
+      <c r="C102" t="n">
+        <v>693.88</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-50.12320456100736</v>
+      </c>
+      <c r="H102" t="n">
+        <v>693.88</v>
+      </c>
+      <c r="I102" t="n">
+        <v>822.7132045610074</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>79.89</v>
+      </c>
+      <c r="B103" t="n">
+        <v>745.49</v>
+      </c>
+      <c r="C103" t="n">
+        <v>693.53</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>79.89</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-80.28223102857294</v>
+      </c>
+      <c r="H103" t="n">
+        <v>693.53</v>
+      </c>
+      <c r="I103" t="n">
+        <v>825.7722310285729</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="B104" t="n">
+        <v>829.1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>693.28</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.01709546228948966</v>
+      </c>
+      <c r="H104" t="n">
+        <v>693.28</v>
+      </c>
+      <c r="I104" t="n">
+        <v>829.0829045377105</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>79.69</v>
+      </c>
+      <c r="B105" t="n">
+        <v>822.01</v>
+      </c>
+      <c r="C105" t="n">
+        <v>692.92</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>79.69</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-10.4349253770622</v>
+      </c>
+      <c r="H105" t="n">
+        <v>692.92</v>
+      </c>
+      <c r="I105" t="n">
+        <v>832.4449253770622</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="B106" t="n">
+        <v>746.11</v>
+      </c>
+      <c r="C106" t="n">
+        <v>692.41</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-89.71881358417977</v>
+      </c>
+      <c r="H106" t="n">
+        <v>692.41</v>
+      </c>
+      <c r="I106" t="n">
+        <v>835.8288135841798</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="B107" t="n">
+        <v>716.39</v>
+      </c>
+      <c r="C107" t="n">
+        <v>692.0700000000001</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-123.1759956582888</v>
+      </c>
+      <c r="H107" t="n">
+        <v>692.0700000000001</v>
+      </c>
+      <c r="I107" t="n">
+        <v>839.5659956582888</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>79.39</v>
+      </c>
+      <c r="B108" t="n">
+        <v>807.83</v>
+      </c>
+      <c r="C108" t="n">
+        <v>691.92</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>79.39</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-35.85890233529472</v>
+      </c>
+      <c r="H108" t="n">
+        <v>691.92</v>
+      </c>
+      <c r="I108" t="n">
+        <v>843.6889023352948</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="B109" t="n">
+        <v>791.62</v>
+      </c>
+      <c r="C109" t="n">
+        <v>691.65</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-56.28107908198069</v>
+      </c>
+      <c r="H109" t="n">
+        <v>691.65</v>
+      </c>
+      <c r="I109" t="n">
+        <v>847.9010790819807</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>79.19</v>
+      </c>
+      <c r="B110" t="n">
+        <v>836.38</v>
+      </c>
+      <c r="C110" t="n">
+        <v>691.24</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>79.19</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-15.81731125189492</v>
+      </c>
+      <c r="H110" t="n">
+        <v>691.24</v>
+      </c>
+      <c r="I110" t="n">
+        <v>852.1973112518949</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="B111" t="n">
+        <v>768.3200000000001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>690.77</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-88.35376618681573</v>
+      </c>
+      <c r="H111" t="n">
+        <v>690.77</v>
+      </c>
+      <c r="I111" t="n">
+        <v>856.6737661868158</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="B112" t="n">
+        <v>847.41</v>
+      </c>
+      <c r="C112" t="n">
+        <v>690.35</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-14.04815495698449</v>
+      </c>
+      <c r="H112" t="n">
+        <v>690.35</v>
+      </c>
+      <c r="I112" t="n">
+        <v>861.4581549569845</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>78.89</v>
+      </c>
+      <c r="B113" t="n">
+        <v>786.98</v>
+      </c>
+      <c r="C113" t="n">
+        <v>689.9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>78.89</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-79.50991692568073</v>
+      </c>
+      <c r="H113" t="n">
+        <v>689.9</v>
+      </c>
+      <c r="I113" t="n">
+        <v>866.4899169256807</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>78.79000000000001</v>
+      </c>
+      <c r="B114" t="n">
+        <v>829.78</v>
+      </c>
+      <c r="C114" t="n">
+        <v>689.41</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>78.79000000000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-42.00043091811801</v>
+      </c>
+      <c r="H114" t="n">
+        <v>689.41</v>
+      </c>
+      <c r="I114" t="n">
+        <v>871.780430918118</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>78.69</v>
+      </c>
+      <c r="B115" t="n">
+        <v>883.63</v>
+      </c>
+      <c r="C115" t="n">
+        <v>688.96</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>78.69</v>
+      </c>
+      <c r="G115" t="n">
+        <v>6.196742505483599</v>
+      </c>
+      <c r="H115" t="n">
+        <v>688.96</v>
+      </c>
+      <c r="I115" t="n">
+        <v>877.4332574945164</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>78.59</v>
+      </c>
+      <c r="B116" t="n">
+        <v>828.61</v>
+      </c>
+      <c r="C116" t="n">
+        <v>688.3200000000001</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>78.59</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-54.63441770239717</v>
+      </c>
+      <c r="H116" t="n">
+        <v>688.3200000000001</v>
+      </c>
+      <c r="I116" t="n">
+        <v>883.2444177023972</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>78.48999999999999</v>
+      </c>
+      <c r="B117" t="n">
+        <v>922.27</v>
+      </c>
+      <c r="C117" t="n">
+        <v>687.6799999999999</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>78.48999999999999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>32.83728524908292</v>
+      </c>
+      <c r="H117" t="n">
+        <v>687.6799999999999</v>
+      </c>
+      <c r="I117" t="n">
+        <v>889.4327147509171</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>78.39</v>
+      </c>
+      <c r="B118" t="n">
+        <v>832.05</v>
+      </c>
+      <c r="C118" t="n">
+        <v>686.96</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>78.39</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-63.9001063578055</v>
+      </c>
+      <c r="H118" t="n">
+        <v>686.96</v>
+      </c>
+      <c r="I118" t="n">
+        <v>895.9501063578055</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>78.29000000000001</v>
+      </c>
+      <c r="B119" t="n">
+        <v>953.4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>686.24</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>78.29000000000001</v>
+      </c>
+      <c r="G119" t="n">
+        <v>50.48786287247981</v>
+      </c>
+      <c r="H119" t="n">
+        <v>686.24</v>
+      </c>
+      <c r="I119" t="n">
+        <v>902.9121371275202</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>78.19</v>
+      </c>
+      <c r="B120" t="n">
+        <v>904.9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>685.45</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>78.19</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-5.388442304341993</v>
+      </c>
+      <c r="H120" t="n">
+        <v>685.45</v>
+      </c>
+      <c r="I120" t="n">
+        <v>910.288442304342</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>78.09</v>
+      </c>
+      <c r="B121" t="n">
+        <v>875.96</v>
+      </c>
+      <c r="C121" t="n">
+        <v>684.53</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>78.09</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-42.10333670511216</v>
+      </c>
+      <c r="H121" t="n">
+        <v>684.53</v>
+      </c>
+      <c r="I121" t="n">
+        <v>918.0633367051122</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>77.98999999999999</v>
+      </c>
+      <c r="B122" t="n">
+        <v>890.1900000000001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>683.74</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>77.98999999999999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-36.35650570020562</v>
+      </c>
+      <c r="H122" t="n">
+        <v>683.74</v>
+      </c>
+      <c r="I122" t="n">
+        <v>926.5465057002057</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>77.89</v>
+      </c>
+      <c r="B123" t="n">
+        <v>942.52</v>
+      </c>
+      <c r="C123" t="n">
+        <v>682.98</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>77.89</v>
+      </c>
+      <c r="G123" t="n">
+        <v>6.826181057506801</v>
+      </c>
+      <c r="H123" t="n">
+        <v>682.98</v>
+      </c>
+      <c r="I123" t="n">
+        <v>935.6938189424932</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>77.79000000000001</v>
+      </c>
+      <c r="B124" t="n">
+        <v>941.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>682.09</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>77.79000000000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-4.208292356445327</v>
+      </c>
+      <c r="H124" t="n">
+        <v>682.09</v>
+      </c>
+      <c r="I124" t="n">
+        <v>945.4082923564454</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="B125" t="n">
+        <v>972.83</v>
+      </c>
+      <c r="C125" t="n">
+        <v>681.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="G125" t="n">
+        <v>17.03877002811055</v>
+      </c>
+      <c r="H125" t="n">
+        <v>681.1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>955.7912299718895</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>77.59</v>
+      </c>
+      <c r="B126" t="n">
+        <v>997.38</v>
+      </c>
+      <c r="C126" t="n">
+        <v>680.04</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>77.59</v>
+      </c>
+      <c r="G126" t="n">
+        <v>30.4264151146009</v>
+      </c>
+      <c r="H126" t="n">
+        <v>680.04</v>
+      </c>
+      <c r="I126" t="n">
+        <v>966.9535848853991</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="B127" t="n">
+        <v>979.0700000000001</v>
+      </c>
+      <c r="C127" t="n">
+        <v>678.88</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.112411561544036</v>
+      </c>
+      <c r="H127" t="n">
+        <v>678.88</v>
+      </c>
+      <c r="I127" t="n">
+        <v>978.957588438456</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>77.39</v>
+      </c>
+      <c r="B128" t="n">
+        <v>985.26</v>
+      </c>
+      <c r="C128" t="n">
+        <v>677.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>77.39</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-6.728709252334625</v>
+      </c>
+      <c r="H128" t="n">
+        <v>677.7</v>
+      </c>
+      <c r="I128" t="n">
+        <v>991.9887092523346</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>77.29000000000001</v>
+      </c>
+      <c r="B129" t="n">
+        <v>969.88</v>
+      </c>
+      <c r="C129" t="n">
+        <v>676.54</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>77.29000000000001</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-36.32801990062956</v>
+      </c>
+      <c r="H129" t="n">
+        <v>676.54</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1006.20801990063</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>77.19</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1030.39</v>
+      </c>
+      <c r="C130" t="n">
+        <v>675.39</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>77.19</v>
+      </c>
+      <c r="G130" t="n">
+        <v>8.644930143307306</v>
+      </c>
+      <c r="H130" t="n">
+        <v>675.39</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1021.745069856693</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>77.09</v>
+      </c>
+      <c r="B131" t="n">
+        <v>968.64</v>
+      </c>
+      <c r="C131" t="n">
+        <v>674.15</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>77.09</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-70.02139042777924</v>
+      </c>
+      <c r="H131" t="n">
+        <v>674.15</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1038.661390427779</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>76.98999999999999</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1042.26</v>
+      </c>
+      <c r="C132" t="n">
+        <v>672.91</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>76.98999999999999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-14.97479268917027</v>
+      </c>
+      <c r="H132" t="n">
+        <v>672.91</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1057.23479268917</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>76.89</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1033.69</v>
+      </c>
+      <c r="C133" t="n">
+        <v>671.64</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>76.89</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-43.96466564611546</v>
+      </c>
+      <c r="H133" t="n">
+        <v>671.64</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1077.654665646116</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1084.68</v>
+      </c>
+      <c r="C134" t="n">
+        <v>670.24</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-15.39854256386593</v>
+      </c>
+      <c r="H134" t="n">
+        <v>670.24</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1100.078542563866</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>76.69</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1117.81</v>
+      </c>
+      <c r="C135" t="n">
+        <v>668.74</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>76.69</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-7.030283372475878</v>
+      </c>
+      <c r="H135" t="n">
+        <v>668.74</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1124.840283372476</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>76.59</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1119.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>667.09</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>76.59</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-32.6503265184715</v>
+      </c>
+      <c r="H136" t="n">
+        <v>667.09</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1152.250326518471</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1162.83</v>
+      </c>
+      <c r="C137" t="n">
+        <v>665.36</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-19.97860263800112</v>
+      </c>
+      <c r="H137" t="n">
+        <v>665.36</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1182.808602638001</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>76.39</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1083.27</v>
+      </c>
+      <c r="C138" t="n">
+        <v>663.55</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>76.39</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-133.7608849515732</v>
+      </c>
+      <c r="H138" t="n">
+        <v>663.55</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1217.030884951573</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1289.37</v>
+      </c>
+      <c r="C139" t="n">
+        <v>661.78</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>33.7104110826067</v>
+      </c>
+      <c r="H139" t="n">
+        <v>661.78</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1255.659588917393</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1344.89</v>
+      </c>
+      <c r="C140" t="n">
+        <v>659.74</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="G140" t="n">
+        <v>45.74966202169412</v>
+      </c>
+      <c r="H140" t="n">
+        <v>659.74</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1299.140337978306</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1283.44</v>
+      </c>
+      <c r="C141" t="n">
+        <v>657.23</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-64.7559900225715</v>
+      </c>
+      <c r="H141" t="n">
+        <v>657.23</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1348.195990022572</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1494.03</v>
+      </c>
+      <c r="C142" t="n">
+        <v>654.6900000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>89.62973899450594</v>
+      </c>
+      <c r="H142" t="n">
+        <v>654.6900000000001</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1404.400261005494</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>75.89</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1483.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>651.85</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>75.89</v>
+      </c>
+      <c r="G143" t="n">
+        <v>14.91646423532552</v>
+      </c>
+      <c r="H143" t="n">
+        <v>651.85</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1468.883535764674</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>75.79000000000001</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1506.12</v>
+      </c>
+      <c r="C144" t="n">
+        <v>648.65</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>75.79000000000001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-37.20376736366507</v>
+      </c>
+      <c r="H144" t="n">
+        <v>648.65</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1543.323767363665</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>75.69</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C145" t="n">
+        <v>645.38</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>75.69</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-26.17515184638341</v>
+      </c>
+      <c r="H145" t="n">
+        <v>645.38</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1630.175151846383</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1853.97</v>
+      </c>
+      <c r="C146" t="n">
+        <v>641.83</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="G146" t="n">
+        <v>122.0443591359324</v>
+      </c>
+      <c r="H146" t="n">
+        <v>641.83</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1731.925640864068</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>75.48999999999999</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1910.86</v>
+      </c>
+      <c r="C147" t="n">
+        <v>637.59</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>75.48999999999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>59.34062847734754</v>
+      </c>
+      <c r="H147" t="n">
+        <v>637.59</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1851.519371522652</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>75.39</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1998.46</v>
+      </c>
+      <c r="C148" t="n">
+        <v>632.77</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>75.39</v>
+      </c>
+      <c r="G148" t="n">
+        <v>5.262392715143505</v>
+      </c>
+      <c r="H148" t="n">
+        <v>632.77</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1993.197607284857</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>75.29000000000001</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2206.02</v>
+      </c>
+      <c r="C149" t="n">
+        <v>627.62</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>75.29000000000001</v>
+      </c>
+      <c r="G149" t="n">
+        <v>43.8266625041224</v>
+      </c>
+      <c r="H149" t="n">
+        <v>627.62</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2162.193337495878</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>75.19</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2456.19</v>
+      </c>
+      <c r="C150" t="n">
+        <v>621.8099999999999</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>75.19</v>
+      </c>
+      <c r="G150" t="n">
+        <v>92.25592005465796</v>
+      </c>
+      <c r="H150" t="n">
+        <v>621.8099999999999</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2363.934079945342</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>75.09</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2556.78</v>
+      </c>
+      <c r="C151" t="n">
+        <v>615.12</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>75.09</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-47.4973303090469</v>
+      </c>
+      <c r="H151" t="n">
+        <v>615.12</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2604.277330309047</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>74.98999999999999</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2897.09</v>
+      </c>
+      <c r="C152" t="n">
+        <v>607.67</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>74.98999999999999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>8.619498722519893</v>
+      </c>
+      <c r="H152" t="n">
+        <v>607.67</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2888.47050127748</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3191.24</v>
+      </c>
+      <c r="C153" t="n">
+        <v>599.24</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-26.41134984348446</v>
+      </c>
+      <c r="H153" t="n">
+        <v>599.24</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3217.651349843484</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3516.81</v>
+      </c>
+      <c r="C154" t="n">
+        <v>589.51</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-67.0243135615442</v>
+      </c>
+      <c r="H154" t="n">
+        <v>589.51</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3583.834313561544</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4005.12</v>
+      </c>
+      <c r="C155" t="n">
+        <v>578.41</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G155" t="n">
+        <v>42.5929255623123</v>
+      </c>
+      <c r="H155" t="n">
+        <v>578.41</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3962.527074437688</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>74.59</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4325.98</v>
+      </c>
+      <c r="C156" t="n">
+        <v>565.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>74.59</v>
+      </c>
+      <c r="G156" t="n">
+        <v>20.56765815546169</v>
+      </c>
+      <c r="H156" t="n">
+        <v>565.6</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4305.412341844538</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4603.99</v>
+      </c>
+      <c r="C157" t="n">
+        <v>551.1900000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>59.22742890217705</v>
+      </c>
+      <c r="H157" t="n">
+        <v>551.1900000000001</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4544.762571097823</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>74.39</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4649.55</v>
+      </c>
+      <c r="C158" t="n">
+        <v>535.65</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>74.39</v>
+      </c>
+      <c r="G158" t="n">
+        <v>33.2296716030387</v>
+      </c>
+      <c r="H158" t="n">
+        <v>535.65</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4616.320328396961</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4438.16</v>
+      </c>
+      <c r="C159" t="n">
+        <v>519.71</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>86.13331761779955</v>
+      </c>
+      <c r="H159" t="n">
+        <v>519.71</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4352.0266823822</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>74.19</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3647.72</v>
+      </c>
+      <c r="C160" t="n">
+        <v>504.68</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>74.19</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-123.9257931749703</v>
+      </c>
+      <c r="H160" t="n">
+        <v>504.68</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3771.64579317497</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>74.09</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3115.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>491.89</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>74.09</v>
+      </c>
+      <c r="G161" t="n">
+        <v>21.10917377736359</v>
+      </c>
+      <c r="H161" t="n">
+        <v>491.89</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3094.290826222636</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2367.06</v>
+      </c>
+      <c r="C162" t="n">
+        <v>481.71</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-118.7955635023545</v>
+      </c>
+      <c r="H162" t="n">
+        <v>481.71</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2485.855563502354</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>73.89</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1981.84</v>
+      </c>
+      <c r="C163" t="n">
+        <v>473.93</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>73.89</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-30.96689581631131</v>
+      </c>
+      <c r="H163" t="n">
+        <v>473.93</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2012.806895816311</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1705.72</v>
+      </c>
+      <c r="C164" t="n">
+        <v>467.94</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="G164" t="n">
+        <v>31.28068196460003</v>
+      </c>
+      <c r="H164" t="n">
+        <v>467.94</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1674.4393180354</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>73.69</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1406.63</v>
+      </c>
+      <c r="C165" t="n">
+        <v>463.16</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>73.69</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-37.6899535020857</v>
+      </c>
+      <c r="H165" t="n">
+        <v>463.16</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1444.319953502086</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>73.59</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1246.31</v>
+      </c>
+      <c r="C166" t="n">
+        <v>459.38</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>73.59</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-47.40327073174763</v>
+      </c>
+      <c r="H166" t="n">
+        <v>459.38</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1293.713270731748</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>73.48999999999999</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1221.72</v>
+      </c>
+      <c r="C167" t="n">
+        <v>456.22</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>73.48999999999999</v>
+      </c>
+      <c r="G167" t="n">
+        <v>22.53260839508312</v>
+      </c>
+      <c r="H167" t="n">
+        <v>456.22</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1199.187391604917</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>73.39</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1125.94</v>
+      </c>
+      <c r="C168" t="n">
+        <v>453.35</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>73.39</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-17.98191432569411</v>
+      </c>
+      <c r="H168" t="n">
+        <v>453.35</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1143.921914325694</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1129.36</v>
+      </c>
+      <c r="C169" t="n">
+        <v>450.68</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>12.64611487658431</v>
+      </c>
+      <c r="H169" t="n">
+        <v>450.68</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1116.713885123416</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>73.19</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1153.41</v>
+      </c>
+      <c r="C170" t="n">
+        <v>448.07</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>73.19</v>
+      </c>
+      <c r="G170" t="n">
+        <v>43.20934820053048</v>
+      </c>
+      <c r="H170" t="n">
+        <v>448.07</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1110.20065179947</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>73.09</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1167.14</v>
+      </c>
+      <c r="C171" t="n">
+        <v>445.38</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>73.09</v>
+      </c>
+      <c r="G171" t="n">
+        <v>47.43290559820548</v>
+      </c>
+      <c r="H171" t="n">
+        <v>445.38</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1119.707094401795</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1175.25</v>
+      </c>
+      <c r="C172" t="n">
+        <v>442.62</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>32.69716805172902</v>
+      </c>
+      <c r="H172" t="n">
+        <v>442.62</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1142.552831948271</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1153.29</v>
+      </c>
+      <c r="C173" t="n">
+        <v>439.84</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-24.10240649640559</v>
+      </c>
+      <c r="H173" t="n">
+        <v>439.84</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1177.392406496406</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1272.39</v>
+      </c>
+      <c r="C174" t="n">
+        <v>436.98</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="G174" t="n">
+        <v>48.66415372881102</v>
+      </c>
+      <c r="H174" t="n">
+        <v>436.98</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1223.725846271189</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1390.02</v>
+      </c>
+      <c r="C175" t="n">
+        <v>433.77</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="G175" t="n">
+        <v>108.415033357001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>433.77</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1281.604966642999</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1423.97</v>
+      </c>
+      <c r="C176" t="n">
+        <v>430.18</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="G176" t="n">
+        <v>71.97812561651699</v>
+      </c>
+      <c r="H176" t="n">
+        <v>430.18</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1351.991874383483</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1460.35</v>
+      </c>
+      <c r="C177" t="n">
+        <v>426.36</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>23.66736496539238</v>
+      </c>
+      <c r="H177" t="n">
+        <v>426.36</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1436.682635034608</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>72.39</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1563.51</v>
+      </c>
+      <c r="C178" t="n">
+        <v>422.32</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>72.39</v>
+      </c>
+      <c r="G178" t="n">
+        <v>25.47999965048348</v>
+      </c>
+      <c r="H178" t="n">
+        <v>422.32</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1538.030000349517</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>72.29000000000001</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1691.48</v>
+      </c>
+      <c r="C179" t="n">
+        <v>417.89</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>72.29000000000001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>32.48536642643012</v>
+      </c>
+      <c r="H179" t="n">
+        <v>417.89</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1658.99463357357</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1976.17</v>
+      </c>
+      <c r="C180" t="n">
+        <v>412.8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="G180" t="n">
+        <v>172.8165902177941</v>
+      </c>
+      <c r="H180" t="n">
+        <v>412.8</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1803.353409782206</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>72.09</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2039.99</v>
+      </c>
+      <c r="C181" t="n">
+        <v>406.95</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>72.09</v>
+      </c>
+      <c r="G181" t="n">
+        <v>63.87774706524829</v>
+      </c>
+      <c r="H181" t="n">
+        <v>406.95</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1976.112252934752</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2297.55</v>
+      </c>
+      <c r="C182" t="n">
+        <v>400.42</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>113.9296168215719</v>
+      </c>
+      <c r="H182" t="n">
+        <v>400.42</v>
+      </c>
+      <c r="I182" t="n">
+        <v>2183.620383178428</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>71.89</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2497.67</v>
+      </c>
+      <c r="C183" t="n">
+        <v>393.07</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>71.89</v>
+      </c>
+      <c r="G183" t="n">
+        <v>64.55595445156041</v>
+      </c>
+      <c r="H183" t="n">
+        <v>393.07</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2433.11404554844</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2820.19</v>
+      </c>
+      <c r="C184" t="n">
+        <v>384.71</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="G184" t="n">
+        <v>87.78239796454045</v>
+      </c>
+      <c r="H184" t="n">
+        <v>384.71</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2732.40760203546</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>71.69</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3060.15</v>
+      </c>
+      <c r="C185" t="n">
+        <v>375.21</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>71.69</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-28.4336696508276</v>
+      </c>
+      <c r="H185" t="n">
+        <v>375.21</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3088.583669650828</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3342.33</v>
+      </c>
+      <c r="C186" t="n">
+        <v>364.59</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-162.4919199772357</v>
+      </c>
+      <c r="H186" t="n">
+        <v>364.59</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3504.821919977236</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3837.13</v>
+      </c>
+      <c r="C187" t="n">
+        <v>352.54</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-136.4920974499246</v>
+      </c>
+      <c r="H187" t="n">
+        <v>352.54</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3973.622097449925</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>71.39</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4352.92</v>
+      </c>
+      <c r="C188" t="n">
+        <v>338.52</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>71.39</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-114.1633757395794</v>
+      </c>
+      <c r="H188" t="n">
+        <v>338.52</v>
+      </c>
+      <c r="I188" t="n">
+        <v>4467.083375739579</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>71.29000000000001</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4791.42</v>
+      </c>
+      <c r="C189" t="n">
+        <v>322.43</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>71.29000000000001</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-136.0720550162987</v>
+      </c>
+      <c r="H189" t="n">
+        <v>322.43</v>
+      </c>
+      <c r="I189" t="n">
+        <v>4927.492055016299</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>71.19</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5438.9</v>
+      </c>
+      <c r="C190" t="n">
+        <v>304.07</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>71.19</v>
+      </c>
+      <c r="G190" t="n">
+        <v>171.3263837131781</v>
+      </c>
+      <c r="H190" t="n">
+        <v>304.07</v>
+      </c>
+      <c r="I190" t="n">
+        <v>5267.573616286822</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>71.09</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5466.73</v>
+      </c>
+      <c r="C191" t="n">
+        <v>283.99</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>71.09</v>
+      </c>
+      <c r="G191" t="n">
+        <v>68.73391023932527</v>
+      </c>
+      <c r="H191" t="n">
+        <v>283.99</v>
+      </c>
+      <c r="I191" t="n">
+        <v>5397.996089760674</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5120.15</v>
+      </c>
+      <c r="C192" t="n">
+        <v>264.03</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-18.61433178944662</v>
+      </c>
+      <c r="H192" t="n">
+        <v>264.03</v>
+      </c>
+      <c r="I192" t="n">
+        <v>5138.764331789446</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4454.02</v>
+      </c>
+      <c r="C193" t="n">
+        <v>245.88</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="G193" t="n">
+        <v>45.82429682709699</v>
+      </c>
+      <c r="H193" t="n">
+        <v>245.88</v>
+      </c>
+      <c r="I193" t="n">
+        <v>4408.195703172903</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>70.79000000000001</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3482.96</v>
+      </c>
+      <c r="C194" t="n">
+        <v>230.89</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>70.79000000000001</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-6.195535556536015</v>
+      </c>
+      <c r="H194" t="n">
+        <v>230.89</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3489.155535556536</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2585.84</v>
+      </c>
+      <c r="C195" t="n">
+        <v>219.64</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-41.35934173524811</v>
+      </c>
+      <c r="H195" t="n">
+        <v>219.64</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2627.199341735248</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1816.32</v>
+      </c>
+      <c r="C196" t="n">
+        <v>211.74</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-119.2426803851749</v>
+      </c>
+      <c r="H196" t="n">
+        <v>211.74</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1935.562680385175</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>70.48999999999999</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1361.42</v>
+      </c>
+      <c r="C197" t="n">
+        <v>206.3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>70.48999999999999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-64.46048867064928</v>
+      </c>
+      <c r="H197" t="n">
+        <v>206.3</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1425.880488670649</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>70.39</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>202.47</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>70.39</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-58.94093200854002</v>
+      </c>
+      <c r="H198" t="n">
+        <v>202.47</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1066.04093200854</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>70.29000000000001</v>
+      </c>
+      <c r="B199" t="n">
+        <v>813.36</v>
+      </c>
+      <c r="C199" t="n">
+        <v>199.72</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>70.29000000000001</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-3.058267653004918</v>
+      </c>
+      <c r="H199" t="n">
+        <v>199.72</v>
+      </c>
+      <c r="I199" t="n">
+        <v>816.4182676530049</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>70.19</v>
+      </c>
+      <c r="B200" t="n">
+        <v>657.51</v>
+      </c>
+      <c r="C200" t="n">
+        <v>197.64</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>70.19</v>
+      </c>
+      <c r="G200" t="n">
+        <v>13.88204034975865</v>
+      </c>
+      <c r="H200" t="n">
+        <v>197.64</v>
+      </c>
+      <c r="I200" t="n">
+        <v>643.6279596502413</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>70.09</v>
+      </c>
+      <c r="B201" t="n">
+        <v>569.16</v>
+      </c>
+      <c r="C201" t="n">
+        <v>196.04</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>70.09</v>
+      </c>
+      <c r="G201" t="n">
+        <v>45.87413693295912</v>
+      </c>
+      <c r="H201" t="n">
+        <v>196.04</v>
+      </c>
+      <c r="I201" t="n">
+        <v>523.2858630670409</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="B202" t="n">
+        <v>494.41</v>
+      </c>
+      <c r="C202" t="n">
+        <v>194.75</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="G202" t="n">
+        <v>55.89349695732966</v>
+      </c>
+      <c r="H202" t="n">
+        <v>194.75</v>
+      </c>
+      <c r="I202" t="n">
+        <v>438.5165030426704</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>69.89</v>
+      </c>
+      <c r="B203" t="n">
+        <v>505.95</v>
+      </c>
+      <c r="C203" t="n">
+        <v>193.58</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>69.89</v>
+      </c>
+      <c r="G203" t="n">
+        <v>128.0632515527978</v>
+      </c>
+      <c r="H203" t="n">
+        <v>193.58</v>
+      </c>
+      <c r="I203" t="n">
+        <v>377.8867484472022</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="B204" t="n">
+        <v>392.59</v>
+      </c>
+      <c r="C204" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>58.63332782916035</v>
+      </c>
+      <c r="H204" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="I204" t="n">
+        <v>333.9566721708396</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="B205" t="n">
+        <v>419.73</v>
+      </c>
+      <c r="C205" t="n">
+        <v>191.78</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="G205" t="n">
+        <v>118.0614236754312</v>
+      </c>
+      <c r="H205" t="n">
+        <v>191.78</v>
+      </c>
+      <c r="I205" t="n">
+        <v>301.6685763245688</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>69.59</v>
+      </c>
+      <c r="B206" t="n">
+        <v>357.53</v>
+      </c>
+      <c r="C206" t="n">
+        <v>191.02</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+      <c r="F206" t="n">
+        <v>69.59</v>
+      </c>
+      <c r="G206" t="n">
+        <v>79.99943371697299</v>
+      </c>
+      <c r="H206" t="n">
+        <v>191.02</v>
+      </c>
+      <c r="I206" t="n">
+        <v>277.530566283027</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="B207" t="n">
+        <v>353.9</v>
+      </c>
+      <c r="C207" t="n">
+        <v>190.39</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" t="n">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="G207" t="n">
+        <v>94.60010616931515</v>
+      </c>
+      <c r="H207" t="n">
+        <v>190.39</v>
+      </c>
+      <c r="I207" t="n">
+        <v>259.2998938306848</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>69.39</v>
+      </c>
+      <c r="B208" t="n">
+        <v>325.4</v>
+      </c>
+      <c r="C208" t="n">
+        <v>189.82</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F208" t="n">
+        <v>69.39</v>
+      </c>
+      <c r="G208" t="n">
+        <v>80.08956671334045</v>
+      </c>
+      <c r="H208" t="n">
+        <v>189.82</v>
+      </c>
+      <c r="I208" t="n">
+        <v>245.3104332866595</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="B209" t="n">
+        <v>337.41</v>
+      </c>
+      <c r="C209" t="n">
+        <v>189.28</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="G209" t="n">
+        <v>102.9934478983867</v>
+      </c>
+      <c r="H209" t="n">
+        <v>189.28</v>
+      </c>
+      <c r="I209" t="n">
+        <v>234.4165521016133</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="B210" t="n">
+        <v>343.13</v>
+      </c>
+      <c r="C210" t="n">
+        <v>188.71</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="G210" t="n">
+        <v>117.361568331927</v>
+      </c>
+      <c r="H210" t="n">
+        <v>188.71</v>
+      </c>
+      <c r="I210" t="n">
+        <v>225.768431668073</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>69.09</v>
+      </c>
+      <c r="B211" t="n">
+        <v>249.33</v>
+      </c>
+      <c r="C211" t="n">
+        <v>188.29</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>69.09</v>
+      </c>
+      <c r="G211" t="n">
+        <v>30.35015197337316</v>
+      </c>
+      <c r="H211" t="n">
+        <v>188.29</v>
+      </c>
+      <c r="I211" t="n">
+        <v>218.9798480266269</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="B212" t="n">
+        <v>326.27</v>
+      </c>
+      <c r="C212" t="n">
+        <v>187.91</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="G212" t="n">
+        <v>112.7400919528143</v>
+      </c>
+      <c r="H212" t="n">
+        <v>187.91</v>
+      </c>
+      <c r="I212" t="n">
+        <v>213.5299080471856</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="B213" t="n">
+        <v>274.48</v>
+      </c>
+      <c r="C213" t="n">
+        <v>187.48</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="G213" t="n">
+        <v>65.45305821809893</v>
+      </c>
+      <c r="H213" t="n">
+        <v>187.48</v>
+      </c>
+      <c r="I213" t="n">
+        <v>209.0269417819011</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="B214" t="n">
+        <v>258.83</v>
+      </c>
+      <c r="C214" t="n">
+        <v>187.18</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="G214" t="n">
+        <v>53.4030055287966</v>
+      </c>
+      <c r="H214" t="n">
+        <v>187.18</v>
+      </c>
+      <c r="I214" t="n">
+        <v>205.4269944712034</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>68.69</v>
+      </c>
+      <c r="B215" t="n">
+        <v>268.31</v>
+      </c>
+      <c r="C215" t="n">
+        <v>186.89</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>68.69</v>
+      </c>
+      <c r="G215" t="n">
+        <v>65.86795726770254</v>
+      </c>
+      <c r="H215" t="n">
+        <v>186.89</v>
+      </c>
+      <c r="I215" t="n">
+        <v>202.4420427322975</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="B216" t="n">
+        <v>249.46</v>
+      </c>
+      <c r="C216" t="n">
+        <v>186.61</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="G216" t="n">
+        <v>49.51523983981386</v>
+      </c>
+      <c r="H216" t="n">
+        <v>186.61</v>
+      </c>
+      <c r="I216" t="n">
+        <v>199.9447601601861</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="B217" t="n">
+        <v>292.62</v>
+      </c>
+      <c r="C217" t="n">
+        <v>186.29</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="G217" t="n">
+        <v>94.83225614140304</v>
+      </c>
+      <c r="H217" t="n">
+        <v>186.29</v>
+      </c>
+      <c r="I217" t="n">
+        <v>197.787743858597</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>68.39</v>
+      </c>
+      <c r="B218" t="n">
+        <v>264.22</v>
+      </c>
+      <c r="C218" t="n">
+        <v>185.94</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>68.39</v>
+      </c>
+      <c r="G218" t="n">
+        <v>68.31418669351757</v>
+      </c>
+      <c r="H218" t="n">
+        <v>185.94</v>
+      </c>
+      <c r="I218" t="n">
+        <v>195.9058133064825</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="B219" t="n">
+        <v>227.94</v>
+      </c>
+      <c r="C219" t="n">
+        <v>185.71</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="G219" t="n">
+        <v>33.54955171444604</v>
+      </c>
+      <c r="H219" t="n">
+        <v>185.71</v>
+      </c>
+      <c r="I219" t="n">
+        <v>194.390448285554</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>68.19</v>
+      </c>
+      <c r="B220" t="n">
+        <v>253.73</v>
+      </c>
+      <c r="C220" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>68.19</v>
+      </c>
+      <c r="G220" t="n">
+        <v>60.63426815728846</v>
+      </c>
+      <c r="H220" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="I220" t="n">
+        <v>193.0957318427115</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="B221" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="C221" t="n">
+        <v>185.29</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="G221" t="n">
+        <v>35.28463700988129</v>
+      </c>
+      <c r="H221" t="n">
+        <v>185.29</v>
+      </c>
+      <c r="I221" t="n">
+        <v>191.9653629901187</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="B222" t="n">
+        <v>213.18</v>
+      </c>
+      <c r="C222" t="n">
+        <v>185.16</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="G222" t="n">
+        <v>22.1295628016554</v>
+      </c>
+      <c r="H222" t="n">
+        <v>185.16</v>
+      </c>
+      <c r="I222" t="n">
+        <v>191.0504371983446</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="B223" t="n">
+        <v>225.76</v>
+      </c>
+      <c r="C223" t="n">
+        <v>185.03</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="G223" t="n">
+        <v>35.51221685679016</v>
+      </c>
+      <c r="H223" t="n">
+        <v>185.03</v>
+      </c>
+      <c r="I223" t="n">
+        <v>190.2477831432098</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>67.79000000000001</v>
+      </c>
+      <c r="B224" t="n">
+        <v>246.41</v>
+      </c>
+      <c r="C224" t="n">
+        <v>184.83</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>67.79000000000001</v>
+      </c>
+      <c r="G224" t="n">
+        <v>56.94129392617552</v>
+      </c>
+      <c r="H224" t="n">
+        <v>184.83</v>
+      </c>
+      <c r="I224" t="n">
+        <v>189.4687060738245</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="B225" t="n">
+        <v>254.49</v>
+      </c>
+      <c r="C225" t="n">
+        <v>184.58</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="G225" t="n">
+        <v>65.77196902348493</v>
+      </c>
+      <c r="H225" t="n">
+        <v>184.58</v>
+      </c>
+      <c r="I225" t="n">
+        <v>188.7180309765151</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>67.59</v>
+      </c>
+      <c r="B226" t="n">
+        <v>209.49</v>
+      </c>
+      <c r="C226" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>67.59</v>
+      </c>
+      <c r="G226" t="n">
+        <v>21.38663140980702</v>
+      </c>
+      <c r="H226" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="I226" t="n">
+        <v>188.103368590193</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="B227" t="n">
+        <v>207.41</v>
+      </c>
+      <c r="C227" t="n">
+        <v>184.31</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>19.77545162256027</v>
+      </c>
+      <c r="H227" t="n">
+        <v>184.31</v>
+      </c>
+      <c r="I227" t="n">
+        <v>187.6345483774397</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>67.39</v>
+      </c>
+      <c r="B228" t="n">
+        <v>193.38</v>
+      </c>
+      <c r="C228" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>67.39</v>
+      </c>
+      <c r="G228" t="n">
+        <v>6.136822486536346</v>
+      </c>
+      <c r="H228" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="I228" t="n">
+        <v>187.2431775134636</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="B229" t="n">
+        <v>230.06</v>
+      </c>
+      <c r="C229" t="n">
+        <v>184.14</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="G229" t="n">
+        <v>43.21770432525651</v>
+      </c>
+      <c r="H229" t="n">
+        <v>184.14</v>
+      </c>
+      <c r="I229" t="n">
+        <v>186.8422956747435</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>67.19</v>
+      </c>
+      <c r="B230" t="n">
+        <v>220.38</v>
+      </c>
+      <c r="C230" t="n">
+        <v>183.98</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>67.19</v>
+      </c>
+      <c r="G230" t="n">
+        <v>33.95389684589523</v>
+      </c>
+      <c r="H230" t="n">
+        <v>183.98</v>
+      </c>
+      <c r="I230" t="n">
+        <v>186.4261031541048</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="B231" t="n">
+        <v>194.04</v>
+      </c>
+      <c r="C231" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="G231" t="n">
+        <v>7.920254531546789</v>
+      </c>
+      <c r="H231" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="I231" t="n">
+        <v>186.1197454684532</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="B232" t="n">
+        <v>206.91</v>
+      </c>
+      <c r="C232" t="n">
+        <v>183.83</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="G232" t="n">
+        <v>21.0608582373483</v>
+      </c>
+      <c r="H232" t="n">
+        <v>183.83</v>
+      </c>
+      <c r="I232" t="n">
+        <v>185.8491417626517</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>66.89</v>
+      </c>
+      <c r="B233" t="n">
+        <v>188.58</v>
+      </c>
+      <c r="C233" t="n">
+        <v>183.78</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>66.89</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2.959152629878702</v>
+      </c>
+      <c r="H233" t="n">
+        <v>183.78</v>
+      </c>
+      <c r="I233" t="n">
+        <v>185.6208473701213</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="B234" t="n">
+        <v>205.12</v>
+      </c>
+      <c r="C234" t="n">
+        <v>183.73</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="G234" t="n">
+        <v>19.70805683466395</v>
+      </c>
+      <c r="H234" t="n">
+        <v>183.73</v>
+      </c>
+      <c r="I234" t="n">
+        <v>185.4119431653361</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>66.69</v>
+      </c>
+      <c r="B235" t="n">
+        <v>207.58</v>
+      </c>
+      <c r="C235" t="n">
+        <v>183.64</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>66.69</v>
+      </c>
+      <c r="G235" t="n">
+        <v>22.4000539529809</v>
+      </c>
+      <c r="H235" t="n">
+        <v>183.64</v>
+      </c>
+      <c r="I235" t="n">
+        <v>185.1799460470191</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="B236" t="n">
+        <v>172.7</v>
+      </c>
+      <c r="C236" t="n">
+        <v>183.62</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-12.3327361750033</v>
+      </c>
+      <c r="H236" t="n">
+        <v>183.62</v>
+      </c>
+      <c r="I236" t="n">
+        <v>185.0327361750033</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="B237" t="n">
+        <v>203.17</v>
+      </c>
+      <c r="C237" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="G237" t="n">
+        <v>18.27150244237734</v>
+      </c>
+      <c r="H237" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="I237" t="n">
+        <v>184.8984975576226</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="B238" t="n">
+        <v>179.35</v>
+      </c>
+      <c r="C238" t="n">
+        <v>183.57</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-5.415669329472905</v>
+      </c>
+      <c r="H238" t="n">
+        <v>183.57</v>
+      </c>
+      <c r="I238" t="n">
+        <v>184.7656693294729</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="B239" t="n">
+        <v>213.31</v>
+      </c>
+      <c r="C239" t="n">
+        <v>183.52</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="G239" t="n">
+        <v>28.68709437061082</v>
+      </c>
+      <c r="H239" t="n">
+        <v>183.52</v>
+      </c>
+      <c r="I239" t="n">
+        <v>184.6229056293892</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="B240" t="n">
+        <v>180.56</v>
+      </c>
+      <c r="C240" t="n">
+        <v>183.47</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-3.929042428194862</v>
+      </c>
+      <c r="H240" t="n">
+        <v>183.47</v>
+      </c>
+      <c r="I240" t="n">
+        <v>184.4890424281949</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="B241" t="n">
+        <v>199.17</v>
+      </c>
+      <c r="C241" t="n">
+        <v>183.45</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="G241" t="n">
+        <v>14.7769300032538</v>
+      </c>
+      <c r="H241" t="n">
+        <v>183.45</v>
+      </c>
+      <c r="I241" t="n">
+        <v>184.3930699967462</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="B242" t="n">
+        <v>168.67</v>
+      </c>
+      <c r="C242" t="n">
+        <v>183.45</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-15.65410997053743</v>
+      </c>
+      <c r="H242" t="n">
+        <v>183.45</v>
+      </c>
+      <c r="I242" t="n">
+        <v>184.3241099705374</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>65.89</v>
+      </c>
+      <c r="B243" t="n">
+        <v>167.04</v>
+      </c>
+      <c r="C243" t="n">
+        <v>167.04</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>65.89</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-0.8113961752595742</v>
+      </c>
+      <c r="H243" t="n">
+        <v>167.04</v>
+      </c>
+      <c r="I243" t="n">
+        <v>167.8513961752596</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="B244" t="n">
+        <v>185.97</v>
+      </c>
+      <c r="C244" t="n">
+        <v>185.97</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-0.7542585414650773</v>
+      </c>
+      <c r="H244" t="n">
+        <v>185.97</v>
+      </c>
+      <c r="I244" t="n">
+        <v>186.7242585414651</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="B245" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="C245" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-0.702109565937036</v>
+      </c>
+      <c r="H245" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="I245" t="n">
+        <v>196.102109565937</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>65.59</v>
+      </c>
+      <c r="B246" t="n">
+        <v>185.12</v>
+      </c>
+      <c r="C246" t="n">
+        <v>185.12</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" t="n">
+        <v>65.59</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-0.6544328801213055</v>
+      </c>
+      <c r="H246" t="n">
+        <v>185.12</v>
+      </c>
+      <c r="I246" t="n">
+        <v>185.7744328801213</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="B247" t="n">
+        <v>183.07</v>
+      </c>
+      <c r="C247" t="n">
+        <v>183.07</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-0.6107735679071027</v>
+      </c>
+      <c r="H247" t="n">
+        <v>183.07</v>
+      </c>
+      <c r="I247" t="n">
+        <v>183.6807735679071</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="B248" t="n">
+        <v>169.48</v>
+      </c>
+      <c r="C248" t="n">
+        <v>169.48</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-0.5707299406208506</v>
+      </c>
+      <c r="H248" t="n">
+        <v>169.48</v>
+      </c>
+      <c r="I248" t="n">
+        <v>170.0507299406208</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>65.29000000000001</v>
+      </c>
+      <c r="B249" t="n">
+        <v>167.85</v>
+      </c>
+      <c r="C249" t="n">
+        <v>167.85</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>65.29000000000001</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-0.5339465298011135</v>
+      </c>
+      <c r="H249" t="n">
+        <v>167.85</v>
+      </c>
+      <c r="I249" t="n">
+        <v>168.3839465298011</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="B250" t="n">
+        <v>180.93</v>
+      </c>
+      <c r="C250" t="n">
+        <v>180.93</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-0.5001081008390429</v>
+      </c>
+      <c r="H250" t="n">
+        <v>180.93</v>
+      </c>
+      <c r="I250" t="n">
+        <v>181.430108100839</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>65.09</v>
+      </c>
+      <c r="B251" t="n">
+        <v>172.48</v>
+      </c>
+      <c r="C251" t="n">
+        <v>172.48</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>65.09</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-0.4689345249902885</v>
+      </c>
+      <c r="H251" t="n">
+        <v>172.48</v>
+      </c>
+      <c r="I251" t="n">
+        <v>172.9489345249903</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="B252" t="n">
+        <v>153.58</v>
+      </c>
+      <c r="C252" t="n">
+        <v>153.58</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-0.4401763752389343</v>
+      </c>
+      <c r="H252" t="n">
+        <v>153.58</v>
+      </c>
+      <c r="I252" t="n">
+        <v>154.0201763752389</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="B253" t="n">
+        <v>153.37</v>
+      </c>
+      <c r="C253" t="n">
+        <v>153.37</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-0.4136111342980939</v>
+      </c>
+      <c r="H253" t="n">
+        <v>153.37</v>
+      </c>
+      <c r="I253" t="n">
+        <v>153.7836111342981</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>64.79000000000001</v>
+      </c>
+      <c r="B254" t="n">
+        <v>157.65</v>
+      </c>
+      <c r="C254" t="n">
+        <v>157.65</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>64.79000000000001</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-0.3890399216925857</v>
+      </c>
+      <c r="H254" t="n">
+        <v>157.65</v>
+      </c>
+      <c r="I254" t="n">
+        <v>158.0390399216926</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>64.69</v>
+      </c>
+      <c r="B255" t="n">
+        <v>135.62</v>
+      </c>
+      <c r="C255" t="n">
+        <v>135.62</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>64.69</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-0.3662846621817266</v>
+      </c>
+      <c r="H255" t="n">
+        <v>135.62</v>
+      </c>
+      <c r="I255" t="n">
+        <v>135.9862846621817</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>64.59</v>
+      </c>
+      <c r="B256" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="C256" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>64.59</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-0.3451856303889258</v>
+      </c>
+      <c r="H256" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="I256" t="n">
+        <v>145.1451856303889</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="B257" t="n">
+        <v>145.65</v>
+      </c>
+      <c r="C257" t="n">
+        <v>145.65</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-0.3255993169170495</v>
+      </c>
+      <c r="H257" t="n">
+        <v>145.65</v>
+      </c>
+      <c r="I257" t="n">
+        <v>145.9755993169171</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>64.39</v>
+      </c>
+      <c r="B258" t="n">
+        <v>161.35</v>
+      </c>
+      <c r="C258" t="n">
+        <v>161.35</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>64.39</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-0.3073965698536369</v>
+      </c>
+      <c r="H258" t="n">
+        <v>161.35</v>
+      </c>
+      <c r="I258" t="n">
+        <v>161.6573965698536</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="B259" t="n">
+        <v>174.95</v>
+      </c>
+      <c r="C259" t="n">
+        <v>174.95</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-0.2904609727321201</v>
+      </c>
+      <c r="H259" t="n">
+        <v>174.95</v>
+      </c>
+      <c r="I259" t="n">
+        <v>175.2404609727321</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>64.19</v>
+      </c>
+      <c r="B260" t="n">
+        <v>187.42</v>
+      </c>
+      <c r="C260" t="n">
+        <v>187.42</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
+      <c r="F260" t="n">
+        <v>64.19</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-0.2746874259848084</v>
+      </c>
+      <c r="H260" t="n">
+        <v>187.42</v>
+      </c>
+      <c r="I260" t="n">
+        <v>187.6946874259848</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="B261" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="C261" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-0.2599809039055856</v>
+      </c>
+      <c r="H261" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="I261" t="n">
+        <v>161.0599809039056</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="B262" t="n">
+        <v>169.61</v>
+      </c>
+      <c r="C262" t="n">
+        <v>169.61</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-0.2462553633143898</v>
+      </c>
+      <c r="H262" t="n">
+        <v>169.61</v>
+      </c>
+      <c r="I262" t="n">
+        <v>169.8562553633144</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="B263" t="n">
+        <v>162.24</v>
+      </c>
+      <c r="C263" t="n">
+        <v>162.24</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-0.2334327836202874</v>
+      </c>
+      <c r="H263" t="n">
+        <v>162.24</v>
+      </c>
+      <c r="I263" t="n">
+        <v>162.4734327836203</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>63.79</v>
+      </c>
+      <c r="B264" t="n">
+        <v>158.49</v>
+      </c>
+      <c r="C264" t="n">
+        <v>158.49</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>63.79</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-0.2214423209287304</v>
+      </c>
+      <c r="H264" t="n">
+        <v>158.49</v>
+      </c>
+      <c r="I264" t="n">
+        <v>158.7114423209287</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="B265" t="n">
+        <v>155.48</v>
+      </c>
+      <c r="C265" t="n">
+        <v>155.48</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-0.2102195613260847</v>
+      </c>
+      <c r="H265" t="n">
+        <v>155.48</v>
+      </c>
+      <c r="I265" t="n">
+        <v>155.6902195613261</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="B266" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="C266" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-0.1997058605803943</v>
+      </c>
+      <c r="H266" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="I266" t="n">
+        <v>162.9497058605804</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>63.49</v>
+      </c>
+      <c r="B267" t="n">
+        <v>142.43</v>
+      </c>
+      <c r="C267" t="n">
+        <v>142.43</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>63.49</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-0.1898477592791323</v>
+      </c>
+      <c r="H267" t="n">
+        <v>142.43</v>
+      </c>
+      <c r="I267" t="n">
+        <v>142.6198477592791</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>63.39</v>
+      </c>
+      <c r="B268" t="n">
+        <v>172.82</v>
+      </c>
+      <c r="C268" t="n">
+        <v>172.82</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" t="n">
+        <v>63.39</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-0.1805964639409297</v>
+      </c>
+      <c r="H268" t="n">
+        <v>172.82</v>
+      </c>
+      <c r="I268" t="n">
+        <v>173.0005964639409</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>63.29</v>
+      </c>
+      <c r="B269" t="n">
+        <v>128.98</v>
+      </c>
+      <c r="C269" t="n">
+        <v>128.98</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>63.29</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-0.1719073859279376</v>
+      </c>
+      <c r="H269" t="n">
+        <v>128.98</v>
+      </c>
+      <c r="I269" t="n">
+        <v>129.1519073859279</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>63.19</v>
+      </c>
+      <c r="B270" t="n">
+        <v>186.68</v>
+      </c>
+      <c r="C270" t="n">
+        <v>186.68</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>63.19</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-0.1637397310859114</v>
+      </c>
+      <c r="H270" t="n">
+        <v>186.68</v>
+      </c>
+      <c r="I270" t="n">
+        <v>186.8437397310859</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="B271" t="n">
+        <v>147.17</v>
+      </c>
+      <c r="C271" t="n">
+        <v>147.17</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+      <c r="F271" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-0.1560561339795754</v>
+      </c>
+      <c r="H271" t="n">
+        <v>147.17</v>
+      </c>
+      <c r="I271" t="n">
+        <v>147.3260561339796</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>62.99</v>
+      </c>
+      <c r="B272" t="n">
+        <v>131.48</v>
+      </c>
+      <c r="C272" t="n">
+        <v>131.48</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>62.99</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-0.1488223313975539</v>
+      </c>
+      <c r="H272" t="n">
+        <v>131.48</v>
+      </c>
+      <c r="I272" t="n">
+        <v>131.6288223313975</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="B273" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="C273" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+      <c r="F273" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-0.1420068704923381</v>
+      </c>
+      <c r="H273" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="I273" t="n">
+        <v>163.6420068704923</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="B274" t="n">
+        <v>142.56</v>
+      </c>
+      <c r="C274" t="n">
+        <v>142.56</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-0.1355808475156266</v>
+      </c>
+      <c r="H274" t="n">
+        <v>142.56</v>
+      </c>
+      <c r="I274" t="n">
+        <v>142.6955808475156</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="B275" t="n">
+        <v>137.88</v>
+      </c>
+      <c r="C275" t="n">
+        <v>137.88</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1</v>
+      </c>
+      <c r="F275" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-0.1295176736224732</v>
+      </c>
+      <c r="H275" t="n">
+        <v>137.88</v>
+      </c>
+      <c r="I275" t="n">
+        <v>138.0095176736225</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>62.59</v>
+      </c>
+      <c r="B276" t="n">
+        <v>133.56</v>
+      </c>
+      <c r="C276" t="n">
+        <v>133.56</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>62.59</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-0.1237928646591513</v>
+      </c>
+      <c r="H276" t="n">
+        <v>133.56</v>
+      </c>
+      <c r="I276" t="n">
+        <v>133.6837928646592</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="B277" t="n">
+        <v>148.29</v>
+      </c>
+      <c r="C277" t="n">
+        <v>148.29</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-0.1183838522334213</v>
+      </c>
+      <c r="H277" t="n">
+        <v>148.29</v>
+      </c>
+      <c r="I277" t="n">
+        <v>148.4083838522334</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="B278" t="n">
+        <v>154.05</v>
+      </c>
+      <c r="C278" t="n">
+        <v>154.05</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-0.1132698136958652</v>
+      </c>
+      <c r="H278" t="n">
+        <v>154.05</v>
+      </c>
+      <c r="I278" t="n">
+        <v>154.1632698136959</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="B279" t="n">
+        <v>160.6</v>
+      </c>
+      <c r="C279" t="n">
+        <v>160.6</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+      <c r="F279" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-0.1084315189494305</v>
+      </c>
+      <c r="H279" t="n">
+        <v>160.6</v>
+      </c>
+      <c r="I279" t="n">
+        <v>160.7084315189494</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>62.19</v>
+      </c>
+      <c r="B280" t="n">
+        <v>128.29</v>
+      </c>
+      <c r="C280" t="n">
+        <v>128.29</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" t="n">
+        <v>62.19</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-0.1038511922540977</v>
+      </c>
+      <c r="H280" t="n">
+        <v>128.29</v>
+      </c>
+      <c r="I280" t="n">
+        <v>128.3938511922541</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>62.09</v>
+      </c>
+      <c r="B281" t="n">
+        <v>149.28</v>
+      </c>
+      <c r="C281" t="n">
+        <v>149.28</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F281" t="n">
+        <v>62.09</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-0.09951238741035695</v>
+      </c>
+      <c r="H281" t="n">
+        <v>149.28</v>
+      </c>
+      <c r="I281" t="n">
+        <v>149.3795123874104</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>61.99</v>
+      </c>
+      <c r="B282" t="n">
+        <v>168.73</v>
+      </c>
+      <c r="C282" t="n">
+        <v>168.73</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="n">
+        <v>61.99</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-0.09539987489591795</v>
+      </c>
+      <c r="H282" t="n">
+        <v>168.73</v>
+      </c>
+      <c r="I282" t="n">
+        <v>168.8253998748959</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5184,4 +13070,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/DATA/UKSAF/Pt4f.xlsx
+++ b/DATA/UKSAF/Pt4f.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,6 +30,9 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <i val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -46,7 +49,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -96,11 +99,29 @@
       <top style="thin"/>
       <bottom style="medium"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -121,6 +142,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -198,6 +225,39 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5743575" cy="4076700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -519,42 +579,207 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY282"/>
+  <dimension ref="A1:AT282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="18" max="18"/>
-    <col width="40" customWidth="1" min="19" max="19"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Binding Energy</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Corrected Data</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Raw Data</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Residuals</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Background</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Calculated Fit</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Pt4f7/2 p1</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Pt4f5/2_p2</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr"/>
+      <c r="M1" s="3" t="inlineStr"/>
+      <c r="N1" s="3" t="inlineStr"/>
+      <c r="O1" s="3" t="inlineStr"/>
+      <c r="P1" s="3" t="inlineStr"/>
+      <c r="Q1" s="3" t="inlineStr"/>
+      <c r="R1" s="3" t="inlineStr"/>
+      <c r="S1" s="3" t="inlineStr"/>
+      <c r="T1" s="3" t="inlineStr"/>
+      <c r="U1" s="3" t="inlineStr"/>
+      <c r="V1" s="3" t="inlineStr"/>
+      <c r="W1" s="3" t="inlineStr"/>
+      <c r="X1" s="4" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>Peak
+Label</t>
+        </is>
+      </c>
+      <c r="Z1" s="5" t="inlineStr">
+        <is>
+          <t>Position
+(eV)</t>
+        </is>
+      </c>
+      <c r="AA1" s="5" t="inlineStr">
+        <is>
+          <t>Height
+(CPS)</t>
+        </is>
+      </c>
+      <c r="AB1" s="5" t="inlineStr">
+        <is>
+          <t>FWHM
+(eV)</t>
+        </is>
+      </c>
+      <c r="AC1" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">σ/γ (%)
+L/G 
+</t>
+        </is>
+      </c>
+      <c r="AD1" s="5" t="inlineStr">
+        <is>
+          <t>Area
+(CPS.eV)</t>
+        </is>
+      </c>
+      <c r="AE1" s="5" t="inlineStr">
+        <is>
+          <t>σ
+W_g</t>
+        </is>
+      </c>
+      <c r="AF1" s="5" t="inlineStr">
+        <is>
+          <t>γ
+W_l</t>
+        </is>
+      </c>
+      <c r="AG1" s="5" t="inlineStr">
+        <is>
+          <t>W_g
+Skew</t>
+        </is>
+      </c>
+      <c r="AH1" s="5" t="inlineStr">
+        <is>
+          <t>Conc.
+(%)</t>
+        </is>
+      </c>
+      <c r="AI1" s="5" t="inlineStr">
+        <is>
+          <t>A/Aᴀ</t>
+        </is>
+      </c>
+      <c r="AJ1" s="5" t="inlineStr">
+        <is>
+          <t>Split
+(eV)</t>
+        </is>
+      </c>
+      <c r="AK1" s="5" t="inlineStr">
+        <is>
+          <t>Fitting Model</t>
+        </is>
+      </c>
+      <c r="AL1" s="5" t="inlineStr">
+        <is>
+          <t>Bkg Type</t>
+        </is>
+      </c>
+      <c r="AM1" s="5" t="inlineStr">
+        <is>
+          <t>Bkg Low
+(eV)</t>
+        </is>
+      </c>
+      <c r="AN1" s="5" t="inlineStr">
+        <is>
+          <t>Bkg High
+(eV)</t>
+        </is>
+      </c>
+      <c r="AO1" s="5" t="inlineStr">
+        <is>
+          <t>Bkg Offset Low
+(CPS)</t>
+        </is>
+      </c>
+      <c r="AP1" s="10" t="inlineStr">
+        <is>
+          <t>Bkg Offset High
+(CPS)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AR1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+      <c r="AS1" s="3" t="inlineStr">
         <is>
           <t>Experimental Description</t>
+        </is>
+      </c>
+      <c r="AT1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 50</t>
         </is>
       </c>
     </row>
@@ -571,12 +796,125 @@
       <c r="D2" t="n">
         <v>0.820997</v>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H2" t="n">
+        <v>663.0599999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>727.4144891779541</v>
+      </c>
+      <c r="J2" t="n">
+        <v>699.8720449710253</v>
+      </c>
+      <c r="K2" t="n">
+        <v>690.6024442069288</v>
+      </c>
+      <c r="X2" s="6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y2" s="7" t="inlineStr">
+        <is>
+          <t>Pt4f7/2 p1</t>
+        </is>
+      </c>
+      <c r="Z2" s="7" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="AA2" s="7" t="inlineStr">
+        <is>
+          <t>5383</t>
+        </is>
+      </c>
+      <c r="AB2" s="7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="AC2" s="7" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="AD2" s="7" t="inlineStr">
+        <is>
+          <t>8632</t>
+        </is>
+      </c>
+      <c r="AE2" s="7" t="inlineStr">
+        <is>
+          <t>0.541</t>
+        </is>
+      </c>
+      <c r="AF2" s="7" t="inlineStr">
+        <is>
+          <t>0.264</t>
+        </is>
+      </c>
+      <c r="AG2" s="7" t="inlineStr">
+        <is>
+          <t>0.104</t>
+        </is>
+      </c>
+      <c r="AH2" s="7" t="inlineStr">
+        <is>
+          <t>57.5</t>
+        </is>
+      </c>
+      <c r="AI2" s="7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="AJ2" s="7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK2" s="7" t="inlineStr">
+        <is>
+          <t>DS*G (A, Wg, Wl, S)</t>
+        </is>
+      </c>
+      <c r="AL2" s="7" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM2" s="7" t="inlineStr">
+        <is>
+          <t>61.99</t>
+        </is>
+      </c>
+      <c r="AN2" s="7" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="AO2" s="7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AP2" s="11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
         <is>
           <t>Sample ID</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>Pt #002</t>
         </is>
@@ -595,12 +933,81 @@
       <c r="D3" t="n">
         <v>0.820943</v>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>89.89</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H3" t="n">
+        <v>719.3099999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>783.6644891779541</v>
+      </c>
+      <c r="J3" t="n">
+        <v>756.1220449710253</v>
+      </c>
+      <c r="K3" t="n">
+        <v>746.8524442069288</v>
+      </c>
+      <c r="X3" s="8" t="inlineStr"/>
+      <c r="Y3" s="9" t="inlineStr"/>
+      <c r="Z3" s="9" t="inlineStr">
+        <is>
+          <t>61.99,89.99</t>
+        </is>
+      </c>
+      <c r="AA3" s="9" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AB3" s="9" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AC3" s="9" t="inlineStr">
+        <is>
+          <t>2:80</t>
+        </is>
+      </c>
+      <c r="AD3" s="9" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AE3" s="9" t="inlineStr">
+        <is>
+          <t>0.3:1.5</t>
+        </is>
+      </c>
+      <c r="AF3" s="9" t="inlineStr">
+        <is>
+          <t>0.1:1.5</t>
+        </is>
+      </c>
+      <c r="AG3" s="9" t="inlineStr">
+        <is>
+          <t>0:0.2</t>
+        </is>
+      </c>
+      <c r="AH3" s="9" t="inlineStr"/>
+      <c r="AI3" s="9" t="inlineStr"/>
+      <c r="AJ3" s="9" t="inlineStr"/>
+      <c r="AK3" s="9" t="inlineStr"/>
+      <c r="AL3" s="9" t="inlineStr"/>
+      <c r="AM3" s="9" t="inlineStr"/>
+      <c r="AN3" s="9" t="inlineStr"/>
+      <c r="AO3" s="9" t="inlineStr"/>
+      <c r="AP3" s="12" t="inlineStr"/>
+      <c r="AS3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>2023/8/9</t>
         </is>
@@ -619,12 +1026,125 @@
       <c r="D4" t="n">
         <v>0.82089</v>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H4" t="n">
+        <v>655.63</v>
+      </c>
+      <c r="I4" t="n">
+        <v>719.9844891779542</v>
+      </c>
+      <c r="J4" t="n">
+        <v>692.4420449710253</v>
+      </c>
+      <c r="K4" t="n">
+        <v>683.1724442069288</v>
+      </c>
+      <c r="X4" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Y4" s="7" t="inlineStr">
+        <is>
+          <t>Pt4f5/2_p2</t>
+        </is>
+      </c>
+      <c r="Z4" s="7" t="inlineStr">
+        <is>
+          <t>74.43</t>
+        </is>
+      </c>
+      <c r="AA4" s="7" t="inlineStr">
+        <is>
+          <t>3979</t>
+        </is>
+      </c>
+      <c r="AB4" s="7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="AC4" s="7" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="AD4" s="7" t="inlineStr">
+        <is>
+          <t>6381</t>
+        </is>
+      </c>
+      <c r="AE4" s="7" t="inlineStr">
+        <is>
+          <t>0.541</t>
+        </is>
+      </c>
+      <c r="AF4" s="7" t="inlineStr">
+        <is>
+          <t>0.264</t>
+        </is>
+      </c>
+      <c r="AG4" s="7" t="inlineStr">
+        <is>
+          <t>0.104</t>
+        </is>
+      </c>
+      <c r="AH4" s="7" t="inlineStr">
+        <is>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="AI4" s="7" t="inlineStr">
+        <is>
+          <t>73.9</t>
+        </is>
+      </c>
+      <c r="AJ4" s="7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="AK4" s="7" t="inlineStr">
+        <is>
+          <t>DS*G (A, Wg, Wl, S)</t>
+        </is>
+      </c>
+      <c r="AL4" s="7" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM4" s="7" t="inlineStr">
+        <is>
+          <t>61.99</t>
+        </is>
+      </c>
+      <c r="AN4" s="7" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="AO4" s="7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AP4" s="11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>8:8:56</t>
         </is>
@@ -643,12 +1163,81 @@
       <c r="D5" t="n">
         <v>0.820836</v>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H5" t="n">
+        <v>696.1900000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>760.5444891779542</v>
+      </c>
+      <c r="J5" t="n">
+        <v>733.0020449710254</v>
+      </c>
+      <c r="K5" t="n">
+        <v>723.7324442069289</v>
+      </c>
+      <c r="X5" s="8" t="inlineStr"/>
+      <c r="Y5" s="9" t="inlineStr"/>
+      <c r="Z5" s="9" t="inlineStr">
+        <is>
+          <t>A+3.3#0.2</t>
+        </is>
+      </c>
+      <c r="AA5" s="9" t="inlineStr">
+        <is>
+          <t>A*0.75#0.05</t>
+        </is>
+      </c>
+      <c r="AB5" s="9" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AC5" s="9" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AD5" s="9" t="inlineStr">
+        <is>
+          <t>A*0.75#0.05</t>
+        </is>
+      </c>
+      <c r="AE5" s="9" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AF5" s="9" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AG5" s="9" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AH5" s="9" t="inlineStr"/>
+      <c r="AI5" s="9" t="inlineStr"/>
+      <c r="AJ5" s="9" t="inlineStr"/>
+      <c r="AK5" s="9" t="inlineStr"/>
+      <c r="AL5" s="9" t="inlineStr"/>
+      <c r="AM5" s="9" t="inlineStr"/>
+      <c r="AN5" s="9" t="inlineStr"/>
+      <c r="AO5" s="9" t="inlineStr"/>
+      <c r="AP5" s="12" t="inlineStr"/>
+      <c r="AS5" t="inlineStr">
         <is>
           <t>Technique</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>XPS</t>
         </is>
@@ -667,12 +1256,35 @@
       <c r="D6" t="n">
         <v>0.820783</v>
       </c>
-      <c r="AX6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>89.59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H6" t="n">
+        <v>727.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>792.3144891779542</v>
+      </c>
+      <c r="J6" t="n">
+        <v>764.7720449710254</v>
+      </c>
+      <c r="K6" t="n">
+        <v>755.5024442069289</v>
+      </c>
+      <c r="X6" s="13" t="inlineStr">
+        <is>
+          <t>Please cite KherveFitting software: Kerherve G. et al. Surface and Interface Analysis (2025) TBD</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
         <is>
           <t>Species &amp; Transition</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>Pt 4f</t>
         </is>
@@ -691,12 +1303,30 @@
       <c r="D7" t="n">
         <v>0.820729</v>
       </c>
-      <c r="AX7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>89.48999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H7" t="n">
+        <v>719.08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>783.4344891779542</v>
+      </c>
+      <c r="J7" t="n">
+        <v>755.8920449710254</v>
+      </c>
+      <c r="K7" t="n">
+        <v>746.6224442069289</v>
+      </c>
+      <c r="AS7" t="inlineStr">
         <is>
           <t>Number of scans</t>
         </is>
       </c>
-      <c r="AY7" t="n">
+      <c r="AT7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -713,12 +1343,30 @@
       <c r="D8" t="n">
         <v>0.820676</v>
       </c>
-      <c r="AX8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>89.39</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H8" t="n">
+        <v>687.28</v>
+      </c>
+      <c r="I8" t="n">
+        <v>751.6344891779542</v>
+      </c>
+      <c r="J8" t="n">
+        <v>724.0920449710253</v>
+      </c>
+      <c r="K8" t="n">
+        <v>714.8224442069288</v>
+      </c>
+      <c r="AS8" t="inlineStr">
         <is>
           <t>Source Label</t>
         </is>
       </c>
-      <c r="AY8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>KA1486</t>
         </is>
@@ -737,12 +1385,30 @@
       <c r="D9" t="n">
         <v>0.820622</v>
       </c>
-      <c r="AX9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H9" t="n">
+        <v>702.46</v>
+      </c>
+      <c r="I9" t="n">
+        <v>766.8144891779542</v>
+      </c>
+      <c r="J9" t="n">
+        <v>739.2720449710254</v>
+      </c>
+      <c r="K9" t="n">
+        <v>730.0024442069289</v>
+      </c>
+      <c r="AS9" t="inlineStr">
         <is>
           <t>Source Energy</t>
         </is>
       </c>
-      <c r="AY9" t="n">
+      <c r="AT9" t="n">
         <v>1486.68</v>
       </c>
     </row>
@@ -759,12 +1425,30 @@
       <c r="D10" t="n">
         <v>0.820568</v>
       </c>
-      <c r="AX10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>89.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H10" t="n">
+        <v>713.1900000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>777.5444891779542</v>
+      </c>
+      <c r="J10" t="n">
+        <v>750.0020449710254</v>
+      </c>
+      <c r="K10" t="n">
+        <v>740.7324442069289</v>
+      </c>
+      <c r="AS10" t="inlineStr">
         <is>
           <t>Source width X</t>
         </is>
       </c>
-      <c r="AY10" t="n">
+      <c r="AT10" t="n">
         <v>1e+37</v>
       </c>
     </row>
@@ -781,12 +1465,30 @@
       <c r="D11" t="n">
         <v>0.820515</v>
       </c>
-      <c r="AX11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>89.09</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H11" t="n">
+        <v>682.78</v>
+      </c>
+      <c r="I11" t="n">
+        <v>747.1344891779542</v>
+      </c>
+      <c r="J11" t="n">
+        <v>719.5920449710253</v>
+      </c>
+      <c r="K11" t="n">
+        <v>710.3224442069288</v>
+      </c>
+      <c r="AS11" t="inlineStr">
         <is>
           <t>Source width Y</t>
         </is>
       </c>
-      <c r="AY11" t="n">
+      <c r="AT11" t="n">
         <v>1e+37</v>
       </c>
     </row>
@@ -803,12 +1505,30 @@
       <c r="D12" t="n">
         <v>0.820461</v>
       </c>
-      <c r="AX12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H12" t="n">
+        <v>676.38</v>
+      </c>
+      <c r="I12" t="n">
+        <v>740.7344891779542</v>
+      </c>
+      <c r="J12" t="n">
+        <v>713.1920449710253</v>
+      </c>
+      <c r="K12" t="n">
+        <v>703.9224442069288</v>
+      </c>
+      <c r="AS12" t="inlineStr">
         <is>
           <t>Pass Energy</t>
         </is>
       </c>
-      <c r="AY12" t="n">
+      <c r="AT12" t="n">
         <v>20</v>
       </c>
     </row>
@@ -825,12 +1545,30 @@
       <c r="D13" t="n">
         <v>0.820408</v>
       </c>
-      <c r="AX13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H13" t="n">
+        <v>690.9299999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>755.2844891779541</v>
+      </c>
+      <c r="J13" t="n">
+        <v>727.7420449710253</v>
+      </c>
+      <c r="K13" t="n">
+        <v>718.4724442069288</v>
+      </c>
+      <c r="AS13" t="inlineStr">
         <is>
           <t>Work Function</t>
         </is>
       </c>
-      <c r="AY13" t="n">
+      <c r="AT13" t="n">
         <v>1e+37</v>
       </c>
     </row>
@@ -847,12 +1585,30 @@
       <c r="D14" t="n">
         <v>0.820354</v>
       </c>
-      <c r="AX14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H14" t="n">
+        <v>661.99</v>
+      </c>
+      <c r="I14" t="n">
+        <v>726.3444891779542</v>
+      </c>
+      <c r="J14" t="n">
+        <v>698.8020449710253</v>
+      </c>
+      <c r="K14" t="n">
+        <v>689.5324442069289</v>
+      </c>
+      <c r="AS14" t="inlineStr">
         <is>
           <t>Analyzer Mode</t>
         </is>
       </c>
-      <c r="AY14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>FAT</t>
         </is>
@@ -871,14 +1627,27 @@
       <c r="D15" t="n">
         <v>0.8203009999999999</v>
       </c>
-      <c r="AX15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H15" t="n">
+        <v>696.14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>760.4944891779542</v>
+      </c>
+      <c r="J15" t="n">
+        <v>732.9520449710253</v>
+      </c>
+      <c r="K15" t="n">
+        <v>723.6824442069288</v>
+      </c>
+      <c r="AS15" t="inlineStr">
         <is>
           <t>Sputtering Energy</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -895,12 +1664,30 @@
       <c r="D16" t="n">
         <v>0.8202469999999999</v>
       </c>
-      <c r="AX16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>88.59</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H16" t="n">
+        <v>681.17</v>
+      </c>
+      <c r="I16" t="n">
+        <v>745.5244891779541</v>
+      </c>
+      <c r="J16" t="n">
+        <v>717.9820449710253</v>
+      </c>
+      <c r="K16" t="n">
+        <v>708.7124442069288</v>
+      </c>
+      <c r="AS16" t="inlineStr">
         <is>
           <t>Take-off Polar Angle</t>
         </is>
       </c>
-      <c r="AY16" t="n">
+      <c r="AT16" t="n">
         <v>1e+37</v>
       </c>
     </row>
@@ -917,12 +1704,30 @@
       <c r="D17" t="n">
         <v>0.820194</v>
       </c>
-      <c r="AX17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>88.48999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-64.35448917795418</v>
+      </c>
+      <c r="H17" t="n">
+        <v>684.89</v>
+      </c>
+      <c r="I17" t="n">
+        <v>749.2444891779542</v>
+      </c>
+      <c r="J17" t="n">
+        <v>721.7020449710253</v>
+      </c>
+      <c r="K17" t="n">
+        <v>712.4324442069288</v>
+      </c>
+      <c r="AS17" t="inlineStr">
         <is>
           <t>Take-off Azimuth</t>
         </is>
       </c>
-      <c r="AY17" t="n">
+      <c r="AT17" t="n">
         <v>1e+37</v>
       </c>
     </row>
@@ -939,12 +1744,30 @@
       <c r="D18" t="n">
         <v>0.82014</v>
       </c>
-      <c r="AX18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>88.39</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-67.83475988266377</v>
+      </c>
+      <c r="H18" t="n">
+        <v>676.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>744.5347598826638</v>
+      </c>
+      <c r="J18" t="n">
+        <v>713.5120449710254</v>
+      </c>
+      <c r="K18" t="n">
+        <v>707.7227149116385</v>
+      </c>
+      <c r="AS18" t="inlineStr">
         <is>
           <t>Target Bias</t>
         </is>
       </c>
-      <c r="AY18" t="n">
+      <c r="AT18" t="n">
         <v>1e+37</v>
       </c>
     </row>
@@ -961,12 +1784,30 @@
       <c r="D19" t="n">
         <v>0.820087</v>
       </c>
-      <c r="AX19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>88.29000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-75.69170750285275</v>
+      </c>
+      <c r="H19" t="n">
+        <v>716.59</v>
+      </c>
+      <c r="I19" t="n">
+        <v>792.2817075028528</v>
+      </c>
+      <c r="J19" t="n">
+        <v>753.4020449710254</v>
+      </c>
+      <c r="K19" t="n">
+        <v>755.4696625318275</v>
+      </c>
+      <c r="AS19" t="inlineStr">
         <is>
           <t>Analysis Width X</t>
         </is>
       </c>
-      <c r="AY19" t="n">
+      <c r="AT19" t="n">
         <v>1e+37</v>
       </c>
     </row>
@@ -983,12 +1824,30 @@
       <c r="D20" t="n">
         <v>0.820033</v>
       </c>
-      <c r="AX20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>88.19</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-81.58366360491925</v>
+      </c>
+      <c r="H20" t="n">
+        <v>700.34</v>
+      </c>
+      <c r="I20" t="n">
+        <v>781.9236636049193</v>
+      </c>
+      <c r="J20" t="n">
+        <v>737.1520449710254</v>
+      </c>
+      <c r="K20" t="n">
+        <v>745.111618633894</v>
+      </c>
+      <c r="AS20" t="inlineStr">
         <is>
           <t>Analysis Width Y</t>
         </is>
       </c>
-      <c r="AY20" t="n">
+      <c r="AT20" t="n">
         <v>1e+37</v>
       </c>
     </row>
@@ -1005,12 +1864,30 @@
       <c r="D21" t="n">
         <v>0.81998</v>
       </c>
-      <c r="AX21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>88.09</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-85.32880175200512</v>
+      </c>
+      <c r="H21" t="n">
+        <v>696.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>781.6288017520051</v>
+      </c>
+      <c r="J21" t="n">
+        <v>733.1120449710253</v>
+      </c>
+      <c r="K21" t="n">
+        <v>744.8167567809797</v>
+      </c>
+      <c r="AS21" t="inlineStr">
         <is>
           <t>X Label</t>
         </is>
       </c>
-      <c r="AY21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>Kinetic Energy</t>
         </is>
@@ -1029,12 +1906,30 @@
       <c r="D22" t="n">
         <v>0.819927</v>
       </c>
-      <c r="AX22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-87.40865859598193</v>
+      </c>
+      <c r="H22" t="n">
+        <v>649.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>737.2086585959819</v>
+      </c>
+      <c r="J22" t="n">
+        <v>686.6120449710253</v>
+      </c>
+      <c r="K22" t="n">
+        <v>700.3966136249566</v>
+      </c>
+      <c r="AS22" t="inlineStr">
         <is>
           <t>X Units</t>
         </is>
       </c>
-      <c r="AY22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>eV</t>
         </is>
@@ -1053,12 +1948,30 @@
       <c r="D23" t="n">
         <v>0.819873</v>
       </c>
-      <c r="AX23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-88.49702735270466</v>
+      </c>
+      <c r="H23" t="n">
+        <v>662.53</v>
+      </c>
+      <c r="I23" t="n">
+        <v>751.0270273527046</v>
+      </c>
+      <c r="J23" t="n">
+        <v>699.3420449710253</v>
+      </c>
+      <c r="K23" t="n">
+        <v>714.2149823816793</v>
+      </c>
+      <c r="AS23" t="inlineStr">
         <is>
           <t>X Start</t>
         </is>
       </c>
-      <c r="AY23" t="n">
+      <c r="AT23" t="n">
         <v>1396.68</v>
       </c>
     </row>
@@ -1075,12 +1988,30 @@
       <c r="D24" t="n">
         <v>0.81982</v>
       </c>
-      <c r="AX24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-89.11899911632202</v>
+      </c>
+      <c r="H24" t="n">
+        <v>655.98</v>
+      </c>
+      <c r="I24" t="n">
+        <v>745.098999116322</v>
+      </c>
+      <c r="J24" t="n">
+        <v>692.7920449710253</v>
+      </c>
+      <c r="K24" t="n">
+        <v>708.2869541452967</v>
+      </c>
+      <c r="AS24" t="inlineStr">
         <is>
           <t>X Step</t>
         </is>
       </c>
-      <c r="AY24" t="n">
+      <c r="AT24" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1097,12 +2028,30 @@
       <c r="D25" t="n">
         <v>0.819766</v>
       </c>
-      <c r="AX25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-89.56654973310253</v>
+      </c>
+      <c r="H25" t="n">
+        <v>658.33</v>
+      </c>
+      <c r="I25" t="n">
+        <v>747.8965497331026</v>
+      </c>
+      <c r="J25" t="n">
+        <v>695.1420449710254</v>
+      </c>
+      <c r="K25" t="n">
+        <v>711.0845047620774</v>
+      </c>
+      <c r="AS25" t="inlineStr">
         <is>
           <t>Num Y Values</t>
         </is>
       </c>
-      <c r="AY25" t="n">
+      <c r="AT25" t="n">
         <v>562</v>
       </c>
     </row>
@@ -1119,12 +2068,30 @@
       <c r="D26" t="n">
         <v>0.819713</v>
       </c>
-      <c r="AX26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>87.59</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-89.96395991772795</v>
+      </c>
+      <c r="H26" t="n">
+        <v>663.4400000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>753.403959917728</v>
+      </c>
+      <c r="J26" t="n">
+        <v>700.2520449710254</v>
+      </c>
+      <c r="K26" t="n">
+        <v>716.5919149467027</v>
+      </c>
+      <c r="AS26" t="inlineStr">
         <is>
           <t>Num Scans</t>
         </is>
       </c>
-      <c r="AY26" t="n">
+      <c r="AT26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1141,12 +2108,30 @@
       <c r="D27" t="n">
         <v>0.819659</v>
       </c>
-      <c r="AX27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>87.48999999999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-90.35302525667362</v>
+      </c>
+      <c r="H27" t="n">
+        <v>673.63</v>
+      </c>
+      <c r="I27" t="n">
+        <v>763.9830252566736</v>
+      </c>
+      <c r="J27" t="n">
+        <v>710.4420449710253</v>
+      </c>
+      <c r="K27" t="n">
+        <v>727.1709802856483</v>
+      </c>
+      <c r="AS27" t="inlineStr">
         <is>
           <t>Collection Time</t>
         </is>
       </c>
-      <c r="AY27" t="n">
+      <c r="AT27" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1163,12 +2148,30 @@
       <c r="D28" t="n">
         <v>0.8196059999999999</v>
       </c>
-      <c r="AX28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>87.39</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-90.74509212917212</v>
+      </c>
+      <c r="H28" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>805.2450921291721</v>
+      </c>
+      <c r="J28" t="n">
+        <v>751.3120449710253</v>
+      </c>
+      <c r="K28" t="n">
+        <v>768.4330471581468</v>
+      </c>
+      <c r="AS28" t="inlineStr">
         <is>
           <t>Time Correction</t>
         </is>
       </c>
-      <c r="AY28" t="n">
+      <c r="AT28" t="n">
         <v>1e+37</v>
       </c>
     </row>
@@ -1185,12 +2188,30 @@
       <c r="D29" t="n">
         <v>0.819553</v>
       </c>
-      <c r="AX29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-91.14274324338976</v>
+      </c>
+      <c r="H29" t="n">
+        <v>672.66</v>
+      </c>
+      <c r="I29" t="n">
+        <v>763.8027432433897</v>
+      </c>
+      <c r="J29" t="n">
+        <v>709.4720449710253</v>
+      </c>
+      <c r="K29" t="n">
+        <v>726.9906982723644</v>
+      </c>
+      <c r="AS29" t="inlineStr">
         <is>
           <t>Y Unit</t>
         </is>
       </c>
-      <c r="AY29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>d</t>
         </is>
@@ -1209,12 +2230,30 @@
       <c r="D30" t="n">
         <v>0.819499</v>
       </c>
-      <c r="AX30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-91.54655736162886</v>
+      </c>
+      <c r="H30" t="n">
+        <v>652.39</v>
+      </c>
+      <c r="I30" t="n">
+        <v>743.9365573616288</v>
+      </c>
+      <c r="J30" t="n">
+        <v>689.2020449710253</v>
+      </c>
+      <c r="K30" t="n">
+        <v>707.1245123906035</v>
+      </c>
+      <c r="AS30" t="inlineStr">
         <is>
           <t># Comment Lines</t>
         </is>
       </c>
-      <c r="AY30" t="n">
+      <c r="AT30" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1231,12 +2270,30 @@
       <c r="D31" t="n">
         <v>0.819446</v>
       </c>
-      <c r="AX31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>87.09</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-91.95674754817458</v>
+      </c>
+      <c r="H31" t="n">
+        <v>682</v>
+      </c>
+      <c r="I31" t="n">
+        <v>773.9567475481746</v>
+      </c>
+      <c r="J31" t="n">
+        <v>718.8120449710253</v>
+      </c>
+      <c r="K31" t="n">
+        <v>737.1447025771492</v>
+      </c>
+      <c r="AS31" t="inlineStr">
         <is>
           <t>Block Comment</t>
         </is>
       </c>
-      <c r="AY31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>Casa Info Follows
 0
@@ -1264,6 +2321,24 @@
       <c r="D32" t="n">
         <v>0.819392</v>
       </c>
+      <c r="F32" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-92.37347634465414</v>
+      </c>
+      <c r="H32" t="n">
+        <v>646.3099999999999</v>
+      </c>
+      <c r="I32" t="n">
+        <v>738.6834763446541</v>
+      </c>
+      <c r="J32" t="n">
+        <v>683.1220449710253</v>
+      </c>
+      <c r="K32" t="n">
+        <v>701.8714313736288</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1278,6 +2353,24 @@
       <c r="D33" t="n">
         <v>0.819339</v>
       </c>
+      <c r="F33" t="n">
+        <v>86.89</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-92.79690462690053</v>
+      </c>
+      <c r="H33" t="n">
+        <v>632.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>725.2969046269005</v>
+      </c>
+      <c r="J33" t="n">
+        <v>669.3120449710253</v>
+      </c>
+      <c r="K33" t="n">
+        <v>688.4848596558752</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1292,6 +2385,24 @@
       <c r="D34" t="n">
         <v>0.819286</v>
       </c>
+      <c r="F34" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-93.22719790280485</v>
+      </c>
+      <c r="H34" t="n">
+        <v>666.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>760.0271979028048</v>
+      </c>
+      <c r="J34" t="n">
+        <v>703.6120449710253</v>
+      </c>
+      <c r="K34" t="n">
+        <v>723.2151529317795</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1306,6 +2417,24 @@
       <c r="D35" t="n">
         <v>0.819232</v>
       </c>
+      <c r="F35" t="n">
+        <v>86.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-93.66452715462185</v>
+      </c>
+      <c r="H35" t="n">
+        <v>746.9299999999999</v>
+      </c>
+      <c r="I35" t="n">
+        <v>840.5945271546218</v>
+      </c>
+      <c r="J35" t="n">
+        <v>783.7420449710253</v>
+      </c>
+      <c r="K35" t="n">
+        <v>803.7824821835966</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1320,6 +2449,24 @@
       <c r="D36" t="n">
         <v>0.819179</v>
       </c>
+      <c r="F36" t="n">
+        <v>86.59</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-94.10906912429823</v>
+      </c>
+      <c r="H36" t="n">
+        <v>650.4400000000001</v>
+      </c>
+      <c r="I36" t="n">
+        <v>744.5490691242983</v>
+      </c>
+      <c r="J36" t="n">
+        <v>687.2520449710254</v>
+      </c>
+      <c r="K36" t="n">
+        <v>707.737024153273</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1334,6 +2481,24 @@
       <c r="D37" t="n">
         <v>0.819126</v>
       </c>
+      <c r="F37" t="n">
+        <v>86.48999999999999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-94.56100656268541</v>
+      </c>
+      <c r="H37" t="n">
+        <v>674.9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>769.4610065626854</v>
+      </c>
+      <c r="J37" t="n">
+        <v>711.7120449710253</v>
+      </c>
+      <c r="K37" t="n">
+        <v>732.6489615916601</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1348,6 +2513,24 @@
       <c r="D38" t="n">
         <v>0.819072</v>
       </c>
+      <c r="F38" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-95.02052848812104</v>
+      </c>
+      <c r="H38" t="n">
+        <v>673.85</v>
+      </c>
+      <c r="I38" t="n">
+        <v>768.8705284881211</v>
+      </c>
+      <c r="J38" t="n">
+        <v>710.6620449710254</v>
+      </c>
+      <c r="K38" t="n">
+        <v>732.0584835170957</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1362,6 +2545,24 @@
       <c r="D39" t="n">
         <v>0.8190190000000001</v>
       </c>
+      <c r="F39" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-95.48783045829214</v>
+      </c>
+      <c r="H39" t="n">
+        <v>659.87</v>
+      </c>
+      <c r="I39" t="n">
+        <v>755.3578304582921</v>
+      </c>
+      <c r="J39" t="n">
+        <v>696.6820449710253</v>
+      </c>
+      <c r="K39" t="n">
+        <v>718.5457854872668</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1376,6 +2577,24 @@
       <c r="D40" t="n">
         <v>0.818966</v>
       </c>
+      <c r="F40" t="n">
+        <v>86.19</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-79.43311485638264</v>
+      </c>
+      <c r="H40" t="n">
+        <v>700.3099999999999</v>
+      </c>
+      <c r="I40" t="n">
+        <v>796.2731148563827</v>
+      </c>
+      <c r="J40" t="n">
+        <v>737.1220449710253</v>
+      </c>
+      <c r="K40" t="n">
+        <v>759.4610698853573</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1390,6 +2609,24 @@
       <c r="D41" t="n">
         <v>0.818912</v>
       </c>
+      <c r="F41" t="n">
+        <v>86.09</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-128.3165911924031</v>
+      </c>
+      <c r="H41" t="n">
+        <v>697.55</v>
+      </c>
+      <c r="I41" t="n">
+        <v>793.996591192403</v>
+      </c>
+      <c r="J41" t="n">
+        <v>734.3620449710253</v>
+      </c>
+      <c r="K41" t="n">
+        <v>757.1845462213777</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1404,6 +2641,24 @@
       <c r="D42" t="n">
         <v>0.818859</v>
       </c>
+      <c r="F42" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-76.11847642064788</v>
+      </c>
+      <c r="H42" t="n">
+        <v>697.58</v>
+      </c>
+      <c r="I42" t="n">
+        <v>794.5184764206479</v>
+      </c>
+      <c r="J42" t="n">
+        <v>734.3920449710254</v>
+      </c>
+      <c r="K42" t="n">
+        <v>757.7064314496225</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1418,6 +2673,24 @@
       <c r="D43" t="n">
         <v>0.818806</v>
       </c>
+      <c r="F43" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-102.0889952742989</v>
+      </c>
+      <c r="H43" t="n">
+        <v>697.6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>795.0389952742989</v>
+      </c>
+      <c r="J43" t="n">
+        <v>734.4120449710254</v>
+      </c>
+      <c r="K43" t="n">
+        <v>758.2269503032736</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1432,6 +2705,24 @@
       <c r="D44" t="n">
         <v>0.818752</v>
       </c>
+      <c r="F44" t="n">
+        <v>85.79000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-128.4283806182671</v>
+      </c>
+      <c r="H44" t="n">
+        <v>697.5700000000001</v>
+      </c>
+      <c r="I44" t="n">
+        <v>795.5183806182671</v>
+      </c>
+      <c r="J44" t="n">
+        <v>734.3820449710254</v>
+      </c>
+      <c r="K44" t="n">
+        <v>758.7063356472418</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1446,6 +2737,24 @@
       <c r="D45" t="n">
         <v>0.818699</v>
       </c>
+      <c r="F45" t="n">
+        <v>85.69</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-131.7368738214391</v>
+      </c>
+      <c r="H45" t="n">
+        <v>697.64</v>
+      </c>
+      <c r="I45" t="n">
+        <v>796.1068738214391</v>
+      </c>
+      <c r="J45" t="n">
+        <v>734.4520449710253</v>
+      </c>
+      <c r="K45" t="n">
+        <v>759.2948288504138</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1460,6 +2769,24 @@
       <c r="D46" t="n">
         <v>0.818646</v>
       </c>
+      <c r="F46" t="n">
+        <v>85.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-178.994725149592</v>
+      </c>
+      <c r="H46" t="n">
+        <v>697.76</v>
+      </c>
+      <c r="I46" t="n">
+        <v>796.754725149592</v>
+      </c>
+      <c r="J46" t="n">
+        <v>734.5720449710253</v>
+      </c>
+      <c r="K46" t="n">
+        <v>759.9426801785667</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1474,6 +2801,24 @@
       <c r="D47" t="n">
         <v>0.818592</v>
       </c>
+      <c r="F47" t="n">
+        <v>85.48999999999999</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-140.7821941803227</v>
+      </c>
+      <c r="H47" t="n">
+        <v>697.97</v>
+      </c>
+      <c r="I47" t="n">
+        <v>797.5021941803227</v>
+      </c>
+      <c r="J47" t="n">
+        <v>734.7820449710254</v>
+      </c>
+      <c r="K47" t="n">
+        <v>760.6901492092974</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1488,6 +2833,24 @@
       <c r="D48" t="n">
         <v>0.818539</v>
       </c>
+      <c r="F48" t="n">
+        <v>85.39</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-67.49955024144879</v>
+      </c>
+      <c r="H48" t="n">
+        <v>698.2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>798.2795502414488</v>
+      </c>
+      <c r="J48" t="n">
+        <v>735.0120449710254</v>
+      </c>
+      <c r="K48" t="n">
+        <v>761.4675052704234</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1502,6 +2865,24 @@
       <c r="D49" t="n">
         <v>0.818486</v>
       </c>
+      <c r="F49" t="n">
+        <v>85.29000000000001</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-160.9770728744444</v>
+      </c>
+      <c r="H49" t="n">
+        <v>698.22</v>
+      </c>
+      <c r="I49" t="n">
+        <v>798.8570728744444</v>
+      </c>
+      <c r="J49" t="n">
+        <v>735.0320449710254</v>
+      </c>
+      <c r="K49" t="n">
+        <v>762.0450279034191</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1516,6 +2897,24 @@
       <c r="D50" t="n">
         <v>0.818432</v>
       </c>
+      <c r="F50" t="n">
+        <v>85.19</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-183.4950523245944</v>
+      </c>
+      <c r="H50" t="n">
+        <v>698.27</v>
+      </c>
+      <c r="I50" t="n">
+        <v>799.4750523245945</v>
+      </c>
+      <c r="J50" t="n">
+        <v>735.0820449710253</v>
+      </c>
+      <c r="K50" t="n">
+        <v>762.6630073535691</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1530,6 +2929,24 @@
       <c r="D51" t="n">
         <v>0.818379</v>
       </c>
+      <c r="F51" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-103.0281749241084</v>
+      </c>
+      <c r="H51" t="n">
+        <v>698.55</v>
+      </c>
+      <c r="I51" t="n">
+        <v>802.6781749241084</v>
+      </c>
+      <c r="J51" t="n">
+        <v>737.7064298354492</v>
+      </c>
+      <c r="K51" t="n">
+        <v>763.5217450886591</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1544,6 +2961,24 @@
       <c r="D52" t="n">
         <v>0.818326</v>
       </c>
+      <c r="F52" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-132.2242997590314</v>
+      </c>
+      <c r="H52" t="n">
+        <v>698.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>814.3142997590314</v>
+      </c>
+      <c r="J52" t="n">
+        <v>748.752745410874</v>
+      </c>
+      <c r="K52" t="n">
+        <v>764.2615543481575</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1558,6 +2993,24 @@
       <c r="D53" t="n">
         <v>0.818273</v>
       </c>
+      <c r="F53" t="n">
+        <v>84.89</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-149.7641025417937</v>
+      </c>
+      <c r="H53" t="n">
+        <v>698.73</v>
+      </c>
+      <c r="I53" t="n">
+        <v>823.4041025417937</v>
+      </c>
+      <c r="J53" t="n">
+        <v>757.2413418167919</v>
+      </c>
+      <c r="K53" t="n">
+        <v>764.8927607250018</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1572,6 +3025,24 @@
       <c r="D54" t="n">
         <v>0.818219</v>
       </c>
+      <c r="F54" t="n">
+        <v>84.79000000000001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-152.1133819811641</v>
+      </c>
+      <c r="H54" t="n">
+        <v>698.8099999999999</v>
+      </c>
+      <c r="I54" t="n">
+        <v>829.6433819811641</v>
+      </c>
+      <c r="J54" t="n">
+        <v>762.867679198889</v>
+      </c>
+      <c r="K54" t="n">
+        <v>765.585702782275</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1586,6 +3057,24 @@
       <c r="D55" t="n">
         <v>0.8181659999999999</v>
       </c>
+      <c r="F55" t="n">
+        <v>84.69</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-178.4482608934403</v>
+      </c>
+      <c r="H55" t="n">
+        <v>698.9</v>
+      </c>
+      <c r="I55" t="n">
+        <v>833.5082608934403</v>
+      </c>
+      <c r="J55" t="n">
+        <v>766.1075276332166</v>
+      </c>
+      <c r="K55" t="n">
+        <v>766.3007332602236</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1600,6 +3089,24 @@
       <c r="D56" t="n">
         <v>0.818113</v>
       </c>
+      <c r="F56" t="n">
+        <v>84.59</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-115.9971086932712</v>
+      </c>
+      <c r="H56" t="n">
+        <v>699.02</v>
+      </c>
+      <c r="I56" t="n">
+        <v>835.9171086932712</v>
+      </c>
+      <c r="J56" t="n">
+        <v>767.8788825697325</v>
+      </c>
+      <c r="K56" t="n">
+        <v>767.0582261235387</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1614,6 +3121,24 @@
       <c r="D57" t="n">
         <v>0.81806</v>
       </c>
+      <c r="F57" t="n">
+        <v>84.48999999999999</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-102.7514936082658</v>
+      </c>
+      <c r="H57" t="n">
+        <v>699.0599999999999</v>
+      </c>
+      <c r="I57" t="n">
+        <v>837.5214936082658</v>
+      </c>
+      <c r="J57" t="n">
+        <v>768.8329381590722</v>
+      </c>
+      <c r="K57" t="n">
+        <v>767.7485554491935</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1628,6 +3153,24 @@
       <c r="D58" t="n">
         <v>0.818007</v>
       </c>
+      <c r="F58" t="n">
+        <v>84.39</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-107.3806193777448</v>
+      </c>
+      <c r="H58" t="n">
+        <v>698.96</v>
+      </c>
+      <c r="I58" t="n">
+        <v>838.7106193777448</v>
+      </c>
+      <c r="J58" t="n">
+        <v>769.3585007085858</v>
+      </c>
+      <c r="K58" t="n">
+        <v>768.3121186691591</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1642,6 +3185,24 @@
       <c r="D59" t="n">
         <v>0.817953</v>
       </c>
+      <c r="F59" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-111.5655095048683</v>
+      </c>
+      <c r="H59" t="n">
+        <v>698.83</v>
+      </c>
+      <c r="I59" t="n">
+        <v>839.7955095048683</v>
+      </c>
+      <c r="J59" t="n">
+        <v>769.7661796165391</v>
+      </c>
+      <c r="K59" t="n">
+        <v>768.8593298883292</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1656,6 +3217,24 @@
       <c r="D60" t="n">
         <v>0.8179</v>
       </c>
+      <c r="F60" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-114.8670712844598</v>
+      </c>
+      <c r="H60" t="n">
+        <v>698.71</v>
+      </c>
+      <c r="I60" t="n">
+        <v>840.8870712844598</v>
+      </c>
+      <c r="J60" t="n">
+        <v>770.1664505142296</v>
+      </c>
+      <c r="K60" t="n">
+        <v>769.4306207702302</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1670,6 +3249,24 @@
       <c r="D61" t="n">
         <v>0.817847</v>
       </c>
+      <c r="F61" t="n">
+        <v>84.09</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-160.0456467406054</v>
+      </c>
+      <c r="H61" t="n">
+        <v>698.6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>842.0056467406055</v>
+      </c>
+      <c r="J61" t="n">
+        <v>770.5792052607574</v>
+      </c>
+      <c r="K61" t="n">
+        <v>770.0264414798481</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1684,6 +3281,24 @@
       <c r="D62" t="n">
         <v>0.817794</v>
       </c>
+      <c r="F62" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-195.4663577916638</v>
+      </c>
+      <c r="H62" t="n">
+        <v>698.58</v>
+      </c>
+      <c r="I62" t="n">
+        <v>843.2363577916637</v>
+      </c>
+      <c r="J62" t="n">
+        <v>771.0890961037462</v>
+      </c>
+      <c r="K62" t="n">
+        <v>770.7272616879176</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1698,6 +3313,24 @@
       <c r="D63" t="n">
         <v>0.81774</v>
       </c>
+      <c r="F63" t="n">
+        <v>83.89</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-144.9807106400691</v>
+      </c>
+      <c r="H63" t="n">
+        <v>698.71</v>
+      </c>
+      <c r="I63" t="n">
+        <v>844.6407106400691</v>
+      </c>
+      <c r="J63" t="n">
+        <v>771.7571389986693</v>
+      </c>
+      <c r="K63" t="n">
+        <v>771.5935716413996</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1712,6 +3345,24 @@
       <c r="D64" t="n">
         <v>0.8176870000000001</v>
       </c>
+      <c r="F64" t="n">
+        <v>83.79000000000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-124.8995405482402</v>
+      </c>
+      <c r="H64" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>846.0295405482402</v>
+      </c>
+      <c r="J64" t="n">
+        <v>772.3936572429465</v>
+      </c>
+      <c r="K64" t="n">
+        <v>772.4358833052938</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1726,6 +3377,24 @@
       <c r="D65" t="n">
         <v>0.817634</v>
       </c>
+      <c r="F65" t="n">
+        <v>83.69</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-189.38360360457</v>
+      </c>
+      <c r="H65" t="n">
+        <v>698.76</v>
+      </c>
+      <c r="I65" t="n">
+        <v>847.3136036045699</v>
+      </c>
+      <c r="J65" t="n">
+        <v>772.9088720231784</v>
+      </c>
+      <c r="K65" t="n">
+        <v>773.1647315813915</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1740,6 +3409,24 @@
       <c r="D66" t="n">
         <v>0.817581</v>
       </c>
+      <c r="F66" t="n">
+        <v>83.59</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-166.3236731499915</v>
+      </c>
+      <c r="H66" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="I66" t="n">
+        <v>848.7036731499915</v>
+      </c>
+      <c r="J66" t="n">
+        <v>773.512997539902</v>
+      </c>
+      <c r="K66" t="n">
+        <v>773.9906756100894</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1754,6 +3441,24 @@
       <c r="D67" t="n">
         <v>0.817528</v>
       </c>
+      <c r="F67" t="n">
+        <v>83.48999999999999</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-145.4505537698011</v>
+      </c>
+      <c r="H67" t="n">
+        <v>698.9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>850.1805537698011</v>
+      </c>
+      <c r="J67" t="n">
+        <v>774.1862536078575</v>
+      </c>
+      <c r="K67" t="n">
+        <v>774.8943001619436</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1768,6 +3473,24 @@
       <c r="D68" t="n">
         <v>0.817475</v>
       </c>
+      <c r="F68" t="n">
+        <v>83.39</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-164.1450843774334</v>
+      </c>
+      <c r="H68" t="n">
+        <v>698.92</v>
+      </c>
+      <c r="I68" t="n">
+        <v>851.6050843774334</v>
+      </c>
+      <c r="J68" t="n">
+        <v>774.7888672511731</v>
+      </c>
+      <c r="K68" t="n">
+        <v>775.7362171262603</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1782,6 +3505,24 @@
       <c r="D69" t="n">
         <v>0.817421</v>
       </c>
+      <c r="F69" t="n">
+        <v>83.29000000000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-113.5081402294768</v>
+      </c>
+      <c r="H69" t="n">
+        <v>698.9400000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>853.0581402294767</v>
+      </c>
+      <c r="J69" t="n">
+        <v>775.4010731247616</v>
+      </c>
+      <c r="K69" t="n">
+        <v>776.5970671047152</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1796,6 +3537,24 @@
       <c r="D70" t="n">
         <v>0.817368</v>
       </c>
+      <c r="F70" t="n">
+        <v>83.19</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-117.4306385486219</v>
+      </c>
+      <c r="H70" t="n">
+        <v>698.88</v>
+      </c>
+      <c r="I70" t="n">
+        <v>854.4606385486219</v>
+      </c>
+      <c r="J70" t="n">
+        <v>775.9431174298784</v>
+      </c>
+      <c r="K70" t="n">
+        <v>777.3975211187435</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1810,6 +3569,24 @@
       <c r="D71" t="n">
         <v>0.817315</v>
       </c>
+      <c r="F71" t="n">
+        <v>83.09</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-169.6435333481606</v>
+      </c>
+      <c r="H71" t="n">
+        <v>698.73</v>
+      </c>
+      <c r="I71" t="n">
+        <v>855.8035333481606</v>
+      </c>
+      <c r="J71" t="n">
+        <v>776.405250907869</v>
+      </c>
+      <c r="K71" t="n">
+        <v>778.1282824402916</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1824,6 +3601,24 @@
       <c r="D72" t="n">
         <v>0.817262</v>
       </c>
+      <c r="F72" t="n">
+        <v>82.98999999999999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-190.497818666638</v>
+      </c>
+      <c r="H72" t="n">
+        <v>698.6799999999999</v>
+      </c>
+      <c r="I72" t="n">
+        <v>857.2778186666379</v>
+      </c>
+      <c r="J72" t="n">
+        <v>776.977730110186</v>
+      </c>
+      <c r="K72" t="n">
+        <v>778.9800885564518</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1838,6 +3633,24 @@
       <c r="D73" t="n">
         <v>0.817209</v>
       </c>
+      <c r="F73" t="n">
+        <v>82.89</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-147.9645369701099</v>
+      </c>
+      <c r="H73" t="n">
+        <v>698.77</v>
+      </c>
+      <c r="I73" t="n">
+        <v>858.9245369701099</v>
+      </c>
+      <c r="J73" t="n">
+        <v>777.7008236905702</v>
+      </c>
+      <c r="K73" t="n">
+        <v>779.9937132795396</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1852,6 +3665,24 @@
       <c r="D74" t="n">
         <v>0.817156</v>
       </c>
+      <c r="F74" t="n">
+        <v>82.79000000000001</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-153.3747787620611</v>
+      </c>
+      <c r="H74" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>860.544778762061</v>
+      </c>
+      <c r="J74" t="n">
+        <v>778.3748097467303</v>
+      </c>
+      <c r="K74" t="n">
+        <v>780.9699690153307</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1866,6 +3697,24 @@
       <c r="D75" t="n">
         <v>0.817103</v>
       </c>
+      <c r="F75" t="n">
+        <v>82.69</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-181.8296854437349</v>
+      </c>
+      <c r="H75" t="n">
+        <v>698.76</v>
+      </c>
+      <c r="I75" t="n">
+        <v>862.1296854437348</v>
+      </c>
+      <c r="J75" t="n">
+        <v>778.9899762402796</v>
+      </c>
+      <c r="K75" t="n">
+        <v>781.8997092034551</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1880,6 +3729,24 @@
       <c r="D76" t="n">
         <v>0.8170500000000001</v>
       </c>
+      <c r="F76" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-145.6904523846971</v>
+      </c>
+      <c r="H76" t="n">
+        <v>698.78</v>
+      </c>
+      <c r="I76" t="n">
+        <v>863.8104523846971</v>
+      </c>
+      <c r="J76" t="n">
+        <v>779.6766214393135</v>
+      </c>
+      <c r="K76" t="n">
+        <v>782.9138309453836</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1894,6 +3761,24 @@
       <c r="D77" t="n">
         <v>0.8169960000000001</v>
       </c>
+      <c r="F77" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-140.2683322221071</v>
+      </c>
+      <c r="H77" t="n">
+        <v>698.78</v>
+      </c>
+      <c r="I77" t="n">
+        <v>865.5083322221071</v>
+      </c>
+      <c r="J77" t="n">
+        <v>780.3550543850673</v>
+      </c>
+      <c r="K77" t="n">
+        <v>783.9332778370398</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1908,6 +3793,24 @@
       <c r="D78" t="n">
         <v>0.816943</v>
       </c>
+      <c r="F78" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-143.2846384090565</v>
+      </c>
+      <c r="H78" t="n">
+        <v>698.6900000000001</v>
+      </c>
+      <c r="I78" t="n">
+        <v>867.1546384090565</v>
+      </c>
+      <c r="J78" t="n">
+        <v>780.9555953841948</v>
+      </c>
+      <c r="K78" t="n">
+        <v>784.8890430248617</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1922,6 +3825,24 @@
       <c r="D79" t="n">
         <v>0.81689</v>
       </c>
+      <c r="F79" t="n">
+        <v>82.29000000000001</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-147.4207490344677</v>
+      </c>
+      <c r="H79" t="n">
+        <v>698.6</v>
+      </c>
+      <c r="I79" t="n">
+        <v>868.8407490344676</v>
+      </c>
+      <c r="J79" t="n">
+        <v>781.568576528327</v>
+      </c>
+      <c r="K79" t="n">
+        <v>785.8721725061407</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1936,6 +3857,24 @@
       <c r="D80" t="n">
         <v>0.816837</v>
       </c>
+      <c r="F80" t="n">
+        <v>82.19</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-144.7081109394031</v>
+      </c>
+      <c r="H80" t="n">
+        <v>698.5</v>
+      </c>
+      <c r="I80" t="n">
+        <v>870.5581109394032</v>
+      </c>
+      <c r="J80" t="n">
+        <v>782.1843422426929</v>
+      </c>
+      <c r="K80" t="n">
+        <v>786.8737686967103</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1950,6 +3889,24 @@
       <c r="D81" t="n">
         <v>0.816784</v>
       </c>
+      <c r="F81" t="n">
+        <v>82.09</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-134.7182441572954</v>
+      </c>
+      <c r="H81" t="n">
+        <v>698.41</v>
+      </c>
+      <c r="I81" t="n">
+        <v>872.3282441572954</v>
+      </c>
+      <c r="J81" t="n">
+        <v>782.823249865713</v>
+      </c>
+      <c r="K81" t="n">
+        <v>787.9149942915824</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1964,6 +3921,24 @@
       <c r="D82" t="n">
         <v>0.816731</v>
       </c>
+      <c r="F82" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-141.0427467085979</v>
+      </c>
+      <c r="H82" t="n">
+        <v>698.28</v>
+      </c>
+      <c r="I82" t="n">
+        <v>874.1027467085978</v>
+      </c>
+      <c r="J82" t="n">
+        <v>783.4356702616327</v>
+      </c>
+      <c r="K82" t="n">
+        <v>788.9470764469651</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1978,6 +3953,24 @@
       <c r="D83" t="n">
         <v>0.816678</v>
       </c>
+      <c r="F83" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-142.8932997836965</v>
+      </c>
+      <c r="H83" t="n">
+        <v>698.14</v>
+      </c>
+      <c r="I83" t="n">
+        <v>875.9132997836965</v>
+      </c>
+      <c r="J83" t="n">
+        <v>784.0519884684079</v>
+      </c>
+      <c r="K83" t="n">
+        <v>790.0013113152886</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1992,6 +3985,24 @@
       <c r="D84" t="n">
         <v>0.816625</v>
       </c>
+      <c r="F84" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-80.44167335171562</v>
+      </c>
+      <c r="H84" t="n">
+        <v>698.01</v>
+      </c>
+      <c r="I84" t="n">
+        <v>877.7816733517157</v>
+      </c>
+      <c r="J84" t="n">
+        <v>784.6926043832406</v>
+      </c>
+      <c r="K84" t="n">
+        <v>791.0990689684752</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2006,6 +4017,24 @@
       <c r="D85" t="n">
         <v>0.816572</v>
       </c>
+      <c r="F85" t="n">
+        <v>81.69</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-158.0797322370927</v>
+      </c>
+      <c r="H85" t="n">
+        <v>697.75</v>
+      </c>
+      <c r="I85" t="n">
+        <v>879.5697322370927</v>
+      </c>
+      <c r="J85" t="n">
+        <v>785.2179334883356</v>
+      </c>
+      <c r="K85" t="n">
+        <v>792.1017987487571</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2020,6 +4049,24 @@
       <c r="D86" t="n">
         <v>0.816519</v>
       </c>
+      <c r="F86" t="n">
+        <v>81.59</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-153.5794427106242</v>
+      </c>
+      <c r="H86" t="n">
+        <v>697.52</v>
+      </c>
+      <c r="I86" t="n">
+        <v>881.4394427106242</v>
+      </c>
+      <c r="J86" t="n">
+        <v>785.7884076196656</v>
+      </c>
+      <c r="K86" t="n">
+        <v>793.1710350909586</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2034,6 +4081,24 @@
       <c r="D87" t="n">
         <v>0.816466</v>
       </c>
+      <c r="F87" t="n">
+        <v>81.48999999999999</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-145.8728796471303</v>
+      </c>
+      <c r="H87" t="n">
+        <v>697.42</v>
+      </c>
+      <c r="I87" t="n">
+        <v>883.4928796471303</v>
+      </c>
+      <c r="J87" t="n">
+        <v>786.5044757817453</v>
+      </c>
+      <c r="K87" t="n">
+        <v>794.4084038653849</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2048,6 +4113,24 @@
       <c r="D88" t="n">
         <v>0.8164130000000001</v>
       </c>
+      <c r="F88" t="n">
+        <v>81.39</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-142.9622343080537</v>
+      </c>
+      <c r="H88" t="n">
+        <v>697.28</v>
+      </c>
+      <c r="I88" t="n">
+        <v>885.5622343080537</v>
+      </c>
+      <c r="J88" t="n">
+        <v>787.1966050116624</v>
+      </c>
+      <c r="K88" t="n">
+        <v>795.6456292963912</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2062,6 +4145,24 @@
       <c r="D89" t="n">
         <v>0.81636</v>
       </c>
+      <c r="F89" t="n">
+        <v>81.29000000000001</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-142.3498228143416</v>
+      </c>
+      <c r="H89" t="n">
+        <v>697.12</v>
+      </c>
+      <c r="I89" t="n">
+        <v>887.6698228143416</v>
+      </c>
+      <c r="J89" t="n">
+        <v>787.8852812958742</v>
+      </c>
+      <c r="K89" t="n">
+        <v>796.9045415184675</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2076,6 +4177,24 @@
       <c r="D90" t="n">
         <v>0.816307</v>
       </c>
+      <c r="F90" t="n">
+        <v>81.19</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-165.9280953829306</v>
+      </c>
+      <c r="H90" t="n">
+        <v>696.9400000000001</v>
+      </c>
+      <c r="I90" t="n">
+        <v>889.8180953829306</v>
+      </c>
+      <c r="J90" t="n">
+        <v>788.5710105435696</v>
+      </c>
+      <c r="K90" t="n">
+        <v>798.187084839361</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2090,6 +4209,24 @@
       <c r="D91" t="n">
         <v>0.816254</v>
       </c>
+      <c r="F91" t="n">
+        <v>81.09</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-86.03964640927074</v>
+      </c>
+      <c r="H91" t="n">
+        <v>696.8</v>
+      </c>
+      <c r="I91" t="n">
+        <v>892.0696464092707</v>
+      </c>
+      <c r="J91" t="n">
+        <v>789.3143196207127</v>
+      </c>
+      <c r="K91" t="n">
+        <v>799.555326788558</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2104,6 +4241,24 @@
       <c r="D92" t="n">
         <v>0.816201</v>
       </c>
+      <c r="F92" t="n">
+        <v>80.98999999999999</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-109.4372254887348</v>
+      </c>
+      <c r="H92" t="n">
+        <v>696.54</v>
+      </c>
+      <c r="I92" t="n">
+        <v>894.2672254887349</v>
+      </c>
+      <c r="J92" t="n">
+        <v>789.9557574492269</v>
+      </c>
+      <c r="K92" t="n">
+        <v>800.8514680395079</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2118,6 +4273,24 @@
       <c r="D93" t="n">
         <v>0.816148</v>
       </c>
+      <c r="F93" t="n">
+        <v>80.89</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-179.6437494816564</v>
+      </c>
+      <c r="H93" t="n">
+        <v>696.16</v>
+      </c>
+      <c r="I93" t="n">
+        <v>896.4137494816564</v>
+      </c>
+      <c r="J93" t="n">
+        <v>790.495896176158</v>
+      </c>
+      <c r="K93" t="n">
+        <v>802.0778533054984</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2132,6 +4305,24 @@
       <c r="D94" t="n">
         <v>0.816095</v>
       </c>
+      <c r="F94" t="n">
+        <v>80.79000000000001</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-132.1123157404347</v>
+      </c>
+      <c r="H94" t="n">
+        <v>695.95</v>
+      </c>
+      <c r="I94" t="n">
+        <v>898.8023157404348</v>
+      </c>
+      <c r="J94" t="n">
+        <v>791.2253324180739</v>
+      </c>
+      <c r="K94" t="n">
+        <v>803.5269833223609</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2146,6 +4337,24 @@
       <c r="D95" t="n">
         <v>0.816042</v>
       </c>
+      <c r="F95" t="n">
+        <v>80.69</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-137.7262166328452</v>
+      </c>
+      <c r="H95" t="n">
+        <v>695.78</v>
+      </c>
+      <c r="I95" t="n">
+        <v>901.3062166328452</v>
+      </c>
+      <c r="J95" t="n">
+        <v>792.0146885864075</v>
+      </c>
+      <c r="K95" t="n">
+        <v>805.0715280464377</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2160,6 +4369,24 @@
       <c r="D96" t="n">
         <v>0.815989</v>
       </c>
+      <c r="F96" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-125.5189555138173</v>
+      </c>
+      <c r="H96" t="n">
+        <v>695.52</v>
+      </c>
+      <c r="I96" t="n">
+        <v>903.7989555138173</v>
+      </c>
+      <c r="J96" t="n">
+        <v>792.7346142999548</v>
+      </c>
+      <c r="K96" t="n">
+        <v>806.5843412138624</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2174,6 +4401,24 @@
       <c r="D97" t="n">
         <v>0.815936</v>
       </c>
+      <c r="F97" t="n">
+        <v>80.48999999999999</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-168.6842643188803</v>
+      </c>
+      <c r="H97" t="n">
+        <v>695.23</v>
+      </c>
+      <c r="I97" t="n">
+        <v>906.3442643188803</v>
+      </c>
+      <c r="J97" t="n">
+        <v>793.4457878912899</v>
+      </c>
+      <c r="K97" t="n">
+        <v>808.1284764275904</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2188,6 +4433,24 @@
       <c r="D98" t="n">
         <v>0.815883</v>
       </c>
+      <c r="F98" t="n">
+        <v>80.39</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-135.4561229766888</v>
+      </c>
+      <c r="H98" t="n">
+        <v>694.99</v>
+      </c>
+      <c r="I98" t="n">
+        <v>909.0261229766888</v>
+      </c>
+      <c r="J98" t="n">
+        <v>794.2289180144609</v>
+      </c>
+      <c r="K98" t="n">
+        <v>809.7872049622279</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2202,6 +4465,24 @@
       <c r="D99" t="n">
         <v>0.8158300000000001</v>
       </c>
+      <c r="F99" t="n">
+        <v>80.29000000000001</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-129.0287808661997</v>
+      </c>
+      <c r="H99" t="n">
+        <v>694.76</v>
+      </c>
+      <c r="I99" t="n">
+        <v>911.8087808661996</v>
+      </c>
+      <c r="J99" t="n">
+        <v>795.0447453620048</v>
+      </c>
+      <c r="K99" t="n">
+        <v>811.5240355041948</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2216,6 +4497,24 @@
       <c r="D100" t="n">
         <v>0.815777</v>
       </c>
+      <c r="F100" t="n">
+        <v>80.19</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-169.6767805767855</v>
+      </c>
+      <c r="H100" t="n">
+        <v>694.4400000000001</v>
+      </c>
+      <c r="I100" t="n">
+        <v>914.5967805767855</v>
+      </c>
+      <c r="J100" t="n">
+        <v>795.7940445000504</v>
+      </c>
+      <c r="K100" t="n">
+        <v>813.2427360767351</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2230,6 +4529,24 @@
       <c r="D101" t="n">
         <v>0.815724</v>
       </c>
+      <c r="F101" t="n">
+        <v>80.09</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-117.0849842677851</v>
+      </c>
+      <c r="H101" t="n">
+        <v>694.1799999999999</v>
+      </c>
+      <c r="I101" t="n">
+        <v>917.5449842677851</v>
+      </c>
+      <c r="J101" t="n">
+        <v>796.6276258310911</v>
+      </c>
+      <c r="K101" t="n">
+        <v>815.097358436694</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2244,6 +4561,24 @@
       <c r="D102" t="n">
         <v>0.815671</v>
       </c>
+      <c r="F102" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-147.9686029686993</v>
+      </c>
+      <c r="H102" t="n">
+        <v>693.88</v>
+      </c>
+      <c r="I102" t="n">
+        <v>920.5586029686993</v>
+      </c>
+      <c r="J102" t="n">
+        <v>797.4463376949165</v>
+      </c>
+      <c r="K102" t="n">
+        <v>816.9922652737829</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2258,6 +4593,24 @@
       <c r="D103" t="n">
         <v>0.815618</v>
       </c>
+      <c r="F103" t="n">
+        <v>79.89</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-178.1432292136623</v>
+      </c>
+      <c r="H103" t="n">
+        <v>693.53</v>
+      </c>
+      <c r="I103" t="n">
+        <v>923.6332292136623</v>
+      </c>
+      <c r="J103" t="n">
+        <v>798.2410686191728</v>
+      </c>
+      <c r="K103" t="n">
+        <v>818.9221605944895</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2272,6 +4625,24 @@
       <c r="D104" t="n">
         <v>0.815565</v>
       </c>
+      <c r="F104" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-97.82487346558673</v>
+      </c>
+      <c r="H104" t="n">
+        <v>693.28</v>
+      </c>
+      <c r="I104" t="n">
+        <v>926.9248734655868</v>
+      </c>
+      <c r="J104" t="n">
+        <v>799.1627497321408</v>
+      </c>
+      <c r="K104" t="n">
+        <v>821.0421237334459</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2286,6 +4657,24 @@
       <c r="D105" t="n">
         <v>0.815512</v>
       </c>
+      <c r="F105" t="n">
+        <v>79.69</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-108.2200048581998</v>
+      </c>
+      <c r="H105" t="n">
+        <v>692.92</v>
+      </c>
+      <c r="I105" t="n">
+        <v>930.2300048581998</v>
+      </c>
+      <c r="J105" t="n">
+        <v>800.0023573515268</v>
+      </c>
+      <c r="K105" t="n">
+        <v>823.1476475066729</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2300,6 +4689,24 @@
       <c r="D106" t="n">
         <v>0.815459</v>
       </c>
+      <c r="F106" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-187.405596870498</v>
+      </c>
+      <c r="H106" t="n">
+        <v>692.41</v>
+      </c>
+      <c r="I106" t="n">
+        <v>933.515596870498</v>
+      </c>
+      <c r="J106" t="n">
+        <v>800.7209157644311</v>
+      </c>
+      <c r="K106" t="n">
+        <v>825.2046811060669</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2314,6 +4721,24 @@
       <c r="D107" t="n">
         <v>0.815406</v>
       </c>
+      <c r="F107" t="n">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-220.7191786506446</v>
+      </c>
+      <c r="H107" t="n">
+        <v>692.0700000000001</v>
+      </c>
+      <c r="I107" t="n">
+        <v>937.1091786506446</v>
+      </c>
+      <c r="J107" t="n">
+        <v>801.639500215166</v>
+      </c>
+      <c r="K107" t="n">
+        <v>827.5396784354787</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2328,6 +4753,24 @@
       <c r="D108" t="n">
         <v>0.815353</v>
       </c>
+      <c r="F108" t="n">
+        <v>79.39</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-133.2088928285062</v>
+      </c>
+      <c r="H108" t="n">
+        <v>691.92</v>
+      </c>
+      <c r="I108" t="n">
+        <v>941.0388928285063</v>
+      </c>
+      <c r="J108" t="n">
+        <v>802.7792401192713</v>
+      </c>
+      <c r="K108" t="n">
+        <v>830.1796527092349</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2342,6 +4785,24 @@
       <c r="D109" t="n">
         <v>0.8153</v>
       </c>
+      <c r="F109" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-153.3835608022298</v>
+      </c>
+      <c r="H109" t="n">
+        <v>691.65</v>
+      </c>
+      <c r="I109" t="n">
+        <v>945.0035608022298</v>
+      </c>
+      <c r="J109" t="n">
+        <v>803.8313225239598</v>
+      </c>
+      <c r="K109" t="n">
+        <v>832.82223827827</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2356,6 +4817,24 @@
       <c r="D110" t="n">
         <v>0.815248</v>
       </c>
+      <c r="F110" t="n">
+        <v>79.19</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-112.612756659728</v>
+      </c>
+      <c r="H110" t="n">
+        <v>691.24</v>
+      </c>
+      <c r="I110" t="n">
+        <v>948.992756659728</v>
+      </c>
+      <c r="J110" t="n">
+        <v>804.7769958373037</v>
+      </c>
+      <c r="K110" t="n">
+        <v>835.4557608224243</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2370,6 +4849,24 @@
       <c r="D111" t="n">
         <v>0.815195</v>
       </c>
+      <c r="F111" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-184.7768911074999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>690.77</v>
+      </c>
+      <c r="I111" t="n">
+        <v>953.0968911074999</v>
+      </c>
+      <c r="J111" t="n">
+        <v>805.6975738508257</v>
+      </c>
+      <c r="K111" t="n">
+        <v>838.1693172566742</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2384,6 +4881,24 @@
       <c r="D112" t="n">
         <v>0.815142</v>
       </c>
+      <c r="F112" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-110.0273070351654</v>
+      </c>
+      <c r="H112" t="n">
+        <v>690.35</v>
+      </c>
+      <c r="I112" t="n">
+        <v>957.4373070351654</v>
+      </c>
+      <c r="J112" t="n">
+        <v>806.7044400827668</v>
+      </c>
+      <c r="K112" t="n">
+        <v>841.0828669523986</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2398,6 +4913,24 @@
       <c r="D113" t="n">
         <v>0.815089</v>
       </c>
+      <c r="F113" t="n">
+        <v>78.89</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-174.9663886550882</v>
+      </c>
+      <c r="H113" t="n">
+        <v>689.9</v>
+      </c>
+      <c r="I113" t="n">
+        <v>961.9463886550882</v>
+      </c>
+      <c r="J113" t="n">
+        <v>807.7190524722375</v>
+      </c>
+      <c r="K113" t="n">
+        <v>844.1273361828505</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2412,6 +4945,24 @@
       <c r="D114" t="n">
         <v>0.815036</v>
       </c>
+      <c r="F114" t="n">
+        <v>78.79000000000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-136.8476865360396</v>
+      </c>
+      <c r="H114" t="n">
+        <v>689.41</v>
+      </c>
+      <c r="I114" t="n">
+        <v>966.6276865360396</v>
+      </c>
+      <c r="J114" t="n">
+        <v>808.7329484577609</v>
+      </c>
+      <c r="K114" t="n">
+        <v>847.3047380782787</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2426,6 +4977,24 @@
       <c r="D115" t="n">
         <v>0.814983</v>
       </c>
+      <c r="F115" t="n">
+        <v>78.69</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-87.94606131508181</v>
+      </c>
+      <c r="H115" t="n">
+        <v>688.96</v>
+      </c>
+      <c r="I115" t="n">
+        <v>971.5760613150818</v>
+      </c>
+      <c r="J115" t="n">
+        <v>809.8277504774067</v>
+      </c>
+      <c r="K115" t="n">
+        <v>850.7083108376752</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2440,6 +5009,24 @@
       <c r="D116" t="n">
         <v>0.81493</v>
       </c>
+      <c r="F116" t="n">
+        <v>78.59</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-147.9678494449207</v>
+      </c>
+      <c r="H116" t="n">
+        <v>688.3200000000001</v>
+      </c>
+      <c r="I116" t="n">
+        <v>976.5778494449207</v>
+      </c>
+      <c r="J116" t="n">
+        <v>810.775171931894</v>
+      </c>
+      <c r="K116" t="n">
+        <v>854.1226775130268</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2454,6 +5041,24 @@
       <c r="D117" t="n">
         <v>0.814877</v>
       </c>
+      <c r="F117" t="n">
+        <v>78.48999999999999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-59.57105504326682</v>
+      </c>
+      <c r="H117" t="n">
+        <v>687.6799999999999</v>
+      </c>
+      <c r="I117" t="n">
+        <v>981.8410550432668</v>
+      </c>
+      <c r="J117" t="n">
+        <v>811.7670236567424</v>
+      </c>
+      <c r="K117" t="n">
+        <v>857.7540313865244</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2468,6 +5073,24 @@
       <c r="D118" t="n">
         <v>0.814825</v>
       </c>
+      <c r="F118" t="n">
+        <v>78.39</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-155.2555727931849</v>
+      </c>
+      <c r="H118" t="n">
+        <v>686.96</v>
+      </c>
+      <c r="I118" t="n">
+        <v>987.3055727931849</v>
+      </c>
+      <c r="J118" t="n">
+        <v>812.7252209548521</v>
+      </c>
+      <c r="K118" t="n">
+        <v>861.5403518383328</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2482,6 +5105,24 @@
       <c r="D119" t="n">
         <v>0.8147720000000001</v>
       </c>
+      <c r="F119" t="n">
+        <v>78.29000000000001</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-39.67344794736005</v>
+      </c>
+      <c r="H119" t="n">
+        <v>686.24</v>
+      </c>
+      <c r="I119" t="n">
+        <v>993.07344794736</v>
+      </c>
+      <c r="J119" t="n">
+        <v>813.7317912469164</v>
+      </c>
+      <c r="K119" t="n">
+        <v>865.5816567004437</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2496,6 +5137,24 @@
       <c r="D120" t="n">
         <v>0.814719</v>
       </c>
+      <c r="F120" t="n">
+        <v>78.19</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-94.19918087794781</v>
+      </c>
+      <c r="H120" t="n">
+        <v>685.45</v>
+      </c>
+      <c r="I120" t="n">
+        <v>999.0991808779478</v>
+      </c>
+      <c r="J120" t="n">
+        <v>814.7188824038669</v>
+      </c>
+      <c r="K120" t="n">
+        <v>869.8302984740809</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2510,6 +5169,24 @@
       <c r="D121" t="n">
         <v>0.814666</v>
       </c>
+      <c r="F121" t="n">
+        <v>78.09</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-129.3900853713729</v>
+      </c>
+      <c r="H121" t="n">
+        <v>684.53</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1005.350085371373</v>
+      </c>
+      <c r="J121" t="n">
+        <v>815.6287718332935</v>
+      </c>
+      <c r="K121" t="n">
+        <v>874.2513135380794</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2524,6 +5201,24 @@
       <c r="D122" t="n">
         <v>0.814613</v>
       </c>
+      <c r="F122" t="n">
+        <v>77.98999999999999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-121.9267121060259</v>
+      </c>
+      <c r="H122" t="n">
+        <v>683.74</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1012.116712106026</v>
+      </c>
+      <c r="J122" t="n">
+        <v>816.7238764005695</v>
+      </c>
+      <c r="K122" t="n">
+        <v>879.1328357054565</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2538,6 +5233,24 @@
       <c r="D123" t="n">
         <v>0.81456</v>
       </c>
+      <c r="F123" t="n">
+        <v>77.89</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-76.81335162084042</v>
+      </c>
+      <c r="H123" t="n">
+        <v>682.98</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1019.33335162084</v>
+      </c>
+      <c r="J123" t="n">
+        <v>817.9067632754281</v>
+      </c>
+      <c r="K123" t="n">
+        <v>884.4065883454123</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2552,6 +5265,24 @@
       <c r="D124" t="n">
         <v>0.814508</v>
       </c>
+      <c r="F124" t="n">
+        <v>77.79000000000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-85.67863478837012</v>
+      </c>
+      <c r="H124" t="n">
+        <v>682.09</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1026.87863478837</v>
+      </c>
+      <c r="J124" t="n">
+        <v>819.0201618061907</v>
+      </c>
+      <c r="K124" t="n">
+        <v>889.9484729821795</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2566,6 +5297,24 @@
       <c r="D125" t="n">
         <v>0.814455</v>
       </c>
+      <c r="F125" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-61.99625362577774</v>
+      </c>
+      <c r="H125" t="n">
+        <v>681.1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1034.826253625778</v>
+      </c>
+      <c r="J125" t="n">
+        <v>820.0969765369109</v>
+      </c>
+      <c r="K125" t="n">
+        <v>895.8292770888668</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2580,6 +5329,24 @@
       <c r="D126" t="n">
         <v>0.814402</v>
       </c>
+      <c r="F126" t="n">
+        <v>77.59</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-45.87583159577196</v>
+      </c>
+      <c r="H126" t="n">
+        <v>680.04</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1043.255831595772</v>
+      </c>
+      <c r="J126" t="n">
+        <v>821.170301497714</v>
+      </c>
+      <c r="K126" t="n">
+        <v>902.1255300980579</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2594,6 +5361,24 @@
       <c r="D127" t="n">
         <v>0.814349</v>
       </c>
+      <c r="F127" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-73.12398090208228</v>
+      </c>
+      <c r="H127" t="n">
+        <v>678.88</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1052.193980902082</v>
+      </c>
+      <c r="J127" t="n">
+        <v>822.2134359158324</v>
+      </c>
+      <c r="K127" t="n">
+        <v>908.8605449862498</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2608,6 +5393,24 @@
       <c r="D128" t="n">
         <v>0.814296</v>
       </c>
+      <c r="F128" t="n">
+        <v>77.39</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-76.52559542322956</v>
+      </c>
+      <c r="H128" t="n">
+        <v>677.7</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1061.78559542323</v>
+      </c>
+      <c r="J128" t="n">
+        <v>823.3099015146543</v>
+      </c>
+      <c r="K128" t="n">
+        <v>916.1756939085755</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2622,6 +5425,24 @@
       <c r="D129" t="n">
         <v>0.814244</v>
       </c>
+      <c r="F129" t="n">
+        <v>77.29000000000001</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-102.2654429245764</v>
+      </c>
+      <c r="H129" t="n">
+        <v>676.54</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1072.145442924576</v>
+      </c>
+      <c r="J129" t="n">
+        <v>824.5034615909974</v>
+      </c>
+      <c r="K129" t="n">
+        <v>924.1819813335788</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2636,6 +5457,24 @@
       <c r="D130" t="n">
         <v>0.814191</v>
       </c>
+      <c r="F130" t="n">
+        <v>77.19</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-52.96014058056653</v>
+      </c>
+      <c r="H130" t="n">
+        <v>675.39</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1083.350140580567</v>
+      </c>
+      <c r="J130" t="n">
+        <v>825.7881420872429</v>
+      </c>
+      <c r="K130" t="n">
+        <v>932.9519984933238</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2650,6 +5489,24 @@
       <c r="D131" t="n">
         <v>0.814138</v>
       </c>
+      <c r="F131" t="n">
+        <v>77.09</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-126.7606258675702</v>
+      </c>
+      <c r="H131" t="n">
+        <v>674.15</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1095.40062586757</v>
+      </c>
+      <c r="J131" t="n">
+        <v>827.0682549056255</v>
+      </c>
+      <c r="K131" t="n">
+        <v>942.4823709619446</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2664,6 +5521,24 @@
       <c r="D132" t="n">
         <v>0.8140849999999999</v>
       </c>
+      <c r="F132" t="n">
+        <v>76.98999999999999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-66.24527385715965</v>
+      </c>
+      <c r="H132" t="n">
+        <v>672.91</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1108.50527385716</v>
+      </c>
+      <c r="J132" t="n">
+        <v>828.4384237475837</v>
+      </c>
+      <c r="K132" t="n">
+        <v>952.9768501095759</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2678,6 +5553,24 @@
       <c r="D133" t="n">
         <v>0.814033</v>
       </c>
+      <c r="F133" t="n">
+        <v>76.89</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-89.08386679235718</v>
+      </c>
+      <c r="H133" t="n">
+        <v>671.64</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1122.773866792357</v>
+      </c>
+      <c r="J133" t="n">
+        <v>829.8736128025298</v>
+      </c>
+      <c r="K133" t="n">
+        <v>964.5402539898273</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2692,6 +5585,24 @@
       <c r="D134" t="n">
         <v>0.81398</v>
       </c>
+      <c r="F134" t="n">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-53.59270006848601</v>
+      </c>
+      <c r="H134" t="n">
+        <v>670.24</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1138.272700068486</v>
+      </c>
+      <c r="J134" t="n">
+        <v>831.2791586588415</v>
+      </c>
+      <c r="K134" t="n">
+        <v>977.2335414096444</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2706,6 +5617,24 @@
       <c r="D135" t="n">
         <v>0.813927</v>
       </c>
+      <c r="F135" t="n">
+        <v>76.69</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-37.42122193809405</v>
+      </c>
+      <c r="H135" t="n">
+        <v>668.74</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1155.231221938094</v>
+      </c>
+      <c r="J135" t="n">
+        <v>832.6908058665516</v>
+      </c>
+      <c r="K135" t="n">
+        <v>991.2804160715424</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2720,6 +5649,24 @@
       <c r="D136" t="n">
         <v>0.813874</v>
       </c>
+      <c r="F136" t="n">
+        <v>76.59</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-54.24077057201703</v>
+      </c>
+      <c r="H136" t="n">
+        <v>667.09</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1173.840770572017</v>
+      </c>
+      <c r="J136" t="n">
+        <v>834.0647466477933</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1006.866023924224</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2734,6 +5681,24 @@
       <c r="D137" t="n">
         <v>0.813822</v>
       </c>
+      <c r="F137" t="n">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-31.63622053743802</v>
+      </c>
+      <c r="H137" t="n">
+        <v>665.36</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1194.466220537438</v>
+      </c>
+      <c r="J137" t="n">
+        <v>835.4776653294335</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1024.348555208004</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2748,6 +5713,24 @@
       <c r="D138" t="n">
         <v>0.813769</v>
       </c>
+      <c r="F138" t="n">
+        <v>76.39</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-134.2017285114771</v>
+      </c>
+      <c r="H138" t="n">
+        <v>663.55</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1217.471728511477</v>
+      </c>
+      <c r="J138" t="n">
+        <v>836.9367881648793</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1044.084940346598</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2762,6 +5745,24 @@
       <c r="D139" t="n">
         <v>0.813716</v>
       </c>
+      <c r="F139" t="n">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>45.93764649066543</v>
+      </c>
+      <c r="H139" t="n">
+        <v>661.78</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1243.432353509334</v>
+      </c>
+      <c r="J139" t="n">
+        <v>838.5699393217179</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1066.642414187616</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2776,6 +5777,24 @@
       <c r="D140" t="n">
         <v>0.8136640000000001</v>
       </c>
+      <c r="F140" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="G140" t="n">
+        <v>72.27574731272625</v>
+      </c>
+      <c r="H140" t="n">
+        <v>659.74</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1272.614252687274</v>
+      </c>
+      <c r="J140" t="n">
+        <v>840.0756039421489</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1092.278648745125</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2790,6 +5809,24 @@
       <c r="D141" t="n">
         <v>0.813611</v>
       </c>
+      <c r="F141" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-22.11764808047474</v>
+      </c>
+      <c r="H141" t="n">
+        <v>657.23</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1305.557648080475</v>
+      </c>
+      <c r="J141" t="n">
+        <v>841.2629993385743</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1121.5246487419</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2804,6 +5841,24 @@
       <c r="D142" t="n">
         <v>0.813558</v>
       </c>
+      <c r="F142" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>150.3607811643826</v>
+      </c>
+      <c r="H142" t="n">
+        <v>654.6900000000001</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1343.669218835617</v>
+      </c>
+      <c r="J142" t="n">
+        <v>842.5821555726557</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1155.777063262962</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2818,6 +5873,24 @@
       <c r="D143" t="n">
         <v>0.813505</v>
       </c>
+      <c r="F143" t="n">
+        <v>75.89</v>
+      </c>
+      <c r="G143" t="n">
+        <v>95.83532044336448</v>
+      </c>
+      <c r="H143" t="n">
+        <v>651.85</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1387.964679556635</v>
+      </c>
+      <c r="J143" t="n">
+        <v>843.7740068894059</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1196.04067266723</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2832,6 +5905,24 @@
       <c r="D144" t="n">
         <v>0.813453</v>
       </c>
+      <c r="F144" t="n">
+        <v>75.79000000000001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>65.99083540580409</v>
+      </c>
+      <c r="H144" t="n">
+        <v>648.65</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1440.129164594196</v>
+      </c>
+      <c r="J144" t="n">
+        <v>844.7904957470668</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1243.988668847129</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2846,6 +5937,24 @@
       <c r="D145" t="n">
         <v>0.8134</v>
       </c>
+      <c r="F145" t="n">
+        <v>75.69</v>
+      </c>
+      <c r="G145" t="n">
+        <v>101.125892593549</v>
+      </c>
+      <c r="H145" t="n">
+        <v>645.38</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1502.874107406451</v>
+      </c>
+      <c r="J145" t="n">
+        <v>845.9346915091689</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1302.319415897282</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2860,6 +5969,24 @@
       <c r="D146" t="n">
         <v>0.813347</v>
       </c>
+      <c r="F146" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="G146" t="n">
+        <v>274.544937136124</v>
+      </c>
+      <c r="H146" t="n">
+        <v>641.83</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1579.425062863876</v>
+      </c>
+      <c r="J146" t="n">
+        <v>847.0109262609128</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1374.244136602963</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2874,6 +6001,24 @@
       <c r="D147" t="n">
         <v>0.813295</v>
       </c>
+      <c r="F147" t="n">
+        <v>75.48999999999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>236.5209998244056</v>
+      </c>
+      <c r="H147" t="n">
+        <v>637.59</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1674.339000175594</v>
+      </c>
+      <c r="J147" t="n">
+        <v>847.6249506948528</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1464.304049480741</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2888,6 +6033,24 @@
       <c r="D148" t="n">
         <v>0.813242</v>
       </c>
+      <c r="F148" t="n">
+        <v>75.39</v>
+      </c>
+      <c r="G148" t="n">
+        <v>203.4985310146694</v>
+      </c>
+      <c r="H148" t="n">
+        <v>632.77</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1794.961468985331</v>
+      </c>
+      <c r="J148" t="n">
+        <v>847.9041136026369</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1579.827355382694</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2902,6 +6065,24 @@
       <c r="D149" t="n">
         <v>0.8131890000000001</v>
       </c>
+      <c r="F149" t="n">
+        <v>75.29000000000001</v>
+      </c>
+      <c r="G149" t="n">
+        <v>254.0896304162243</v>
+      </c>
+      <c r="H149" t="n">
+        <v>627.62</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1951.930369583776</v>
+      </c>
+      <c r="J149" t="n">
+        <v>848.1175692382507</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1731.432800345525</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2916,6 +6097,24 @@
       <c r="D150" t="n">
         <v>0.813137</v>
       </c>
+      <c r="F150" t="n">
+        <v>75.19</v>
+      </c>
+      <c r="G150" t="n">
+        <v>297.3175835334823</v>
+      </c>
+      <c r="H150" t="n">
+        <v>621.8099999999999</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2158.872416466518</v>
+      </c>
+      <c r="J150" t="n">
+        <v>847.9565177197704</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1932.725898746747</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2930,6 +6129,24 @@
       <c r="D151" t="n">
         <v>0.813084</v>
       </c>
+      <c r="F151" t="n">
+        <v>75.09</v>
+      </c>
+      <c r="G151" t="n">
+        <v>124.962200748756</v>
+      </c>
+      <c r="H151" t="n">
+        <v>615.12</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2431.817799251244</v>
+      </c>
+      <c r="J151" t="n">
+        <v>847.2244847578593</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2199.713314493385</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2944,6 +6161,24 @@
       <c r="D152" t="n">
         <v>0.813032</v>
       </c>
+      <c r="F152" t="n">
+        <v>74.98999999999999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>112.9217523444054</v>
+      </c>
+      <c r="H152" t="n">
+        <v>607.67</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2784.168247655595</v>
+      </c>
+      <c r="J152" t="n">
+        <v>846.0676484010369</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2545.770599254558</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2958,6 +6193,24 @@
       <c r="D153" t="n">
         <v>0.812979</v>
       </c>
+      <c r="F153" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-23.75046224151765</v>
+      </c>
+      <c r="H153" t="n">
+        <v>599.24</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3214.990462241517</v>
+      </c>
+      <c r="J153" t="n">
+        <v>844.2952222501658</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2969.935239991351</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2972,6 +6225,24 @@
       <c r="D154" t="n">
         <v>0.812926</v>
       </c>
+      <c r="F154" t="n">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-177.6765990301324</v>
+      </c>
+      <c r="H154" t="n">
+        <v>589.51</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3694.486599030132</v>
+      </c>
+      <c r="J154" t="n">
+        <v>841.619906823569</v>
+      </c>
+      <c r="K154" t="n">
+        <v>3442.376692206563</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -2986,6 +6257,24 @@
       <c r="D155" t="n">
         <v>0.812874</v>
       </c>
+      <c r="F155" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-149.5251375521011</v>
+      </c>
+      <c r="H155" t="n">
+        <v>578.41</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4154.645137552101</v>
+      </c>
+      <c r="J155" t="n">
+        <v>838.0084235905947</v>
+      </c>
+      <c r="K155" t="n">
+        <v>3895.046713961506</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3000,6 +6289,24 @@
       <c r="D156" t="n">
         <v>0.812821</v>
       </c>
+      <c r="F156" t="n">
+        <v>74.59</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-171.0746615654798</v>
+      </c>
+      <c r="H156" t="n">
+        <v>565.6</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4497.054661565479</v>
+      </c>
+      <c r="J156" t="n">
+        <v>833.1621498246257</v>
+      </c>
+      <c r="K156" t="n">
+        <v>4229.492511740854</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3014,6 +6321,24 @@
       <c r="D157" t="n">
         <v>0.812769</v>
       </c>
+      <c r="F157" t="n">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-21.88327574763389</v>
+      </c>
+      <c r="H157" t="n">
+        <v>551.1900000000001</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4625.873275747634</v>
+      </c>
+      <c r="J157" t="n">
+        <v>827.2378771124195</v>
+      </c>
+      <c r="K157" t="n">
+        <v>4349.825398635214</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3028,6 +6353,24 @@
       <c r="D158" t="n">
         <v>0.812716</v>
       </c>
+      <c r="F158" t="n">
+        <v>74.39</v>
+      </c>
+      <c r="G158" t="n">
+        <v>158.3012546038381</v>
+      </c>
+      <c r="H158" t="n">
+        <v>535.65</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4491.248745396162</v>
+      </c>
+      <c r="J158" t="n">
+        <v>820.7587224444635</v>
+      </c>
+      <c r="K158" t="n">
+        <v>4206.140022951698</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3042,6 +6385,24 @@
       <c r="D159" t="n">
         <v>0.812663</v>
       </c>
+      <c r="F159" t="n">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>321.5682562326474</v>
+      </c>
+      <c r="H159" t="n">
+        <v>519.71</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4116.591743767352</v>
+      </c>
+      <c r="J159" t="n">
+        <v>814.5152287816111</v>
+      </c>
+      <c r="K159" t="n">
+        <v>3821.786514985742</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3056,6 +6417,24 @@
       <c r="D160" t="n">
         <v>0.812611</v>
       </c>
+      <c r="F160" t="n">
+        <v>74.19</v>
+      </c>
+      <c r="G160" t="n">
+        <v>57.99981757624028</v>
+      </c>
+      <c r="H160" t="n">
+        <v>504.68</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3589.72018242376</v>
+      </c>
+      <c r="J160" t="n">
+        <v>809.8867025144364</v>
+      </c>
+      <c r="K160" t="n">
+        <v>3284.513479909323</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3070,6 +6449,24 @@
       <c r="D161" t="n">
         <v>0.812558</v>
       </c>
+      <c r="F161" t="n">
+        <v>74.09</v>
+      </c>
+      <c r="G161" t="n">
+        <v>92.99581523090183</v>
+      </c>
+      <c r="H161" t="n">
+        <v>491.89</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3022.404184769098</v>
+      </c>
+      <c r="J161" t="n">
+        <v>808.2828492413097</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2706.011335527789</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3084,6 +6481,24 @@
       <c r="D162" t="n">
         <v>0.812506</v>
       </c>
+      <c r="F162" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-138.8038450227036</v>
+      </c>
+      <c r="H162" t="n">
+        <v>481.71</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2505.863845022704</v>
+      </c>
+      <c r="J162" t="n">
+        <v>810.1657881190848</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2177.408056903619</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3098,6 +6513,24 @@
       <c r="D163" t="n">
         <v>0.812453</v>
       </c>
+      <c r="F163" t="n">
+        <v>73.89</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-106.573187593938</v>
+      </c>
+      <c r="H163" t="n">
+        <v>473.93</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2088.413187593938</v>
+      </c>
+      <c r="J163" t="n">
+        <v>815.4326980906753</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1746.910489503263</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3112,6 +6545,24 @@
       <c r="D164" t="n">
         <v>0.8124</v>
       </c>
+      <c r="F164" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-72.52315389924274</v>
+      </c>
+      <c r="H164" t="n">
+        <v>467.94</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1778.243153899243</v>
+      </c>
+      <c r="J164" t="n">
+        <v>823.5992062452774</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1422.583947653965</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3126,6 +6577,24 @@
       <c r="D165" t="n">
         <v>0.812348</v>
       </c>
+      <c r="F165" t="n">
+        <v>73.69</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-153.4228826306662</v>
+      </c>
+      <c r="H165" t="n">
+        <v>463.16</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1560.052882630666</v>
+      </c>
+      <c r="J165" t="n">
+        <v>834.2318823597878</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1188.981000270879</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3140,6 +6609,24 @@
       <c r="D166" t="n">
         <v>0.812295</v>
       </c>
+      <c r="F166" t="n">
+        <v>73.59</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-165.17343107128</v>
+      </c>
+      <c r="H166" t="n">
+        <v>459.38</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1411.48343107128</v>
+      </c>
+      <c r="J166" t="n">
+        <v>847.2948221883244</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1023.568608882956</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3154,6 +6641,24 @@
       <c r="D167" t="n">
         <v>0.812243</v>
       </c>
+      <c r="F167" t="n">
+        <v>73.48999999999999</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-90.313541786207</v>
+      </c>
+      <c r="H167" t="n">
+        <v>456.22</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1312.033541786207</v>
+      </c>
+      <c r="J167" t="n">
+        <v>862.6155683968802</v>
+      </c>
+      <c r="K167" t="n">
+        <v>905.6379733893268</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3168,6 +6673,24 @@
       <c r="D168" t="n">
         <v>0.81219</v>
       </c>
+      <c r="F168" t="n">
+        <v>73.39</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-120.5035428691615</v>
+      </c>
+      <c r="H168" t="n">
+        <v>453.35</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1246.443542869162</v>
+      </c>
+      <c r="J168" t="n">
+        <v>880.1134801791728</v>
+      </c>
+      <c r="K168" t="n">
+        <v>819.6800626899887</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3182,6 +6705,24 @@
       <c r="D169" t="n">
         <v>0.812138</v>
       </c>
+      <c r="F169" t="n">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-75.27951861404881</v>
+      </c>
+      <c r="H169" t="n">
+        <v>450.68</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1204.639518614049</v>
+      </c>
+      <c r="J169" t="n">
+        <v>900.0007294519233</v>
+      </c>
+      <c r="K169" t="n">
+        <v>755.3187891621254</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3196,6 +6737,24 @@
       <c r="D170" t="n">
         <v>0.8120849999999999</v>
       </c>
+      <c r="F170" t="n">
+        <v>73.19</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-26.74238370156604</v>
+      </c>
+      <c r="H170" t="n">
+        <v>448.07</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1180.152383701566</v>
+      </c>
+      <c r="J170" t="n">
+        <v>922.5069314595917</v>
+      </c>
+      <c r="K170" t="n">
+        <v>705.7154522419746</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3210,6 +6769,24 @@
       <c r="D171" t="n">
         <v>0.812033</v>
       </c>
+      <c r="F171" t="n">
+        <v>73.09</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1.813431686613967</v>
+      </c>
+      <c r="H171" t="n">
+        <v>445.38</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1168.953431686614</v>
+      </c>
+      <c r="J171" t="n">
+        <v>947.9488817239087</v>
+      </c>
+      <c r="K171" t="n">
+        <v>666.3845499627053</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3224,6 +6801,24 @@
       <c r="D172" t="n">
         <v>0.81198</v>
       </c>
+      <c r="F172" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>6.491537698448383</v>
+      </c>
+      <c r="H172" t="n">
+        <v>442.62</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1168.758462301552</v>
+      </c>
+      <c r="J172" t="n">
+        <v>976.9075879100635</v>
+      </c>
+      <c r="K172" t="n">
+        <v>634.4708743914881</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3238,6 +6833,24 @@
       <c r="D173" t="n">
         <v>0.811928</v>
       </c>
+      <c r="F173" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-25.11350122828003</v>
+      </c>
+      <c r="H173" t="n">
+        <v>439.84</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1178.40350122828</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1010.155914026849</v>
+      </c>
+      <c r="K173" t="n">
+        <v>608.0875872014309</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3252,6 +6865,24 @@
       <c r="D174" t="n">
         <v>0.811875</v>
       </c>
+      <c r="F174" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="G174" t="n">
+        <v>74.97794739387496</v>
+      </c>
+      <c r="H174" t="n">
+        <v>436.98</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1197.412052606125</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1048.561969434651</v>
+      </c>
+      <c r="K174" t="n">
+        <v>585.8300831714736</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3266,6 +6897,24 @@
       <c r="D175" t="n">
         <v>0.811823</v>
       </c>
+      <c r="F175" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="G175" t="n">
+        <v>164.2525053243264</v>
+      </c>
+      <c r="H175" t="n">
+        <v>433.77</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1225.767494675674</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1093.066352006971</v>
+      </c>
+      <c r="K175" t="n">
+        <v>566.4711426687024</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3280,6 +6929,24 @@
       <c r="D176" t="n">
         <v>0.81177</v>
       </c>
+      <c r="F176" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="G176" t="n">
+        <v>159.6199461503463</v>
+      </c>
+      <c r="H176" t="n">
+        <v>430.18</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1264.350053849654</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1145.24631538777</v>
+      </c>
+      <c r="K176" t="n">
+        <v>549.2837384618841</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3294,6 +6961,24 @@
       <c r="D177" t="n">
         <v>0.8117180000000001</v>
       </c>
+      <c r="F177" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>145.3817290280654</v>
+      </c>
+      <c r="H177" t="n">
+        <v>426.36</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1314.968270971935</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1207.428232146441</v>
+      </c>
+      <c r="K177" t="n">
+        <v>533.9000388254933</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3308,6 +6993,24 @@
       <c r="D178" t="n">
         <v>0.811665</v>
       </c>
+      <c r="F178" t="n">
+        <v>72.39</v>
+      </c>
+      <c r="G178" t="n">
+        <v>183.2582640799783</v>
+      </c>
+      <c r="H178" t="n">
+        <v>422.32</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1380.251735920022</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1282.633272771731</v>
+      </c>
+      <c r="K178" t="n">
+        <v>519.9384631482903</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3322,6 +7025,24 @@
       <c r="D179" t="n">
         <v>0.811613</v>
       </c>
+      <c r="F179" t="n">
+        <v>72.29000000000001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>227.4905647659541</v>
+      </c>
+      <c r="H179" t="n">
+        <v>417.89</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1463.989435234046</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1374.951225470838</v>
+      </c>
+      <c r="K179" t="n">
+        <v>506.9282097632075</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3336,6 +7057,24 @@
       <c r="D180" t="n">
         <v>0.8115599999999999</v>
       </c>
+      <c r="F180" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="G180" t="n">
+        <v>404.3468031796863</v>
+      </c>
+      <c r="H180" t="n">
+        <v>412.8</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1571.823196820314</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1490.25824835975</v>
+      </c>
+      <c r="K180" t="n">
+        <v>494.3649484605635</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3350,6 +7089,24 @@
       <c r="D181" t="n">
         <v>0.811508</v>
       </c>
+      <c r="F181" t="n">
+        <v>72.09</v>
+      </c>
+      <c r="G181" t="n">
+        <v>327.5618280347578</v>
+      </c>
+      <c r="H181" t="n">
+        <v>406.95</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1712.428171965242</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1637.414350643026</v>
+      </c>
+      <c r="K181" t="n">
+        <v>481.9638213222163</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3364,6 +7121,24 @@
       <c r="D182" t="n">
         <v>0.811455</v>
       </c>
+      <c r="F182" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>398.8957635007891</v>
+      </c>
+      <c r="H182" t="n">
+        <v>400.42</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1898.654236499211</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1829.416901956954</v>
+      </c>
+      <c r="K182" t="n">
+        <v>469.657334542257</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3378,6 +7153,24 @@
       <c r="D183" t="n">
         <v>0.811403</v>
       </c>
+      <c r="F183" t="n">
+        <v>71.89</v>
+      </c>
+      <c r="G183" t="n">
+        <v>349.7377650824496</v>
+      </c>
+      <c r="H183" t="n">
+        <v>393.07</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2147.93223491755</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2083.815644928403</v>
+      </c>
+      <c r="K183" t="n">
+        <v>457.1865899891475</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3392,6 +7185,24 @@
       <c r="D184" t="n">
         <v>0.811351</v>
       </c>
+      <c r="F184" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="G184" t="n">
+        <v>338.8136621350877</v>
+      </c>
+      <c r="H184" t="n">
+        <v>384.71</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2481.376337864912</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2421.821498554366</v>
+      </c>
+      <c r="K184" t="n">
+        <v>444.2648393105459</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3406,6 +7217,24 @@
       <c r="D185" t="n">
         <v>0.811298</v>
       </c>
+      <c r="F185" t="n">
+        <v>71.69</v>
+      </c>
+      <c r="G185" t="n">
+        <v>141.9969149959543</v>
+      </c>
+      <c r="H185" t="n">
+        <v>375.21</v>
+      </c>
+      <c r="I185" t="n">
+        <v>2918.153085004046</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2862.680404746507</v>
+      </c>
+      <c r="K185" t="n">
+        <v>430.6826802575385</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3420,6 +7249,24 @@
       <c r="D186" t="n">
         <v>0.811246</v>
       </c>
+      <c r="F186" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-120.0802742515252</v>
+      </c>
+      <c r="H186" t="n">
+        <v>364.59</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3462.410274251525</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3410.605842331826</v>
+      </c>
+      <c r="K186" t="n">
+        <v>416.3944319196992</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3434,6 +7281,24 @@
       <c r="D187" t="n">
         <v>0.8111930000000001</v>
       </c>
+      <c r="F187" t="n">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-246.3428710411745</v>
+      </c>
+      <c r="H187" t="n">
+        <v>352.54</v>
+      </c>
+      <c r="I187" t="n">
+        <v>4083.472871041175</v>
+      </c>
+      <c r="J187" t="n">
+        <v>4034.977502948525</v>
+      </c>
+      <c r="K187" t="n">
+        <v>401.0353680926492</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3448,6 +7313,24 @@
       <c r="D188" t="n">
         <v>0.811141</v>
       </c>
+      <c r="F188" t="n">
+        <v>71.39</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-347.4125761038058</v>
+      </c>
+      <c r="H188" t="n">
+        <v>338.52</v>
+      </c>
+      <c r="I188" t="n">
+        <v>4700.332576103806</v>
+      </c>
+      <c r="J188" t="n">
+        <v>4654.832992814932</v>
+      </c>
+      <c r="K188" t="n">
+        <v>384.0195832888737</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3462,6 +7345,24 @@
       <c r="D189" t="n">
         <v>0.8110889999999999</v>
       </c>
+      <c r="F189" t="n">
+        <v>71.29000000000001</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-396.0363564202216</v>
+      </c>
+      <c r="H189" t="n">
+        <v>322.43</v>
+      </c>
+      <c r="I189" t="n">
+        <v>5187.456356420222</v>
+      </c>
+      <c r="J189" t="n">
+        <v>5144.678025761577</v>
+      </c>
+      <c r="K189" t="n">
+        <v>365.2083306586446</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3476,6 +7377,24 @@
       <c r="D190" t="n">
         <v>0.811036</v>
       </c>
+      <c r="F190" t="n">
+        <v>71.19</v>
+      </c>
+      <c r="G190" t="n">
+        <v>27.56255389168746</v>
+      </c>
+      <c r="H190" t="n">
+        <v>304.07</v>
+      </c>
+      <c r="I190" t="n">
+        <v>5411.337446108312</v>
+      </c>
+      <c r="J190" t="n">
+        <v>5371.03873034525</v>
+      </c>
+      <c r="K190" t="n">
+        <v>344.368715763062</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3490,6 +7409,24 @@
       <c r="D191" t="n">
         <v>0.810984</v>
       </c>
+      <c r="F191" t="n">
+        <v>71.09</v>
+      </c>
+      <c r="G191" t="n">
+        <v>177.782842119138</v>
+      </c>
+      <c r="H191" t="n">
+        <v>283.99</v>
+      </c>
+      <c r="I191" t="n">
+        <v>5288.947157880862</v>
+      </c>
+      <c r="J191" t="n">
+        <v>5250.914496485856</v>
+      </c>
+      <c r="K191" t="n">
+        <v>322.0226613950053</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3504,6 +7441,24 @@
       <c r="D192" t="n">
         <v>0.810931</v>
       </c>
+      <c r="F192" t="n">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="G192" t="n">
+        <v>288.1006303597524</v>
+      </c>
+      <c r="H192" t="n">
+        <v>264.03</v>
+      </c>
+      <c r="I192" t="n">
+        <v>4832.049369640247</v>
+      </c>
+      <c r="J192" t="n">
+        <v>4796.093288847852</v>
+      </c>
+      <c r="K192" t="n">
+        <v>299.9860807923957</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3518,6 +7473,24 @@
       <c r="D193" t="n">
         <v>0.810879</v>
       </c>
+      <c r="F193" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="G193" t="n">
+        <v>310.0727384429656</v>
+      </c>
+      <c r="H193" t="n">
+        <v>245.88</v>
+      </c>
+      <c r="I193" t="n">
+        <v>4143.947261557035</v>
+      </c>
+      <c r="J193" t="n">
+        <v>4109.899049083378</v>
+      </c>
+      <c r="K193" t="n">
+        <v>279.928212473656</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3532,6 +7505,24 @@
       <c r="D194" t="n">
         <v>0.810827</v>
       </c>
+      <c r="F194" t="n">
+        <v>70.79000000000001</v>
+      </c>
+      <c r="G194" t="n">
+        <v>111.0107203243711</v>
+      </c>
+      <c r="H194" t="n">
+        <v>230.89</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3371.949279675629</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3339.658198229007</v>
+      </c>
+      <c r="K194" t="n">
+        <v>263.1810814466224</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3546,6 +7537,24 @@
       <c r="D195" t="n">
         <v>0.810774</v>
       </c>
+      <c r="F195" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-60.80839913120872</v>
+      </c>
+      <c r="H195" t="n">
+        <v>219.64</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2646.648399131209</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2615.979339145191</v>
+      </c>
+      <c r="K195" t="n">
+        <v>250.3090599860177</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3560,6 +7569,24 @@
       <c r="D196" t="n">
         <v>0.8107220000000001</v>
       </c>
+      <c r="F196" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-228.0334001450615</v>
+      </c>
+      <c r="H196" t="n">
+        <v>211.74</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2044.353400145061</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2015.184892721454</v>
+      </c>
+      <c r="K196" t="n">
+        <v>240.9085074236078</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3574,6 +7601,24 @@
       <c r="D197" t="n">
         <v>0.81067</v>
       </c>
+      <c r="F197" t="n">
+        <v>70.48999999999999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-223.5918758403145</v>
+      </c>
+      <c r="H197" t="n">
+        <v>206.3</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1585.011875840315</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1557.234402777903</v>
+      </c>
+      <c r="K197" t="n">
+        <v>234.077473062412</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3588,6 +7633,24 @@
       <c r="D198" t="n">
         <v>0.810617</v>
       </c>
+      <c r="F198" t="n">
+        <v>70.39</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-245.2401750860653</v>
+      </c>
+      <c r="H198" t="n">
+        <v>202.47</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1252.340175086065</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1225.854725243767</v>
+      </c>
+      <c r="K198" t="n">
+        <v>228.9554498422985</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3602,6 +7665,24 @@
       <c r="D199" t="n">
         <v>0.810565</v>
       </c>
+      <c r="F199" t="n">
+        <v>70.29000000000001</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-203.3100559215349</v>
+      </c>
+      <c r="H199" t="n">
+        <v>199.72</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1016.670055921535</v>
+      </c>
+      <c r="J199" t="n">
+        <v>991.3868868670567</v>
+      </c>
+      <c r="K199" t="n">
+        <v>225.0031690544782</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -3616,6 +7697,24 @@
       <c r="D200" t="n">
         <v>0.810512</v>
       </c>
+      <c r="F200" t="n">
+        <v>70.19</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-191.8268448676209</v>
+      </c>
+      <c r="H200" t="n">
+        <v>197.64</v>
+      </c>
+      <c r="I200" t="n">
+        <v>849.3368448676209</v>
+      </c>
+      <c r="J200" t="n">
+        <v>825.1744164217675</v>
+      </c>
+      <c r="K200" t="n">
+        <v>221.8024284458534</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -3630,6 +7729,24 @@
       <c r="D201" t="n">
         <v>0.81046</v>
       </c>
+      <c r="F201" t="n">
+        <v>70.09</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-159.2542125191972</v>
+      </c>
+      <c r="H201" t="n">
+        <v>196.04</v>
+      </c>
+      <c r="I201" t="n">
+        <v>728.4142125191971</v>
+      </c>
+      <c r="J201" t="n">
+        <v>705.2982648899198</v>
+      </c>
+      <c r="K201" t="n">
+        <v>219.1559476292773</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3644,6 +7761,24 @@
       <c r="D202" t="n">
         <v>0.810408</v>
       </c>
+      <c r="F202" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-144.379204433641</v>
+      </c>
+      <c r="H202" t="n">
+        <v>194.75</v>
+      </c>
+      <c r="I202" t="n">
+        <v>638.789204433641</v>
+      </c>
+      <c r="J202" t="n">
+        <v>616.6519584954174</v>
+      </c>
+      <c r="K202" t="n">
+        <v>216.8872459382236</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3658,6 +7793,24 @@
       <c r="D203" t="n">
         <v>0.810356</v>
       </c>
+      <c r="F203" t="n">
+        <v>69.89</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-64.54341822757596</v>
+      </c>
+      <c r="H203" t="n">
+        <v>193.58</v>
+      </c>
+      <c r="I203" t="n">
+        <v>570.4934182275759</v>
+      </c>
+      <c r="J203" t="n">
+        <v>549.2728794083074</v>
+      </c>
+      <c r="K203" t="n">
+        <v>214.8005388192685</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -3672,6 +7825,24 @@
       <c r="D204" t="n">
         <v>0.810303</v>
       </c>
+      <c r="F204" t="n">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-124.6700757849138</v>
+      </c>
+      <c r="H204" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="I204" t="n">
+        <v>517.2600757849137</v>
+      </c>
+      <c r="J204" t="n">
+        <v>496.8994261786277</v>
+      </c>
+      <c r="K204" t="n">
+        <v>212.9606496062861</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -3686,6 +7857,24 @@
       <c r="D205" t="n">
         <v>0.8102510000000001</v>
       </c>
+      <c r="F205" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-55.16767510424688</v>
+      </c>
+      <c r="H205" t="n">
+        <v>191.78</v>
+      </c>
+      <c r="I205" t="n">
+        <v>474.8976751042469</v>
+      </c>
+      <c r="J205" t="n">
+        <v>455.3447409906582</v>
+      </c>
+      <c r="K205" t="n">
+        <v>211.3329341135887</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -3700,6 +7889,24 @@
       <c r="D206" t="n">
         <v>0.810199</v>
       </c>
+      <c r="F206" t="n">
+        <v>69.59</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-82.97705689365858</v>
+      </c>
+      <c r="H206" t="n">
+        <v>191.02</v>
+      </c>
+      <c r="I206" t="n">
+        <v>440.5070568936586</v>
+      </c>
+      <c r="J206" t="n">
+        <v>421.7138409367496</v>
+      </c>
+      <c r="K206" t="n">
+        <v>209.8132159569089</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -3714,6 +7921,24 @@
       <c r="D207" t="n">
         <v>0.810146</v>
       </c>
+      <c r="F207" t="n">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-58.32443644244455</v>
+      </c>
+      <c r="H207" t="n">
+        <v>190.39</v>
+      </c>
+      <c r="I207" t="n">
+        <v>412.2244364424445</v>
+      </c>
+      <c r="J207" t="n">
+        <v>394.1467055543657</v>
+      </c>
+      <c r="K207" t="n">
+        <v>208.4677308880788</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3728,6 +7953,24 @@
       <c r="D208" t="n">
         <v>0.810094</v>
       </c>
+      <c r="F208" t="n">
+        <v>69.39</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-63.20915672455891</v>
+      </c>
+      <c r="H208" t="n">
+        <v>189.82</v>
+      </c>
+      <c r="I208" t="n">
+        <v>388.6091567245589</v>
+      </c>
+      <c r="J208" t="n">
+        <v>371.2060779925075</v>
+      </c>
+      <c r="K208" t="n">
+        <v>207.2230787320514</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -3742,6 +7985,24 @@
       <c r="D209" t="n">
         <v>0.810042</v>
       </c>
+      <c r="F209" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-31.2268676691034</v>
+      </c>
+      <c r="H209" t="n">
+        <v>189.28</v>
+      </c>
+      <c r="I209" t="n">
+        <v>368.6368676691034</v>
+      </c>
+      <c r="J209" t="n">
+        <v>351.8706859098099</v>
+      </c>
+      <c r="K209" t="n">
+        <v>206.0461817592935</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3756,6 +8017,24 @@
       <c r="D210" t="n">
         <v>0.809989</v>
       </c>
+      <c r="F210" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-8.381180397984622</v>
+      </c>
+      <c r="H210" t="n">
+        <v>188.71</v>
+      </c>
+      <c r="I210" t="n">
+        <v>351.5111803979846</v>
+      </c>
+      <c r="J210" t="n">
+        <v>335.3469318732323</v>
+      </c>
+      <c r="K210" t="n">
+        <v>204.8742485247524</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -3770,6 +8049,24 @@
       <c r="D211" t="n">
         <v>0.809937</v>
       </c>
+      <c r="F211" t="n">
+        <v>69.09</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-87.52670509631767</v>
+      </c>
+      <c r="H211" t="n">
+        <v>188.29</v>
+      </c>
+      <c r="I211" t="n">
+        <v>336.8567050963177</v>
+      </c>
+      <c r="J211" t="n">
+        <v>321.2619627303251</v>
+      </c>
+      <c r="K211" t="n">
+        <v>203.8847423659926</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -3784,6 +8081,24 @@
       <c r="D212" t="n">
         <v>0.809885</v>
       </c>
+      <c r="F212" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2.132270166862213</v>
+      </c>
+      <c r="H212" t="n">
+        <v>187.91</v>
+      </c>
+      <c r="I212" t="n">
+        <v>324.1377298331378</v>
+      </c>
+      <c r="J212" t="n">
+        <v>309.0823759480263</v>
+      </c>
+      <c r="K212" t="n">
+        <v>202.9653538851115</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -3798,6 +8113,24 @@
       <c r="D213" t="n">
         <v>0.809833</v>
       </c>
+      <c r="F213" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-38.45320112670004</v>
+      </c>
+      <c r="H213" t="n">
+        <v>187.48</v>
+      </c>
+      <c r="I213" t="n">
+        <v>312.9332011267001</v>
+      </c>
+      <c r="J213" t="n">
+        <v>298.3892242792439</v>
+      </c>
+      <c r="K213" t="n">
+        <v>202.0239768474561</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -3812,6 +8145,24 @@
       <c r="D214" t="n">
         <v>0.8097800000000001</v>
       </c>
+      <c r="F214" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-44.33232574049782</v>
+      </c>
+      <c r="H214" t="n">
+        <v>187.18</v>
+      </c>
+      <c r="I214" t="n">
+        <v>303.1623257404978</v>
+      </c>
+      <c r="J214" t="n">
+        <v>289.1036387209545</v>
+      </c>
+      <c r="K214" t="n">
+        <v>201.2386870195434</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -3826,6 +8177,24 @@
       <c r="D215" t="n">
         <v>0.809728</v>
       </c>
+      <c r="F215" t="n">
+        <v>68.69</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-26.18725049091393</v>
+      </c>
+      <c r="H215" t="n">
+        <v>186.89</v>
+      </c>
+      <c r="I215" t="n">
+        <v>294.4972504909139</v>
+      </c>
+      <c r="J215" t="n">
+        <v>280.8995269483615</v>
+      </c>
+      <c r="K215" t="n">
+        <v>200.4877235425524</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -3840,6 +8209,24 @@
       <c r="D216" t="n">
         <v>0.809676</v>
       </c>
+      <c r="F216" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-37.31055671721711</v>
+      </c>
+      <c r="H216" t="n">
+        <v>186.61</v>
+      </c>
+      <c r="I216" t="n">
+        <v>286.7705567172171</v>
+      </c>
+      <c r="J216" t="n">
+        <v>273.6110842180253</v>
+      </c>
+      <c r="K216" t="n">
+        <v>199.7694724991918</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -3854,6 +8241,24 @@
       <c r="D217" t="n">
         <v>0.809624</v>
       </c>
+      <c r="F217" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="G217" t="n">
+        <v>12.82390852935771</v>
+      </c>
+      <c r="H217" t="n">
+        <v>186.29</v>
+      </c>
+      <c r="I217" t="n">
+        <v>279.7960914706423</v>
+      </c>
+      <c r="J217" t="n">
+        <v>267.0536390877043</v>
+      </c>
+      <c r="K217" t="n">
+        <v>199.0324523829379</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -3868,6 +8273,24 @@
       <c r="D218" t="n">
         <v>0.809572</v>
       </c>
+      <c r="F218" t="n">
+        <v>68.39</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-9.252150705114104</v>
+      </c>
+      <c r="H218" t="n">
+        <v>185.94</v>
+      </c>
+      <c r="I218" t="n">
+        <v>273.4721507051141</v>
+      </c>
+      <c r="J218" t="n">
+        <v>261.1268494836572</v>
+      </c>
+      <c r="K218" t="n">
+        <v>198.2853012214569</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -3882,6 +8305,24 @@
       <c r="D219" t="n">
         <v>0.809519</v>
       </c>
+      <c r="F219" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-39.91634618604775</v>
+      </c>
+      <c r="H219" t="n">
+        <v>185.71</v>
+      </c>
+      <c r="I219" t="n">
+        <v>267.8563461860477</v>
+      </c>
+      <c r="J219" t="n">
+        <v>255.8895810441154</v>
+      </c>
+      <c r="K219" t="n">
+        <v>197.6767651419324</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -3896,6 +8337,24 @@
       <c r="D220" t="n">
         <v>0.809467</v>
       </c>
+      <c r="F220" t="n">
+        <v>68.19</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-9.041694879870732</v>
+      </c>
+      <c r="H220" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="I220" t="n">
+        <v>262.7716948798707</v>
+      </c>
+      <c r="J220" t="n">
+        <v>251.1660066836243</v>
+      </c>
+      <c r="K220" t="n">
+        <v>197.1056881962464</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -3910,6 +8369,24 @@
       <c r="D221" t="n">
         <v>0.809415</v>
       </c>
+      <c r="F221" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-30.88360753202636</v>
+      </c>
+      <c r="H221" t="n">
+        <v>185.29</v>
+      </c>
+      <c r="I221" t="n">
+        <v>258.1336075320264</v>
+      </c>
+      <c r="J221" t="n">
+        <v>246.8726042425606</v>
+      </c>
+      <c r="K221" t="n">
+        <v>196.5510032894657</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -3924,6 +8401,24 @@
       <c r="D222" t="n">
         <v>0.8093630000000001</v>
       </c>
+      <c r="F222" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-40.78754658949805</v>
+      </c>
+      <c r="H222" t="n">
+        <v>185.16</v>
+      </c>
+      <c r="I222" t="n">
+        <v>253.9675465894981</v>
+      </c>
+      <c r="J222" t="n">
+        <v>243.0358225128221</v>
+      </c>
+      <c r="K222" t="n">
+        <v>196.091724076676</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -3938,6 +8433,24 @@
       <c r="D223" t="n">
         <v>0.80931</v>
       </c>
+      <c r="F223" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-24.38718790679633</v>
+      </c>
+      <c r="H223" t="n">
+        <v>185.03</v>
+      </c>
+      <c r="I223" t="n">
+        <v>250.1471879067963</v>
+      </c>
+      <c r="J223" t="n">
+        <v>239.5302501952592</v>
+      </c>
+      <c r="K223" t="n">
+        <v>195.6469377115371</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -3952,6 +8465,24 @@
       <c r="D224" t="n">
         <v>0.809258</v>
       </c>
+      <c r="F224" t="n">
+        <v>67.79000000000001</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-0.1529655252313091</v>
+      </c>
+      <c r="H224" t="n">
+        <v>184.83</v>
+      </c>
+      <c r="I224" t="n">
+        <v>246.5629655252313</v>
+      </c>
+      <c r="J224" t="n">
+        <v>236.2471671797058</v>
+      </c>
+      <c r="K224" t="n">
+        <v>195.1457983455255</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -3966,6 +8497,24 @@
       <c r="D225" t="n">
         <v>0.809206</v>
       </c>
+      <c r="F225" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="G225" t="n">
+        <v>11.28908947839142</v>
+      </c>
+      <c r="H225" t="n">
+        <v>184.58</v>
+      </c>
+      <c r="I225" t="n">
+        <v>243.2009105216086</v>
+      </c>
+      <c r="J225" t="n">
+        <v>233.1733892314638</v>
+      </c>
+      <c r="K225" t="n">
+        <v>194.6075212901448</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -3980,6 +8529,24 @@
       <c r="D226" t="n">
         <v>0.809154</v>
       </c>
+      <c r="F226" t="n">
+        <v>67.59</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-30.6617176112166</v>
+      </c>
+      <c r="H226" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="I226" t="n">
+        <v>240.1517176112166</v>
+      </c>
+      <c r="J226" t="n">
+        <v>230.4003398454465</v>
+      </c>
+      <c r="K226" t="n">
+        <v>194.1513777657701</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -3994,6 +8561,24 @@
       <c r="D227" t="n">
         <v>0.809102</v>
       </c>
+      <c r="F227" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-29.9999896110667</v>
+      </c>
+      <c r="H227" t="n">
+        <v>184.31</v>
+      </c>
+      <c r="I227" t="n">
+        <v>237.4099896110667</v>
+      </c>
+      <c r="J227" t="n">
+        <v>227.9232994405092</v>
+      </c>
+      <c r="K227" t="n">
+        <v>193.7966901705575</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -4008,6 +8593,24 @@
       <c r="D228" t="n">
         <v>0.80905</v>
       </c>
+      <c r="F228" t="n">
+        <v>67.39</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-41.51362188068484</v>
+      </c>
+      <c r="H228" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="I228" t="n">
+        <v>234.8936218806848</v>
+      </c>
+      <c r="J228" t="n">
+        <v>225.6607940694389</v>
+      </c>
+      <c r="K228" t="n">
+        <v>193.482827811246</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -4022,6 +8625,24 @@
       <c r="D229" t="n">
         <v>0.808997</v>
       </c>
+      <c r="F229" t="n">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-2.443297730923348</v>
+      </c>
+      <c r="H229" t="n">
+        <v>184.14</v>
+      </c>
+      <c r="I229" t="n">
+        <v>232.5032977309234</v>
+      </c>
+      <c r="J229" t="n">
+        <v>223.5140946860125</v>
+      </c>
+      <c r="K229" t="n">
+        <v>193.1292030449109</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -4036,6 +8657,24 @@
       <c r="D230" t="n">
         <v>0.808945</v>
       </c>
+      <c r="F230" t="n">
+        <v>67.19</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-9.842072407373706</v>
+      </c>
+      <c r="H230" t="n">
+        <v>183.98</v>
+      </c>
+      <c r="I230" t="n">
+        <v>230.2220724073737</v>
+      </c>
+      <c r="J230" t="n">
+        <v>221.4668046204001</v>
+      </c>
+      <c r="K230" t="n">
+        <v>192.7352677869736</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -4050,6 +8689,24 @@
       <c r="D231" t="n">
         <v>0.808893</v>
       </c>
+      <c r="F231" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-34.12502823128409</v>
+      </c>
+      <c r="H231" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="I231" t="n">
+        <v>228.1650282312841</v>
+      </c>
+      <c r="J231" t="n">
+        <v>219.6345178851062</v>
+      </c>
+      <c r="K231" t="n">
+        <v>192.4305103461779</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -4064,6 +8721,24 @@
       <c r="D232" t="n">
         <v>0.808841</v>
       </c>
+      <c r="F232" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-19.33898725473631</v>
+      </c>
+      <c r="H232" t="n">
+        <v>183.83</v>
+      </c>
+      <c r="I232" t="n">
+        <v>226.2489872547363</v>
+      </c>
+      <c r="J232" t="n">
+        <v>217.9345347028058</v>
+      </c>
+      <c r="K232" t="n">
+        <v>192.1444525519305</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -4078,6 +8753,24 @@
       <c r="D233" t="n">
         <v>0.808789</v>
       </c>
+      <c r="F233" t="n">
+        <v>66.89</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-35.89227067101541</v>
+      </c>
+      <c r="H233" t="n">
+        <v>183.78</v>
+      </c>
+      <c r="I233" t="n">
+        <v>224.4722706710154</v>
+      </c>
+      <c r="J233" t="n">
+        <v>216.3656235275392</v>
+      </c>
+      <c r="K233" t="n">
+        <v>191.8866471434762</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -4092,6 +8785,24 @@
       <c r="D234" t="n">
         <v>0.808737</v>
       </c>
+      <c r="F234" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-17.68449644150488</v>
+      </c>
+      <c r="H234" t="n">
+        <v>183.73</v>
+      </c>
+      <c r="I234" t="n">
+        <v>222.8044964415049</v>
+      </c>
+      <c r="J234" t="n">
+        <v>214.8978210475797</v>
+      </c>
+      <c r="K234" t="n">
+        <v>191.6366753939252</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -4106,6 +8817,24 @@
       <c r="D235" t="n">
         <v>0.808685</v>
       </c>
+      <c r="F235" t="n">
+        <v>66.69</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-13.61640832174277</v>
+      </c>
+      <c r="H235" t="n">
+        <v>183.64</v>
+      </c>
+      <c r="I235" t="n">
+        <v>221.1964083217428</v>
+      </c>
+      <c r="J235" t="n">
+        <v>213.4822633765003</v>
+      </c>
+      <c r="K235" t="n">
+        <v>191.3541449452424</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -4120,6 +8849,24 @@
       <c r="D236" t="n">
         <v>0.808633</v>
       </c>
+      <c r="F236" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-47.04973081240394</v>
+      </c>
+      <c r="H236" t="n">
+        <v>183.62</v>
+      </c>
+      <c r="I236" t="n">
+        <v>219.7497308124039</v>
+      </c>
+      <c r="J236" t="n">
+        <v>212.2210429793876</v>
+      </c>
+      <c r="K236" t="n">
+        <v>191.1486878330163</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -4134,6 +8881,24 @@
       <c r="D237" t="n">
         <v>0.80858</v>
       </c>
+      <c r="F237" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-15.2170456155861</v>
+      </c>
+      <c r="H237" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="I237" t="n">
+        <v>218.3870456155861</v>
+      </c>
+      <c r="J237" t="n">
+        <v>211.0370869333987</v>
+      </c>
+      <c r="K237" t="n">
+        <v>190.9499586821874</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -4148,6 +8913,24 @@
       <c r="D238" t="n">
         <v>0.808528</v>
       </c>
+      <c r="F238" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-37.74168600976705</v>
+      </c>
+      <c r="H238" t="n">
+        <v>183.57</v>
+      </c>
+      <c r="I238" t="n">
+        <v>217.091686009767</v>
+      </c>
+      <c r="J238" t="n">
+        <v>209.9140529527683</v>
+      </c>
+      <c r="K238" t="n">
+        <v>190.7476330569988</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -4162,6 +8945,24 @@
       <c r="D239" t="n">
         <v>0.808476</v>
       </c>
+      <c r="F239" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-2.53764621842987</v>
+      </c>
+      <c r="H239" t="n">
+        <v>183.52</v>
+      </c>
+      <c r="I239" t="n">
+        <v>215.8476462184299</v>
+      </c>
+      <c r="J239" t="n">
+        <v>208.8362402681784</v>
+      </c>
+      <c r="K239" t="n">
+        <v>190.5314059502515</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -4176,6 +8977,24 @@
       <c r="D240" t="n">
         <v>0.808424</v>
       </c>
+      <c r="F240" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-34.10950337573902</v>
+      </c>
+      <c r="H240" t="n">
+        <v>183.47</v>
+      </c>
+      <c r="I240" t="n">
+        <v>214.669503375739</v>
+      </c>
+      <c r="J240" t="n">
+        <v>207.818512977182</v>
+      </c>
+      <c r="K240" t="n">
+        <v>190.320990398557</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -4190,6 +9009,24 @@
       <c r="D241" t="n">
         <v>0.808372</v>
       </c>
+      <c r="F241" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-14.41235011676042</v>
+      </c>
+      <c r="H241" t="n">
+        <v>183.45</v>
+      </c>
+      <c r="I241" t="n">
+        <v>213.5823501167604</v>
+      </c>
+      <c r="J241" t="n">
+        <v>206.8862339050672</v>
+      </c>
+      <c r="K241" t="n">
+        <v>190.1461162116932</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -4204,6 +9041,24 @@
       <c r="D242" t="n">
         <v>0.80832</v>
       </c>
+      <c r="F242" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-43.90173750615986</v>
+      </c>
+      <c r="H242" t="n">
+        <v>183.45</v>
+      </c>
+      <c r="I242" t="n">
+        <v>212.5717375061598</v>
+      </c>
+      <c r="J242" t="n">
+        <v>206.0252073563963</v>
+      </c>
+      <c r="K242" t="n">
+        <v>189.9965301497635</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -4218,6 +9073,24 @@
       <c r="D243" t="n">
         <v>0.808268</v>
       </c>
+      <c r="F243" t="n">
+        <v>65.89</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-28.16362203640733</v>
+      </c>
+      <c r="H243" t="n">
+        <v>167.04</v>
+      </c>
+      <c r="I243" t="n">
+        <v>195.2036220364073</v>
+      </c>
+      <c r="J243" t="n">
+        <v>188.8016294135912</v>
+      </c>
+      <c r="K243" t="n">
+        <v>173.4419926228161</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -4232,6 +9105,24 @@
       <c r="D244" t="n">
         <v>0.808216</v>
       </c>
+      <c r="F244" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-27.2543197011064</v>
+      </c>
+      <c r="H244" t="n">
+        <v>185.97</v>
+      </c>
+      <c r="I244" t="n">
+        <v>213.2243197011064</v>
+      </c>
+      <c r="J244" t="n">
+        <v>206.962044663629</v>
+      </c>
+      <c r="K244" t="n">
+        <v>192.2322750374774</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -4246,6 +9137,24 @@
       <c r="D245" t="n">
         <v>0.808164</v>
       </c>
+      <c r="F245" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-26.39047196245031</v>
+      </c>
+      <c r="H245" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="I245" t="n">
+        <v>221.7904719624503</v>
+      </c>
+      <c r="J245" t="n">
+        <v>215.6633084175506</v>
+      </c>
+      <c r="K245" t="n">
+        <v>201.5271635448997</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -4260,6 +9169,24 @@
       <c r="D246" t="n">
         <v>0.8081120000000001</v>
       </c>
+      <c r="F246" t="n">
+        <v>65.59</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-25.56900972753198</v>
+      </c>
+      <c r="H246" t="n">
+        <v>185.12</v>
+      </c>
+      <c r="I246" t="n">
+        <v>210.689009727532</v>
+      </c>
+      <c r="J246" t="n">
+        <v>204.6925536381669</v>
+      </c>
+      <c r="K246" t="n">
+        <v>191.1164560893651</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -4274,6 +9201,24 @@
       <c r="D247" t="n">
         <v>0.80806</v>
       </c>
+      <c r="F247" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-24.78712354903635</v>
+      </c>
+      <c r="H247" t="n">
+        <v>183.07</v>
+      </c>
+      <c r="I247" t="n">
+        <v>207.8571235490363</v>
+      </c>
+      <c r="J247" t="n">
+        <v>201.9871619154835</v>
+      </c>
+      <c r="K247" t="n">
+        <v>188.9399616335529</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -4288,6 +9233,24 @@
       <c r="D248" t="n">
         <v>0.8080079999999999</v>
       </c>
+      <c r="F248" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-24.04223737471978</v>
+      </c>
+      <c r="H248" t="n">
+        <v>169.48</v>
+      </c>
+      <c r="I248" t="n">
+        <v>193.5222373747198</v>
+      </c>
+      <c r="J248" t="n">
+        <v>187.7747379320218</v>
+      </c>
+      <c r="K248" t="n">
+        <v>175.2274994426979</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -4302,6 +9265,24 @@
       <c r="D249" t="n">
         <v>0.807956</v>
       </c>
+      <c r="F249" t="n">
+        <v>65.29000000000001</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-23.33198536797266</v>
+      </c>
+      <c r="H249" t="n">
+        <v>167.85</v>
+      </c>
+      <c r="I249" t="n">
+        <v>191.1819853679727</v>
+      </c>
+      <c r="J249" t="n">
+        <v>185.5530869454042</v>
+      </c>
+      <c r="K249" t="n">
+        <v>173.4788984225684</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -4316,6 +9297,24 @@
       <c r="D250" t="n">
         <v>0.807904</v>
       </c>
+      <c r="F250" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-22.65419139320693</v>
+      </c>
+      <c r="H250" t="n">
+        <v>180.93</v>
+      </c>
+      <c r="I250" t="n">
+        <v>203.5841913932069</v>
+      </c>
+      <c r="J250" t="n">
+        <v>198.0701948865285</v>
+      </c>
+      <c r="K250" t="n">
+        <v>186.4439965066784</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -4330,6 +9329,24 @@
       <c r="D251" t="n">
         <v>0.807852</v>
       </c>
+      <c r="F251" t="n">
+        <v>65.09</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-22.00685081953526</v>
+      </c>
+      <c r="H251" t="n">
+        <v>172.48</v>
+      </c>
+      <c r="I251" t="n">
+        <v>194.4868508195352</v>
+      </c>
+      <c r="J251" t="n">
+        <v>189.0842107309496</v>
+      </c>
+      <c r="K251" t="n">
+        <v>177.8826400885856</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -4344,6 +9361,24 @@
       <c r="D252" t="n">
         <v>0.8078</v>
       </c>
+      <c r="F252" t="n">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-21.38811434630696</v>
+      </c>
+      <c r="H252" t="n">
+        <v>153.58</v>
+      </c>
+      <c r="I252" t="n">
+        <v>174.968114346307</v>
+      </c>
+      <c r="J252" t="n">
+        <v>169.673430850791</v>
+      </c>
+      <c r="K252" t="n">
+        <v>158.8746834955159</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -4358,6 +9393,24 @@
       <c r="D253" t="n">
         <v>0.807748</v>
       </c>
+      <c r="F253" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-20.79627359622035</v>
+      </c>
+      <c r="H253" t="n">
+        <v>153.37</v>
+      </c>
+      <c r="I253" t="n">
+        <v>174.1662735962203</v>
+      </c>
+      <c r="J253" t="n">
+        <v>168.9762850963158</v>
+      </c>
+      <c r="K253" t="n">
+        <v>158.5599884999046</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -4372,6 +9425,24 @@
       <c r="D254" t="n">
         <v>0.807696</v>
       </c>
+      <c r="F254" t="n">
+        <v>64.79000000000001</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-20.22974825730319</v>
+      </c>
+      <c r="H254" t="n">
+        <v>157.65</v>
+      </c>
+      <c r="I254" t="n">
+        <v>177.8797482573032</v>
+      </c>
+      <c r="J254" t="n">
+        <v>172.7913243915453</v>
+      </c>
+      <c r="K254" t="n">
+        <v>162.7384238657579</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -4386,6 +9457,24 @@
       <c r="D255" t="n">
         <v>0.807644</v>
       </c>
+      <c r="F255" t="n">
+        <v>64.69</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-19.68707458516971</v>
+      </c>
+      <c r="H255" t="n">
+        <v>135.62</v>
+      </c>
+      <c r="I255" t="n">
+        <v>155.3070745851697</v>
+      </c>
+      <c r="J255" t="n">
+        <v>150.3172096581476</v>
+      </c>
+      <c r="K255" t="n">
+        <v>140.6098649270221</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -4400,6 +9489,24 @@
       <c r="D256" t="n">
         <v>0.807592</v>
       </c>
+      <c r="F256" t="n">
+        <v>64.59</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-19.16689510251913</v>
+      </c>
+      <c r="H256" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="I256" t="n">
+        <v>163.9668951025191</v>
+      </c>
+      <c r="J256" t="n">
+        <v>159.0727019071209</v>
+      </c>
+      <c r="K256" t="n">
+        <v>149.6941931953983</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -4414,6 +9521,24 @@
       <c r="D257" t="n">
         <v>0.80754</v>
       </c>
+      <c r="F257" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-18.66795939347364</v>
+      </c>
+      <c r="H257" t="n">
+        <v>145.65</v>
+      </c>
+      <c r="I257" t="n">
+        <v>164.3179593934736</v>
+      </c>
+      <c r="J257" t="n">
+        <v>159.5166633982011</v>
+      </c>
+      <c r="K257" t="n">
+        <v>150.4512959952726</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -4428,6 +9553,24 @@
       <c r="D258" t="n">
         <v>0.807488</v>
       </c>
+      <c r="F258" t="n">
+        <v>64.39</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-18.18908599475841</v>
+      </c>
+      <c r="H258" t="n">
+        <v>161.35</v>
+      </c>
+      <c r="I258" t="n">
+        <v>179.5390859947584</v>
+      </c>
+      <c r="J258" t="n">
+        <v>174.8280198711234</v>
+      </c>
+      <c r="K258" t="n">
+        <v>166.061066123635</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -4442,6 +9585,24 @@
       <c r="D259" t="n">
         <v>0.807436</v>
       </c>
+      <c r="F259" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-17.72918288948932</v>
+      </c>
+      <c r="H259" t="n">
+        <v>174.95</v>
+      </c>
+      <c r="I259" t="n">
+        <v>192.6791828894893</v>
+      </c>
+      <c r="J259" t="n">
+        <v>188.0557813564417</v>
+      </c>
+      <c r="K259" t="n">
+        <v>179.5734015330476</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -4456,6 +9617,24 @@
       <c r="D260" t="n">
         <v>0.807384</v>
       </c>
+      <c r="F260" t="n">
+        <v>64.19</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-17.28723415880089</v>
+      </c>
+      <c r="H260" t="n">
+        <v>187.42</v>
+      </c>
+      <c r="I260" t="n">
+        <v>204.7072341588009</v>
+      </c>
+      <c r="J260" t="n">
+        <v>200.1690291229112</v>
+      </c>
+      <c r="K260" t="n">
+        <v>191.9582050358897</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -4470,6 +9649,24 @@
       <c r="D261" t="n">
         <v>0.807332</v>
       </c>
+      <c r="F261" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-16.8622922451336</v>
+      </c>
+      <c r="H261" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="I261" t="n">
+        <v>177.6622922451336</v>
+      </c>
+      <c r="J261" t="n">
+        <v>173.2069082168721</v>
+      </c>
+      <c r="K261" t="n">
+        <v>165.2553840282615</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -4484,6 +9681,24 @@
       <c r="D262" t="n">
         <v>0.80728</v>
       </c>
+      <c r="F262" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-16.45347243431374</v>
+      </c>
+      <c r="H262" t="n">
+        <v>169.61</v>
+      </c>
+      <c r="I262" t="n">
+        <v>186.0634724343138</v>
+      </c>
+      <c r="J262" t="n">
+        <v>181.6886222022513</v>
+      </c>
+      <c r="K262" t="n">
+        <v>173.9848502320624</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -4498,6 +9713,24 @@
       <c r="D263" t="n">
         <v>0.8072279999999999</v>
       </c>
+      <c r="F263" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-16.05994785510822</v>
+      </c>
+      <c r="H263" t="n">
+        <v>162.24</v>
+      </c>
+      <c r="I263" t="n">
+        <v>178.2999478551082</v>
+      </c>
+      <c r="J263" t="n">
+        <v>174.00342840122</v>
+      </c>
+      <c r="K263" t="n">
+        <v>166.5365194538883</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -4512,6 +9745,24 @@
       <c r="D264" t="n">
         <v>0.807176</v>
       </c>
+      <c r="F264" t="n">
+        <v>63.79</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-15.68094494116056</v>
+      </c>
+      <c r="H264" t="n">
+        <v>158.49</v>
+      </c>
+      <c r="I264" t="n">
+        <v>174.1709449411606</v>
+      </c>
+      <c r="J264" t="n">
+        <v>169.9506335816588</v>
+      </c>
+      <c r="K264" t="n">
+        <v>162.7103113595018</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -4526,6 +9777,24 @@
       <c r="D265" t="n">
         <v>0.807124</v>
       </c>
+      <c r="F265" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-15.31573930675975</v>
+      </c>
+      <c r="H265" t="n">
+        <v>155.48</v>
+      </c>
+      <c r="I265" t="n">
+        <v>170.7957393067597</v>
+      </c>
+      <c r="J265" t="n">
+        <v>166.6495900440238</v>
+      </c>
+      <c r="K265" t="n">
+        <v>159.6261492627359</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -4540,6 +9809,24 @@
       <c r="D266" t="n">
         <v>0.807072</v>
       </c>
+      <c r="F266" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-14.96365199358027</v>
+      </c>
+      <c r="H266" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="I266" t="n">
+        <v>177.7136519935803</v>
+      </c>
+      <c r="J266" t="n">
+        <v>173.6396920657984</v>
+      </c>
+      <c r="K266" t="n">
+        <v>166.8239599277819</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -4554,6 +9841,24 @@
       <c r="D267" t="n">
         <v>0.80702</v>
       </c>
+      <c r="F267" t="n">
+        <v>63.49</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-14.62404605048758</v>
+      </c>
+      <c r="H267" t="n">
+        <v>142.43</v>
+      </c>
+      <c r="I267" t="n">
+        <v>157.0540460504876</v>
+      </c>
+      <c r="J267" t="n">
+        <v>153.0503726665899</v>
+      </c>
+      <c r="K267" t="n">
+        <v>146.4336733838977</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -4568,6 +9873,24 @@
       <c r="D268" t="n">
         <v>0.806968</v>
       </c>
+      <c r="F268" t="n">
+        <v>63.39</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-14.29632341282573</v>
+      </c>
+      <c r="H268" t="n">
+        <v>172.82</v>
+      </c>
+      <c r="I268" t="n">
+        <v>187.1163234128257</v>
+      </c>
+      <c r="J268" t="n">
+        <v>183.1811006611725</v>
+      </c>
+      <c r="K268" t="n">
+        <v>176.7552227516532</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -4582,6 +9905,24 @@
       <c r="D269" t="n">
         <v>0.806916</v>
       </c>
+      <c r="F269" t="n">
+        <v>63.29</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-13.97992205138567</v>
+      </c>
+      <c r="H269" t="n">
+        <v>128.98</v>
+      </c>
+      <c r="I269" t="n">
+        <v>142.9599220513857</v>
+      </c>
+      <c r="J269" t="n">
+        <v>139.0913779714899</v>
+      </c>
+      <c r="K269" t="n">
+        <v>132.8485440798958</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -4596,6 +9937,24 @@
       <c r="D270" t="n">
         <v>0.806864</v>
       </c>
+      <c r="F270" t="n">
+        <v>63.19</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-13.67431336456457</v>
+      </c>
+      <c r="H270" t="n">
+        <v>186.68</v>
+      </c>
+      <c r="I270" t="n">
+        <v>200.3543133645646</v>
+      </c>
+      <c r="J270" t="n">
+        <v>196.5507371718799</v>
+      </c>
+      <c r="K270" t="n">
+        <v>190.4835761926847</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -4610,6 +9969,24 @@
       <c r="D271" t="n">
         <v>0.806812</v>
       </c>
+      <c r="F271" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-13.37899979013184</v>
+      </c>
+      <c r="H271" t="n">
+        <v>147.17</v>
+      </c>
+      <c r="I271" t="n">
+        <v>160.5489997901318</v>
+      </c>
+      <c r="J271" t="n">
+        <v>156.8087392446276</v>
+      </c>
+      <c r="K271" t="n">
+        <v>150.9102605455043</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -4624,6 +10001,24 @@
       <c r="D272" t="n">
         <v>0.806761</v>
       </c>
+      <c r="F272" t="n">
+        <v>62.99</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-13.09351261557435</v>
+      </c>
+      <c r="H272" t="n">
+        <v>131.48</v>
+      </c>
+      <c r="I272" t="n">
+        <v>144.5735126155743</v>
+      </c>
+      <c r="J272" t="n">
+        <v>140.8949715254585</v>
+      </c>
+      <c r="K272" t="n">
+        <v>135.1585410901159</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -4638,6 +10033,24 @@
       <c r="D273" t="n">
         <v>0.806709</v>
       </c>
+      <c r="F273" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-12.81740996824217</v>
+      </c>
+      <c r="H273" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="I273" t="n">
+        <v>176.3174099682422</v>
+      </c>
+      <c r="J273" t="n">
+        <v>172.6990458207825</v>
+      </c>
+      <c r="K273" t="n">
+        <v>167.1183641474597</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -4652,6 +10065,24 @@
       <c r="D274" t="n">
         <v>0.806657</v>
       </c>
+      <c r="F274" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-12.55027496850022</v>
+      </c>
+      <c r="H274" t="n">
+        <v>142.56</v>
+      </c>
+      <c r="I274" t="n">
+        <v>155.1102749685002</v>
+      </c>
+      <c r="J274" t="n">
+        <v>151.5505966804382</v>
+      </c>
+      <c r="K274" t="n">
+        <v>146.119678288062</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -4666,6 +10097,24 @@
       <c r="D275" t="n">
         <v>0.806605</v>
       </c>
+      <c r="F275" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-12.29171403084672</v>
+      </c>
+      <c r="H275" t="n">
+        <v>137.88</v>
+      </c>
+      <c r="I275" t="n">
+        <v>150.1717140308467</v>
+      </c>
+      <c r="J275" t="n">
+        <v>146.6692798114017</v>
+      </c>
+      <c r="K275" t="n">
+        <v>141.3824342194451</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -4680,6 +10129,24 @@
       <c r="D276" t="n">
         <v>0.806553</v>
       </c>
+      <c r="F276" t="n">
+        <v>62.59</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-12.0413552995081</v>
+      </c>
+      <c r="H276" t="n">
+        <v>133.56</v>
+      </c>
+      <c r="I276" t="n">
+        <v>145.6013552995081</v>
+      </c>
+      <c r="J276" t="n">
+        <v>142.1547706194352</v>
+      </c>
+      <c r="K276" t="n">
+        <v>137.0065846800729</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -4694,6 +10161,24 @@
       <c r="D277" t="n">
         <v>0.806501</v>
       </c>
+      <c r="F277" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-11.79884720639726</v>
+      </c>
+      <c r="H277" t="n">
+        <v>148.29</v>
+      </c>
+      <c r="I277" t="n">
+        <v>160.0888472063972</v>
+      </c>
+      <c r="J277" t="n">
+        <v>156.6967628669936</v>
+      </c>
+      <c r="K277" t="n">
+        <v>151.6820843394036</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -4708,6 +10193,24 @@
       <c r="D278" t="n">
         <v>0.806449</v>
       </c>
+      <c r="F278" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-11.56385714054142</v>
+      </c>
+      <c r="H278" t="n">
+        <v>154.05</v>
+      </c>
+      <c r="I278" t="n">
+        <v>165.6138571405414</v>
+      </c>
+      <c r="J278" t="n">
+        <v>162.2749674368941</v>
+      </c>
+      <c r="K278" t="n">
+        <v>157.3888897036473</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -4722,6 +10225,24 @@
       <c r="D279" t="n">
         <v>0.806397</v>
       </c>
+      <c r="F279" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-11.33607021917069</v>
+      </c>
+      <c r="H279" t="n">
+        <v>160.6</v>
+      </c>
+      <c r="I279" t="n">
+        <v>171.9360702191707</v>
+      </c>
+      <c r="J279" t="n">
+        <v>168.6491111923097</v>
+      </c>
+      <c r="K279" t="n">
+        <v>163.886959026861</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -4736,6 +10257,24 @@
       <c r="D280" t="n">
         <v>0.806346</v>
       </c>
+      <c r="F280" t="n">
+        <v>62.19</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-11.11518815162378</v>
+      </c>
+      <c r="H280" t="n">
+        <v>128.29</v>
+      </c>
+      <c r="I280" t="n">
+        <v>139.4051881516238</v>
+      </c>
+      <c r="J280" t="n">
+        <v>136.1689359245876</v>
+      </c>
+      <c r="K280" t="n">
+        <v>131.5262522270362</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -4750,6 +10289,24 @@
       <c r="D281" t="n">
         <v>0.806294</v>
       </c>
+      <c r="F281" t="n">
+        <v>62.09</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-10.90092818808867</v>
+      </c>
+      <c r="H281" t="n">
+        <v>149.28</v>
+      </c>
+      <c r="I281" t="n">
+        <v>160.1809281880887</v>
+      </c>
+      <c r="J281" t="n">
+        <v>156.9941973812278</v>
+      </c>
+      <c r="K281" t="n">
+        <v>152.4667308068609</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -4764,9 +10321,31 @@
       <c r="D282" t="n">
         <v>0.806242</v>
       </c>
+      <c r="F282" t="n">
+        <v>61.99</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-10.69302214595223</v>
+      </c>
+      <c r="H282" t="n">
+        <v>168.73</v>
+      </c>
+      <c r="I282" t="n">
+        <v>179.4230221459522</v>
+      </c>
+      <c r="J282" t="n">
+        <v>176.2846643671031</v>
+      </c>
+      <c r="K282" t="n">
+        <v>171.8683577788491</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="X6:AP6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
